--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="367">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -1193,6 +1193,36 @@
   </si>
   <si>
     <t>Gegner</t>
+  </si>
+  <si>
+    <t>Viele dieser Störungen [Anm.: Gemüts- und Charakterschäden; Verhaltensauffälligkeiten] gibt es erst in diesem Außmas, seitdem unsere Kinder pausenlos gegen kRankheiten geimpft werden, die in unserem Land kaum noch Krankheitswert besitzten.</t>
+  </si>
+  <si>
+    <t>Wenn bedacht wird, in welchem Mae das empfindliche Immunsystem bei Säuglngen und Kleinkindern durch die Unzahl der heute durchgeführten Impfungen belastet wird, so liegt der Verdacht nahe, daß die riesige Zahl der durch Impfungen zugeführten Giftkeime Ursache dieser Störungen ist. Alle diese Störungen hat es beispielsweise in meiner Jugendzeit noch nicht gegeben. Impfungen sind nämlich kein Immuntraining, sondern sie sind die Ursache für ein völlig durcheinandergebrachtes Immunsystem.</t>
+  </si>
+  <si>
+    <t>Buchwald, S. 176</t>
+  </si>
+  <si>
+    <t>Buchwald, S. 176.</t>
+  </si>
+  <si>
+    <t>Inbesondere nach Masern bessern sich oft chronische allergische Krankheiten wie Ekzeme oder Asthma. Eine Impfung führt lediglich dazu, die Auseinandersetzung mit einer bestimmten Krankheit zu umgehen. [...] Es fragt sich im Gegenteil, ob geimpfte Menschen - langfristig gesehen - im höheren Alter nicht ein viel größeres Risiko haben werden, um an Masern, Mumps oder Röteln zu erkranken.</t>
+  </si>
+  <si>
+    <t>Buchwald, S. 176--177.</t>
+  </si>
+  <si>
+    <t>Impfungen sind immer ein Eingriff ins Immunsystem, sie sind damit auch ein Eingriff in das Ökosystem. Die Menschheit lernt allmählich, welche Folgen es haben kann, in dieses, von der Natur so weise geschaffene Ökosystem einzugreifen. [...] Nicht geklärt ist heute die drängende Frage, ob die jahrzehntelange Unterdürckung von Krankheiten zu einer gefährlichen Schwächung der Abwehrkräfte geführt und damit die Verbreitung der Immunschwächekrankheit AIDS mit ermöglicht hat.</t>
+  </si>
+  <si>
+    <t>Buchwald, S. 177.</t>
+  </si>
+  <si>
+    <t>Weiterhin ist auch zu erwarten, daß die breite Anwendungvon Lebendimpfstoffen mit ihrer bekannten Fähigkeit zur Rekombination zu neuartigen Viren und zur Bildung von veränderen Viren führt. Zudem birgt die Manipulation der Immunitätslage einer ganzen Bevölkerung durch die systematische Anwendung von Impfviren ein nicht abschäztbares Risiko in sich.</t>
+  </si>
+  <si>
+    <t>Wie aus den bisher gezeigten Kurven und Tabellen zu ersehen ist, haben Impfungen nicht mit den Seuchenrückgängen zu tun, denn diese setzten vor Impfeinführung ein un dlassen nach Einführung eher negative Einflüsse erkennen. Aufgrund der bisher gezeigten Kurven über die RÜckgänge der Infektionskrankheiten kann folgende Aussage gemacht werden: Keine der zahlreichen, in diesem Buch gezeigen und kommentierten Kurven läßt den Schlußß zu, daß Menschen gleichgültig ob Erwachsene oder Kinder - durch eine dieser Impfungen vor der Erkrankung, gegen die sich die Impfung richtete, geschptzt worden sind.</t>
   </si>
 </sst>
 </file>
@@ -1567,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A87" zoomScale="60" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A123" sqref="A120:A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2318,7 +2348,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="25.5">
+    <row r="37" spans="1:8" ht="38.25">
       <c r="A37" s="7" t="s">
         <v>61</v>
       </c>
@@ -2398,7 +2428,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="25.5">
+    <row r="41" spans="1:8" ht="38.25">
       <c r="A41" s="7" t="s">
         <v>81</v>
       </c>
@@ -2502,7 +2532,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="76.5">
+    <row r="46" spans="1:8" ht="114.75">
       <c r="A46" s="7" t="s">
         <v>144</v>
       </c>
@@ -2526,7 +2556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="89.25">
+    <row r="47" spans="1:8" ht="140.25">
       <c r="A47" s="7" t="s">
         <v>145</v>
       </c>
@@ -2836,7 +2866,7 @@
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="76.5">
+    <row r="60" spans="1:8" ht="114.75">
       <c r="A60" s="7" t="s">
         <v>197</v>
       </c>
@@ -2928,7 +2958,7 @@
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="89.25">
+    <row r="64" spans="1:8" ht="114.75">
       <c r="A64" s="7" t="s">
         <v>201</v>
       </c>
@@ -2996,7 +3026,7 @@
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="63.75">
+    <row r="67" spans="1:8" ht="89.25">
       <c r="A67" s="7" t="s">
         <v>207</v>
       </c>
@@ -3044,7 +3074,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="89.25">
+    <row r="69" spans="1:8" ht="102">
       <c r="A69" s="7" t="s">
         <v>229</v>
       </c>
@@ -3114,7 +3144,7 @@
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="51">
+    <row r="72" spans="1:8" ht="76.5">
       <c r="A72" s="7" t="s">
         <v>232</v>
       </c>
@@ -3140,7 +3170,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="63.75">
+    <row r="73" spans="1:8" ht="102">
       <c r="A73" s="8" t="s">
         <v>240</v>
       </c>
@@ -3364,7 +3394,7 @@
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="51">
+    <row r="82" spans="1:8" ht="63.75">
       <c r="A82" s="7" t="s">
         <v>260</v>
       </c>
@@ -3586,7 +3616,7 @@
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" ht="89.25">
+    <row r="91" spans="1:8" ht="127.5">
       <c r="A91" s="7" t="s">
         <v>352</v>
       </c>
@@ -3658,7 +3688,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="89.25">
+    <row r="94" spans="1:8" ht="140.25">
       <c r="A94" s="7" t="s">
         <v>353</v>
       </c>
@@ -3826,7 +3856,7 @@
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="114.75">
+    <row r="101" spans="1:8" ht="165.75">
       <c r="A101" s="7" t="s">
         <v>305</v>
       </c>
@@ -3852,7 +3882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="114.75">
+    <row r="102" spans="1:8" ht="191.25">
       <c r="A102" s="7" t="s">
         <v>306</v>
       </c>
@@ -3976,7 +4006,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="76.5">
+    <row r="107" spans="1:8" ht="127.5">
       <c r="A107" s="7" t="s">
         <v>319</v>
       </c>
@@ -4243,6 +4273,146 @@
         <v>70</v>
       </c>
       <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8" ht="51">
+      <c r="A118" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E118" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8" ht="102">
+      <c r="A119" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E119" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:8" ht="76.5">
+      <c r="A120" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E120" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="102">
+      <c r="A121" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E121" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="76.5">
+      <c r="A122" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="127.5">
+      <c r="A123" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E123" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H101"/>
@@ -4377,7 +4547,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="38.25">
+    <row r="5" spans="1:8" ht="63.75">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -4755,7 +4925,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25">
+    <row r="22" spans="1:8" ht="51">
       <c r="A22" s="7" t="s">
         <v>168</v>
       </c>
@@ -4777,7 +4947,7 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="38.25">
+    <row r="23" spans="1:8" ht="51">
       <c r="A23" s="7" t="s">
         <v>341</v>
       </c>
@@ -4821,7 +4991,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="38.25">
+    <row r="25" spans="1:8" ht="51">
       <c r="A25" s="7" t="s">
         <v>189</v>
       </c>
@@ -4843,7 +5013,7 @@
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="38.25">
+    <row r="26" spans="1:8" ht="51">
       <c r="A26" s="7" t="s">
         <v>230</v>
       </c>
@@ -4865,7 +5035,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="38.25">
+    <row r="27" spans="1:8" ht="51">
       <c r="A27" s="7" t="s">
         <v>233</v>
       </c>
@@ -4900,7 +5070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4917,7 +5087,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="380">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -1054,9 +1054,6 @@
   </si>
   <si>
     <t>wirkungslos</t>
-  </si>
-  <si>
-    <t>Buchwald, S. 131--134</t>
   </si>
   <si>
     <t>Bald nach Einführung der gesetzlichen Impfpflicht [...] traten auch die ersten Impfschäden auf, die damals von der Bevölkerung nicht der Impfung, sondern dem Arzt zur Last gelegt wurden. [...] Von der Schulmedizin ist das Vorkommen von Impfschäden immer bestritten worden, meist wurden die Eltern beschimpft. Im allgemeinen wurde ihnen gesagt, eine angeborene Syphilis als Folge elterlicher Sünden in der jugendzeit sei die Ursache des Intelligenzdefektes bzw. der Krampfanfälle.</t>
@@ -1223,6 +1220,48 @@
   </si>
   <si>
     <t>Wie aus den bisher gezeigten Kurven und Tabellen zu ersehen ist, haben Impfungen nicht mit den Seuchenrückgängen zu tun, denn diese setzten vor Impfeinführung ein un dlassen nach Einführung eher negative Einflüsse erkennen. Aufgrund der bisher gezeigten Kurven über die RÜckgänge der Infektionskrankheiten kann folgende Aussage gemacht werden: Keine der zahlreichen, in diesem Buch gezeigen und kommentierten Kurven läßt den Schlußß zu, daß Menschen gleichgültig ob Erwachsene oder Kinder - durch eine dieser Impfungen vor der Erkrankung, gegen die sich die Impfung richtete, geschptzt worden sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der wahre Grund für die staatlich geförderten Impfaktionen ist das Profitdenken der pharmazeutischen Industrie. Dank der guten Allgemeinlage, insbesondere unseres guten Ernährungszustandes, haben die Kinderkrankheiten früherer Jahre ihre schrecklichen Auswirkungen und Folgen verloren. Es gibt nur noch wenige - oder gar keine- Fälle von kindlicher Tuberkulose, schwerem Keuchshusten oder schwerer Diphterie. </t>
+  </si>
+  <si>
+    <t>Buchwald, S. 228</t>
+  </si>
+  <si>
+    <t>Wenn die Schulmedizin behauptet, Millionen Kinder seien durch Impfungen vor dem Tod und vor schweren Schäden gerettet worden, so handelt es sich bei derartigen Äußerungen um nicht beweisbare Behauptungen.</t>
+  </si>
+  <si>
+    <t>Während man sich früher von der Kuhpocken-Impfung Schutz auf Lebenszeit versprochen habe, würden die Impfer jetzt immer kleinlauter, indem sie die Schutzkraft auf 20-, dann auf 10- und jetzt sogar nur auf 5jährige Dauer reducirt hätten. Ein wissenschaftlicher Beweis für diese Schutzkraft sei überhaupt noch nicht geführt und die Erfahrung der einzige stichhaltige Beweis, den die Impfer zu ihren Gunsten anzuführen wüssten.</t>
+  </si>
+  <si>
+    <t>Der Satz, dass die Nichtgeimpften eine Gefahr für die Geimpften darstellen, sei der grösste Trugschluss; denn wenn die Impfung schütze, müsse ja die Gefahr dadurch beseitigt werden. Der Staat zwinge ja auch nicht zu den nothwendigsten sanitären Massregeln, und dennoch würde ein solcher Zwang sich nur gegen eine Unterlassung richten, während der Impfzwang die Duldung eines körperlichen Eingriffs involviere.</t>
+  </si>
+  <si>
+    <t>Oitdmann, S. 2</t>
+  </si>
+  <si>
+    <t>Durch die Impfung werde das geimpfte Publicum geradezu in eine gefährliche Sicherheit eingewiegt. Die bisher ausschliesslich statgefundene Prüfung der Impffrage druch Aerzte gebe absolut keine Gewähr für die Sicherheit des Untersuchungsreseultats. Diese könne nur ezrielt werden durch eine Commission, in der auch NIchtärzte, Statistiker und Jursiten vertreten seine. Diese werde sicher ein anderes Verdict fällen als die bisherigen Prüfer.</t>
+  </si>
+  <si>
+    <t>Oitdmann, S. 3</t>
+  </si>
+  <si>
+    <t>Dr. H. Oidtmann, Die historische und statistische Misshandlung der Impf-Frage im Reichstage zu Berlin 1878, Wien, 1879, S. 2.</t>
+  </si>
+  <si>
+    <t>Gerhard Buchwald, Impfen. Das Geschäft mit der Angst, 3. Auflage, Lahnstein, 1995, S. 131--134</t>
+  </si>
+  <si>
+    <t>Es geht in erster Linie um die Einführung des Impf-Zwang gesetztes und um das wiederlegen der Stellungnahme der zuständigen Commission va betreffend der historischen Details über die Impfgeschichte in Schweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weil das Impfzwanggesetz eine so beispiellose Beleidigung des gesunden Menschenverstandes enthält und jeden freidenkenden Arzt vor den Einwürfen vorurtheilsfreier Laien beschämt, darum werde ich nicht rasten, bis wenigstens bei uns Aerzten, die wir ja auch Kinder haben, die "Freiheit der Wissenschaft im modernen Staat" (Virchow) für uns Impfketzer wieder zurückerobert ist. </t>
+  </si>
+  <si>
+    <t>Oidtmann, S. 38</t>
+  </si>
+  <si>
+    <t>geht mehr um die Freie Entscheidung die das Impfgesetzt beschneidet</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +1636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A123" sqref="A120:A123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2519,7 +2559,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E45" s="7">
         <v>2008</v>
@@ -2543,7 +2583,7 @@
         <v>92</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E46" s="7">
         <v>2008</v>
@@ -2567,7 +2607,7 @@
         <v>92</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E47" s="7">
         <v>2008</v>
@@ -2593,7 +2633,7 @@
         <v>92</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E48" s="7">
         <v>2008</v>
@@ -2615,7 +2655,7 @@
         <v>92</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E49" s="7">
         <v>2008</v>
@@ -2641,7 +2681,7 @@
         <v>92</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E50" s="7">
         <v>2008</v>
@@ -2667,7 +2707,7 @@
         <v>92</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E51" s="7">
         <v>2008</v>
@@ -2693,7 +2733,7 @@
         <v>92</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E52" s="7">
         <v>2008</v>
@@ -2719,7 +2759,7 @@
         <v>92</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E53" s="7">
         <v>2008</v>
@@ -2743,7 +2783,7 @@
         <v>92</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E54" s="7">
         <v>2008</v>
@@ -2767,7 +2807,7 @@
         <v>92</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E55" s="7">
         <v>2008</v>
@@ -2789,7 +2829,7 @@
         <v>92</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E56" s="7">
         <v>2008</v>
@@ -2811,7 +2851,7 @@
         <v>92</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E57" s="7">
         <v>2008</v>
@@ -2833,7 +2873,7 @@
         <v>92</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E58" s="7">
         <v>2008</v>
@@ -2855,7 +2895,7 @@
         <v>92</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E59" s="7">
         <v>2008</v>
@@ -2877,7 +2917,7 @@
         <v>92</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E60" s="7">
         <v>1834</v>
@@ -2901,7 +2941,7 @@
         <v>92</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E61" s="7">
         <v>1834</v>
@@ -2925,7 +2965,7 @@
         <v>92</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E62" s="7">
         <v>1834</v>
@@ -2947,7 +2987,7 @@
         <v>92</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E63" s="7">
         <v>1834</v>
@@ -2969,7 +3009,7 @@
         <v>92</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E64" s="7">
         <v>1834</v>
@@ -2993,7 +3033,7 @@
         <v>92</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E65" s="7">
         <v>1834</v>
@@ -3015,7 +3055,7 @@
         <v>92</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E66" s="7">
         <v>1834</v>
@@ -3037,7 +3077,7 @@
         <v>92</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E67" s="7">
         <v>1834</v>
@@ -3061,7 +3101,7 @@
         <v>92</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E68" s="7">
         <v>1834</v>
@@ -3085,7 +3125,7 @@
         <v>92</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E69" s="7">
         <v>1834</v>
@@ -3109,7 +3149,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E70" s="7">
         <v>1834</v>
@@ -3133,7 +3173,7 @@
         <v>92</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E71" s="7">
         <v>1834</v>
@@ -3155,7 +3195,7 @@
         <v>92</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E72" s="7">
         <v>2005</v>
@@ -3181,7 +3221,7 @@
         <v>92</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E73" s="7">
         <v>2013</v>
@@ -3207,7 +3247,7 @@
         <v>92</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E74" s="7">
         <v>2013</v>
@@ -3231,7 +3271,7 @@
         <v>92</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E75" s="7">
         <v>2013</v>
@@ -3257,7 +3297,7 @@
         <v>92</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E76" s="7">
         <v>2013</v>
@@ -3281,7 +3321,7 @@
         <v>92</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E77" s="7">
         <v>2013</v>
@@ -3305,7 +3345,7 @@
         <v>92</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E78" s="7">
         <v>2013</v>
@@ -3329,7 +3369,7 @@
         <v>92</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E79" s="7">
         <v>2013</v>
@@ -3355,7 +3395,7 @@
         <v>92</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E80" s="7">
         <v>2013</v>
@@ -3381,7 +3421,7 @@
         <v>92</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E81" s="7">
         <v>2013</v>
@@ -3405,7 +3445,7 @@
         <v>92</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E82" s="7">
         <v>2013</v>
@@ -3431,7 +3471,7 @@
         <v>92</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E83" s="7">
         <v>2013</v>
@@ -3455,7 +3495,7 @@
         <v>92</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E84" s="7">
         <v>2013</v>
@@ -3479,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E85" s="7">
         <v>2013</v>
@@ -3503,7 +3543,7 @@
         <v>92</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E86" s="7">
         <v>2013</v>
@@ -3527,7 +3567,7 @@
         <v>92</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E87" s="7">
         <v>2013</v>
@@ -3551,7 +3591,7 @@
         <v>92</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E88" s="7">
         <v>2013</v>
@@ -3577,7 +3617,7 @@
         <v>92</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E89" s="7">
         <v>2013</v>
@@ -3603,7 +3643,7 @@
         <v>92</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E90" s="7">
         <v>2013</v>
@@ -3618,7 +3658,7 @@
     </row>
     <row r="91" spans="1:8" ht="127.5">
       <c r="A91" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>286</v>
@@ -3627,7 +3667,7 @@
         <v>92</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E91" s="7">
         <v>2013</v>
@@ -3653,7 +3693,7 @@
         <v>92</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E92" s="7">
         <v>2013</v>
@@ -3675,7 +3715,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E93" s="7">
         <v>2013</v>
@@ -3690,7 +3730,7 @@
     </row>
     <row r="94" spans="1:8" ht="140.25">
       <c r="A94" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>288</v>
@@ -3699,7 +3739,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E94" s="7">
         <v>2013</v>
@@ -3711,7 +3751,7 @@
         <v>289</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="63.75">
@@ -3725,7 +3765,7 @@
         <v>92</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E95" s="7">
         <v>2013</v>
@@ -3749,7 +3789,7 @@
         <v>92</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E96" s="7">
         <v>2013</v>
@@ -3773,7 +3813,7 @@
         <v>92</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E97" s="7">
         <v>2013</v>
@@ -3797,7 +3837,7 @@
         <v>92</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E98" s="7">
         <v>2013</v>
@@ -3821,7 +3861,7 @@
         <v>92</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E99" s="7">
         <v>2013</v>
@@ -3845,7 +3885,7 @@
         <v>92</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E100" s="7">
         <v>2013</v>
@@ -3867,7 +3907,7 @@
         <v>303</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E101" s="7">
         <v>2012</v>
@@ -3879,7 +3919,7 @@
         <v>70</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="191.25">
@@ -3893,7 +3933,7 @@
         <v>303</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E102" s="7">
         <v>2012</v>
@@ -3919,7 +3959,7 @@
         <v>303</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E103" s="7">
         <v>2012</v>
@@ -3941,7 +3981,7 @@
         <v>303</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E104" s="7">
         <v>2012</v>
@@ -3967,7 +4007,7 @@
         <v>303</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E105" s="7">
         <v>2012</v>
@@ -3991,7 +4031,7 @@
         <v>303</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E106" s="7">
         <v>2012</v>
@@ -4017,7 +4057,7 @@
         <v>303</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E107" s="7">
         <v>2012</v>
@@ -4043,7 +4083,7 @@
         <v>303</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E108" s="7">
         <v>2012</v>
@@ -4069,7 +4109,7 @@
         <v>303</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E109" s="7">
         <v>2012</v>
@@ -4093,7 +4133,7 @@
         <v>303</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E110" s="7">
         <v>2012</v>
@@ -4117,7 +4157,7 @@
         <v>303</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E111" s="7">
         <v>2012</v>
@@ -4141,7 +4181,7 @@
         <v>303</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E112" s="7">
         <v>2012</v>
@@ -4165,7 +4205,7 @@
         <v>303</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E113" s="7">
         <v>2012</v>
@@ -4189,7 +4229,7 @@
         <v>303</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E114" s="7">
         <v>2012</v>
@@ -4207,13 +4247,13 @@
         <v>342</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E115" s="7">
         <v>1995</v>
@@ -4228,16 +4268,16 @@
     </row>
     <row r="116" spans="1:8" ht="102">
       <c r="A116" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>346</v>
-      </c>
       <c r="C116" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E116" s="7">
         <v>1995</v>
@@ -4252,16 +4292,16 @@
     </row>
     <row r="117" spans="1:8" ht="25.5">
       <c r="A117" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>348</v>
-      </c>
       <c r="C117" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E117" s="7">
         <v>1995</v>
@@ -4276,16 +4316,16 @@
     </row>
     <row r="118" spans="1:8" ht="51">
       <c r="A118" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E118" s="7">
         <v>1995</v>
@@ -4300,16 +4340,16 @@
     </row>
     <row r="119" spans="1:8" ht="102">
       <c r="A119" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>359</v>
-      </c>
       <c r="C119" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E119" s="7">
         <v>1995</v>
@@ -4324,16 +4364,16 @@
     </row>
     <row r="120" spans="1:8" ht="76.5">
       <c r="A120" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>362</v>
-      </c>
       <c r="C120" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E120" s="7">
         <v>1995</v>
@@ -4344,19 +4384,20 @@
       <c r="G120" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" ht="102">
       <c r="A121" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>364</v>
-      </c>
       <c r="C121" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E121" s="7">
         <v>1995</v>
@@ -4367,19 +4408,20 @@
       <c r="G121" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" ht="76.5">
       <c r="A122" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E122" s="7">
         <v>1995</v>
@@ -4390,19 +4432,20 @@
       <c r="G122" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" ht="127.5">
       <c r="A123" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E123" s="7">
         <v>1995</v>
@@ -4412,6 +4455,114 @@
       </c>
       <c r="G123" s="7" t="s">
         <v>70</v>
+      </c>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8" ht="89.25">
+      <c r="A124" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E124" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:8" ht="51">
+      <c r="A125" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8" ht="102">
+      <c r="A126" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1879</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="89.25">
+      <c r="A127" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="89.25">
+      <c r="A128" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="76.5">
+      <c r="A129" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4637,7 @@
         <v>92</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E2" s="7">
         <v>1884</v>
@@ -4510,7 +4661,7 @@
         <v>92</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="7">
         <v>1884</v>
@@ -4534,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" s="7">
         <v>1884</v>
@@ -4556,7 +4707,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="7">
         <v>1922</v>
@@ -4580,7 +4731,7 @@
         <v>92</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E6" s="7">
         <v>2013</v>
@@ -4604,7 +4755,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E7" s="7">
         <v>2013</v>
@@ -4628,7 +4779,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" s="7">
         <v>2013</v>
@@ -4652,7 +4803,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E9" s="7">
         <v>2013</v>
@@ -4676,7 +4827,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E10" s="7">
         <v>2013</v>
@@ -4700,7 +4851,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11" s="7">
         <v>2013</v>
@@ -4722,7 +4873,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E12" s="7">
         <v>2008</v>
@@ -4746,7 +4897,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E13" s="7">
         <v>2008</v>
@@ -4766,7 +4917,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E14" s="7">
         <v>2008</v>
@@ -4786,7 +4937,7 @@
         <v>106</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="7">
         <v>2008</v>
@@ -4806,7 +4957,7 @@
         <v>106</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="7">
         <v>2008</v>
@@ -4826,7 +4977,7 @@
         <v>106</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" s="7">
         <v>2008</v>
@@ -4846,7 +4997,7 @@
         <v>106</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18" s="7">
         <v>2008</v>
@@ -4870,7 +5021,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E19" s="7">
         <v>2008</v>
@@ -4892,7 +5043,7 @@
         <v>106</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E20" s="7">
         <v>2008</v>
@@ -4914,7 +5065,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E21" s="7">
         <v>2008</v>
@@ -4936,7 +5087,7 @@
         <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E22" s="7">
         <v>2008</v>
@@ -4958,7 +5109,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E23" s="7">
         <v>2008</v>
@@ -4980,7 +5131,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E24" s="7">
         <v>2008</v>
@@ -5002,7 +5153,7 @@
         <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E25" s="7">
         <v>2008</v>
@@ -5024,7 +5175,7 @@
         <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E26" s="7">
         <v>2005</v>
@@ -5046,7 +5197,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E27" s="7">
         <v>2005</v>
@@ -5124,7 +5275,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" s="7">
         <v>2008</v>
@@ -5146,7 +5297,7 @@
         <v>106</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" s="7">
         <v>2008</v>
@@ -5168,7 +5319,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" s="7">
         <v>2008</v>
@@ -5190,7 +5341,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E5" s="7">
         <v>2008</v>
@@ -5212,7 +5363,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E6" s="7">
         <v>2008</v>
@@ -5234,7 +5385,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E7" s="7">
         <v>2008</v>
@@ -5256,7 +5407,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E8" s="7">
         <v>2008</v>
@@ -5278,7 +5429,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="7">
         <v>2008</v>
@@ -5300,7 +5451,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" s="7">
         <v>2008</v>
@@ -5322,7 +5473,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E11" s="7">
         <v>2008</v>
@@ -5344,7 +5495,7 @@
         <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="7">
         <v>2008</v>
@@ -5366,7 +5517,7 @@
         <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="7">
         <v>2008</v>
@@ -5388,7 +5539,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="7">
         <v>2008</v>
@@ -5410,7 +5561,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E15" s="7">
         <v>1834</v>
@@ -5432,7 +5583,7 @@
         <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" s="7">
         <v>2005</v>
@@ -5454,7 +5605,7 @@
         <v>92</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17" s="7">
         <v>2005</v>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -8,20 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
-    <sheet name="Pro" sheetId="2" r:id="rId2"/>
-    <sheet name="Skeptisch" sheetId="3" r:id="rId3"/>
+    <sheet name="Skeptisch" sheetId="3" r:id="rId2"/>
+    <sheet name="Pro" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Contra!$A$1:$H$101</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Contra!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Pro!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Pro!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="395">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -1262,6 +1262,51 @@
   </si>
   <si>
     <t>geht mehr um die Freie Entscheidung die das Impfgesetzt beschneidet</t>
+  </si>
+  <si>
+    <t>In Familien, welche geimpfte und ungeimpfte Kinder haben, weicht diese gewissenlose Faulheit der Eltern dem mächtigen Eindruck des Contrastes. Die ungeimpften zeichnen sich im Ganzen aus durch ihr frisches, lebhaftes, apfelblühtiges Aussehen, durch feste Knochen und muskulöse Bliedmassen, [...] und vortheilhafte Entwicklung der geistigen Thätigkeiten, die sicheren Bürgen einer vollkommenen Gesundheit und eines starken körpers. [...] Wie anders dagegen ist die Constitution, das Temperament und der Habitus der Geimpften [...]. Wie gegen den NOrdpol hin die Birke und LErche verkümmert, ebenso gradweise nimmt bei den Vaccinierten die reine Eigenthümlichkeit des Organismus, die innere Gedrängtheit und äußere Bstimmtheit, die größere Leibeslänge, der übbigere Haarwuchs, die schönere Form und Ausbildung [...] ab, un die seelenvollen weißen Gesichtszüge sinken herab zur BIldung und Farbe der Mulatten, der Eskimo, der Affen.</t>
+  </si>
+  <si>
+    <t>Nittinger, Das falsche Dogma von der Impfung und seine Rückwirkung auf Wissenschaft und Staat, München, 1857, S. 29</t>
+  </si>
+  <si>
+    <t>Wer die kleinen Epidemieen, Schnupfen, Scharlach, Grippe u. nicht verbannen kann, verbannt auch den Fürsten aller Seuchen, die Blattern nicht, das ist nicht Menschenwerk der Jennerischen Sekte, sondern, Gottes Sache. [...] Zum Vernichten wie zum Schaffen gehört ein Gott und es verräth eine ungemeine Kindlichkeit zu glauben, Jenner sei der Gottsohn gewesen, welche die Blattern vernichtet, ausgerottet, verbannt habe. Der Impfschutz ist vor Gott nicht möglich!</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 37 u. 39.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nittinger sieht Impfung als Frevel gegen Gott, stellt Jennerismus als Religion dar. Betont immer wieder Naturgesetz und Schöpfungskraft, natürliche Ordnung. Krankheit als von Gott gegeben... </t>
+  </si>
+  <si>
+    <t>Kräftige Menschen pocken sich nachhaltig gesund; inflammatorische Zustände begünstigen den Impfprozeß. Wird umgekehrt die Gesundheit oder Krankheit geschwächt, vergiftet, so wird jener heilsame Nautrprozeß verkehrt, der wohlthätige Ausschlag in lebensfeindlichen Einschlag, die peripherische Thätigkeit in peripherische Unthätigkeit, die Repulsion in Attraktion, die Centrifugalkraft in Centripetalkraft verwandelt und der Mensch pockt nicht mehr, sondern siecht nachhaltig.</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 39</t>
+  </si>
+  <si>
+    <t>Das sinkende Leben der Staaten zeigt sich also bei Beginn der vierten Impfgeneration selbst am grünen Holze der Gemeinde der so sehr begünstigten Stadt Stuttgart. Die Volkszahl wächst kaum mehr, die Sterbeziffer steigt, selbst die öffentlichen Anstalten liefern das Jahr hindurch wöchentlich vier Thodte; die Todtgeburten und die enorme Sterblichkeit der nach Jenners REzept gezeugten Kinder beurkunden den wurzelkranken Zustand der Ehen, wie soll das Leben beschaffen sein, das zwischen Geburt und Tod solcher Art mitten inne sich bewegt?</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 58</t>
+  </si>
+  <si>
+    <t>voran gehen Seiten lang Todesstatisiken. Das es mehr Todte als Geburten gibt. Er unterstreicht damit den Kranken zustandder Gesellschaft bedingt durch die Impfung.</t>
+  </si>
+  <si>
+    <t>Wie früher aus den Listen der Jahre  1826 bis 1851 gezeigt wurde, machte sich die Wirkung des Impfgesetzes vom Jahre 1818 auf die Abnahme der Zahl der 20jährigen Jünglinge und auf die Herabstimmung der Diensttüchtigkeit der Rekruten schon in den Altersklassen der 1840ger Jahre bemerklich, seit dem Jahre 1849, von wo das REvaccinations-Gesetz von 1829 seine desturktiven Marken zeigt, ist die Zahl und Geringheit der 20jährigen Leute auf eine horrente Tiefe herabgesunken wie sie nicht einmal nach dem säschischen und russischen Feldzuge stattgefunden hat. War es da nicht schöner, fürs Vaterland als nachher durchs Vaterland zu sterben?</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 65--66.</t>
+  </si>
+  <si>
+    <t>Die folgenden Tafeln zeigen, daß die exogenen Blattern von der äußeren Haut auf die mit ihr im Bau sehr übereinstimmende Scleimhaut theuer, sehr theuer "zurückgeführt" sind; daß das Vaccinegift dem Körper wirklich "aufgedrungen" worden ist und darin "Jahre andauernde materielle Veränderungen gesetzt" hat, welche den Symptomen der meisten jetzt herrschenden Krankheiten innig verbunden sind. Die Blatter ist nicht die Pockenkrankheit selbst, sondern blos Eine ihrer Krisen.</t>
+  </si>
+  <si>
+    <t>Nittinger S. 112-113</t>
+  </si>
+  <si>
+    <t>die Impfung führt zu einer Verlagerung der Erkrankung</t>
   </si>
 </sst>
 </file>
@@ -1636,11 +1681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4565,6 +4610,102 @@
         <v>379</v>
       </c>
     </row>
+    <row r="130" spans="1:8" ht="178.5">
+      <c r="A130" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1857</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="89.25">
+      <c r="A131" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1857</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="102">
+      <c r="A132" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="114.75">
+      <c r="A133" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="140.25">
+      <c r="A134" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="102">
+      <c r="A135" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H101"/>
   <pageMargins left="0" right="0.70866141732283472" top="7.874015748031496E-2" bottom="0.52854166666666669" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4580,6 +4721,417 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="63.75">
+      <c r="A2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="38.25">
+      <c r="A3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="63.75">
+      <c r="A4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="51">
+      <c r="A5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="38.25">
+      <c r="A6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25">
+      <c r="A7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="38.25">
+      <c r="A8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="51">
+      <c r="A9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="51">
+      <c r="A10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="51">
+      <c r="A11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="63.75">
+      <c r="A12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="63.75">
+      <c r="A13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="63.75">
+      <c r="A14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="127.5">
+      <c r="A15" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1834</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="51">
+      <c r="A16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2005</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="51">
+      <c r="A17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2005</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.15748031496062992" bottom="0.82677165354330717" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CSkeptiker&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -5215,415 +5767,4 @@
     <oddFooter>&amp;CPro&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="57.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="63.75">
-      <c r="A2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="38.25">
-      <c r="A3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="63.75">
-      <c r="A4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="51">
-      <c r="A5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="38.25">
-      <c r="A6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.25">
-      <c r="A7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="38.25">
-      <c r="A8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="51">
-      <c r="A9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="51">
-      <c r="A10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="51">
-      <c r="A11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="63.75">
-      <c r="A12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="63.75">
-      <c r="A13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="63.75">
-      <c r="A14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="127.5">
-      <c r="A15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="51">
-      <c r="A16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2005</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="51">
-      <c r="A17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2005</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.15748031496062992" bottom="0.82677165354330717" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;CSkeptiker&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
 </file>
--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="434">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -1307,6 +1307,123 @@
   </si>
   <si>
     <t>die Impfung führt zu einer Verlagerung der Erkrankung</t>
+  </si>
+  <si>
+    <t>Anstatt zu schüzen, bringt die Einimpfung der Blattern constant neue Anstekung mit sich, es treten nach der Vaccination die Blattern dennoch auf, theils leicht, theils ernst, theils tödlich.</t>
+  </si>
+  <si>
+    <t>Über die Zeit, wie lange die Vaccine oder Revaccine schüzen soll, fehlt es an allen Beweisen. Personen, welche die Blattern überstanden haben, sind von der besten Gesundheit. Blatternnarbige werden selten schwindsüchtig. Geimpfte sind weniger tüchtig für Strapazen.</t>
+  </si>
+  <si>
+    <t>Nittinger, Impfhexe, S. 3-4</t>
+  </si>
+  <si>
+    <t>Nittinger, Impfhexe, S. 3.</t>
+  </si>
+  <si>
+    <t>Die Meteorologie ins Besondere, welche nachgewiesen hat, daß wie einst die Zauber der Hexen in die jezigen Wunder der Impfhexer übergegangen sind, auch die Blattern, wie Alles seine Zeit gehabt haben und in den Jahren 1801 bis 1811 in die viel übleren Schleimhautformen (Typhus) übergegangen sind; daß diese Auflösung der Krankheit, wie Alles in der Welt auf eine natürliche Weise geschah, nämlich durch ganz sicher berechnete Aenderungen der Atmosphäre und nie und nimmermehr durch die fürchtigmachende Geisterseherei, nie und nimmermehr durch die phosphorescirende Mähre vom Blatternbann durch die Vaccination.</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 25</t>
+  </si>
+  <si>
+    <t>Die Geschichte der Krankheit und Suchen des 19. Jahrhunderst zeigt klar, welchen Schlangenweg das Gift durch die 5 Reiche der menschlichen Natur genommen, wie sie ein Stromgebiet der fünf Sinne des Menschen um das andere durchseucht hat und die Gegenwart demostriert selbst dem blödesten Auge, daß das "typhose Gelb" der Nation der vollendete Ausdruck der Impfseuche (Lues vaccinatoria) ist.</t>
+  </si>
+  <si>
+    <t>Nittinger S. 27.</t>
+  </si>
+  <si>
+    <t>Das Gift, welches zur Impfung verwendet wird, ist das größste Gift der Erde, es ist sträker als das venerische. Mit Einem Atom Impfgift läßt sich das ganze Menschengeschlehct vergiften, mit dem venerischen nicht; der Ansaz des 13. Jahrhunderts, die Kräze des 14.--15. Jahrhunderst, die gelindere Form des Aussazes von 1493--1550, nemlich die Syphilis, ganz richtig la petite verole genant, hatten die Kraft nicht, die ganze Hautfläche eines ganzen Volkes zu enstellen, wie es das Impfgift gethan hat; gegen Syphilis gibt es Heilmittel, gegen die Impfwirkung nicht; das wirsamste Mittel ist noch das Wasser und die Cerealcur, nach Prießniz und Schroth.</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 29.</t>
+  </si>
+  <si>
+    <t>So schwierig es für die Chemie ist, Thiergifte zu prüfen, so schwer ist es für das blose Auge, das Figt des Impfstoffes zu erkennen. Das "ächte Jenner´sche Bläschen", von dem der Stoff entnommen werden soll, trägt keine specifischen Merkmale an sich und kein noch so "gebildeter", noch so "gewissenhafter, noch so "aufmerksamer", noch so "wohlerzogener" "duly educated medical pracitioner des englischen Blaubuchs" kann sicher sein, ob er trotz aller Vorkehrngen statt der ächten Jenner´schen Lymphe nicht den Mißgriff begehe, ein anderes Krankheitsprodukt, den Keim für syphilitische, scrofulose, kräzige, felchtige, gichtische oder andere konstituionelle Krankheiten durch die Vaccination zu übertragen.</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 30</t>
+  </si>
+  <si>
+    <t>Man hat den Imfpstoff noch nicht genau geprüft, man hat keinen Impfarzt examiniert, man hat geimpfte und ungeimpfte Kinder noch nicht inspiciert, der Minister besitzt noch keine Statistik seiner Bevölkerung, und das Wenige, das er davon in seinen statistischen Jahrbüchern besizt noch keine Statisik seiner Bevölkerung, und das Wenige, das er davon in seinen statistischen Jahrbüchern besizt, ist ordnungslos hingeworfen, von Fehlern durchzogen.</t>
+  </si>
+  <si>
+    <t>Nittinger, S 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folgen wir den Spuren der Impfung, indem wir bei den coskriptionspflichtigen 20jährigen Jünglingen auf ihre Geburtsjahre zurückstehen: so finden wir den furchtbarsten und zugleich unwidersprechlichsten Beweis, welch nachtheiligen Einfluß die Vaccination auf die Zahl und Wehrkraft unsrer jungen Mannschaft ausgeübt hat. Die Protokolle, welche bei der Visitation der Rekruten aufgenommen werden, stellen ein wahres Versailles jugendlicher Gebrechen darf. </t>
+  </si>
+  <si>
+    <t>Nittinger, S. 51</t>
+  </si>
+  <si>
+    <t>Das "jennersche Bläschen und der gut erzogene Impfarzt" sind die zwei Schlagwörter, auf welchen zu guter Lezt die ganze Impfglorie ruht.  Das jennersche Bläschen ist kein wissenschaftlicher Begriff. Kein redlicher Arzt kann sage, was ein ächtes, vollkommenes, jennersches Bläschen sei [...]. Wenn das Kind, von dem man den Stoff nimmt, oder das Kind, dem man den Stoff gibt, nicht gesund ist, so mag das Bläschen sein wie es will und der Schaden folgt sicher. [...] Was sollen wir endlich zu dem ordentlich gebildeten Imfparzt [...] sagen? Wo ist die Hochschule, welche die 542 Autoritäten zu Impfärzten erzog? [...] Wo haben sie ihr Impfexamen erstanden? [...] Sie haben alle keine Erziehung zu Impfärzten genossen, sie sind so weit die Sonne scheint Autodidakten.</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 63</t>
+  </si>
+  <si>
+    <t>Was Scrofeln anlangt, so hat die Erfahrung gelehrt, da´die selbe bisweilen nach der Vaccination sich bei solchen Personen zeigt, welche dazu voher disponiert waren, wie dies ja auch der Fall ist nach andern Exanthemen, aber keineswegs auch nur annäherungsweise so häufig und in einer so ernsten Formen wie dies früher nach den natürlichen Blattern der Fall war.</t>
+  </si>
+  <si>
+    <t>Nittinger, S. 138</t>
+  </si>
+  <si>
+    <t>H.M. Husson, Historische und medizinische Untersuchungen über die Kuhpockenkrankheit, Marburg, 1801, S. 78</t>
+  </si>
+  <si>
+    <t>Die zahlreichen bis auf den heutigen Tag angestellten Erfahrungen lassen keinen Zweifel über die Unschädlichkeit der Kuhpockenkrankheit. In keinem Fall e folgte auf sie weder Furunkeln, noch Augenentzündungen, noch Ohrenschmerzen, was man so oft nach der Blatternkrankheit, selbst wenn man sie einimpft, stestehen sieht. Sie bringt in dem Blute keine Verderbnis, noch einen seiner Natur fremden Fehler hervor: auch hat man noch keineswegs bemerkt, daß sie eine prädisponierende Ursache zu irgend einer Krankheit gewesen sey.</t>
+  </si>
+  <si>
+    <t>Die Kuhpocken sind immer an sich ohne Gefahr. Sie erzeugen nie einen bedenklichen Zufall. Es ist bis jetzt noch kein Individuum an der Impfung derselben alleine gestorben</t>
+  </si>
+  <si>
+    <t>Husson, S. 82</t>
+  </si>
+  <si>
+    <t>Da die Kuhpocken sich nicht durch Ausdünstungen mittheilen, und in uns die Fähigkeit die Kinderblattern zu bekommen, zerstört; so kann man mit Recht hoffen, daß durch die Impfung der Kuhpocken allein, diese leztere Krankheit, wie der Aussatz, u. A. Uebel ganz aus Europa verschwinden werde.</t>
+  </si>
+  <si>
+    <t>Husson, S. 84</t>
+  </si>
+  <si>
+    <t>Die Kuhpockenkrankheit erregt keine andere Pusteln als am Impforte, hat keine Verunstaltungen zur Folge.</t>
+  </si>
+  <si>
+    <t>Die Kuhpocken sind keine prädisponierende Ursache zu irgend einer Krankheit. Man hat sie vortheilhafte Veränderungen in der Constitution einiger cacochymischen Individuen erzeugen, und kränkliche, erbliche und constitutionelle Dispositionen zerstören sehen.</t>
+  </si>
+  <si>
+    <t>Die Kuhpockenkrankheit hat einen so regelmäßigen Gang, daß ihre Einförmigkeit eine grose Quelle von Unruhe weniger ist, und dieses als einer der Hauptvorzüge der Kuhpckenimpfung angesehen werden kann.</t>
+  </si>
+  <si>
+    <t>Husson, S. 85--86.</t>
+  </si>
+  <si>
+    <t>Husson, S. 84--85</t>
+  </si>
+  <si>
+    <t>Kein Umstand des Lebens (Anm.: Schwangerschaft, Zahnen) ist Gegenanzeige zu der Kuhpockenimpfung</t>
+  </si>
+  <si>
+    <t>Husson, S. 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Berichte der Engländer, der Genfer, der Franzosen, welche immer, was den Gang die Unschädlichkeit, und die schützende Kraft der Kuhpockenkrankheit betrifft, gleichförmig sind, sind es auch über die beynahe gänzliche Abwesenheit der Sterblichkeit während der Imfpung der Kuhpocken. </t>
+  </si>
+  <si>
+    <t>Husson, S. 93</t>
+  </si>
+  <si>
+    <t>Das Fieber, welches die Entwickelung der Kuhpockenkrankheit anzeigt, erhebt das Lebensprinzip, beugt veilleicht, durch die Bewegung, welche es in der thierischen Oekonomie erregt, einer gefährlichen Krankheit vor; sie führt eine heilsame Crise herbe, welche zu einer Art von Reinigung bestimmt; stellt im Individuum das durch so verschiedene Ursachen geestörte Gleichgewicht wieder her, und in diesem Sinne kann man sage, daß sie die Wharscheinlichkeit der Lebensdauer vermehrt.</t>
+  </si>
+  <si>
+    <t>Husson, S. 96</t>
+  </si>
+  <si>
+    <t>Es ist ganz sicher, daß in England mehrere Tausend Personen mit Kuhpocken geimpft worden sind; es ist gleichfalls ausgemacht, daß diese Personen die natürlichen Pocken vorher nicht gehabt hatten, und von ihnen seit der Zeit nicht gesteckt worden sind; man hat in Wahrheit noch kein einziges recht bewiesens Beyspiel angeführt, welches der Meinung Jenner´s entgegen stände</t>
+  </si>
+  <si>
+    <t>Husson, S. 102.</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1790,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1681,11 +1798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4706,6 +4823,92 @@
         <v>394</v>
       </c>
     </row>
+    <row r="136" spans="1:8" ht="38.25">
+      <c r="A136" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="51">
+      <c r="A137" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="127.5">
+      <c r="A138" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="89.25">
+      <c r="A139" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="127.5">
+      <c r="A140" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="140.25">
+      <c r="A141" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="89.25">
+      <c r="A142" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="102">
+      <c r="A143" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="153">
+      <c r="A144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="76.5">
+      <c r="A145" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H101"/>
   <pageMargins left="0" right="0.70866141732283472" top="7.874015748031496E-2" bottom="0.52854166666666669" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4724,7 +4927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5133,10 +5336,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5760,6 +5964,98 @@
       </c>
       <c r="H27" s="10"/>
     </row>
+    <row r="28" spans="1:8" ht="89.25">
+      <c r="A28" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="38.25">
+      <c r="A29" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51">
+      <c r="A30" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25.5">
+      <c r="A31" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="51">
+      <c r="A32" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="38.25">
+      <c r="A33" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="25.5">
+      <c r="A34" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="51">
+      <c r="A35" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="76.5">
+      <c r="A36" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="63.75">
+      <c r="A37" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="443">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -1420,10 +1420,37 @@
     <t>Husson, S. 96</t>
   </si>
   <si>
-    <t>Es ist ganz sicher, daß in England mehrere Tausend Personen mit Kuhpocken geimpft worden sind; es ist gleichfalls ausgemacht, daß diese Personen die natürlichen Pocken vorher nicht gehabt hatten, und von ihnen seit der Zeit nicht gesteckt worden sind; man hat in Wahrheit noch kein einziges recht bewiesens Beyspiel angeführt, welches der Meinung Jenner´s entgegen stände</t>
-  </si>
-  <si>
     <t>Husson, S. 102.</t>
+  </si>
+  <si>
+    <t>Es ist ganz sicher, daß in England mehrere Tausend Personen mit Kuhpocken geimpft worden sind; es ist gleichfalls ausgemacht, daß diese Personen die natürlichen Pocken vorher nicht gehabt hatten, und von ihnen seit der Zeit nicht gesteckt worden sind; man hat in Wahrheit noch kein einziges recht bewiesens Beyspiel angeführt, welches der Meinung Jenner´s entgegen stände.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man weiß, daß die Kuhpocken keine Krankheit sind, es ist im Gegentheile bewiesen, daß sie eine Wohltat sind, weil sie der Geissel der Kinderblattern zuvorkommen. </t>
+  </si>
+  <si>
+    <t>Husson, S. 139</t>
+  </si>
+  <si>
+    <t>Offenbar gab es zu Beginn der Impfung auch noch eine Gruppe der Kuhpockenimpfgegner weil überzeugt Anhänger der Variolation, der Impfung mit den echten Blattern. Darauf deute der Kommentar von Husson in seinem Buch an. Er erwähnt dafür einen "Herren Baumes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endlich hat der medizinische Ausschuß zu Reims durch eine der schönsten, bis jetzt in Frankreich gemachten, Beobachtungen bewiesen, daß das von den Zizen der Kühe genommene Kuhpockengift die nämliche Reihe von Zufällen erzeugt, als wenn es vom Menschen genommen ist. </t>
+  </si>
+  <si>
+    <t>Husson, S. 143</t>
+  </si>
+  <si>
+    <t>Was den Einwurf betrifft, daß man glaubt, eine Menge von Fehlern würde dem Kuhpockengifte nach mehreren Generationen mitgetheilt; so ist dieser ganz von aller Vernunft entblößt [...] Die Erfahrung hat im Gegentheile bewiesen, daß Menschenblattern von übler Art, von einem sehr kränklichen Kinde genommen und selbst in einen sehr ungesunden Körper verpflanz, die schönsten und glücklichsten Blattern erzeugt haben;  während Materie, welche aus den schönsten Pusteln, von dem gesundesten Körper genommen, zuweilen eine zusammenfließende und tödliche Blatternkrankheit erzeugte.</t>
+  </si>
+  <si>
+    <t>Husson, S. 144-145</t>
+  </si>
+  <si>
+    <t>Man kennt das WIE nicht, aber man weis daß die Sache ganz sicher ist. Man würde fruchtlos sich mit weitläuftigen (sic!) Untersuchungen über die Art, wie die Kuhpocken in uns die Fähigkeit, die Kinderblattern zu bekommen, zerstören können, erschöpfen: [...] es ist genug, daß die Thatsache wahr, und durch zahlreiche Erfahrugen bestätigt ist.</t>
+  </si>
+  <si>
+    <t>Husson, S. 159.</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5336,11 +5363,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5991,6 +6018,18 @@
       <c r="B29" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="51">
       <c r="A30" s="2" t="s">
@@ -5999,6 +6038,18 @@
       <c r="B30" s="2" t="s">
         <v>420</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="25.5">
       <c r="A31" s="2" t="s">
@@ -6007,6 +6058,18 @@
       <c r="B31" s="2" t="s">
         <v>420</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="51">
       <c r="A32" s="2" t="s">
@@ -6015,45 +6078,200 @@
       <c r="B32" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="38.25">
+      <c r="C32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="38.25">
       <c r="A33" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="25.5">
+      <c r="C33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="25.5">
       <c r="A34" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="51">
+      <c r="C34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="51">
       <c r="A35" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="76.5">
+      <c r="C35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="76.5">
       <c r="A36" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="63.75">
+      <c r="C36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="63.75">
       <c r="A37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>433</v>
+      <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="25.5">
+      <c r="A38" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="51">
+      <c r="A39" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="102">
+      <c r="A40" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="63.75">
+      <c r="A41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="453">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -1451,6 +1451,36 @@
   </si>
   <si>
     <t>Husson, S. 159.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allen Kindern der Hofmarkt Steingaden, 200 an der Zahl, sind erst vor Kurzem die Schutzpocken glücklich eingeimpft, und auch selbst Versuche bei Kindern, welche die natürlichen Blattern schon gehabt haben, gemacht worden; ohne daß dieselben dafür mehr eine Empfänglichkeit zeigten. </t>
+  </si>
+  <si>
+    <t>Eben so sah ich oft Skropheln, böse Augen, Milchschorf, trockene Husten, Kopfgrind, ungeachtet der vorher vergebens angewandten Arzneimittel, durch die Anwendung der Vaccination verschwinden. Aus diesen und von anderen Aerzten bekannt gemachten ähnliche Erfahrunge erhellet, daß die Schutzpockenimpfung die größte Wohlthat für die Menschheit ist, daher nie genug verbreitet werden kann; indem aus den sorgfälltigst angestellten Erfahrungen und Prüfungen aller Art unter dne verschiedenen Himmelsstrichen und amnnigfaltigsten Umständen sie die unwiederlegbare Wahrheit bgründen, daß, wer die ächten Kuhpocken überstanden hat, niemals mehr von den Menschenblattern befallen wird.</t>
+  </si>
+  <si>
+    <t>Da die wohlthätigen Eigenschaften der Kuhpocken, die sie vor den Menschenblattern gewähren, von den gelehrtesten Beobachtern geschildert worden sind, führe ich bloß einige auch mir vorgekommene Fälle an. Die Kuhpocken können zu jeder Zeit geimpft, in jedem, noch so zarten Kindesalter, bei Schwangeren bis zur Niederkunft, ja selbst im höchsten Greisenalter angewendet werden. Ich impfte sie im Frühjahre, Sommer, Herbst und Winter immer mit gleich gutem Erfolge. Ferner sind sie oft schwächlichen Kindern ungemein zuträglich, indem sie durch ihre wohlthätige Veränderung im menschlichen Organismus das Zahnen erleichtern, Hautkrankheiten bei ihrer Abtrocknung heben.</t>
+  </si>
+  <si>
+    <t>Giel, S. 15</t>
+  </si>
+  <si>
+    <t>Giel S. 13--14</t>
+  </si>
+  <si>
+    <t>Franz Seraph Giel, Die Schutzpocken=Impfung in Bayern, vom Anbeginn ihrer Entstehung und gesetzlichen Einführung  bis auf gegenwärtige Zeit. Dann mit besonderer Beobachtung derselben in auswärtigen Staaten, München, 1830, S. 20</t>
+  </si>
+  <si>
+    <t>Die Vaccine hat sich bis hieher, aller Anfechtungen ungeachtet, als das einzige Schutzmitel gegen die Blattern bewährt. Auch die laufende Epidemie trägt dazu bei, ihre Wohlthaten in ein helleres Licht zu stellen, und man wird die Wuth des Exanthems nicht eher zähmen können, als bisman zu einer allgemeinen Impfung, die vorzüglich alle Neugeborenen in sich begreifen muß, seine Zuflucht nimmt. Kein Mittel der Hygiene, kein Rath der Medizinpolizei wird die armen Geschöpfe vor dem tödtlichen Einflusse der Miasmen zu schützen im Stande seyn, die sie heut mit dem ersten Athemzuge einsaugen.</t>
+  </si>
+  <si>
+    <t>Giel, S. 380-381</t>
+  </si>
+  <si>
+    <t>Giel, S. 387</t>
+  </si>
+  <si>
+    <t>Der Augenblick ist gekommen, wo die Impfung in den Rang unserer Nationaleinrichtungen treten und geradezu unter dem Schutze und dem Einflusse der Gesetze wirken muß. Dreißig Jahre wohlthätiger Kraftäusserung geben einen wohlbegründeten, einen achtbaren Anspruch, um endlich von Seiten der eltigitmen Macht das Bürgerrecht zu erhalten; ich will sagen, die Impfung muß, soll sie anders in Freiheit ihren Segen verbreiten, erzwungen werden. Ein Gesetz, welches diese Maßregel in Schutz nehmen soll, verletzt das Naturrecht keinesweges.</t>
   </si>
 </sst>
 </file>
@@ -5363,11 +5393,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5379,7 +5409,7 @@
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -5405,7 +5435,7 @@
       <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5431,7 +5461,7 @@
       <c r="G2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="25.5">
       <c r="A3" s="7" t="s">
@@ -5455,7 +5485,7 @@
       <c r="G3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="38.25">
       <c r="A4" s="7" t="s">
@@ -5479,7 +5509,7 @@
       <c r="G4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="63.75">
       <c r="A5" s="7" t="s">
@@ -5501,7 +5531,7 @@
       <c r="G5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="38.25">
       <c r="A6" s="7" t="s">
@@ -5525,7 +5555,7 @@
       <c r="G6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="63.75">
       <c r="A7" s="7" t="s">
@@ -5549,7 +5579,7 @@
       <c r="G7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="38.25">
       <c r="A8" s="7" t="s">
@@ -5573,7 +5603,7 @@
       <c r="G8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="38.25">
       <c r="A9" s="7" t="s">
@@ -5597,7 +5627,7 @@
       <c r="G9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="38.25">
       <c r="A10" s="7" t="s">
@@ -5621,7 +5651,7 @@
       <c r="G10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="38.25">
       <c r="A11" s="7" t="s">
@@ -5643,7 +5673,7 @@
       <c r="G11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="38.25">
       <c r="A12" s="7" t="s">
@@ -5665,7 +5695,7 @@
       <c r="G12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5687,7 +5717,7 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="38.25">
       <c r="A14" s="7" t="s">
@@ -5707,7 +5737,7 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="38.25">
       <c r="A15" s="7" t="s">
@@ -5727,7 +5757,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="38.25">
       <c r="A16" s="7" t="s">
@@ -5747,7 +5777,7 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="38.25">
       <c r="A17" s="7" t="s">
@@ -5767,7 +5797,7 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="38.25">
       <c r="A18" s="7" t="s">
@@ -5791,7 +5821,7 @@
       <c r="G18" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="38.25">
       <c r="A19" s="7" t="s">
@@ -5813,7 +5843,7 @@
       <c r="G19" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="38.25">
       <c r="A20" s="7" t="s">
@@ -5835,7 +5865,7 @@
       <c r="G20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="38.25">
       <c r="A21" s="7" t="s">
@@ -5857,7 +5887,7 @@
       <c r="G21" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="51">
       <c r="A22" s="7" t="s">
@@ -5879,7 +5909,7 @@
       <c r="G22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="51">
       <c r="A23" s="7" t="s">
@@ -5901,7 +5931,7 @@
       <c r="G23" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="51">
       <c r="A24" s="7" t="s">
@@ -5923,7 +5953,7 @@
       <c r="G24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="51">
       <c r="A25" s="7" t="s">
@@ -5945,7 +5975,7 @@
       <c r="G25" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="51">
       <c r="A26" s="7" t="s">
@@ -5967,7 +5997,7 @@
       <c r="G26" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="51">
       <c r="A27" s="7" t="s">
@@ -5989,7 +6019,7 @@
       <c r="G27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="89.25">
       <c r="A28" s="2" t="s">
@@ -6191,7 +6221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="25.5">
+    <row r="38" spans="1:8" ht="102">
       <c r="A38" s="2" t="s">
         <v>434</v>
       </c>
@@ -6210,7 +6240,7 @@
       <c r="G38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6272,6 +6302,67 @@
       </c>
       <c r="G41" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="102">
+      <c r="A42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1830</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="114.75">
+      <c r="A43" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="114.75">
+      <c r="A44" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="102">
+      <c r="A45" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="89.25">
+      <c r="A46" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="468">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>Es ist angenommen worden, daß die Sterblichkeit der Pocken, nach Einführung der Kuhpockenimpfung, sehr gering sey und ungefähr von 10.000 Menschen nur einer noch unterliegen. [...] Es ist aber noch sehr zweifelhaft, ob wirklich ein solcher Unterschied in diesen Sterblichkeitsverhältnissen durch die Schutzkraft der Kuhpockenimpfung herbeigeführt wird, weil die meisten Ungeimpften, welche an den Blattern gestorben sind, zwarte Kinder waren, und die bekannte große Sterblichkeit des kindlichen Alters mit in Anschlag gebracht werden muß.</t>
-  </si>
-  <si>
-    <t>Viele Aerzte sind in der That der Meinung, daß die Kuhpcokenimpfung nur für eine gewisse Zeit schütze. Man zählt so manche Opfer aus den Reihen der Kranken, deren Vaccination verjährt ist. [...] Wenn nun die Kuhpockenimpfung nur eine Zeit des Individuum gegen die Pocken schützt, so ist nach Vrlauf derselben wiederum ein Theil der gesammten Staatsglieder für ungeschützt und für fähig zu halten, das Blatterncontagium aufzunehmen und weiter zu verbreiten. Vor allen Dingen wäre nun zu erforschen: wie lange dauert die Schutzkraft der Vaccine, und wann muß die allgemeine Revaccination vorgenommen werden?</t>
   </si>
   <si>
     <t>Dr. Carl Schreiber, 1834 S. 43 u. 44</t>
@@ -1482,12 +1479,79 @@
   <si>
     <t>Der Augenblick ist gekommen, wo die Impfung in den Rang unserer Nationaleinrichtungen treten und geradezu unter dem Schutze und dem Einflusse der Gesetze wirken muß. Dreißig Jahre wohlthätiger Kraftäusserung geben einen wohlbegründeten, einen achtbaren Anspruch, um endlich von Seiten der eltigitmen Macht das Bürgerrecht zu erhalten; ich will sagen, die Impfung muß, soll sie anders in Freiheit ihren Segen verbreiten, erzwungen werden. Ein Gesetz, welches diese Maßregel in Schutz nehmen soll, verletzt das Naturrecht keinesweges.</t>
   </si>
+  <si>
+    <t>Die Wiederimpfung, nur in dieser Absicht ausgeübt, würde, statt als Gebot der Nothwendigkeit, die Menge zu beruhigen, eine Quelle des Trostes, ein Unterpfand für die Zukunft werden, und endlich die Vaccine von jedem Vorwurfe der Treulosigkeit, welche man ihr bisweilen gemacht hat, befreien.</t>
+  </si>
+  <si>
+    <t>Giel, S. 406</t>
+  </si>
+  <si>
+    <t>Viele Aerzte sind in der That der Meinung, daß die Kuhpockenimpfung nur für eine gewisse Zeit schütze. Man zählt so manche Opfer aus den Reihen der Kranken, deren Vaccination verjährt ist. [...] Wenn nun die Kuhpockenimpfung nur eine Zeit des Individuum gegen die Pocken schützt, so ist nach Vrlauf derselben wiederum ein Theil der gesammten Staatsglieder für ungeschützt und für fähig zu halten, das Blatterncontagium aufzunehmen und weiter zu verbreiten. Vor allen Dingen wäre nun zu erforschen: wie lange dauert die Schutzkraft der Vaccine, und wann muß die allgemeine Revaccination vorgenommen werden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Einfluss der Impfung und Wiederimpfung auf die Pockensterblichkeit kann man am deutlichsten wahrnehmen, wenn man einen Blick auf die folgende Zusammenstellung wirft, [...]. In der Civilbevölkerung zeigt sich nach dem Jahre 1874, dem Zeitpunkge der Einführung des Reichs-Impfgesetzes, ein rapider Abfall der Blatternsterblickeit, die seit dieser Zeit constant auf diesem niedrigen Niveau geblieben ist. </t>
+  </si>
+  <si>
+    <t>Gustav Paul, der Nutzen der Schutzpocken-Impfung. Vortrag gehalten am 30.März 1901 in der 87. Vollversammlung des Vereins für Kindergärten und Kinderbewahranstalten in Österreich, Wien, 1901, S. 7</t>
+  </si>
+  <si>
+    <t>Paul, S. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Nutzen einer genau durchgeführten Revaccination wird zur Evidenz klar, wenn man die Pockensterblichkeit in de Kriegsjahren 1870-1871 der gut geimpften deutschen Armee mit der nur sehr mangelhaft geimpften und revaccinierten französischen Armee in Vergleich zieht. Von der deutschen Armee mit nahezu 1 1/2 Millionen Mann starben an Blattern 459 Mann, von der französischen Armee wurden 23.400 Todesfälle an Blattern berichtet. Diese Erfahrung veranlasste auch die österreichische Herresverwaltung, die obligatorische Impfung und Widerimpfung im Jahre 1886 einzuführen. </t>
+  </si>
+  <si>
+    <t>In den Jahren 1889--1890 hatte is als k.k. Amtsarzt in einem Bezirke Böhmens die traurige Gelegenheite, Zeuge einer ausgebreiteten Blatternepidemie in meinem eigenen Amtsbezirke zu sein, [...] deren Ausbreitung und Intensivität die Folge einer jahrelangen sehr nachlässig gehandhabten Impfung war. Zur Eindämmung der Epidemie nahm ich persönlich [...] die Revaccination von einigen hundert Schulkindern vor [..]. Am Schluß der Epidemie hatte ich die Freude, [...] constatieren zu können, dass kein einziges der von mir mit Erfolg zum Theile erstgeimpften, zum Theile revaccinierten Kindern an Blattern erkrankt war [...]. Die Beweise für den Wert der Impfung liefern also nach dem Gesagten das Experiment, die Erfahrung und die Statistik.</t>
+  </si>
+  <si>
+    <t>Paul, S. 18</t>
+  </si>
+  <si>
+    <t>Das verhältnismäßig geringfügige, nur wenige Tage dauernde und ungefährliche Unwohlsein, welches dem kleinen Impfling aus der Impforocedur erwächst, wird mehr al reichlich aufgewogen durch den unschätzbaren Nutzen, den ihm  der Impfschutz gegen die Blatternansteckung für eine alnge Zeit gewährt. Diese Unbewquemlichkeiten und Gefahren sind gewiss weit geringer als die höchst überflüssige, weitverbreitete und nicht angefochtene Sitte des Ohrenstechens, durch welche nicht so selten, als man es glaubt, Eiterung, Hautausschläge, Geschwüre und Geschwulstbildungen und Übertragungen von ansteckenden Krankheiten durch unreine Instrumente verursacht werden können.</t>
+  </si>
+  <si>
+    <t>Paul, S. 17</t>
+  </si>
+  <si>
+    <t>Eine Widerlegung der Behauptung der meist sehr temperamentvollen Impfgegener über Volksvergiftung durch die Impfung und über die Nutzlosigkeit derselben gegen die Blatternansteckung lässt sich ja in einer blatternfreien Zeit - und gerade da sind die Impfgegner am lautesten - durch Vorführung gegentheiliger Beweise am Krankenbette und in der Todtenkammer nicht liefern. Die, wenn auch widersinnigen, jedoch wegen der Möglichkeit der Irreführung der Bevlökerung für die Volkswohlfahrt sehr gefährlichen Schlesinger´schen Theorien durften daher von sachlicher Seite nicht mit verachtungsvollem Schweigen übergangen, sondern mussten nach Gebür kritisiert und an den Pranger gestellt werden.</t>
+  </si>
+  <si>
+    <t>Paul, S. 15.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Josef Schlesinger (1831-1901) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Geodät, Naturphilosoph und Politiker, Schuf 1882 eine eigenen Evolutionslehre, Antisemit, eigen Mathematiker. Stellte eigene Anti-Impftheorie auf, veröffentlicht 1898 im Wiener "Deutschen Volksblatt": "Gegen die Impfung" (offenbar Rechte Zeitung). Seine These: "Wenn bei einem Geimpften die Bildung der Impfpusteln normal verläuft, so haben wir es mit einem Menschen zu thun, dessen Organisation zur Blatternerkrankung nicht neigt, dessen Organisation das Blatterngift aus dem Körper hinausschafft. Das Impfen ist nur eine Probe, ob der Geimpfte gegen Blatternerkrankungen widerstandfähig ist. </t>
+    </r>
+  </si>
+  <si>
+    <t>Die Vaccine ist in sehr vielen Fällen ein vollständiges Mittels gegen die Menschenpocken. Bilden sich dennoch Varioliden aus, so sind diese wenigstens bei weitem gelinder, verlaufen milder und in kürzer Zeit. Es werden fast gar keine Beispiele angeführt, dass diese Krankheit, wo sie ohne zufällige gefährliche Complication erschien, an und für sich tödlich geworden sey.</t>
+  </si>
+  <si>
+    <t>Wilhelm Mandt, Pracitsche Darstellung der wichtigsten ansteckenden Epidemieen und Epizootien in ihrer Bedeutung für die medicinische Polizei, Berlin, 1828, S. 190-191.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1515,13 +1579,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1551,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1575,6 +1653,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1847,7 +1928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2778,7 +2859,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E45" s="7">
         <v>2008</v>
@@ -2802,7 +2883,7 @@
         <v>92</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E46" s="7">
         <v>2008</v>
@@ -2826,7 +2907,7 @@
         <v>92</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E47" s="7">
         <v>2008</v>
@@ -2838,7 +2919,7 @@
         <v>70</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="51">
@@ -2852,7 +2933,7 @@
         <v>92</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E48" s="7">
         <v>2008</v>
@@ -2874,7 +2955,7 @@
         <v>92</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E49" s="7">
         <v>2008</v>
@@ -2900,7 +2981,7 @@
         <v>92</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E50" s="7">
         <v>2008</v>
@@ -2926,7 +3007,7 @@
         <v>92</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E51" s="7">
         <v>2008</v>
@@ -2952,7 +3033,7 @@
         <v>92</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E52" s="7">
         <v>2008</v>
@@ -2978,7 +3059,7 @@
         <v>92</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E53" s="7">
         <v>2008</v>
@@ -3002,7 +3083,7 @@
         <v>92</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E54" s="7">
         <v>2008</v>
@@ -3026,7 +3107,7 @@
         <v>92</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E55" s="7">
         <v>2008</v>
@@ -3048,7 +3129,7 @@
         <v>92</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E56" s="7">
         <v>2008</v>
@@ -3070,7 +3151,7 @@
         <v>92</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="7">
         <v>2008</v>
@@ -3092,7 +3173,7 @@
         <v>92</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E58" s="7">
         <v>2008</v>
@@ -3114,7 +3195,7 @@
         <v>92</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E59" s="7">
         <v>2008</v>
@@ -3130,13 +3211,13 @@
         <v>197</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E60" s="7">
         <v>1834</v>
@@ -3146,7 +3227,7 @@
         <v>69</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="114.75">
@@ -3154,13 +3235,13 @@
         <v>198</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E61" s="7">
         <v>1834</v>
@@ -3178,13 +3259,13 @@
         <v>199</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E62" s="7">
         <v>1834</v>
@@ -3200,13 +3281,13 @@
         <v>200</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E63" s="7">
         <v>1834</v>
@@ -3222,13 +3303,13 @@
         <v>201</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E64" s="7">
         <v>1834</v>
@@ -3238,7 +3319,7 @@
         <v>69</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="114.75">
@@ -3246,13 +3327,13 @@
         <v>202</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E65" s="7">
         <v>1834</v>
@@ -3265,16 +3346,16 @@
     </row>
     <row r="66" spans="1:8" ht="76.5">
       <c r="A66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="C66" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E66" s="7">
         <v>1834</v>
@@ -3287,16 +3368,16 @@
     </row>
     <row r="67" spans="1:8" ht="89.25">
       <c r="A67" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="C67" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E67" s="7">
         <v>1834</v>
@@ -3306,21 +3387,21 @@
         <v>69</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="51">
       <c r="A68" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E68" s="7">
         <v>1834</v>
@@ -3330,21 +3411,21 @@
         <v>69</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="102">
       <c r="A69" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E69" s="7">
         <v>1834</v>
@@ -3354,21 +3435,21 @@
         <v>69</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="76.5">
       <c r="A70" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="C70" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E70" s="7">
         <v>1834</v>
@@ -3378,21 +3459,21 @@
         <v>69</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="204">
       <c r="A71" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E71" s="7">
         <v>1834</v>
@@ -3405,16 +3486,16 @@
     </row>
     <row r="72" spans="1:8" ht="76.5">
       <c r="A72" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E72" s="7">
         <v>2005</v>
@@ -3423,24 +3504,24 @@
         <v>12</v>
       </c>
       <c r="G72" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="102">
       <c r="A73" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>241</v>
-      </c>
       <c r="C73" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E73" s="7">
         <v>2013</v>
@@ -3452,21 +3533,21 @@
         <v>169</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="38.25">
       <c r="A74" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="C74" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E74" s="7">
         <v>2013</v>
@@ -3481,16 +3562,16 @@
     </row>
     <row r="75" spans="1:8" ht="102">
       <c r="A75" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="C75" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E75" s="7">
         <v>2013</v>
@@ -3502,21 +3583,21 @@
         <v>70</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="76.5">
       <c r="A76" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E76" s="7">
         <v>2013</v>
@@ -3531,16 +3612,16 @@
     </row>
     <row r="77" spans="1:8" ht="51">
       <c r="A77" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="C77" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="7">
         <v>2013</v>
@@ -3555,16 +3636,16 @@
     </row>
     <row r="78" spans="1:8" ht="76.5">
       <c r="A78" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="C78" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E78" s="7">
         <v>2013</v>
@@ -3579,16 +3660,16 @@
     </row>
     <row r="79" spans="1:8" ht="51">
       <c r="A79" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="C79" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E79" s="7">
         <v>2013</v>
@@ -3600,21 +3681,21 @@
         <v>70</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="114.75">
       <c r="A80" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="C80" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E80" s="7">
         <v>2013</v>
@@ -3626,21 +3707,21 @@
         <v>70</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51">
       <c r="A81" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E81" s="7">
         <v>2013</v>
@@ -3655,16 +3736,16 @@
     </row>
     <row r="82" spans="1:8" ht="63.75">
       <c r="A82" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E82" s="7">
         <v>2013</v>
@@ -3676,21 +3757,21 @@
         <v>70</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="76.5">
       <c r="A83" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E83" s="7">
         <v>2013</v>
@@ -3705,22 +3786,22 @@
     </row>
     <row r="84" spans="1:8" ht="89.25">
       <c r="A84" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E84" s="7">
         <v>2013</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>70</v>
@@ -3729,16 +3810,16 @@
     </row>
     <row r="85" spans="1:8" ht="63.75">
       <c r="A85" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E85" s="7">
         <v>2013</v>
@@ -3753,16 +3834,16 @@
     </row>
     <row r="86" spans="1:8" ht="76.5">
       <c r="A86" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E86" s="7">
         <v>2013</v>
@@ -3777,16 +3858,16 @@
     </row>
     <row r="87" spans="1:8" ht="76.5">
       <c r="A87" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="C87" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E87" s="7">
         <v>2013</v>
@@ -3795,22 +3876,22 @@
         <v>12</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" ht="102">
       <c r="A88" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E88" s="7">
         <v>2013</v>
@@ -3819,50 +3900,50 @@
         <v>12</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="89.25">
       <c r="A89" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E89" s="7">
         <v>2013</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="89.25">
       <c r="A90" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E90" s="7">
         <v>2013</v>
@@ -3877,16 +3958,16 @@
     </row>
     <row r="91" spans="1:8" ht="127.5">
       <c r="A91" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E91" s="7">
         <v>2013</v>
@@ -3898,21 +3979,21 @@
         <v>79</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="25.5">
       <c r="A92" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E92" s="7">
         <v>2013</v>
@@ -3925,16 +4006,16 @@
     </row>
     <row r="93" spans="1:8" ht="25.5">
       <c r="A93" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E93" s="7">
         <v>2013</v>
@@ -3944,21 +4025,21 @@
         <v>79</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="140.25">
       <c r="A94" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E94" s="7">
         <v>2013</v>
@@ -3967,24 +4048,24 @@
         <v>5</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="63.75">
       <c r="A95" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E95" s="7">
         <v>2013</v>
@@ -3999,16 +4080,16 @@
     </row>
     <row r="96" spans="1:8" ht="102">
       <c r="A96" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="C96" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E96" s="7">
         <v>2013</v>
@@ -4017,22 +4098,22 @@
         <v>5</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" ht="51">
       <c r="A97" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="C97" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E97" s="7">
         <v>2013</v>
@@ -4047,16 +4128,16 @@
     </row>
     <row r="98" spans="1:8" ht="63.75">
       <c r="A98" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>297</v>
-      </c>
       <c r="C98" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E98" s="7">
         <v>2013</v>
@@ -4065,22 +4146,22 @@
         <v>5</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8" ht="76.5">
       <c r="A99" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E99" s="7">
         <v>2013</v>
@@ -4095,16 +4176,16 @@
     </row>
     <row r="100" spans="1:8" ht="51">
       <c r="A100" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="C100" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E100" s="7">
         <v>2013</v>
@@ -4117,16 +4198,16 @@
     </row>
     <row r="101" spans="1:8" ht="165.75">
       <c r="A101" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E101" s="7">
         <v>2012</v>
@@ -4138,21 +4219,21 @@
         <v>70</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="191.25">
       <c r="A102" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>307</v>
-      </c>
       <c r="C102" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E102" s="7">
         <v>2012</v>
@@ -4164,21 +4245,21 @@
         <v>70</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="38.25">
       <c r="A103" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E103" s="7">
         <v>2012</v>
@@ -4191,16 +4272,16 @@
     </row>
     <row r="104" spans="1:8" ht="114.75">
       <c r="A104" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E104" s="7">
         <v>2012</v>
@@ -4212,21 +4293,21 @@
         <v>70</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="89.25">
       <c r="A105" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>314</v>
-      </c>
       <c r="C105" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E105" s="7">
         <v>2012</v>
@@ -4236,21 +4317,21 @@
         <v>70</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="76.5">
       <c r="A106" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>317</v>
-      </c>
       <c r="C106" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E106" s="7">
         <v>2012</v>
@@ -4262,47 +4343,47 @@
         <v>70</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="127.5">
       <c r="A107" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="C107" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E107" s="7">
         <v>2012</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="114.75">
       <c r="A108" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="C108" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E108" s="7">
         <v>2012</v>
@@ -4314,21 +4395,21 @@
         <v>169</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="102">
       <c r="A109" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>328</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E109" s="7">
         <v>2012</v>
@@ -4337,28 +4418,28 @@
         <v>5</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8" ht="102">
       <c r="A110" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>330</v>
-      </c>
       <c r="C110" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E110" s="7">
         <v>2012</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>79</v>
@@ -4367,16 +4448,16 @@
     </row>
     <row r="111" spans="1:8" ht="114.75">
       <c r="A111" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="C111" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E111" s="7">
         <v>2012</v>
@@ -4391,16 +4472,16 @@
     </row>
     <row r="112" spans="1:8" ht="127.5">
       <c r="A112" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="C112" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E112" s="7">
         <v>2012</v>
@@ -4409,22 +4490,22 @@
         <v>5</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8" ht="153">
       <c r="A113" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="C113" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E113" s="7">
         <v>2012</v>
@@ -4439,22 +4520,22 @@
     </row>
     <row r="114" spans="1:8" ht="114.75">
       <c r="A114" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="C114" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E114" s="7">
         <v>2012</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>124</v>
@@ -4463,22 +4544,22 @@
     </row>
     <row r="115" spans="1:8" ht="191.25">
       <c r="A115" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E115" s="7">
         <v>1995</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>70</v>
@@ -4487,16 +4568,16 @@
     </row>
     <row r="116" spans="1:8" ht="102">
       <c r="A116" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>345</v>
-      </c>
       <c r="C116" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E116" s="7">
         <v>1995</v>
@@ -4511,16 +4592,16 @@
     </row>
     <row r="117" spans="1:8" ht="25.5">
       <c r="A117" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="C117" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E117" s="7">
         <v>1995</v>
@@ -4535,16 +4616,16 @@
     </row>
     <row r="118" spans="1:8" ht="51">
       <c r="A118" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E118" s="7">
         <v>1995</v>
@@ -4559,16 +4640,16 @@
     </row>
     <row r="119" spans="1:8" ht="102">
       <c r="A119" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>358</v>
-      </c>
       <c r="C119" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E119" s="7">
         <v>1995</v>
@@ -4583,16 +4664,16 @@
     </row>
     <row r="120" spans="1:8" ht="76.5">
       <c r="A120" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>361</v>
-      </c>
       <c r="C120" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E120" s="7">
         <v>1995</v>
@@ -4607,16 +4688,16 @@
     </row>
     <row r="121" spans="1:8" ht="102">
       <c r="A121" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>363</v>
-      </c>
       <c r="C121" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E121" s="7">
         <v>1995</v>
@@ -4631,16 +4712,16 @@
     </row>
     <row r="122" spans="1:8" ht="76.5">
       <c r="A122" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E122" s="7">
         <v>1995</v>
@@ -4655,22 +4736,22 @@
     </row>
     <row r="123" spans="1:8" ht="127.5">
       <c r="A123" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E123" s="7">
         <v>1995</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>70</v>
@@ -4679,16 +4760,16 @@
     </row>
     <row r="124" spans="1:8" ht="89.25">
       <c r="A124" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>367</v>
-      </c>
       <c r="C124" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E124" s="7">
         <v>1995</v>
@@ -4703,22 +4784,22 @@
     </row>
     <row r="125" spans="1:8" ht="51">
       <c r="A125" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E125" s="7">
         <v>1995</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>70</v>
@@ -4727,47 +4808,47 @@
     </row>
     <row r="126" spans="1:8" ht="102">
       <c r="A126" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E126" s="2">
         <v>1879</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="89.25">
       <c r="A127" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="89.25">
       <c r="A128" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>69</v>
@@ -4775,27 +4856,27 @@
     </row>
     <row r="129" spans="1:8" ht="76.5">
       <c r="A129" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="H129" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="178.5">
       <c r="A130" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="C130" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E130" s="2">
         <v>1857</v>
@@ -4809,16 +4890,16 @@
     </row>
     <row r="131" spans="1:8" ht="89.25">
       <c r="A131" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="C131" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E131" s="2">
         <v>1857</v>
@@ -4830,15 +4911,15 @@
         <v>69</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="102">
       <c r="A132" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>5</v>
@@ -4846,46 +4927,46 @@
     </row>
     <row r="133" spans="1:8" ht="114.75">
       <c r="A133" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="F133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="140.25">
       <c r="A134" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="102">
       <c r="A135" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="F135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="38.25">
       <c r="A136" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>5</v>
@@ -4893,10 +4974,10 @@
     </row>
     <row r="137" spans="1:8" ht="51">
       <c r="A137" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>5</v>
@@ -4904,66 +4985,66 @@
     </row>
     <row r="138" spans="1:8" ht="127.5">
       <c r="A138" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="89.25">
       <c r="A139" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="127.5">
       <c r="A140" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="140.25">
       <c r="A141" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="89.25">
       <c r="A142" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="102">
       <c r="A143" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="153">
       <c r="A144" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="76.5">
       <c r="A145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +5066,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5038,7 +5119,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" s="7">
         <v>2008</v>
@@ -5060,7 +5141,7 @@
         <v>106</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E3" s="7">
         <v>2008</v>
@@ -5082,7 +5163,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="7">
         <v>2008</v>
@@ -5104,7 +5185,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E5" s="7">
         <v>2008</v>
@@ -5126,7 +5207,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E6" s="7">
         <v>2008</v>
@@ -5148,7 +5229,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E7" s="7">
         <v>2008</v>
@@ -5170,7 +5251,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" s="7">
         <v>2008</v>
@@ -5192,7 +5273,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E9" s="7">
         <v>2008</v>
@@ -5214,7 +5295,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E10" s="7">
         <v>2008</v>
@@ -5236,7 +5317,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E11" s="7">
         <v>2008</v>
@@ -5258,7 +5339,7 @@
         <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12" s="7">
         <v>2008</v>
@@ -5280,7 +5361,7 @@
         <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" s="7">
         <v>2008</v>
@@ -5302,7 +5383,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E14" s="7">
         <v>2008</v>
@@ -5315,16 +5396,16 @@
     </row>
     <row r="15" spans="1:8" ht="127.5">
       <c r="A15" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="C15" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E15" s="7">
         <v>1834</v>
@@ -5337,16 +5418,16 @@
     </row>
     <row r="16" spans="1:8" ht="51">
       <c r="A16" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" s="7">
         <v>2005</v>
@@ -5359,23 +5440,23 @@
     </row>
     <row r="17" spans="1:8" ht="51">
       <c r="A17" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" s="7">
         <v>2005</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -5393,11 +5474,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5409,7 +5490,7 @@
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -5450,7 +5531,7 @@
         <v>92</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="7">
         <v>1884</v>
@@ -5474,7 +5555,7 @@
         <v>92</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E3" s="7">
         <v>1884</v>
@@ -5498,7 +5579,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" s="7">
         <v>1884</v>
@@ -5520,7 +5601,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" s="7">
         <v>1922</v>
@@ -5544,7 +5625,7 @@
         <v>92</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E6" s="7">
         <v>2013</v>
@@ -5568,7 +5649,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E7" s="7">
         <v>2013</v>
@@ -5592,7 +5673,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E8" s="7">
         <v>2013</v>
@@ -5616,7 +5697,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="7">
         <v>2013</v>
@@ -5640,7 +5721,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" s="7">
         <v>2013</v>
@@ -5664,7 +5745,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E11" s="7">
         <v>2013</v>
@@ -5686,7 +5767,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="7">
         <v>2008</v>
@@ -5710,7 +5791,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="7">
         <v>2008</v>
@@ -5730,7 +5811,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="7">
         <v>2008</v>
@@ -5750,7 +5831,7 @@
         <v>106</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E15" s="7">
         <v>2008</v>
@@ -5770,7 +5851,7 @@
         <v>106</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" s="7">
         <v>2008</v>
@@ -5790,7 +5871,7 @@
         <v>106</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17" s="7">
         <v>2008</v>
@@ -5810,7 +5891,7 @@
         <v>106</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="7">
         <v>2008</v>
@@ -5834,7 +5915,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E19" s="7">
         <v>2008</v>
@@ -5856,7 +5937,7 @@
         <v>106</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E20" s="7">
         <v>2008</v>
@@ -5878,7 +5959,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E21" s="7">
         <v>2008</v>
@@ -5900,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E22" s="7">
         <v>2008</v>
@@ -5913,7 +5994,7 @@
     </row>
     <row r="23" spans="1:8" ht="51">
       <c r="A23" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>170</v>
@@ -5922,7 +6003,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23" s="7">
         <v>2008</v>
@@ -5944,7 +6025,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E24" s="7">
         <v>2008</v>
@@ -5966,7 +6047,7 @@
         <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E25" s="7">
         <v>2008</v>
@@ -5979,38 +6060,38 @@
     </row>
     <row r="26" spans="1:8" ht="51">
       <c r="A26" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E26" s="7">
         <v>2005</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="51">
       <c r="A27" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E27" s="7">
         <v>2005</v>
@@ -6023,16 +6104,16 @@
     </row>
     <row r="28" spans="1:8" ht="89.25">
       <c r="A28" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E28" s="2">
         <v>1801</v>
@@ -6043,16 +6124,16 @@
     </row>
     <row r="29" spans="1:8" ht="38.25">
       <c r="A29" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="C29" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E29" s="2">
         <v>1801</v>
@@ -6063,16 +6144,16 @@
     </row>
     <row r="30" spans="1:8" ht="51">
       <c r="A30" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="C30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E30" s="2">
         <v>1801</v>
@@ -6083,16 +6164,16 @@
     </row>
     <row r="31" spans="1:8" ht="25.5">
       <c r="A31" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E31" s="2">
         <v>1801</v>
@@ -6103,16 +6184,16 @@
     </row>
     <row r="32" spans="1:8" ht="51">
       <c r="A32" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E32" s="2">
         <v>1801</v>
@@ -6123,16 +6204,16 @@
     </row>
     <row r="33" spans="1:8" ht="38.25">
       <c r="A33" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E33" s="2">
         <v>1801</v>
@@ -6143,16 +6224,16 @@
     </row>
     <row r="34" spans="1:8" ht="25.5">
       <c r="A34" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E34" s="2">
         <v>1801</v>
@@ -6163,16 +6244,16 @@
     </row>
     <row r="35" spans="1:8" ht="51">
       <c r="A35" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E35" s="2">
         <v>1801</v>
@@ -6183,16 +6264,16 @@
     </row>
     <row r="36" spans="1:8" ht="76.5">
       <c r="A36" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E36" s="2">
         <v>1801</v>
@@ -6203,16 +6284,16 @@
     </row>
     <row r="37" spans="1:8" ht="63.75">
       <c r="A37" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E37" s="2">
         <v>1801</v>
@@ -6223,16 +6304,16 @@
     </row>
     <row r="38" spans="1:8" ht="102">
       <c r="A38" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E38" s="2">
         <v>1801</v>
@@ -6241,21 +6322,21 @@
         <v>69</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="51">
       <c r="A39" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E39" s="2">
         <v>1801</v>
@@ -6266,16 +6347,16 @@
     </row>
     <row r="40" spans="1:8" ht="102">
       <c r="A40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E40" s="2">
         <v>1801</v>
@@ -6286,16 +6367,16 @@
     </row>
     <row r="41" spans="1:8" ht="63.75">
       <c r="A41" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E41" s="2">
         <v>1801</v>
@@ -6306,16 +6387,16 @@
     </row>
     <row r="42" spans="1:8" ht="102">
       <c r="A42" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2">
         <v>1830</v>
@@ -6329,10 +6410,10 @@
     </row>
     <row r="43" spans="1:8" ht="114.75">
       <c r="A43" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>72</v>
@@ -6340,10 +6421,10 @@
     </row>
     <row r="44" spans="1:8" ht="114.75">
       <c r="A44" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>72</v>
@@ -6351,18 +6432,86 @@
     </row>
     <row r="45" spans="1:8" ht="102">
       <c r="A45" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="89.25">
       <c r="A46" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="51">
+      <c r="A47" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>451</v>
+      <c r="B47" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="89.25">
+      <c r="A48" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="102">
+      <c r="A49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="127.5">
+      <c r="A50" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="114.75">
+      <c r="A51" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="153">
+      <c r="A52" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="63.75">
+      <c r="A53" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Contra!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pro!$A$1:$H$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Contra!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Pro!$1:$1</definedName>
   </definedNames>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="533">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -1312,9 +1313,6 @@
     <t>Über die Zeit, wie lange die Vaccine oder Revaccine schüzen soll, fehlt es an allen Beweisen. Personen, welche die Blattern überstanden haben, sind von der besten Gesundheit. Blatternnarbige werden selten schwindsüchtig. Geimpfte sind weniger tüchtig für Strapazen.</t>
   </si>
   <si>
-    <t>Nittinger, Impfhexe, S. 3-4</t>
-  </si>
-  <si>
     <t>Nittinger, Impfhexe, S. 3.</t>
   </si>
   <si>
@@ -1545,6 +1543,204 @@
   </si>
   <si>
     <t>Wilhelm Mandt, Pracitsche Darstellung der wichtigsten ansteckenden Epidemieen und Epizootien in ihrer Bedeutung für die medicinische Polizei, Berlin, 1828, S. 190-191.</t>
+  </si>
+  <si>
+    <t>Die wichtigste Waffe der Bekämpfung der Blatternverbreitung ist die Schutzimpfung. Natürlich müssen Blatternkranke sofort verläßlich isoliert und alle ihre Ausscheidungen, wie auch die mit ihnen in Berührung gekommenen Gegenstände sorgfältig fortlaufend desinfiziert werden.</t>
+  </si>
+  <si>
+    <t>Ludwig Fejes, Die Enststehung, Verbreitung und Verhütung der Seuchen, mit Erfahrungen aus dem Felde, Berlin, Wien, 1917, S. 107.</t>
+  </si>
+  <si>
+    <t>Die Blattern sind eine, mit charakteristischer Blasenbildung einhergehende akute Infektionskrankheit. Von ihrer Bedeutung hat sie seit der allgemeinen Einführung der obligaten Blatternschutzimpfung viel verloren.Früher trat sie aber in Gestalt der schwersten Volksseuche in Erscheinung. Der allgemeine Impfzwang hat ein epidemisches Auftreten der Blattern zu den größten Seltenheiten gestaltet. Wird die Seuche auch von anderen Ländern eingeschleppt, so verursacht sie keine Epidemie; die Schutzgeimpften erkranken überhaupt nicht oder nur sehr leicht. Es ist sehr wichtig, daß der BLatternkranke sofort verläßlich isoliert wird [...]</t>
+  </si>
+  <si>
+    <t>Fejes, S. 103 u . 109.</t>
+  </si>
+  <si>
+    <t>Es wird vielfach bestritten, dass die Vaccination vor den Pocken schützt. [...] Die Summe der Erfahrung der einzelnen Ärzte. [...] Die Mehrzahl der Ärzte hat in frühereh Jahren grössere Zahlen von Pockenkranken in Behandlung gehabt, nach Einführung des Impfgesetzes ist die Krankheit in Deutschland sehr selten geworden.</t>
+  </si>
+  <si>
+    <t>M. Schulz, Impfung, Impfgeschäft und Impftechni. Ein kurzer Leitfaden für Studierende und Arzte, Berlin, 1888, S. 10.</t>
+  </si>
+  <si>
+    <t>Die Wirkung der Vaccination wird für den Sachverständigen zweifellos erwiesen durch die in tausenden von Fällen im Anfang dieses Jahrhunderst an Geimpften (Anm.: mit Kuhpocken) ausgeführten erfolglosen Variolationen.</t>
+  </si>
+  <si>
+    <t>Schulz, S. 10</t>
+  </si>
+  <si>
+    <t>Der wichtigste Prüfstein des Nutzens der Impfung ist eine gut ausgearbeitete Statstik der Pocken-Todesfälle.  [...] Das einmalige Überstehen der Pockenkrankheit verleiht mit seltenen Ausnahmen Schutz gegen ein nochmaliges Befallenwerden von derselben. Die IMpfung mit Vaccine ist imstande, einen ähnlichen Schutz zu bewirken.</t>
+  </si>
+  <si>
+    <t>Schulz, S. 11 u. 14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachteilige Folgen der Impfung: Von besonderer Wichtig ist das Imüferysipel. Dasselbe unterscheidet sich inbezug auf seinen Verlauf nicht von der gewöhnlichen Wundrose. Die Prognose ist sehr verschieden, aber unter schlechten hygienischen Verhältnissen eine besonders ungüstige.Es hat öfter allerlei Nachkrankheiten wie z.B. vielfache Abscesse im Gefolge und kann au fverschiedne Weise am häufigsten unter Collapsus-Erscheinungen zum Tode führen. </t>
+  </si>
+  <si>
+    <t>Schulz, S. 22, 1888</t>
+  </si>
+  <si>
+    <t>Schulz, S. 24</t>
+  </si>
+  <si>
+    <t>Besonders wichtig aber ist die Ueberimpfung der Syphilis bei der Vaccination, deren Vorkommen unzweifelhaft festgestellt ist. Man kennt ungefähr 50 Fälle derselben mit etwa 700 Einzelübertragungen. Da sich diese Zahl aber auf Millionen von Impfungen verteilt, so ist da Vorkommnis ei relativ sehr seltenes.</t>
+  </si>
+  <si>
+    <t>Die Impfung kann unter Umständen mit Gefahr für den Impfling verbunden sein. Bei der Impfung mit Menschenlymphe ist die Gefahr der Übertragung von Syphilis obwohl ausserordentlich gering, doch icht gänzlich ausgeschlossen. Von anderen Impfschädigugen kommen nachweisbar nur accidentelle Wundkrankheiten vor. All diese GEfahren können durch sorgfälltige Ausführung der Impfung auf einen so geringen Umfang beschrängt werden, dass der Nutzen der Impfung den eventuellen Schaden derselben unendlich überwiegt.</t>
+  </si>
+  <si>
+    <t>Schulz, S. 27.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit Einführung der Impfung hat sich keine wissenschaftlich nachweisbare Zunahme bestimmter Krankheiten oder der Sterblichkeit im Allgemeinen geltend gemacht, welche als eine Folge der Impfung anzusehen wäre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da die mit der Impfung mit Mentschenlymphe unter Umständen verbundenen Gefahren für Gesundheit und Leben der Imflinge (Impfsyphilis, Impferysipel u.s.w.) durch die Impfung mit Tierlymphe, soweit es sich um direkte Übertragung der Syphilis oder der accidentellen Wundkrenkaheiten handelt, vermieden werden können und da die Impfung mit Tierlymphe in der neuzeit soweit vervollkommnet ist, dass sie der Impfung mit Menschen_Lymphe fast gleich zu stellen ist, so hat die Impfung mit Tierlymphe thunlichst an Stelle der Menschenlymphe zu treten. </t>
+  </si>
+  <si>
+    <t>Schulz, S. 27-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Impfgegner wollen an die Stelle der Vaccination Isolierung der Pockenkranken und Desinfektion setzen. Beides ist natürlich notwendig, abr nicht allein wirksam. Eine Isolierung ohne Vaccination ist nicht durchführbar, da das den Kranken überwachende Personal dann selbst empfänglich wäre, den Infections-Keim aufnehmen und die Krankheit weiter verbreiten würde. Diese Methode hat auch schon früher gründlich Fiasko gemacht. </t>
+  </si>
+  <si>
+    <t>Schulz, S. 32.</t>
+  </si>
+  <si>
+    <t>Ferner wird die Behauptung aufgestellt (Anm.: von den Impfgegnern), das Nachlassen der Pocken in Deutschland nach Erlass des Impfgesetzes sei nicht als eine Wirkung des Letzteren anzusehen, sondern die natürliche Folge der Epidemie von 1870/71durch welche ein grosser Teil der Bevölkerung geblattert, also immun geworden sei. Der Gegenbeweis liegt darin, dass in Ländern ohne Vaccinations- und Revaccinationszwang, obwohl sie ebenfalls im Anfang der siebziger Jahre heftige Epidemieen zu überstehen hatten, die Pocken wieder ebenso grosse Mortalitäten bewirken wie früher, während sie in Deutschland fast vollkommen aufgehört haben.</t>
+  </si>
+  <si>
+    <t>Das Zurückgehen der Pockenepidemie in der neuen Zeit gegenüber den Vrhältnissen des vorigen Jahrhunderst soll Folge der höheren Zivilisation, nicht der Impfung sein. Den Gegenbeweis liefert die grosse Pockenepidmie zu Anfang der siebziger Jahre, welche sich na die ganze Zivilisation nicht kehrte und die mangelhaft durchimpfte Bevölkerung decimierte.</t>
+  </si>
+  <si>
+    <t>Es ist eine wichtige Thatsache, daß die Operation des Kuhpockeneinimpfens, auf dieselbe Art angestellt als die Einimpfung der Blattern, bey (?) durch sie hervorgebrachten Krankheite einen milderen Charakter einprägt, und den Ausgang derselben sicherer macht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die eingeimpften Kuhpocken haben, in Ansehung der Gutartigkeit und Sicherheit, eben so große Vorzüge vor den eingeimpften Blattern, als letztere vor den natürlichen Blattern.  Die Erfahrungen, die man bis jetzt über die Einimpfung der Kuhpocken gemacht hat, scheinen zu beweisen, daß sie in jedem Alter- selbst in der zartesten Kindheit mit der größten Sicherheit vorgenommen werden könne.  Im Allgemeinen sind indeß dieselben Vorsichtsregeln in Ansehung der EInimpfung dieser Krankheit zu empfehlen, welche man, als bewährt, beim Einimpfen der Blattern befolgt. </t>
+  </si>
+  <si>
+    <t>S.  32--33</t>
+  </si>
+  <si>
+    <t>S 49.</t>
+  </si>
+  <si>
+    <t>So viel bis jetzt die Erfahrung gelehrt hat, sind die Kuhpocken von der ihnen eigenen Beschaffenheit auch nicht um das Geringste abgewichen; die Einimpfung derselben zeigt noch immer dieselben Vortheile, die sie bey ihrem ersten Bekanntwerden mit sich führte; [...] Fahren wir daher immer fort mit Einimpfung dieser wohlthätigen Krankheit; wir können es unbesorgt thun, denn sicher werden wir am Ende nicht die Bemerkung machen dürfen, daß die Blattenkrankheit unter einer anderen Gestalt eingeführt sey.</t>
+  </si>
+  <si>
+    <t>sicherheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man kann zuversichtlich behaupten, daß die Kuhpocken, sie mögen sich zeigen in welcher Form sie wollen, in keinem ihrer Stadien dem Leben des Kranken die geringste Gefahr drohen. </t>
+  </si>
+  <si>
+    <t>S. 50</t>
+  </si>
+  <si>
+    <t>Man hat oft die wichtige Bemerkung gemacht, daß nach den Blattern, wenn längst alle übrigen Symptome der Krankheit verwunden sind, sehr oft der Körper an Skrofeln leidet [...] Kein ähnliches Phänomen zeigt sich nach den Kuhpocken. Ob dies der GElindigkeit, welche diese Krankheit charakterisiert, oder einer anderen, verstecktern, in der Natur derselben gegründeten Ursache beizumessen sey, dies hat noch nicht mit Sicherheit bestimmt werden können.</t>
+  </si>
+  <si>
+    <t>Als sicher und gefahrlos kann man den Blatternimpfling in keinem Falle betrachten. Bei den Kuhpocken hat man niemals Gefahr zu ahnden, denn wenn man auch einzelne Fälle, in welchen Impflinge starbe, wirklich allein auf Rechnung dieser Krankheit setzen will, so verlieren sich dieselben doch dergestalt unter der unübersehbaren Menge vollkomen glücklicher Fälle, daß der Gedanke an die Kuhpockenimpfung nie etwas Aengstliches mit sich führen kann.</t>
+  </si>
+  <si>
+    <t>S. 51</t>
+  </si>
+  <si>
+    <t>Diejenigen, welche, von religiösen Vorurtheilen geleitet, die Einimpfung der Blattern verwerfen, weil sie es für unrecht halten, jemanden eine Krankheit bedächtlich mitzutheilen, die, wiewohl minder gefährlich, doch nicht ganz gefahrlos ist, auch diese werden in der Einimpfung der Kuhpocken nichts finden können, was ihnen die Einführung derselben verwerflich machen könnte.</t>
+  </si>
+  <si>
+    <t>C. R. Aikin, Kurze Uebersicht der wichtigsten Erfahrungen über die Kuhpocken, Pesth, 1802, S. 26</t>
+  </si>
+  <si>
+    <t>Wundarzt</t>
+  </si>
+  <si>
+    <t>Pfarrer</t>
+  </si>
+  <si>
+    <t>religiöse Motive</t>
+  </si>
+  <si>
+    <t>Schon die Einrichtung der Natur, der natürliche Instinkt der Eltern, sowohl bey Menschen als Thieren, und die Hilfsbedürftigkeit des Kindes zeigen uns den Willen des Schöpfers nur zu deutlich an, daß die Eltern für ihre Kleinen machen sollen; die Religion schärfet diese Pflicht sehr ernstlich ein. Alle, welche sich durch Starrsinn, Aberglaube, sträfliche Unwissenheit, [...] etwas zu thun, oder zu unterlassen, wodruch das Leben oder auch nur die Gesundheit der Kinder irgedn einer großen Gefahr ausgesetzt wird, erfüllen die Elternpflicht nicht, und sind daher bey Gott strafbar. Nun ist aber, there Eltern! nichts gefährlicher für das Leben, und die Gesundheit eurer lieben Kinder, als die natürlichen Blattern.</t>
+  </si>
+  <si>
+    <t>Johann Kumpfhofer, Predigt von der Pficht der Eltern ihren Kindern die Kuhpocken einimpfen zu lassen, Linz, 1808, S. 11.</t>
+  </si>
+  <si>
+    <t>[..] Ich will dadurch euch, und andere aufmuntern, für´s künftige die große, unschätzbare Wohlthat, die uns Gott durch die gemachte Entdeckung der Kuhpockenimpfung, als eines gewissen, zuverlässigen Mittels gegen die natürlichen, mit so groer Gefahr verbundenen Blattern an die Hand gegeben hat, besser zum Wohl eurer von Gott euch anvertrauten Kinder zu benützen.</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, S. 13</t>
+  </si>
+  <si>
+    <t>Was aber die anderen Zweifel und Bedenklichkeiten, die ihr etwa noch dagegen haben möget, betrifft; so müssen diese von selst verschwinden, wenn ich euch sage: daß nicht nur alle Aerzte, und so viele andere recht versätndige Leute, die dabey ihre Kinder so zärtlich, als ihr die eurigen lieben; sondern selbst auch die ersten Häupter dieser Welt christliche Kaiser, Könige und FÜrsten, von der guten Sache ganz überzeugt, die Kuhpocken ihren Kindern einimpfen, und sie dadurch vor den so gefährlichen natürlichen Blattern schütuen lassen.</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, S. 14</t>
+  </si>
+  <si>
+    <t>Vorbild der Obrigkeit</t>
+  </si>
+  <si>
+    <t>Diese hat unter andern hohen gekrönten Häuptern dieser Welt, der österreichische Kaiser, Franz der Erste, unser gnädigster Landesfürst, nicht nur an seinen eigenen Kindern gethan; sondern auch aus wahrer väterlicher Sorgfalt für eure Kinder schon mehrmalen den Seelsorgern den gemessenen Auftrag gegeben, euch afuzumuntern, das Nämliche an euren Kindern zu thun.</t>
+  </si>
+  <si>
+    <t>Kaiserliche Empfehlung</t>
+  </si>
+  <si>
+    <t>Siehe Aufsatz Pammer "Vom Beichtzettel zum Impfzeugnis</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, S. 14--15.</t>
+  </si>
+  <si>
+    <t>Gewissen?</t>
+  </si>
+  <si>
+    <t>Wenn ihr denn aber noch anstehet, euren Kindern die Schutzblattern einimpfen zu lassen; so stellet euch ijt im Gedanken jenen alle Augenblicke mglichen Zeitpunkt vor, wo eure Kindern von der Blatternseuche ergriffen da liegen werden, in wildem, hefitgen Fraisen, [...] vom Scheitel bis zur Fußsohle vol Beulen, daßß ihr nicht wisset, wo ihr sie angreifen sollt,  alles Augenlichtes beraubt, und überhaupt, mit einem Worte, kaum kenntlich mehr nach ihrer vorigen Gestalt. Stelet euch vor, wie ihr dann mit langem, zerrissenen Herzen bey dem Jammerlager [...] da stehen werdet, zwar bereit, ihnen zu helfen, aber unvermögend ihren Jammer zu stillen. Was aber dann diesen euren, ohnehin schon so betrübten Zustande noch fürchterlicher, ja schreckbar machen muß, ist dieses: Daß von nun an, als ich euch diese Predigt gehlten habe, euch euer eigenes GEwissen laut zurufen wird: Allen diesen Jammer hätte ich mir, und meinem lieben Kinde ersparen können, wenn ich zur rechten Zeit der väterlichen Ermahnung meines gnädigsten Landesfürsten und dem herzlichen wohlmeinden Rathe meines treuen Seelsorgers GEhör gegeben und Folge geleistet hätte [...] Nun aber bin ich Vater! Mutter! [...] an meinem eigenen Kinde zum Mörder -- ja zum Mörder geworden.</t>
+  </si>
+  <si>
+    <t>Saget nicht: Ich habe viele Kinder, welche die Blattern leicht und glücklich überstanden haben; denn ist es nicht schon unrecht, sie einer so großen möglichen Gefahr loß zu stellen? Und handelt ihr väterlich an ihnen, wenn ihr durch Verabsäumung des Mittels, das ihr bey Händen habt, es aufs Geradewohl ankommen lasset, ob sie gerettet werden oder nicht? Seyd ihr denn, als Eltern nicht auf das strengste verpflichtet, für die Erhaltung des Lebens, und der Gesundheit eurer Kinder nach aller Möglichkeit zu sorgen?</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, S. 16</t>
+  </si>
+  <si>
+    <t>O! Welchen Jammer würden die Eltern dadurch sich, und ihren Kindern ersparen, und welche Freude dir, dem Gott der Kleinen, durch Erfüllung auch dieser ihrer Pflicht [Anm: bezieht sich auf Pflicht der Eltern Gesundheit der Kinder zu erhalten, i.d.F. durch Kuhpockenimpfung] verursachen.</t>
+  </si>
+  <si>
+    <t>Direktor der Staatlichen Impfanstalt Wien</t>
+  </si>
+  <si>
+    <t>Carl Georg Gottlob Nittinger, Gott und Abgott oder die Impfhexe, Stuttgart, 1863, S. 3-4.</t>
+  </si>
+  <si>
+    <t>Wie man diesem Wesen der Kuhpocken gegenüber eine Schutzkraft gegen Menschenblattern in der Impfung mit dem Inhalt der ersteren hat fnden wollen, das ist schwer zu begreifen, da erfahrungsgemäss und nach den Gesetzen der Physiologie nur ein richtiges diätetisches Verhalten im Stande ist uns vor Krankheit und Ansteckung zu schützen, und jede giftige Substanz, somit auch der "Virus", auf lebende Organismen übertragen, Strömungen des Allgemeinbefindens, krankhafte Erscheinungen etc. hervorbringt und selbst den Fortbestand des Lebens gefährdet.</t>
+  </si>
+  <si>
+    <t>Lehrer?</t>
+  </si>
+  <si>
+    <t>Director der vom Staate approbirten schwedisch-gymnastischen Heil-Anstalt zu Berlin. IM Selbstverlag erschienen.</t>
+  </si>
+  <si>
+    <t>Friedrich Becker, Impfen oder Nichtimpfen. Beitrag zur Lösung der grossen Tagesfrage über den Impfzwang und zur Behandlung der Blatternkrankheit, Berlin, 1872, S. 13</t>
+  </si>
+  <si>
+    <t>Becker, S. 14</t>
+  </si>
+  <si>
+    <t>Die Bräune (Anm.: Halsbräune oder Croup verm Keuchhusten) kommt am häufigsten im Fürhjahr und Herbst vor, und da vorzugsweise Kinder in den ersten Lebensjahren - vom ersten bis vieren Jahre - davon befallen werden, so möchte die Vermuthung nicht ganz ungegründet sein, dass ein hauptsächlicher Anlass dazu in der so nachtheiligen Kuhpocken-Impfung, welche sich gleichwie eine syphilitische Ansteckung in den Schleimhäuten der Luftröhre etc. manifestirt und sogar noch nach Jahren Verheerungen anrichtet, zu suchen sein, denn erst seit Einführung der Impfung scheint die Halsbärune so furchtbar in ihren Wirkungen aufzutreten.</t>
+  </si>
+  <si>
+    <t>Infolge der Impfung beobachtet man viele Krankheitserscheinungen, welche grosse Aehnlichkeit mit den syphilitisch Angesteckten haben: zB. Mattigkeit, Appetitlosigkeit, fieberhafte Zustände, Kopfschmerz, unruhiger Schlafe, Schmerzgefühl längs des Rückgrats, Schmerzen und Anschewellung der Drüsen, katarrhalische Beschwerden [...]; die Gesichtszüge der Geimpften verändern sich, die Haut schwillt an, der Athem wird übelriechend, [...]das Auge wird glanzlos und wässrig.</t>
+  </si>
+  <si>
+    <t>Becker, S. 18.</t>
+  </si>
+  <si>
+    <t>Ja auf den Todtenhöfen bei dem Anblick so vieler Gräber geknickter Blumen der Elternliebe, da sollte Jeder, welcher noch an die Hexerei der Impfung glaubt, im Sack und in der Asche Busse thun. [...] Ein Gang auf die Todtenhöfe Berli´s muss gewiss den ärgsten Impf-Fanatiker zur Raison und zum Nachdenken bringen und auf Ursachen der erschreckend grossen Sterblichkeit der Kinder hinführen, die ausserhalb des gesetzlichen Ganges der Natur liegen.</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1849,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1936,11 +2132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1982,675 +2178,771 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5">
+    <row r="2" spans="1:8" ht="114.75">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E2" s="7">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="25.5">
+        <v>69</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="114.75">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+        <v>219</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E3" s="7">
-        <v>2002</v>
+        <v>1834</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+        <v>220</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E4" s="7">
-        <v>2002</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="25.5">
+    <row r="5" spans="1:8" ht="38.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E5" s="7">
-        <v>2002</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="38.25">
+    <row r="6" spans="1:8" ht="114.75">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E6" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.25">
+        <v>69</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="114.75">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+        <v>223</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E7" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="38.25">
+    <row r="8" spans="1:8" ht="76.5">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E8" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="38.25">
+    <row r="9" spans="1:8" ht="89.25">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+        <v>207</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E9" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="38.25">
+        <v>69</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+        <v>211</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E10" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="38.25">
+        <v>69</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="102">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E11" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="38.25">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="76.5">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+        <v>217</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E12" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="204">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+        <v>224</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E13" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="38.25">
+    <row r="14" spans="1:8" ht="178.5">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>379</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+        <v>380</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E14" s="7">
-        <v>2004</v>
+        <v>1857</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="89.25">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>381</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+        <v>382</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E15" s="7">
-        <v>2004</v>
+        <v>1857</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.25">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="102">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>384</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+        <v>385</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E16" s="7">
-        <v>2004</v>
+        <v>1857</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="38.25">
+    <row r="17" spans="1:8" ht="114.75">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>386</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+        <v>387</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E17" s="7">
-        <v>2004</v>
+        <v>1857</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="38.25">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="140.25">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>389</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+        <v>390</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E18" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1857</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="38.25">
+    <row r="19" spans="1:8" ht="102">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>391</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+        <v>392</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E19" s="7">
-        <v>2004</v>
+        <v>1857</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="38.25">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+        <v>523</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E20" s="7">
-        <v>2004</v>
+        <v>1863</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="38.25">
+    <row r="21" spans="1:8" ht="51">
       <c r="A21" s="7" t="s">
-        <v>28</v>
+        <v>395</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+        <v>396</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E21" s="7">
-        <v>2004</v>
+        <v>1864</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25">
+    <row r="22" spans="1:8" ht="127.5">
       <c r="A22" s="7" t="s">
-        <v>29</v>
+        <v>397</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+        <v>398</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E22" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1865</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="38.25">
+    <row r="23" spans="1:8" ht="89.25">
       <c r="A23" s="7" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+        <v>400</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E23" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1866</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="38.25">
+    <row r="24" spans="1:8" ht="127.5">
       <c r="A24" s="7" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+        <v>402</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E24" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>1867</v>
+      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="38.25">
+    <row r="25" spans="1:8" ht="140.25">
       <c r="A25" s="7" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+        <v>404</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E25" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>1868</v>
+      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="38.25">
+    <row r="26" spans="1:8" ht="89.25">
       <c r="A26" s="7" t="s">
-        <v>33</v>
+        <v>405</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+        <v>406</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E26" s="7">
-        <v>2004</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>1869</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="38.25">
+    <row r="27" spans="1:8" ht="102">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1870</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="38.25">
+    <row r="28" spans="1:8" ht="153">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>409</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1871</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="38.25">
+    <row r="29" spans="1:8" ht="76.5">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1872</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="38.25">
+    <row r="30" spans="1:8" ht="102">
       <c r="A30" s="7" t="s">
-        <v>39</v>
+        <v>368</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
-        <v>35</v>
+        <v>373</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1879</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="38.25">
+      <c r="H30" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="89.25">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1879</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="25.5">
+    <row r="32" spans="1:8" ht="89.25">
       <c r="A32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+        <v>371</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E32" s="7">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="25.5">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="76.5">
       <c r="A33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+        <v>376</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="E33" s="7">
-        <v>1884</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>1879</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>58</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="25.5">
       <c r="A34" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7">
-        <v>1884</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>1880</v>
+      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25.5">
       <c r="A35" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>59</v>
@@ -2668,9 +2960,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="25.5">
+    <row r="36" spans="1:8" ht="38.25">
       <c r="A36" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>59</v>
@@ -2688,869 +2980,811 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="38.25">
+    <row r="37" spans="1:8" ht="25.5">
       <c r="A37" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7">
-        <v>1880</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>1884</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G37" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="25.5">
       <c r="A38" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7">
+        <v>1884</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="25.5">
+      <c r="A39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <v>1884</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="25.5">
+      <c r="A40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
         <v>1888</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="114.75">
-      <c r="A39" s="7" t="s">
+    <row r="41" spans="1:8" ht="89.25">
+      <c r="A41" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="63.75">
+      <c r="A42" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1889</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="114.75">
+      <c r="A43" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7">
-        <v>1922</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" ht="63.75">
-      <c r="A40" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7">
-        <v>1987</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" ht="38.25">
-      <c r="A41" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" ht="76.5">
-      <c r="A42" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7">
-        <v>2007</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" ht="76.5">
-      <c r="A43" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="7">
-        <v>2007</v>
+        <v>1922</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="76.5">
+    <row r="44" spans="1:8" ht="63.75">
       <c r="A44" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="7">
-        <v>2007</v>
+        <v>1987</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="191.25">
+      <c r="A45" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="102">
+      <c r="A46" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1995</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="38.25">
-      <c r="A45" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E45" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="114.75">
-      <c r="A46" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E46" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="140.25">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="25.5">
       <c r="A47" s="7" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E47" s="7">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="51">
       <c r="A48" s="7" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E48" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="76.5">
+    <row r="49" spans="1:8" ht="102">
       <c r="A49" s="7" t="s">
-        <v>148</v>
+        <v>356</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E49" s="7">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="89.25">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="76.5">
       <c r="A50" s="7" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>159</v>
+        <v>360</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E50" s="7">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="127.5">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="102">
       <c r="A51" s="7" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E51" s="7">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="89.25">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="76.5">
       <c r="A52" s="7" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E52" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F52" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="51">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="127.5">
       <c r="A53" s="7" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E53" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="51">
+    <row r="54" spans="1:8" ht="89.25">
       <c r="A54" s="7" t="s">
-        <v>171</v>
+        <v>365</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E54" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>79</v>
+        <v>1995</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" ht="51">
       <c r="A55" s="7" t="s">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E55" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>1995</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="G55" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" ht="51">
+        <v>70</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="25.5">
       <c r="A56" s="7" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>2002</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G56" s="7" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="51">
+    <row r="57" spans="1:8" ht="25.5">
       <c r="A57" s="7" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F57" s="7"/>
+        <v>2002</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G57" s="7" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="51">
+    <row r="58" spans="1:8" ht="25.5">
       <c r="A58" s="7" t="s">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>2002</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G58" s="7" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="63.75">
+    <row r="59" spans="1:8" ht="25.5">
       <c r="A59" s="7" t="s">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F59" s="7"/>
+        <v>2002</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G59" s="7" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="114.75">
+    <row r="60" spans="1:8" ht="38.25">
       <c r="A60" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F60" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G60" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="114.75">
+        <v>70</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="38.25">
       <c r="A61" s="7" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="7">
-        <v>1834</v>
+        <v>2004</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="25.5">
+    <row r="62" spans="1:8" ht="38.25">
       <c r="A62" s="7" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G62" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" ht="38.25">
       <c r="A63" s="7" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G63" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="114.75">
+    <row r="64" spans="1:8" ht="38.25">
       <c r="A64" s="7" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G64" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="114.75">
+        <v>70</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" ht="38.25">
       <c r="A65" s="7" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G65" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="76.5">
+    <row r="66" spans="1:8" ht="38.25">
       <c r="A66" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G66" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="89.25">
+    <row r="67" spans="1:8" ht="38.25">
       <c r="A67" s="7" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="51">
+        <v>70</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" ht="38.25">
       <c r="A68" s="7" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F68" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G68" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="102">
+        <v>70</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" ht="38.25">
       <c r="A69" s="7" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F69" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G69" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="76.5">
+        <v>70</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" ht="38.25">
       <c r="A70" s="7" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G70" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="204">
+        <v>70</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" ht="38.25">
       <c r="A71" s="7" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="7">
-        <v>1834</v>
-      </c>
-      <c r="F71" s="7"/>
+        <v>2004</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G71" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="76.5">
+    <row r="72" spans="1:8" ht="38.25">
       <c r="A72" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="7">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="102">
-      <c r="A73" s="8" t="s">
-        <v>239</v>
+        <v>70</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" ht="38.25">
+      <c r="A73" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>243</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="38.25">
       <c r="A74" s="7" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>5</v>
@@ -3560,21 +3794,17 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="102">
+    <row r="75" spans="1:8" ht="38.25">
       <c r="A75" s="7" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>5</v>
@@ -3582,25 +3812,19 @@
       <c r="G75" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="76.5">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" ht="38.25">
       <c r="A76" s="7" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>5</v>
@@ -3610,21 +3834,17 @@
       </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" ht="51">
+    <row r="77" spans="1:8" ht="38.25">
       <c r="A77" s="7" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>5</v>
@@ -3634,21 +3854,17 @@
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="76.5">
+    <row r="78" spans="1:8" ht="38.25">
       <c r="A78" s="7" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>5</v>
@@ -3658,123 +3874,103 @@
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" ht="51">
+    <row r="79" spans="1:8" ht="38.25">
       <c r="A79" s="7" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="114.75">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" ht="38.25">
       <c r="A80" s="7" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="7">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="51">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" ht="76.5">
       <c r="A81" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>261</v>
+        <v>231</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E81" s="7">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8" ht="63.75">
+        <v>237</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="76.5">
       <c r="A82" s="7" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="7">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H82" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" ht="76.5">
       <c r="A83" s="7" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="7">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>5</v>
@@ -3784,424 +3980,416 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="89.25">
+    <row r="84" spans="1:8" ht="76.5">
       <c r="A84" s="7" t="s">
-        <v>264</v>
+        <v>89</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="7">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" ht="63.75">
+    <row r="85" spans="1:8" ht="38.25">
       <c r="A85" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>261</v>
+        <v>142</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E85" s="7">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" ht="114.75">
+      <c r="A86" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E86" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="140.25">
+      <c r="A87" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8" ht="76.5">
-      <c r="A86" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E86" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="H87" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="51">
+      <c r="A88" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E88" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="1:8" ht="76.5">
-      <c r="A87" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E87" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="1:8" ht="102">
-      <c r="A88" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E88" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="89.25">
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" ht="76.5">
       <c r="A89" s="7" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E89" s="7">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>277</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="89.25">
       <c r="A90" s="7" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E90" s="7">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="127.5">
       <c r="A91" s="7" t="s">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E91" s="7">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="89.25">
+      <c r="A92" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E92" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="51">
+      <c r="A93" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E93" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" ht="51">
+      <c r="A94" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H91" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="25.5">
-      <c r="A92" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E92" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="1:8" ht="25.5">
-      <c r="A93" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E93" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="140.25">
-      <c r="A94" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E94" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="63.75">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" ht="51">
       <c r="A95" s="7" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E95" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="1:8" ht="102">
+        <v>176</v>
+      </c>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" ht="51">
       <c r="A96" s="7" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C96" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E96" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="F96" s="7"/>
       <c r="G96" s="7" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" ht="51">
       <c r="A97" s="7" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C97" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E97" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="F97" s="7"/>
       <c r="G97" s="7" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="63.75">
+    <row r="98" spans="1:8" ht="51">
       <c r="A98" s="7" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C98" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E98" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="F98" s="7"/>
       <c r="G98" s="7" t="s">
-        <v>297</v>
+        <v>130</v>
       </c>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" ht="76.5">
+    <row r="99" spans="1:8" ht="63.75">
       <c r="A99" s="7" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E99" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>2008</v>
+      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="7" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="51">
+    <row r="100" spans="1:8" ht="165.75">
       <c r="A100" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>354</v>
       </c>
       <c r="E100" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F100" s="7"/>
+        <v>2012</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G100" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:8" ht="165.75">
+      <c r="H100" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="191.25">
       <c r="A101" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>302</v>
@@ -4213,21 +4401,21 @@
         <v>2012</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="191.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="38.25">
       <c r="A102" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>302</v>
@@ -4239,21 +4427,17 @@
         <v>2012</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="38.25">
+        <v>6</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" ht="114.75">
       <c r="A103" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>302</v>
@@ -4265,17 +4449,21 @@
         <v>2012</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8" ht="114.75">
+        <v>5</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="89.25">
       <c r="A104" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>302</v>
@@ -4286,22 +4474,20 @@
       <c r="E104" s="7">
         <v>2012</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="F104" s="7"/>
       <c r="G104" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="89.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="76.5">
       <c r="A105" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>302</v>
@@ -4312,20 +4498,22 @@
       <c r="E105" s="7">
         <v>2012</v>
       </c>
-      <c r="F105" s="7"/>
+      <c r="F105" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G105" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="76.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="127.5">
       <c r="A106" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>302</v>
@@ -4337,21 +4525,21 @@
         <v>2012</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="127.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="114.75">
       <c r="A107" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>302</v>
@@ -4363,21 +4551,21 @@
         <v>2012</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="114.75">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="102">
       <c r="A108" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>302</v>
@@ -4389,21 +4577,19 @@
         <v>2012</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>324</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" ht="102">
       <c r="A109" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>302</v>
@@ -4415,19 +4601,19 @@
         <v>2012</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="102">
+    <row r="110" spans="1:8" ht="114.75">
       <c r="A110" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>302</v>
@@ -4439,19 +4625,19 @@
         <v>2012</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>330</v>
+        <v>5</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" ht="114.75">
+    <row r="111" spans="1:8" ht="127.5">
       <c r="A111" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>302</v>
@@ -4466,16 +4652,16 @@
         <v>5</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" ht="127.5">
+    <row r="112" spans="1:8" ht="153">
       <c r="A112" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>302</v>
@@ -4490,16 +4676,16 @@
         <v>5</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="153">
+    <row r="113" spans="1:8" ht="114.75">
       <c r="A113" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>302</v>
@@ -4511,43 +4697,45 @@
         <v>2012</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="114.75">
-      <c r="A114" s="7" t="s">
-        <v>337</v>
+    <row r="114" spans="1:8" ht="102">
+      <c r="A114" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>354</v>
       </c>
       <c r="E114" s="7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>339</v>
+        <v>5</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="1:8" ht="191.25">
+        <v>169</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="38.25">
       <c r="A115" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>374</v>
+        <v>241</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>92</v>
@@ -4556,10 +4744,10 @@
         <v>354</v>
       </c>
       <c r="E115" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>342</v>
+        <v>5</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>70</v>
@@ -4568,10 +4756,10 @@
     </row>
     <row r="116" spans="1:8" ht="102">
       <c r="A116" s="7" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>92</v>
@@ -4580,7 +4768,7 @@
         <v>354</v>
       </c>
       <c r="E116" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>5</v>
@@ -4588,14 +4776,16 @@
       <c r="G116" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" spans="1:8" ht="25.5">
+      <c r="H116" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="76.5">
       <c r="A117" s="7" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>92</v>
@@ -4604,7 +4794,7 @@
         <v>354</v>
       </c>
       <c r="E117" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>5</v>
@@ -4616,10 +4806,10 @@
     </row>
     <row r="118" spans="1:8" ht="51">
       <c r="A118" s="7" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>92</v>
@@ -4628,7 +4818,7 @@
         <v>354</v>
       </c>
       <c r="E118" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>5</v>
@@ -4638,12 +4828,12 @@
       </c>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="102">
+    <row r="119" spans="1:8" ht="76.5">
       <c r="A119" s="7" t="s">
-        <v>356</v>
+        <v>250</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>92</v>
@@ -4652,7 +4842,7 @@
         <v>354</v>
       </c>
       <c r="E119" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>5</v>
@@ -4662,12 +4852,12 @@
       </c>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="76.5">
+    <row r="120" spans="1:8" ht="51">
       <c r="A120" s="7" t="s">
-        <v>359</v>
+        <v>252</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>360</v>
+        <v>253</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>92</v>
@@ -4676,7 +4866,7 @@
         <v>354</v>
       </c>
       <c r="E120" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>5</v>
@@ -4684,14 +4874,16 @@
       <c r="G120" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="1:8" ht="102">
+      <c r="H120" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="114.75">
       <c r="A121" s="7" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>92</v>
@@ -4700,7 +4892,7 @@
         <v>354</v>
       </c>
       <c r="E121" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>5</v>
@@ -4708,14 +4900,16 @@
       <c r="G121" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" spans="1:8" ht="76.5">
+      <c r="H121" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="51">
       <c r="A122" s="7" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>92</v>
@@ -4724,7 +4918,7 @@
         <v>354</v>
       </c>
       <c r="E122" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>5</v>
@@ -4734,12 +4928,12 @@
       </c>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="127.5">
+    <row r="123" spans="1:8" ht="63.75">
       <c r="A123" s="7" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>92</v>
@@ -4748,22 +4942,24 @@
         <v>354</v>
       </c>
       <c r="E123" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>342</v>
+        <v>5</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="1:8" ht="89.25">
+      <c r="H123" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="76.5">
       <c r="A124" s="7" t="s">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>92</v>
@@ -4772,22 +4968,22 @@
         <v>354</v>
       </c>
       <c r="E124" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="51">
+    <row r="125" spans="1:8" ht="89.25">
       <c r="A125" s="7" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>92</v>
@@ -4796,22 +4992,22 @@
         <v>354</v>
       </c>
       <c r="E125" s="7">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="102">
+    <row r="126" spans="1:8" ht="63.75">
       <c r="A126" s="2" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>92</v>
@@ -4820,57 +5016,93 @@
         <v>354</v>
       </c>
       <c r="E126" s="2">
-        <v>1879</v>
+        <v>2013</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="89.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="76.5">
       <c r="A127" s="2" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="89.25">
+        <v>266</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E127" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="76.5">
       <c r="A128" s="2" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>372</v>
+        <v>269</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E128" s="2">
+        <v>2013</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="76.5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="102">
       <c r="A129" s="2" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>377</v>
+        <v>273</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E129" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="178.5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="89.25">
       <c r="A130" s="2" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>92</v>
@@ -4879,21 +5111,24 @@
         <v>354</v>
       </c>
       <c r="E130" s="2">
-        <v>1857</v>
+        <v>2013</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>69</v>
+        <v>276</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="89.25">
       <c r="A131" s="2" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>92</v>
@@ -4902,153 +5137,399 @@
         <v>354</v>
       </c>
       <c r="E131" s="2">
-        <v>1857</v>
+        <v>2013</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="102">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="127.5">
       <c r="A132" s="2" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>385</v>
+        <v>285</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E132" s="2">
+        <v>2013</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="114.75">
+      <c r="G132" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="25.5">
       <c r="A133" s="2" t="s">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="140.25">
+        <v>286</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="25.5">
       <c r="A134" s="2" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="102">
+        <v>286</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="140.25">
       <c r="A135" s="2" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>392</v>
+        <v>287</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2013</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G135" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="H135" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="38.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="63.75">
       <c r="A136" s="2" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>396</v>
+        <v>287</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2013</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="51">
+      <c r="G136" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="102">
       <c r="A137" s="2" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>397</v>
+        <v>291</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2013</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="127.5">
+      <c r="G137" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="51">
       <c r="A138" s="2" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="89.25">
+        <v>294</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E138" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="63.75">
       <c r="A139" s="2" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="127.5">
+        <v>296</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E139" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="76.5">
       <c r="A140" s="2" t="s">
-        <v>402</v>
+        <v>299</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="140.25">
+        <v>298</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E140" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="51">
       <c r="A141" s="2" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="89.25">
+        <v>301</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E141" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="38.25">
       <c r="A142" s="2" t="s">
-        <v>406</v>
+        <v>36</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="102">
+        <v>41</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="38.25">
       <c r="A143" s="2" t="s">
-        <v>408</v>
+        <v>37</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="153">
+        <v>41</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="38.25">
       <c r="A144" s="2" t="s">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="76.5">
+        <v>41</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="38.25">
       <c r="A145" s="2" t="s">
-        <v>412</v>
+        <v>39</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>413</v>
+        <v>41</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="38.25">
+      <c r="A146" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="38.25">
+      <c r="A147" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="114.75">
+      <c r="A148" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1872</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="127.5">
+      <c r="A149" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="89.25">
+      <c r="A150" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="89.25">
+      <c r="A151" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H101"/>
+  <sortState ref="A2:H147">
+    <sortCondition ref="E2:E147"/>
+  </sortState>
   <pageMargins left="0" right="0.70866141732283472" top="7.874015748031496E-2" bottom="0.52854166666666669" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5396,7 +5877,7 @@
     </row>
     <row r="15" spans="1:8" ht="127.5">
       <c r="A15" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>203</v>
@@ -5474,11 +5955,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5520,12 +6001,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5">
+    <row r="2" spans="1:8" ht="89.25">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>92</v>
@@ -5534,22 +6015,20 @@
         <v>349</v>
       </c>
       <c r="E2" s="7">
-        <v>1884</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="10" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="25.5">
+    <row r="3" spans="1:8" ht="38.25">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>415</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>92</v>
@@ -5558,22 +6037,20 @@
         <v>349</v>
       </c>
       <c r="E3" s="7">
-        <v>1884</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10" t="s">
         <v>69</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="38.25">
+    <row r="4" spans="1:8" ht="51">
       <c r="A4" s="7" t="s">
-        <v>48</v>
+        <v>417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>92</v>
@@ -5582,44 +6059,42 @@
         <v>349</v>
       </c>
       <c r="E4" s="7">
-        <v>1884</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10" t="s">
         <v>69</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="63.75">
+    <row r="5" spans="1:8" ht="25.5">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>418</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E5" s="7">
-        <v>1922</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>1801</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="38.25">
+    <row r="6" spans="1:8" ht="51">
       <c r="A6" s="7" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>100</v>
+        <v>423</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>92</v>
@@ -5628,22 +6103,20 @@
         <v>349</v>
       </c>
       <c r="E6" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>1801</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="63.75">
+    <row r="7" spans="1:8" ht="38.25">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>101</v>
+        <v>422</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>92</v>
@@ -5652,22 +6125,20 @@
         <v>349</v>
       </c>
       <c r="E7" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>95</v>
+        <v>1801</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="38.25">
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>425</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>92</v>
@@ -5676,22 +6147,20 @@
         <v>349</v>
       </c>
       <c r="E8" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>1801</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="38.25">
+    <row r="9" spans="1:8" ht="51">
       <c r="A9" s="7" t="s">
-        <v>97</v>
+        <v>426</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>427</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>92</v>
@@ -5700,22 +6169,20 @@
         <v>349</v>
       </c>
       <c r="E9" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>95</v>
+        <v>1801</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25">
+    <row r="10" spans="1:8" ht="76.5">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>102</v>
+        <v>429</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>92</v>
@@ -5724,22 +6191,20 @@
         <v>349</v>
       </c>
       <c r="E10" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>1801</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25">
+    <row r="11" spans="1:8" ht="63.75">
       <c r="A11" s="7" t="s">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>92</v>
@@ -5748,773 +6213,1543 @@
         <v>349</v>
       </c>
       <c r="E11" s="7">
-        <v>2013</v>
+        <v>1801</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>95</v>
+      <c r="G11" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="38.25">
+    <row r="12" spans="1:8" ht="63.75">
       <c r="A12" s="7" t="s">
-        <v>105</v>
+        <v>432</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>108</v>
+        <v>433</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E12" s="7">
-        <v>2008</v>
+        <v>1801</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>95</v>
+      <c r="G12" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="38.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51">
       <c r="A13" s="7" t="s">
-        <v>143</v>
+        <v>435</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E13" s="7">
-        <v>2008</v>
+        <v>1801</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="38.25">
+    <row r="14" spans="1:8" ht="102">
       <c r="A14" s="7" t="s">
-        <v>109</v>
+        <v>437</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E14" s="7">
-        <v>2008</v>
+        <v>1801</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="63.75">
       <c r="A15" s="7" t="s">
-        <v>111</v>
+        <v>439</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>112</v>
+        <v>440</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E15" s="7">
-        <v>2008</v>
+        <v>1801</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25">
+    <row r="16" spans="1:8" ht="51">
       <c r="A16" s="7" t="s">
-        <v>113</v>
+        <v>490</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>114</v>
+        <v>502</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E16" s="7">
-        <v>2008</v>
+        <v>1802</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="38.25">
+    <row r="17" spans="1:8" ht="89.25">
       <c r="A17" s="7" t="s">
-        <v>118</v>
+        <v>491</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>119</v>
+        <v>492</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E17" s="7">
-        <v>2008</v>
+        <v>1802</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="38.25">
+    <row r="18" spans="1:8" ht="76.5">
       <c r="A18" s="7" t="s">
-        <v>123</v>
+        <v>494</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>493</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E18" s="7">
-        <v>2008</v>
+        <v>1802</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>495</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="38.25">
       <c r="A19" s="7" t="s">
-        <v>128</v>
+        <v>496</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>129</v>
+        <v>497</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E19" s="7">
-        <v>2008</v>
+        <v>1802</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="38.25">
+    <row r="20" spans="1:8" ht="76.5">
       <c r="A20" s="7" t="s">
-        <v>131</v>
+        <v>498</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E20" s="7">
-        <v>2008</v>
+        <v>1802</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="10" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="38.25">
+    <row r="21" spans="1:8" ht="76.5">
       <c r="A21" s="7" t="s">
-        <v>133</v>
+        <v>499</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>132</v>
+        <v>500</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>106</v>
+        <v>503</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>349</v>
       </c>
       <c r="E21" s="7">
-        <v>2008</v>
+        <v>1802</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="63.75">
+      <c r="A22" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1802</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="114.75">
+      <c r="A23" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="63.75">
+      <c r="A24" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="89.25">
+      <c r="A25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="63.75">
+      <c r="A26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="178.5">
+      <c r="A27" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="89.25">
+      <c r="A28" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="51">
+      <c r="A29" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="63.75">
+      <c r="A30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1828</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="102">
+      <c r="A31" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="114.75">
+      <c r="A32" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="114.75">
+      <c r="A33" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="102">
+      <c r="A34" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="89.25">
+      <c r="A35" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="51">
+      <c r="A36" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="25.5">
+      <c r="A37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1884</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="25.5">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1884</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="38.25">
+      <c r="A39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1884</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="51">
+      <c r="A40" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="38.25">
+      <c r="A41" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="51">
+      <c r="A42" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="89.25">
+      <c r="A43" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="38.25">
+      <c r="A44" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="89.25">
+      <c r="A45" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="102">
+      <c r="A46" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="76.5">
+      <c r="A47" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="63.75">
+      <c r="A48" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="89.25">
+      <c r="A49" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="102">
+      <c r="A50" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="127.5">
+      <c r="A51" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="114.75">
+      <c r="A52" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="153">
+      <c r="A53" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="51">
+      <c r="A54" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1917</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" ht="102">
+      <c r="A55" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1917</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="63.75">
+      <c r="A56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1922</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="51">
+      <c r="A57" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2005</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="51">
+      <c r="A58" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2005</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" ht="38.25">
+      <c r="A59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E59" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="38.25">
+      <c r="A60" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E60" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="38.25">
+      <c r="A61" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="38.25">
+      <c r="A62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E62" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="38.25">
+      <c r="A63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="38.25">
+      <c r="A64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E64" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" ht="38.25">
+      <c r="A65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E65" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" ht="38.25">
+      <c r="A66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="7" t="s">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" ht="38.25">
+      <c r="A67" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E67" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" ht="38.25">
+      <c r="A68" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E68" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" ht="51">
+      <c r="A69" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C69" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E69" s="7">
         <v>2008</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="51">
-      <c r="A23" s="7" t="s">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" ht="51">
+      <c r="A70" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C70" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E70" s="7">
         <v>2008</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8" t="s">
+      <c r="F70" s="7"/>
+      <c r="G70" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="51">
-      <c r="A24" s="7" t="s">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" ht="51">
+      <c r="A71" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C71" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E71" s="7">
         <v>2008</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8" t="s">
+      <c r="F71" s="7"/>
+      <c r="G71" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="51">
-      <c r="A25" s="7" t="s">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" ht="51">
+      <c r="A72" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C72" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E72" s="7">
         <v>2008</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8" t="s">
+      <c r="F72" s="7"/>
+      <c r="G72" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="51">
-      <c r="A26" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2005</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="51">
-      <c r="A27" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27" s="7">
-        <v>2005</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="89.25">
-      <c r="A28" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" ht="38.25">
+      <c r="A73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E28" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="38.25">
-      <c r="A29" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="E73" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" ht="63.75">
+      <c r="A74" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E29" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51">
-      <c r="A30" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E74" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" ht="38.25">
+      <c r="A75" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E30" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="25.5">
-      <c r="A31" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E75" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" ht="38.25">
+      <c r="A76" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E31" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="51">
-      <c r="A32" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E76" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" ht="38.25">
+      <c r="A77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E32" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="38.25">
-      <c r="A33" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E77" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" ht="38.25">
+      <c r="A78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="25.5">
-      <c r="A34" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="51">
-      <c r="A35" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="76.5">
-      <c r="A36" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="63.75">
-      <c r="A37" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="102">
-      <c r="A38" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="51">
-      <c r="A39" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="102">
-      <c r="A40" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="63.75">
-      <c r="A41" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1801</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="102">
-      <c r="A42" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1830</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="114.75">
-      <c r="A43" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="114.75">
-      <c r="A44" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="102">
-      <c r="A45" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="89.25">
-      <c r="A46" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="51">
-      <c r="A47" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="89.25">
-      <c r="A48" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="102">
-      <c r="A49" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="127.5">
-      <c r="A50" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="114.75">
-      <c r="A51" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="153">
-      <c r="A52" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="63.75">
-      <c r="A53" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="E78" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H78" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
+  <sortState ref="A2:H78">
+    <sortCondition ref="E2:E78"/>
+  </sortState>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
@@ -2124,7 +2124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2134,9 +2134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5957,9 +5957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Contra!$A$1:$H$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pro!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pro!$A$1:$H$85</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Contra!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Pro!$1:$1</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="652">
   <si>
     <t>Unwirksamkeit von Impfung</t>
   </si>
@@ -156,13 +156,7 @@
     <t>?????</t>
   </si>
   <si>
-    <t>Einhalt der Seuchen gewährt den Menschen größere Freiheit</t>
-  </si>
-  <si>
     <t>Dr. S. Wolffberg, Über die Impfung, S. 161</t>
-  </si>
-  <si>
-    <t>Höchste Pflicht der Medizin besteht darin, vor Krankheiten zu bewahren und Seuchen für alle vermeidbar zu machen</t>
   </si>
   <si>
     <t>Gesellschaftlicher Nutzen</t>
@@ -247,9 +241,6 @@
 Diptherie</t>
   </si>
   <si>
-    <t>Jakob Bernheim-Karrer, Gesundheitspflege des Kindes, 2. Auflag, Zürich, 1922,  S. 166. (Zitiert nach: Jana Gärtner, Elternratgeber im Wandel)</t>
-  </si>
-  <si>
     <t>Das Vorbeugen gegen Infektionskrankheiten durch Impfen, sind ein wahrer Hohn auf die göttlichen Naturgesetze</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>Theodor Munch, De große Bluff. Irrwege und Lügen der Alternativmedizin, Berlin, 2013, S. 234</t>
   </si>
   <si>
-    <t>wirkung</t>
-  </si>
-  <si>
     <t>Mehrere Untersuchungen an Schülern weisen nicht nur nach, dass kein Zusammenhang zwischen Allergien und Impfung besteht. Eher ist es umgekehrt.</t>
   </si>
   <si>
@@ -394,9 +382,6 @@
     <t>Pneumokokken/Menigokokken</t>
   </si>
   <si>
-    <t>invasive Hib-Erkrankungen sind seit Einführung der Impfung deutlich zurückgegangen</t>
-  </si>
-  <si>
     <t>Hib</t>
   </si>
   <si>
@@ -409,18 +394,12 @@
     <t>Martina Lenzen-Schulte, Impfunge. 99 verblüffende Tatsachen, Wackernheim, 2008, S. 84</t>
   </si>
   <si>
-    <t>Impfbeführworter sehen in den (Masern) Epedemien einen Beweis für die Rückständigkeit und Rücksichtslosigkeit der Impfgegner, die ihre Kinder unnötig gefährden.</t>
-  </si>
-  <si>
     <t>Martina Lenzen-Schulte, Impfunge. 99 verblüffende Tatsachen, Wackernheim, 2008, S. 87</t>
   </si>
   <si>
     <t>Masern</t>
   </si>
   <si>
-    <t>Der schwerwiegende Vorwurf, die Impfung könnte Autismus begüsntigen, stellte sich als wissenschaftlicher Betrug heraus</t>
-  </si>
-  <si>
     <t>Martina Lenzen-Schulte, Impfunge. 99 verblüffende Tatsachen, Wackernheim, 2008, S. 92</t>
   </si>
   <si>
@@ -592,9 +571,6 @@
     <t>Um die Masern mit hoher Wahrscheinlichkeit zu verhindern, genügt die Impfung vor Aufnahme in den Kindergarten. Spätesens mit 10 Jahren sollte das Kind geimpft werden, da die Masernkomplikationen mit dem Alter zunehmen. Die Masernimpfung hat in vielen Ländern zu einem deutlichen Rückgang der Masern geführt.</t>
   </si>
   <si>
-    <t>Die allgemeine (Menigokokken)impfempfehlung für Einjährige betrifft die Menigokokken C, di ein diesem Alter eine nur untergeordnete und tendenziell abenhmende Rolle spielen</t>
-  </si>
-  <si>
     <t>Martin Hirte, Impfen, Pro &amp; Contra. Das Handbuch für eine individuelle Impfentscheidung, München, 2008, S. 242.</t>
   </si>
   <si>
@@ -619,18 +595,12 @@
     <t>Nach dem Vernunftrechte ist die allgemeine Kuhpockenimpfung für unzulässig zu halten, weil sie in das Recht der physischen Integrität des Menschen eingreift.</t>
   </si>
   <si>
-    <t>Die Voraussetzung, daß fast jeder Mensch die Pocken bekommen müsse und von ihren Gefahren bedroht werde, ist nicht begründet. Es gibt Gegenden, die verschont geblieben sind [...]. Selbst da, wo sie gewühtet haben, ist ein Theil der Menschen nicht von ihnen angesteckt worden.  [...] Viele Krankheiten lenrte die, sich immer mahr ausbildende Kusnt, besser behandeln. Es läßt sich daher auch erwarten, daß sie die Gefahren der Pocken nach und nach werde mildern lernen, ohne eines zweifelhaften Vorbauungsmittels zu bedürfen.</t>
-  </si>
-  <si>
     <t>Die Annahme, daß die Kuhpockenimpfung Schutz gegen die natürlichen Blattern gewähre, hat die Probe nicht gehalten.</t>
   </si>
   <si>
     <t>Menschen, welche so geimpft waren, daß die Aechtheit ihrer Kuhpocken keinem Zweifel unterlag, haben die natürlichen Blattern wieder bekommen.</t>
   </si>
   <si>
-    <t>Die Meinung, daß das, nach vorausgegangener Kuhpockenimpfung beobachtete, den natürlichen Blattern entsprechende Eranthem wesentlich von diesen verschieden sey, gründet sich auf den unersschütterlichen Glauben an die Unfehlbarkeit von Jenners Tochter. (damit ist die Impfung gemeint) Die Varioloiden sind mit den natürlichen Blattern identisch [...]</t>
-  </si>
-  <si>
     <t>Es ist angenommen worden, daß die Sterblichkeit der Pocken, nach Einführung der Kuhpockenimpfung, sehr gering sey und ungefähr von 10.000 Menschen nur einer noch unterliegen. [...] Es ist aber noch sehr zweifelhaft, ob wirklich ein solcher Unterschied in diesen Sterblichkeitsverhältnissen durch die Schutzkraft der Kuhpockenimpfung herbeigeführt wird, weil die meisten Ungeimpften, welche an den Blattern gestorben sind, zwarte Kinder waren, und die bekannte große Sterblichkeit des kindlichen Alters mit in Anschlag gebracht werden muß.</t>
   </si>
   <si>
@@ -650,9 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Schreiber ist der Impfung nicht grundsätzlich abgeneigt, beanstandet aber die zu seiner Zeit vorhandenen "Mängel", wie kurze Wirksamkeit, keine Revaccine, von Mensch zu Mensch impfen was die Lymphe mangelhaft macht...daher auch als Skeptiker eingeordnent</t>
   </si>
   <si>
     <t>Bezieht sich darauf, dass von Arm zu Arm geimpft wurde und sich die Pockenlympen dadurch verändern vl sogar abschwächen. Auf Folgeseiten versucht er Versuche zu erklären Kühe mit Menschenpocken zu infizieren...</t>
@@ -1367,154 +1334,55 @@
     <t>H.M. Husson, Historische und medizinische Untersuchungen über die Kuhpockenkrankheit, Marburg, 1801, S. 78</t>
   </si>
   <si>
-    <t>Die zahlreichen bis auf den heutigen Tag angestellten Erfahrungen lassen keinen Zweifel über die Unschädlichkeit der Kuhpockenkrankheit. In keinem Fall e folgte auf sie weder Furunkeln, noch Augenentzündungen, noch Ohrenschmerzen, was man so oft nach der Blatternkrankheit, selbst wenn man sie einimpft, stestehen sieht. Sie bringt in dem Blute keine Verderbnis, noch einen seiner Natur fremden Fehler hervor: auch hat man noch keineswegs bemerkt, daß sie eine prädisponierende Ursache zu irgend einer Krankheit gewesen sey.</t>
-  </si>
-  <si>
     <t>Die Kuhpocken sind immer an sich ohne Gefahr. Sie erzeugen nie einen bedenklichen Zufall. Es ist bis jetzt noch kein Individuum an der Impfung derselben alleine gestorben</t>
   </si>
   <si>
-    <t>Husson, S. 82</t>
-  </si>
-  <si>
-    <t>Da die Kuhpocken sich nicht durch Ausdünstungen mittheilen, und in uns die Fähigkeit die Kinderblattern zu bekommen, zerstört; so kann man mit Recht hoffen, daß durch die Impfung der Kuhpocken allein, diese leztere Krankheit, wie der Aussatz, u. A. Uebel ganz aus Europa verschwinden werde.</t>
-  </si>
-  <si>
-    <t>Husson, S. 84</t>
-  </si>
-  <si>
     <t>Die Kuhpockenkrankheit erregt keine andere Pusteln als am Impforte, hat keine Verunstaltungen zur Folge.</t>
   </si>
   <si>
     <t>Die Kuhpocken sind keine prädisponierende Ursache zu irgend einer Krankheit. Man hat sie vortheilhafte Veränderungen in der Constitution einiger cacochymischen Individuen erzeugen, und kränkliche, erbliche und constitutionelle Dispositionen zerstören sehen.</t>
   </si>
   <si>
-    <t>Die Kuhpockenkrankheit hat einen so regelmäßigen Gang, daß ihre Einförmigkeit eine grose Quelle von Unruhe weniger ist, und dieses als einer der Hauptvorzüge der Kuhpckenimpfung angesehen werden kann.</t>
-  </si>
-  <si>
-    <t>Husson, S. 85--86.</t>
-  </si>
-  <si>
-    <t>Husson, S. 84--85</t>
-  </si>
-  <si>
     <t>Kein Umstand des Lebens (Anm.: Schwangerschaft, Zahnen) ist Gegenanzeige zu der Kuhpockenimpfung</t>
   </si>
   <si>
-    <t>Husson, S. 86</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Berichte der Engländer, der Genfer, der Franzosen, welche immer, was den Gang die Unschädlichkeit, und die schützende Kraft der Kuhpockenkrankheit betrifft, gleichförmig sind, sind es auch über die beynahe gänzliche Abwesenheit der Sterblichkeit während der Imfpung der Kuhpocken. </t>
   </si>
   <si>
-    <t>Husson, S. 93</t>
-  </si>
-  <si>
-    <t>Das Fieber, welches die Entwickelung der Kuhpockenkrankheit anzeigt, erhebt das Lebensprinzip, beugt veilleicht, durch die Bewegung, welche es in der thierischen Oekonomie erregt, einer gefährlichen Krankheit vor; sie führt eine heilsame Crise herbe, welche zu einer Art von Reinigung bestimmt; stellt im Individuum das durch so verschiedene Ursachen geestörte Gleichgewicht wieder her, und in diesem Sinne kann man sage, daß sie die Wharscheinlichkeit der Lebensdauer vermehrt.</t>
-  </si>
-  <si>
-    <t>Husson, S. 96</t>
-  </si>
-  <si>
-    <t>Husson, S. 102.</t>
-  </si>
-  <si>
     <t>Es ist ganz sicher, daß in England mehrere Tausend Personen mit Kuhpocken geimpft worden sind; es ist gleichfalls ausgemacht, daß diese Personen die natürlichen Pocken vorher nicht gehabt hatten, und von ihnen seit der Zeit nicht gesteckt worden sind; man hat in Wahrheit noch kein einziges recht bewiesens Beyspiel angeführt, welches der Meinung Jenner´s entgegen stände.</t>
   </si>
   <si>
     <t xml:space="preserve">Man weiß, daß die Kuhpocken keine Krankheit sind, es ist im Gegentheile bewiesen, daß sie eine Wohltat sind, weil sie der Geissel der Kinderblattern zuvorkommen. </t>
   </si>
   <si>
-    <t>Husson, S. 139</t>
-  </si>
-  <si>
     <t>Offenbar gab es zu Beginn der Impfung auch noch eine Gruppe der Kuhpockenimpfgegner weil überzeugt Anhänger der Variolation, der Impfung mit den echten Blattern. Darauf deute der Kommentar von Husson in seinem Buch an. Er erwähnt dafür einen "Herren Baumes"</t>
   </si>
   <si>
     <t xml:space="preserve">Endlich hat der medizinische Ausschuß zu Reims durch eine der schönsten, bis jetzt in Frankreich gemachten, Beobachtungen bewiesen, daß das von den Zizen der Kühe genommene Kuhpockengift die nämliche Reihe von Zufällen erzeugt, als wenn es vom Menschen genommen ist. </t>
   </si>
   <si>
-    <t>Husson, S. 143</t>
-  </si>
-  <si>
     <t>Was den Einwurf betrifft, daß man glaubt, eine Menge von Fehlern würde dem Kuhpockengifte nach mehreren Generationen mitgetheilt; so ist dieser ganz von aller Vernunft entblößt [...] Die Erfahrung hat im Gegentheile bewiesen, daß Menschenblattern von übler Art, von einem sehr kränklichen Kinde genommen und selbst in einen sehr ungesunden Körper verpflanz, die schönsten und glücklichsten Blattern erzeugt haben;  während Materie, welche aus den schönsten Pusteln, von dem gesundesten Körper genommen, zuweilen eine zusammenfließende und tödliche Blatternkrankheit erzeugte.</t>
   </si>
   <si>
-    <t>Husson, S. 144-145</t>
-  </si>
-  <si>
     <t>Man kennt das WIE nicht, aber man weis daß die Sache ganz sicher ist. Man würde fruchtlos sich mit weitläuftigen (sic!) Untersuchungen über die Art, wie die Kuhpocken in uns die Fähigkeit, die Kinderblattern zu bekommen, zerstören können, erschöpfen: [...] es ist genug, daß die Thatsache wahr, und durch zahlreiche Erfahrugen bestätigt ist.</t>
   </si>
   <si>
-    <t>Husson, S. 159.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Allen Kindern der Hofmarkt Steingaden, 200 an der Zahl, sind erst vor Kurzem die Schutzpocken glücklich eingeimpft, und auch selbst Versuche bei Kindern, welche die natürlichen Blattern schon gehabt haben, gemacht worden; ohne daß dieselben dafür mehr eine Empfänglichkeit zeigten. </t>
   </si>
   <si>
-    <t>Eben so sah ich oft Skropheln, böse Augen, Milchschorf, trockene Husten, Kopfgrind, ungeachtet der vorher vergebens angewandten Arzneimittel, durch die Anwendung der Vaccination verschwinden. Aus diesen und von anderen Aerzten bekannt gemachten ähnliche Erfahrunge erhellet, daß die Schutzpockenimpfung die größte Wohlthat für die Menschheit ist, daher nie genug verbreitet werden kann; indem aus den sorgfälltigst angestellten Erfahrungen und Prüfungen aller Art unter dne verschiedenen Himmelsstrichen und amnnigfaltigsten Umständen sie die unwiederlegbare Wahrheit bgründen, daß, wer die ächten Kuhpocken überstanden hat, niemals mehr von den Menschenblattern befallen wird.</t>
-  </si>
-  <si>
     <t>Da die wohlthätigen Eigenschaften der Kuhpocken, die sie vor den Menschenblattern gewähren, von den gelehrtesten Beobachtern geschildert worden sind, führe ich bloß einige auch mir vorgekommene Fälle an. Die Kuhpocken können zu jeder Zeit geimpft, in jedem, noch so zarten Kindesalter, bei Schwangeren bis zur Niederkunft, ja selbst im höchsten Greisenalter angewendet werden. Ich impfte sie im Frühjahre, Sommer, Herbst und Winter immer mit gleich gutem Erfolge. Ferner sind sie oft schwächlichen Kindern ungemein zuträglich, indem sie durch ihre wohlthätige Veränderung im menschlichen Organismus das Zahnen erleichtern, Hautkrankheiten bei ihrer Abtrocknung heben.</t>
   </si>
   <si>
-    <t>Giel, S. 15</t>
-  </si>
-  <si>
-    <t>Giel S. 13--14</t>
-  </si>
-  <si>
     <t>Franz Seraph Giel, Die Schutzpocken=Impfung in Bayern, vom Anbeginn ihrer Entstehung und gesetzlichen Einführung  bis auf gegenwärtige Zeit. Dann mit besonderer Beobachtung derselben in auswärtigen Staaten, München, 1830, S. 20</t>
   </si>
   <si>
-    <t>Die Vaccine hat sich bis hieher, aller Anfechtungen ungeachtet, als das einzige Schutzmitel gegen die Blattern bewährt. Auch die laufende Epidemie trägt dazu bei, ihre Wohlthaten in ein helleres Licht zu stellen, und man wird die Wuth des Exanthems nicht eher zähmen können, als bisman zu einer allgemeinen Impfung, die vorzüglich alle Neugeborenen in sich begreifen muß, seine Zuflucht nimmt. Kein Mittel der Hygiene, kein Rath der Medizinpolizei wird die armen Geschöpfe vor dem tödtlichen Einflusse der Miasmen zu schützen im Stande seyn, die sie heut mit dem ersten Athemzuge einsaugen.</t>
-  </si>
-  <si>
-    <t>Giel, S. 380-381</t>
-  </si>
-  <si>
-    <t>Giel, S. 387</t>
-  </si>
-  <si>
-    <t>Der Augenblick ist gekommen, wo die Impfung in den Rang unserer Nationaleinrichtungen treten und geradezu unter dem Schutze und dem Einflusse der Gesetze wirken muß. Dreißig Jahre wohlthätiger Kraftäusserung geben einen wohlbegründeten, einen achtbaren Anspruch, um endlich von Seiten der eltigitmen Macht das Bürgerrecht zu erhalten; ich will sagen, die Impfung muß, soll sie anders in Freiheit ihren Segen verbreiten, erzwungen werden. Ein Gesetz, welches diese Maßregel in Schutz nehmen soll, verletzt das Naturrecht keinesweges.</t>
-  </si>
-  <si>
     <t>Die Wiederimpfung, nur in dieser Absicht ausgeübt, würde, statt als Gebot der Nothwendigkeit, die Menge zu beruhigen, eine Quelle des Trostes, ein Unterpfand für die Zukunft werden, und endlich die Vaccine von jedem Vorwurfe der Treulosigkeit, welche man ihr bisweilen gemacht hat, befreien.</t>
   </si>
   <si>
-    <t>Giel, S. 406</t>
-  </si>
-  <si>
     <t>Viele Aerzte sind in der That der Meinung, daß die Kuhpockenimpfung nur für eine gewisse Zeit schütze. Man zählt so manche Opfer aus den Reihen der Kranken, deren Vaccination verjährt ist. [...] Wenn nun die Kuhpockenimpfung nur eine Zeit des Individuum gegen die Pocken schützt, so ist nach Vrlauf derselben wiederum ein Theil der gesammten Staatsglieder für ungeschützt und für fähig zu halten, das Blatterncontagium aufzunehmen und weiter zu verbreiten. Vor allen Dingen wäre nun zu erforschen: wie lange dauert die Schutzkraft der Vaccine, und wann muß die allgemeine Revaccination vorgenommen werden?</t>
   </si>
   <si>
-    <t xml:space="preserve">Den Einfluss der Impfung und Wiederimpfung auf die Pockensterblichkeit kann man am deutlichsten wahrnehmen, wenn man einen Blick auf die folgende Zusammenstellung wirft, [...]. In der Civilbevölkerung zeigt sich nach dem Jahre 1874, dem Zeitpunkge der Einführung des Reichs-Impfgesetzes, ein rapider Abfall der Blatternsterblickeit, die seit dieser Zeit constant auf diesem niedrigen Niveau geblieben ist. </t>
-  </si>
-  <si>
-    <t>Gustav Paul, der Nutzen der Schutzpocken-Impfung. Vortrag gehalten am 30.März 1901 in der 87. Vollversammlung des Vereins für Kindergärten und Kinderbewahranstalten in Österreich, Wien, 1901, S. 7</t>
-  </si>
-  <si>
-    <t>Paul, S. 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Nutzen einer genau durchgeführten Revaccination wird zur Evidenz klar, wenn man die Pockensterblichkeit in de Kriegsjahren 1870-1871 der gut geimpften deutschen Armee mit der nur sehr mangelhaft geimpften und revaccinierten französischen Armee in Vergleich zieht. Von der deutschen Armee mit nahezu 1 1/2 Millionen Mann starben an Blattern 459 Mann, von der französischen Armee wurden 23.400 Todesfälle an Blattern berichtet. Diese Erfahrung veranlasste auch die österreichische Herresverwaltung, die obligatorische Impfung und Widerimpfung im Jahre 1886 einzuführen. </t>
-  </si>
-  <si>
-    <t>In den Jahren 1889--1890 hatte is als k.k. Amtsarzt in einem Bezirke Böhmens die traurige Gelegenheite, Zeuge einer ausgebreiteten Blatternepidemie in meinem eigenen Amtsbezirke zu sein, [...] deren Ausbreitung und Intensivität die Folge einer jahrelangen sehr nachlässig gehandhabten Impfung war. Zur Eindämmung der Epidemie nahm ich persönlich [...] die Revaccination von einigen hundert Schulkindern vor [..]. Am Schluß der Epidemie hatte ich die Freude, [...] constatieren zu können, dass kein einziges der von mir mit Erfolg zum Theile erstgeimpften, zum Theile revaccinierten Kindern an Blattern erkrankt war [...]. Die Beweise für den Wert der Impfung liefern also nach dem Gesagten das Experiment, die Erfahrung und die Statistik.</t>
-  </si>
-  <si>
-    <t>Paul, S. 18</t>
-  </si>
-  <si>
-    <t>Das verhältnismäßig geringfügige, nur wenige Tage dauernde und ungefährliche Unwohlsein, welches dem kleinen Impfling aus der Impforocedur erwächst, wird mehr al reichlich aufgewogen durch den unschätzbaren Nutzen, den ihm  der Impfschutz gegen die Blatternansteckung für eine alnge Zeit gewährt. Diese Unbewquemlichkeiten und Gefahren sind gewiss weit geringer als die höchst überflüssige, weitverbreitete und nicht angefochtene Sitte des Ohrenstechens, durch welche nicht so selten, als man es glaubt, Eiterung, Hautausschläge, Geschwüre und Geschwulstbildungen und Übertragungen von ansteckenden Krankheiten durch unreine Instrumente verursacht werden können.</t>
-  </si>
-  <si>
-    <t>Paul, S. 17</t>
-  </si>
-  <si>
     <t>Eine Widerlegung der Behauptung der meist sehr temperamentvollen Impfgegener über Volksvergiftung durch die Impfung und über die Nutzlosigkeit derselben gegen die Blatternansteckung lässt sich ja in einer blatternfreien Zeit - und gerade da sind die Impfgegner am lautesten - durch Vorführung gegentheiliger Beweise am Krankenbette und in der Todtenkammer nicht liefern. Die, wenn auch widersinnigen, jedoch wegen der Möglichkeit der Irreführung der Bevlökerung für die Volkswohlfahrt sehr gefährlichen Schlesinger´schen Theorien durften daher von sachlicher Seite nicht mit verachtungsvollem Schweigen übergangen, sondern mussten nach Gebür kritisiert und an den Pranger gestellt werden.</t>
-  </si>
-  <si>
-    <t>Paul, S. 15.</t>
   </si>
   <si>
     <r>
@@ -1551,30 +1419,9 @@
     <t>Ludwig Fejes, Die Enststehung, Verbreitung und Verhütung der Seuchen, mit Erfahrungen aus dem Felde, Berlin, Wien, 1917, S. 107.</t>
   </si>
   <si>
-    <t>Die Blattern sind eine, mit charakteristischer Blasenbildung einhergehende akute Infektionskrankheit. Von ihrer Bedeutung hat sie seit der allgemeinen Einführung der obligaten Blatternschutzimpfung viel verloren.Früher trat sie aber in Gestalt der schwersten Volksseuche in Erscheinung. Der allgemeine Impfzwang hat ein epidemisches Auftreten der Blattern zu den größten Seltenheiten gestaltet. Wird die Seuche auch von anderen Ländern eingeschleppt, so verursacht sie keine Epidemie; die Schutzgeimpften erkranken überhaupt nicht oder nur sehr leicht. Es ist sehr wichtig, daß der BLatternkranke sofort verläßlich isoliert wird [...]</t>
-  </si>
-  <si>
-    <t>Fejes, S. 103 u . 109.</t>
-  </si>
-  <si>
-    <t>Es wird vielfach bestritten, dass die Vaccination vor den Pocken schützt. [...] Die Summe der Erfahrung der einzelnen Ärzte. [...] Die Mehrzahl der Ärzte hat in frühereh Jahren grössere Zahlen von Pockenkranken in Behandlung gehabt, nach Einführung des Impfgesetzes ist die Krankheit in Deutschland sehr selten geworden.</t>
-  </si>
-  <si>
-    <t>M. Schulz, Impfung, Impfgeschäft und Impftechni. Ein kurzer Leitfaden für Studierende und Arzte, Berlin, 1888, S. 10.</t>
-  </si>
-  <si>
     <t>Die Wirkung der Vaccination wird für den Sachverständigen zweifellos erwiesen durch die in tausenden von Fällen im Anfang dieses Jahrhunderst an Geimpften (Anm.: mit Kuhpocken) ausgeführten erfolglosen Variolationen.</t>
   </si>
   <si>
-    <t>Schulz, S. 10</t>
-  </si>
-  <si>
-    <t>Der wichtigste Prüfstein des Nutzens der Impfung ist eine gut ausgearbeitete Statstik der Pocken-Todesfälle.  [...] Das einmalige Überstehen der Pockenkrankheit verleiht mit seltenen Ausnahmen Schutz gegen ein nochmaliges Befallenwerden von derselben. Die IMpfung mit Vaccine ist imstande, einen ähnlichen Schutz zu bewirken.</t>
-  </si>
-  <si>
-    <t>Schulz, S. 11 u. 14.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nachteilige Folgen der Impfung: Von besonderer Wichtig ist das Imüferysipel. Dasselbe unterscheidet sich inbezug auf seinen Verlauf nicht von der gewöhnlichen Wundrose. Die Prognose ist sehr verschieden, aber unter schlechten hygienischen Verhältnissen eine besonders ungüstige.Es hat öfter allerlei Nachkrankheiten wie z.B. vielfache Abscesse im Gefolge und kann au fverschiedne Weise am häufigsten unter Collapsus-Erscheinungen zum Tode führen. </t>
   </si>
   <si>
@@ -1587,45 +1434,12 @@
     <t>Besonders wichtig aber ist die Ueberimpfung der Syphilis bei der Vaccination, deren Vorkommen unzweifelhaft festgestellt ist. Man kennt ungefähr 50 Fälle derselben mit etwa 700 Einzelübertragungen. Da sich diese Zahl aber auf Millionen von Impfungen verteilt, so ist da Vorkommnis ei relativ sehr seltenes.</t>
   </si>
   <si>
-    <t>Die Impfung kann unter Umständen mit Gefahr für den Impfling verbunden sein. Bei der Impfung mit Menschenlymphe ist die Gefahr der Übertragung von Syphilis obwohl ausserordentlich gering, doch icht gänzlich ausgeschlossen. Von anderen Impfschädigugen kommen nachweisbar nur accidentelle Wundkrankheiten vor. All diese GEfahren können durch sorgfälltige Ausführung der Impfung auf einen so geringen Umfang beschrängt werden, dass der Nutzen der Impfung den eventuellen Schaden derselben unendlich überwiegt.</t>
-  </si>
-  <si>
-    <t>Schulz, S. 27.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seit Einführung der Impfung hat sich keine wissenschaftlich nachweisbare Zunahme bestimmter Krankheiten oder der Sterblichkeit im Allgemeinen geltend gemacht, welche als eine Folge der Impfung anzusehen wäre. </t>
   </si>
   <si>
-    <t xml:space="preserve">Da die mit der Impfung mit Mentschenlymphe unter Umständen verbundenen Gefahren für Gesundheit und Leben der Imflinge (Impfsyphilis, Impferysipel u.s.w.) durch die Impfung mit Tierlymphe, soweit es sich um direkte Übertragung der Syphilis oder der accidentellen Wundkrenkaheiten handelt, vermieden werden können und da die Impfung mit Tierlymphe in der neuzeit soweit vervollkommnet ist, dass sie der Impfung mit Menschen_Lymphe fast gleich zu stellen ist, so hat die Impfung mit Tierlymphe thunlichst an Stelle der Menschenlymphe zu treten. </t>
-  </si>
-  <si>
-    <t>Schulz, S. 27-28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Impfgegner wollen an die Stelle der Vaccination Isolierung der Pockenkranken und Desinfektion setzen. Beides ist natürlich notwendig, abr nicht allein wirksam. Eine Isolierung ohne Vaccination ist nicht durchführbar, da das den Kranken überwachende Personal dann selbst empfänglich wäre, den Infections-Keim aufnehmen und die Krankheit weiter verbreiten würde. Diese Methode hat auch schon früher gründlich Fiasko gemacht. </t>
   </si>
   <si>
-    <t>Schulz, S. 32.</t>
-  </si>
-  <si>
-    <t>Ferner wird die Behauptung aufgestellt (Anm.: von den Impfgegnern), das Nachlassen der Pocken in Deutschland nach Erlass des Impfgesetzes sei nicht als eine Wirkung des Letzteren anzusehen, sondern die natürliche Folge der Epidemie von 1870/71durch welche ein grosser Teil der Bevölkerung geblattert, also immun geworden sei. Der Gegenbeweis liegt darin, dass in Ländern ohne Vaccinations- und Revaccinationszwang, obwohl sie ebenfalls im Anfang der siebziger Jahre heftige Epidemieen zu überstehen hatten, die Pocken wieder ebenso grosse Mortalitäten bewirken wie früher, während sie in Deutschland fast vollkommen aufgehört haben.</t>
-  </si>
-  <si>
-    <t>Das Zurückgehen der Pockenepidemie in der neuen Zeit gegenüber den Vrhältnissen des vorigen Jahrhunderst soll Folge der höheren Zivilisation, nicht der Impfung sein. Den Gegenbeweis liefert die grosse Pockenepidmie zu Anfang der siebziger Jahre, welche sich na die ganze Zivilisation nicht kehrte und die mangelhaft durchimpfte Bevölkerung decimierte.</t>
-  </si>
-  <si>
-    <t>Es ist eine wichtige Thatsache, daß die Operation des Kuhpockeneinimpfens, auf dieselbe Art angestellt als die Einimpfung der Blattern, bey (?) durch sie hervorgebrachten Krankheite einen milderen Charakter einprägt, und den Ausgang derselben sicherer macht.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die eingeimpften Kuhpocken haben, in Ansehung der Gutartigkeit und Sicherheit, eben so große Vorzüge vor den eingeimpften Blattern, als letztere vor den natürlichen Blattern.  Die Erfahrungen, die man bis jetzt über die Einimpfung der Kuhpocken gemacht hat, scheinen zu beweisen, daß sie in jedem Alter- selbst in der zartesten Kindheit mit der größten Sicherheit vorgenommen werden könne.  Im Allgemeinen sind indeß dieselben Vorsichtsregeln in Ansehung der EInimpfung dieser Krankheit zu empfehlen, welche man, als bewährt, beim Einimpfen der Blattern befolgt. </t>
-  </si>
-  <si>
-    <t>S.  32--33</t>
-  </si>
-  <si>
-    <t>S 49.</t>
-  </si>
-  <si>
     <t>So viel bis jetzt die Erfahrung gelehrt hat, sind die Kuhpocken von der ihnen eigenen Beschaffenheit auch nicht um das Geringste abgewichen; die Einimpfung derselben zeigt noch immer dieselben Vortheile, die sie bey ihrem ersten Bekanntwerden mit sich führte; [...] Fahren wir daher immer fort mit Einimpfung dieser wohlthätigen Krankheit; wir können es unbesorgt thun, denn sicher werden wir am Ende nicht die Bemerkung machen dürfen, daß die Blattenkrankheit unter einer anderen Gestalt eingeführt sey.</t>
   </si>
   <si>
@@ -1635,18 +1449,6 @@
     <t xml:space="preserve">Man kann zuversichtlich behaupten, daß die Kuhpocken, sie mögen sich zeigen in welcher Form sie wollen, in keinem ihrer Stadien dem Leben des Kranken die geringste Gefahr drohen. </t>
   </si>
   <si>
-    <t>S. 50</t>
-  </si>
-  <si>
-    <t>Man hat oft die wichtige Bemerkung gemacht, daß nach den Blattern, wenn längst alle übrigen Symptome der Krankheit verwunden sind, sehr oft der Körper an Skrofeln leidet [...] Kein ähnliches Phänomen zeigt sich nach den Kuhpocken. Ob dies der GElindigkeit, welche diese Krankheit charakterisiert, oder einer anderen, verstecktern, in der Natur derselben gegründeten Ursache beizumessen sey, dies hat noch nicht mit Sicherheit bestimmt werden können.</t>
-  </si>
-  <si>
-    <t>Als sicher und gefahrlos kann man den Blatternimpfling in keinem Falle betrachten. Bei den Kuhpocken hat man niemals Gefahr zu ahnden, denn wenn man auch einzelne Fälle, in welchen Impflinge starbe, wirklich allein auf Rechnung dieser Krankheit setzen will, so verlieren sich dieselben doch dergestalt unter der unübersehbaren Menge vollkomen glücklicher Fälle, daß der Gedanke an die Kuhpockenimpfung nie etwas Aengstliches mit sich führen kann.</t>
-  </si>
-  <si>
-    <t>S. 51</t>
-  </si>
-  <si>
     <t>Diejenigen, welche, von religiösen Vorurtheilen geleitet, die Einimpfung der Blattern verwerfen, weil sie es für unrecht halten, jemanden eine Krankheit bedächtlich mitzutheilen, die, wiewohl minder gefährlich, doch nicht ganz gefahrlos ist, auch diese werden in der Einimpfung der Kuhpocken nichts finden können, was ihnen die Einführung derselben verwerflich machen könnte.</t>
   </si>
   <si>
@@ -1662,51 +1464,15 @@
     <t>religiöse Motive</t>
   </si>
   <si>
-    <t>Schon die Einrichtung der Natur, der natürliche Instinkt der Eltern, sowohl bey Menschen als Thieren, und die Hilfsbedürftigkeit des Kindes zeigen uns den Willen des Schöpfers nur zu deutlich an, daß die Eltern für ihre Kleinen machen sollen; die Religion schärfet diese Pflicht sehr ernstlich ein. Alle, welche sich durch Starrsinn, Aberglaube, sträfliche Unwissenheit, [...] etwas zu thun, oder zu unterlassen, wodruch das Leben oder auch nur die Gesundheit der Kinder irgedn einer großen Gefahr ausgesetzt wird, erfüllen die Elternpflicht nicht, und sind daher bey Gott strafbar. Nun ist aber, there Eltern! nichts gefährlicher für das Leben, und die Gesundheit eurer lieben Kinder, als die natürlichen Blattern.</t>
-  </si>
-  <si>
-    <t>Johann Kumpfhofer, Predigt von der Pficht der Eltern ihren Kindern die Kuhpocken einimpfen zu lassen, Linz, 1808, S. 11.</t>
-  </si>
-  <si>
-    <t>[..] Ich will dadurch euch, und andere aufmuntern, für´s künftige die große, unschätzbare Wohlthat, die uns Gott durch die gemachte Entdeckung der Kuhpockenimpfung, als eines gewissen, zuverlässigen Mittels gegen die natürlichen, mit so groer Gefahr verbundenen Blattern an die Hand gegeben hat, besser zum Wohl eurer von Gott euch anvertrauten Kinder zu benützen.</t>
-  </si>
-  <si>
-    <t>Kumpfhofer, S. 13</t>
-  </si>
-  <si>
-    <t>Was aber die anderen Zweifel und Bedenklichkeiten, die ihr etwa noch dagegen haben möget, betrifft; so müssen diese von selst verschwinden, wenn ich euch sage: daß nicht nur alle Aerzte, und so viele andere recht versätndige Leute, die dabey ihre Kinder so zärtlich, als ihr die eurigen lieben; sondern selbst auch die ersten Häupter dieser Welt christliche Kaiser, Könige und FÜrsten, von der guten Sache ganz überzeugt, die Kuhpocken ihren Kindern einimpfen, und sie dadurch vor den so gefährlichen natürlichen Blattern schütuen lassen.</t>
-  </si>
-  <si>
-    <t>Kumpfhofer, S. 14</t>
-  </si>
-  <si>
     <t>Vorbild der Obrigkeit</t>
   </si>
   <si>
-    <t>Diese hat unter andern hohen gekrönten Häuptern dieser Welt, der österreichische Kaiser, Franz der Erste, unser gnädigster Landesfürst, nicht nur an seinen eigenen Kindern gethan; sondern auch aus wahrer väterlicher Sorgfalt für eure Kinder schon mehrmalen den Seelsorgern den gemessenen Auftrag gegeben, euch afuzumuntern, das Nämliche an euren Kindern zu thun.</t>
-  </si>
-  <si>
     <t>Kaiserliche Empfehlung</t>
   </si>
   <si>
     <t>Siehe Aufsatz Pammer "Vom Beichtzettel zum Impfzeugnis</t>
   </si>
   <si>
-    <t>Kumpfhofer, S. 14--15.</t>
-  </si>
-  <si>
-    <t>Gewissen?</t>
-  </si>
-  <si>
-    <t>Wenn ihr denn aber noch anstehet, euren Kindern die Schutzblattern einimpfen zu lassen; so stellet euch ijt im Gedanken jenen alle Augenblicke mglichen Zeitpunkt vor, wo eure Kindern von der Blatternseuche ergriffen da liegen werden, in wildem, hefitgen Fraisen, [...] vom Scheitel bis zur Fußsohle vol Beulen, daßß ihr nicht wisset, wo ihr sie angreifen sollt,  alles Augenlichtes beraubt, und überhaupt, mit einem Worte, kaum kenntlich mehr nach ihrer vorigen Gestalt. Stelet euch vor, wie ihr dann mit langem, zerrissenen Herzen bey dem Jammerlager [...] da stehen werdet, zwar bereit, ihnen zu helfen, aber unvermögend ihren Jammer zu stillen. Was aber dann diesen euren, ohnehin schon so betrübten Zustande noch fürchterlicher, ja schreckbar machen muß, ist dieses: Daß von nun an, als ich euch diese Predigt gehlten habe, euch euer eigenes GEwissen laut zurufen wird: Allen diesen Jammer hätte ich mir, und meinem lieben Kinde ersparen können, wenn ich zur rechten Zeit der väterlichen Ermahnung meines gnädigsten Landesfürsten und dem herzlichen wohlmeinden Rathe meines treuen Seelsorgers GEhör gegeben und Folge geleistet hätte [...] Nun aber bin ich Vater! Mutter! [...] an meinem eigenen Kinde zum Mörder -- ja zum Mörder geworden.</t>
-  </si>
-  <si>
-    <t>Saget nicht: Ich habe viele Kinder, welche die Blattern leicht und glücklich überstanden haben; denn ist es nicht schon unrecht, sie einer so großen möglichen Gefahr loß zu stellen? Und handelt ihr väterlich an ihnen, wenn ihr durch Verabsäumung des Mittels, das ihr bey Händen habt, es aufs Geradewohl ankommen lasset, ob sie gerettet werden oder nicht? Seyd ihr denn, als Eltern nicht auf das strengste verpflichtet, für die Erhaltung des Lebens, und der Gesundheit eurer Kinder nach aller Möglichkeit zu sorgen?</t>
-  </si>
-  <si>
-    <t>Kumpfhofer, S. 16</t>
-  </si>
-  <si>
     <t>O! Welchen Jammer würden die Eltern dadurch sich, und ihren Kindern ersparen, und welche Freude dir, dem Gott der Kleinen, durch Erfüllung auch dieser ihrer Pflicht [Anm: bezieht sich auf Pflicht der Eltern Gesundheit der Kinder zu erhalten, i.d.F. durch Kuhpockenimpfung] verursachen.</t>
   </si>
   <si>
@@ -1728,26 +1494,617 @@
     <t>Friedrich Becker, Impfen oder Nichtimpfen. Beitrag zur Lösung der grossen Tagesfrage über den Impfzwang und zur Behandlung der Blatternkrankheit, Berlin, 1872, S. 13</t>
   </si>
   <si>
-    <t>Becker, S. 14</t>
-  </si>
-  <si>
     <t>Die Bräune (Anm.: Halsbräune oder Croup verm Keuchhusten) kommt am häufigsten im Fürhjahr und Herbst vor, und da vorzugsweise Kinder in den ersten Lebensjahren - vom ersten bis vieren Jahre - davon befallen werden, so möchte die Vermuthung nicht ganz ungegründet sein, dass ein hauptsächlicher Anlass dazu in der so nachtheiligen Kuhpocken-Impfung, welche sich gleichwie eine syphilitische Ansteckung in den Schleimhäuten der Luftröhre etc. manifestirt und sogar noch nach Jahren Verheerungen anrichtet, zu suchen sein, denn erst seit Einführung der Impfung scheint die Halsbärune so furchtbar in ihren Wirkungen aufzutreten.</t>
   </si>
   <si>
     <t>Infolge der Impfung beobachtet man viele Krankheitserscheinungen, welche grosse Aehnlichkeit mit den syphilitisch Angesteckten haben: zB. Mattigkeit, Appetitlosigkeit, fieberhafte Zustände, Kopfschmerz, unruhiger Schlafe, Schmerzgefühl längs des Rückgrats, Schmerzen und Anschewellung der Drüsen, katarrhalische Beschwerden [...]; die Gesichtszüge der Geimpften verändern sich, die Haut schwillt an, der Athem wird übelriechend, [...]das Auge wird glanzlos und wässrig.</t>
   </si>
   <si>
-    <t>Becker, S. 18.</t>
-  </si>
-  <si>
     <t>Ja auf den Todtenhöfen bei dem Anblick so vieler Gräber geknickter Blumen der Elternliebe, da sollte Jeder, welcher noch an die Hexerei der Impfung glaubt, im Sack und in der Asche Busse thun. [...] Ein Gang auf die Todtenhöfe Berli´s muss gewiss den ärgsten Impf-Fanatiker zur Raison und zum Nachdenken bringen und auf Ursachen der erschreckend grossen Sterblichkeit der Kinder hinführen, die ausserhalb des gesetzlichen Ganges der Natur liegen.</t>
+  </si>
+  <si>
+    <t>Becker, Impfen oder Nichtimpfen, S. 14</t>
+  </si>
+  <si>
+    <t>Becker, Impfen oder Nichtimpfen, S. 18.</t>
+  </si>
+  <si>
+    <t>Wilhelm Ressel, 1852-1938, Schriftsteller und Naturarzt, unklar ob wirklich Medizin studiert. 1901-12 Redakteur des "Impfgegners" (von Oidtmann begründet)</t>
+  </si>
+  <si>
+    <t>Schriftsteller/Arzt?</t>
+  </si>
+  <si>
+    <t>Pocken/Diptherie/Tollwut</t>
+  </si>
+  <si>
+    <t>Es ist nicht im geringsten bewiesen, daß seit Einführung der animalen Lymphe (die verbotenen früheren Impfgeschäfts=Methoden waren übrigens von ihren Anhängern stets ebenso überschwänglich gepriesen worden, wie heute die animale) die Gefahr der Uebertragung von Krankheiten "vollständig ausgeschlossen" ist. Das reine Gegenteil ist richtig. Denn auch die animale Lymphe ist Trägerin äußerst gefährlicher Krankheitserreger, was durch verschiedene Bakteriologen [...] nachgewiesen worden ist und durch zahlreiche Impfschädigungen bestätigt erscheint.</t>
+  </si>
+  <si>
+    <t>Die Impfschädigungen betragen an akuten und, was noch schlimmer, chronischen Erkrankungen eine ganze Legion und fähren -- nach dem Urteil von tausend denkenden Aerzten -- wesentlich mit zur Entartung und zum nationalen Untergang!</t>
+  </si>
+  <si>
+    <t>Wir Impfgegner behaupten sogar, und wohl mit Recht, daß die Pocken, genau wie Cholera und Pest, schon längst verschwunden wären, wenn man auch gegen die Pocken nicht impfen, ins Blut der Menschen nicht immer von neuem "animalen" Pockeneiter=Samen streute, es so für die Pocken empfänglicher machend. Wer Brennesselsamen sät, kann doch nur Brennesseln immer wieder ernten. Wer Schirlings=Unkrautsamen streut, dem wächst ein Schirlingsbeet. Und dem Impfgeschäft sollte das sich stets treu bleibende Naturgesetz eine -- fette Extrawurst braten und ihm aus Pockeneitersamen Gesundheit erblühen lassen?</t>
+  </si>
+  <si>
+    <t>Ressel, Das Impfgeschäft, S. 13.</t>
+  </si>
+  <si>
+    <t>Ressel, Das Impfgeschäft, S. 9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will man die Pocken also, soweit nicht atmosphärische Ursachen in Betracht kommen, im Ernste abschütteln, dann ist -- gleich der, ehedem ebenfalls übers rote Daus gelobten und dann bei strengster Strafe verbotenen Okulation -- erstens die Ausübung auch der heutigen Impfmethode (mit "animaler" Lymphe) bei empfindlicher Strafe zu verbieten und zweitens auf möglichst strenge Erfüllung solzialsanitärer und persönlicher Gesundheitspflege zu achten. </t>
+  </si>
+  <si>
+    <t>Ressel, Das Impfgeschäft, S. 15</t>
+  </si>
+  <si>
+    <t>Die Verlogenheit des ganzen Impfinstituts wird grell durch die Tatsache charakterisiert, daß die jeweilige Impfmethode jedesmal überschwänglich gepriesen und dann ihre Ausübung bei harter Strafe verboten worden war. Auch die "animale"Impfmethode ist reif für Verbot und Strafe.</t>
+  </si>
+  <si>
+    <t>Ressel, Das Impfgeschäft, S. 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aber auch noch diese Tatsache beweist die schamlose Verlogenheit des Impfgeschäfts, daß Jenner vor 100 Jahren versichert hatte, eine einmalige Impfung schütze vor den Pocken für´s ganze Leben. Später -- als Jenners Beahuptung durch mächtige Pockenepidemien ad absurdum geführt worden war -- erklärten die Impfer, sie schütze genau 10 Jahre. Neuerdings behaupten sie, daß sie nur 5 Jahre schütze. </t>
+  </si>
+  <si>
+    <t>Ressel, Das Impfgeschäft, S. 30.</t>
+  </si>
+  <si>
+    <t>Auch die Pocken=Impfung der Schafe war einst eingeführt und einst genau so überschwänglich gepriesen worden, wie die Pockenimfung unserer Kinder. Da sich aber herausstellte, daß die Impfung der Schafe gegen die Pocken die Schafställe -- leerte, und daß die armen Tiere inforle der Impfung wie die Fliegen dahinstarben, hat der Deutsche REichstag im Jahre 1880 die Pockenimfpung der Schafe über Antrag Virchows bei Strafe verboten. Sollten unsere kleinen Kinder uns nicht mindestens ebenso lieb und wichtig sein, wie diese --Schafe?</t>
+  </si>
+  <si>
+    <t>Es ist heute bewiesen, daß uns mit der Diphtherieimpfung eine wirksame Bekämpfung der Diphtherie als Seuche möglich ist. Die Statistiken der Weltliteratur lassen erkennen, daß wir bei den Ungeimpften 5--10 mal häufiger als bei Geimpften mit Erkrankungen zu rechenen haben. Je nach schwere der Epidemie ist die Letalität der Nichtgeimpften 2--11mal größer als bei Geimpften. Besonders gute Erfolge sind zu erwarten, wenn 70% der Bevölkerung und mehr geimpft worden sind. Die Diphtherieimpfung kann heute als weigehend ungefährlich und sehr wirksam bezeichnet werden.</t>
+  </si>
+  <si>
+    <t>Heinz Spiess, Schutzimpfungen, Stuttgart, 1958, S. 37.</t>
+  </si>
+  <si>
+    <t>Die Ergebnisse beim Mesnchen werden durch anzuerkennende Statistiken belegt und lassen bei Säuglingen, älteren Kindern und jugendlichen einen recht deutlichen Schutz der Geimpften gegenüber den ungeimpften Vergleichsgruppen kernnen. Das gilbt besonders hinsichtlich der Verhütung von generalisierten Tuberkulose (Meningitis und Miliartuberkulose).</t>
+  </si>
+  <si>
+    <t>Spiess, Schutzimpfung, S. 139.</t>
+  </si>
+  <si>
+    <t>Die Tuberkuloseschutzimpfung kommt nur für gesunde Neugeborene und tuberkulinnegative Kinder, Jugendliche und Erwachsene in Frage. Jenseits des Neugeborenenalters (6 Wochen) ist auf die besprochen Tuberkulinvorprüfung zu achten.</t>
+  </si>
+  <si>
+    <t>Spiess, Schutzimpfung, S. 138.</t>
+  </si>
+  <si>
+    <t>BCG-Tuberkulose Impfung</t>
+  </si>
+  <si>
+    <t>Wilhelm Ressel, Das Impfgeschäft als starrstes Dogma der modernen orthodoxen Medizin. Richtigstellung falscher und gefährlicher zunftwissenschaftlicher Ueberlieferungen. Zugleich und hauptsächlich ein Weckruf an Deutschlands Zeitungs=Redakteure, Dreseden, 1910, S. 5--6.</t>
+  </si>
+  <si>
+    <t>Spiess, Schutzimpfung, S. 255.</t>
+  </si>
+  <si>
+    <t>Die Impfung ist nicht nur unnütz, denn der Pockentod fprdert noch gleich viele Opfer wie vor der Impfung, sondern sie wirkt sogar im höchsten Grade schädlich, denn seit 45 Jahren Impfzwang sind die gefährlichsten Uebel der Menscheit stetig gewachens und die Sterblichkeit ist in erheblicher Zunahme!</t>
+  </si>
+  <si>
+    <t>H. F. Germann, Historisch-Kritische Studien über den jetzigen Stand der Impffrage, 2. Band, Leipzig, 1875, S. 14.</t>
+  </si>
+  <si>
+    <t>Jenner´s Kuhpockenimpfung ist nutzloser Schwindel, für dessen Verbot heutzutage mehr Gründe vorliegen, als für das gleichwohl gerechte Verbot der Inoculation. Sie hat den Typhus und de Sterbefälle vermehrt, sie hat als neuer Sündenfall die Menschheit körperlich und geistig degradiert. Ich lasse nie Impfen und wanre mit aufgehobenen Händen alle Mütter davor!</t>
+  </si>
+  <si>
+    <t>Auszug aus Nittinger, die Impfzeit S. 99-111.</t>
+  </si>
+  <si>
+    <t>Germann, S. IV. (S. 24.)</t>
+  </si>
+  <si>
+    <t>Germann, S. 28.</t>
+  </si>
+  <si>
+    <t>Sollte es wohl ein Zufall sein, dass in den impfzwangfreien Ländern sich die grauenhafte Erscheinung unseres Jahrhunderst, die Abnahme des Völkerzuwachses, nicht zeigt? Nebenbei haben sie keine Pockenepidemien, selten den Typhus, wenig Irre, Blinde, Taube, normale Geburts-, Todes-, Heriaths-, Consriptionsverhältnisse u. a. m.</t>
+  </si>
+  <si>
+    <t>Germann, S. 36</t>
+  </si>
+  <si>
+    <t>fragwürdig</t>
+  </si>
+  <si>
+    <t>Die Bevölkerungszunahme erwies sich während der Impfzeit und namentlich während der letzten Jahre (vierten Impferiode) in den meisten Ländern Deutschlands als äussert gering, es ergaben sich vielfach Rückschläge, Deficits, am stärksten in Württenberg. Ist diese Erscheinung blos das Ergebniss der zahlreichen Auswanderung?</t>
+  </si>
+  <si>
+    <t>Am bedeutungsvollsten bleibt die Bevölkerungsverminderung in den geimpften Staaten, das hereinbrechende Deficit mit deren Eintritt in die vierte Impfgeneration, wo noch vor einem oder zwei Jahrzehnten eine ansehnliche Vermehrung stattfand.</t>
+  </si>
+  <si>
+    <t>Germann, S. 42</t>
+  </si>
+  <si>
+    <t>Gesellschaftlicher Nachteil</t>
+  </si>
+  <si>
+    <t>Den festen Beweis, dass heutzutage die Menschen bälder sterben müssen, als vor der Zeit der Vaccination, liefert die jetzt höhere Sterbeziffer der Gesammtpopulation (sic!). Wo die Sterbeziffer am grössten, da ist die Lebensdauer am kürzesten.</t>
+  </si>
+  <si>
+    <t>Germann, S. 49</t>
+  </si>
+  <si>
+    <t>H. F. Germann, Historisch-Kritische Studien über den jetzigen Stand der Impffrage, 2. Band, Leipzig, 1875, ab S. 54 wiedmet ihm ein Kapitel</t>
+  </si>
+  <si>
+    <t>Wir verdanken ihr (Anm: der Impfung) nicht blos die Ausrottung der Blattern, sondern auch die Verminderung der Sterblichkeit, die Verminderung des Elends, die Erhaltung der Gesundheit und Schönheit, die Vermehrung menschlicher Freuden und die Glückseligkeit.</t>
+  </si>
+  <si>
+    <t>Die wichtigste Entdeckung, die jemals in der Arzneikunde gemacht wurde, ist die Entdeckung der Kupockenimfpung, wodruch die Menschenblattern, der Erbfeind des Menschengeschlechts, ausgerottet werden.</t>
+  </si>
+  <si>
+    <t>Der Impfstoff verwest nie, er erhält sich immer in gleicher Kraft und Reinheit. Man hat nicht nöthig zur Kuh Zuflucht zu nehmen, um immer wieder von ihr frische Materie zu erhalten</t>
+  </si>
+  <si>
+    <t>Die Thatsache liegt vor uns, dass die Blattern- und Viehseuche seit dem Frühjahr 1801 seltener und harmloser geworden sind. Ist dies Folge der Verbreitung der Kuhopocken, oder liegt die Ursache davon in natürlichen Verhältnissen? Wir behaupten, dass eine KRankheit, welche so weit die Sonne scheint herrchend war, nur durch die göttliche soweit die SOnne scheint wirkende Gewalt aufgelöst werden konnte; dass die Vaccination zufällig gleichzeitig mit einem Naturereigniss eingeführt wurde, und dass sich nicht im Geringsten zur Unterdrückung der Blattern beigetragen hat. Der Impfschutz ist für den Manschen die Unmöglichkeit</t>
+  </si>
+  <si>
+    <t>Germann, S. XV (S. 210)</t>
+  </si>
+  <si>
+    <t>abermals eigentlich ein Abdruck von Nittingers Werk.</t>
+  </si>
+  <si>
+    <t>Argumentation unterstütz durch angeführte Statistiken aus offiziellen Quellen zusammengetragen von Dr. Nittinger wie im Vorwort angekündigt. Hauptsächlicher Abdruck von Nittingers Briefen an hohe Würdenträger und deren Antworten sowie anderer Kapitel aus Nittingers Bücher und auch Oidtmanns</t>
+  </si>
+  <si>
+    <t>https://books.google.at/books?id=iRM_AAAAcAAJ&amp;pg=PA3&amp;lpg=PA3&amp;dq=G+J.+Krauss+die+schutzpockenimpfung&amp;source=bl&amp;ots=TLipaYypGn&amp;sig=mBM-cC98b37bjP27zjqqwti5Ql8&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiTmNm1juzRAhUBKpoKHQ9GA4cQ6AEIIjAD#v=onepage&amp;q=G%20J.%20Krauss%20die%20schutzpockenimpfung&amp;f=false</t>
+  </si>
+  <si>
+    <t>Die einzige nachtheilige Seite, die die Vakzine hat, ist da, wo sie nicht durchgängig eingeführt ist, weil durch die auf diese Weise beschränkte Ausbreitung der Menschenblatternseuche die übrig bleibenden Pockenfähigen in einer spätern Lebensperiode mit mehr Gefahr und Leiden davon ergriffen werden können [...].</t>
+  </si>
+  <si>
+    <t>Georg Friedrich Krauss, Die Schutzpockenimpfung in ihrer endlichen Entscheidung, als Angelegenheit des Staats, der Familien und des Einzelnen, Nürnberg, 1820, S. XVIII-XIX.</t>
+  </si>
+  <si>
+    <t>Sicherheit</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 81</t>
+  </si>
+  <si>
+    <t>Das Volk sollte in den Schutzpocken-Gesez (sic!) schlechterdings keinen Zwang erblicken, sondern aus Ueberzeugung und moralischer Selbstthätigkeit zur Anwendung dieses dargebotene Sicherungsmittel gegen eine der tödtlichsten und qualvollsten Krankheiten, die Menschenblattern schreiten, und die, von seinem Könige aus alndesväterlicher Fürsorge für sein körperliches Wohl angeordneten, Anstalten mit reinem menschlichem Sinn und dankvoller Erkenntlichkeit würdigen.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaiserliche Empfehlung </t>
+  </si>
+  <si>
+    <t>pocken</t>
+  </si>
+  <si>
+    <t>betreffend Impfgesetz in Baiern, Königliche Empfehlung</t>
+  </si>
+  <si>
+    <t>C. R. Aikin, Kurze Uebersicht der wichtigsten Erfahrungen über die Kuhpocken, S.  32--33</t>
+  </si>
+  <si>
+    <t>C. R. Aikin, Kurze Uebersicht der wichtigsten Erfahrungen über die Kuhpocken, S 49.</t>
+  </si>
+  <si>
+    <t>C. R. Aikin, Kurze Uebersicht der wichtigsten Erfahrungen über die Kuhpocken, S. 50</t>
+  </si>
+  <si>
+    <t>C. R. Aikin, Kurze Uebersicht der wichtigsten Erfahrungen über die Kuhpocken, S. 51</t>
+  </si>
+  <si>
+    <t>Dass die Vakzine übrigens keinen Antheil an dem Enstehen dieser katarrhalischen Leiden habe, erweisst sich besonders dadurch, dass eine nicht geringe Anzahl Kinder mit leichten katarrhalischen Affekzionen, als Husten, heiserer Stimme und Schnutpfen behaftet, ohne diese zu vermehren, ohne allen Nachtheil für ihre Gesundheit vakzinirt wurden; vielmehr wurde von mehreren Aerzten, namentlich von Dr. Meyer, beobachtet, dass diese Zufälle während des Laufes der Vakzine verschwanden.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 331</t>
+  </si>
+  <si>
+    <t>Gesundheitsfördernd</t>
+  </si>
+  <si>
+    <t>er beschreibt in diesem Kapitel einzelnen beobachtete Verläufe</t>
+  </si>
+  <si>
+    <t>Mit dem Keichhusten traf die Vakzine manchmal zusammen; er störte ihren Verlauf nicht,  und wenn er auch nicht immer einen günstigen Einfluss darauf zeigte, so wurde doch niemals eine Verschlimmerung derselben beobachtete; viel mehr finden wir einige FÄlle aufgezeichnet, wo schon während und anch dem Verlauf der Vakzine die Paroxysmen seltener und milder wurden und die Krankheit sich ald darauf gänzlich verlor.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 342--343.</t>
+  </si>
+  <si>
+    <t>Schwächliche, blasse, übelgenährte, kachektische, atrophische Kinder gewannen durch die Vakzinazion eine kräftige, blühenden Gesundheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemerkenswerth ist es, dass von keinem Impfarzte irgend eines Nachtheils der sogenannten Komplikazion mit Würmern Erwährnung geschehen ist, die sich bei so vielen vakzinirten Kindern nicht selten mag vorgefunden haben, und denen ehehin bei den Menschenblattern eine so gefahrvolle Rolle (nach Murray um so gefährlicher, je lebhafter und munterer diese Parasiten), zugetheilt war. </t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 353.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 354.</t>
+  </si>
+  <si>
+    <t>Gerüchte und Anzeigen von Befallen der Menschenpocken nach überstandener Vakzinazion wurden einer sorgfältigen Untersuchung unterworfen, deren Resultate die völle Unstatthaftigkeit eines solchen Vorgebens an Tag legten</t>
+  </si>
+  <si>
+    <t>Die Vakzinaion ist die wahre mythische Lanze, die verwundete, heilt und bewahrt [...].  Man kann annehmen, dass bei der einfachen Vakzine unter der grossen Zahl der Geimpften [...], in keinem einzigen Fall das medizinische Einschreiten erforderlich war. Fand dieses auch in einigen seltenen Fällen Statt, wo der Arzt in der Nähe oder durch Zufall um den Kranken war, [....] so kann doch den angewandten Arzneien kein Werth beigelegt werden, indem auch da, wo eben solche oder vielmehr noch heftiger Zufälle, als hoher Fiebergrad, Konvulsionen [...], Alles von selbst und schnell sich wieder verlor. Dies erhöht eben den Werth der öffentlichen allgemeinen Impfung, dass dadurch die Unabhängigkeit der Vakzine von allem arzneiliichen Einwirken sich beurkundet.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 427.</t>
+  </si>
+  <si>
+    <t>Überhaupt gewährt die Vakzine ausser ihrer Schutzkraft noch dem Menschengeschlecht die besondere grosse Wohlthat, dass dasselbe einer Krankheit überhoben ist, gegen die, wie Tralles u. A. bemerkten, alle Heilmethoden sich unzulänglich bewiesen, und viele Aerzte auf eine Weise nach Hypothesen experimentirten, die so selten zum Vortheile der Kranken gereichten.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 428.</t>
+  </si>
+  <si>
+    <t>Einziges Mittel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn die Impfung auf die gehörige Weise veranstaltet wird, und äussere Beschädigungen abgehalten werden, so können keine üblen Folgen entstehen, und Jenner hat bei der Suwsanne Phipps die üble Wirkung selbst dadurch veranlasst, dass er sie mit schon jauchiger Flüssigkeit von einer Kuh impften. </t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 440.</t>
+  </si>
+  <si>
+    <t>Erwägt man, dass nun schon seit 17 Jahren die Vakzinaion besteht, dass den Geimpften die Gelegenheit zur variolösen Ansteckung so oft und wiederhohlt, aber immer ohne Erfol, dargeboten war, so wird hieraus klar, dass die Schutzkraft der Vakzine nicht auf einen kurzeren oder längeren Zeitraum eingeschränkgt ist.</t>
+  </si>
+  <si>
+    <t>Wirkung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirgends haben sich Thatsachen ergeben, die auch nur scheinbar einen nachteiligen Einfluss auf die Gesundheit erweisen könnten. Der allgemeine Gesundheitszustand ist fortdauernd gut; er ist augenscheilich besser, als vor der Einführung der Vakzinazion. </t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 510.</t>
+  </si>
+  <si>
+    <t>Geistliche, die eine lange Reihe von Jahren ihr heiliges Amt verwalten, bezeugen, dass das Aussehen der Kinder an Schönheit und Kraft bedeutend zugenommen hat. Die ehemalige grosse Zahl der bleichen, übelgenhrten, schwächlische, verschleimten, mit welker, schlaffer Haut und Muskeln begabten, mit Haut- und Kopfausschlägen ehafteten, verdrieslichen, mürrischen grämlichen, stumpfen und trägen Kindern, die man sonst, besonders in den Schulen erblickte, ist verwunden.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 511--512.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 512--513.</t>
+  </si>
+  <si>
+    <t>Schwächlichen und von Geburt an kränklichen, magern, nicht gedeihlichen Kindern wurde bald nach der Vakzinazin eine bessere Hautfarbe, eine blühende, kraftvolle Gesundheit, oder ein bei weitem besserer Zustand zu Theil, so wie auch jene, mit einem niederen Grade der Gesundheit begabt, nachher sich einer festern volkommnern zu erfreuen hatten; und wenn in mehreren Fällen scrophulöse, rhachitische, atrophische, kachektische, mit chronischen Ausschlä- (sic!) und andern lymphatischen Krankheiten behaftete Kinder in der Impfung ein sicheres, schnellwirkendes Genesungsmittel fanden, wenn durch dieselbe selbst die vorhandene widernatürliche, angeborne oder erworbene Anlage zu diesen Krankheiten gehoben wurde, so muss damit die jezt so auffallend seltnere Erscheinung dieser sonst so häufigen Uebel, so wie überhaupt der bessere Gesundheitsstand, in ursächliche Verbindung geseut werden.</t>
+  </si>
+  <si>
+    <t>Schon Jenner bemerkte, dass nach den gemachten Erfahrungen die Vakzine nicht die geringste Neigung zu skrophulösen Zufällen hervorbringe, und Caron, zu Annecy, und Bacon, zu Falaise, beobachteten, dass die Zahl der skrophulösen Kinder in den Gegenden, wo sie die Arzneikunden ausüben, seit der verbreiteten Vakzinazion bei weitem geringer als sonst sei.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 513. Anmerkung Fußnote 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unverkennbar wohlthätig zeigt sich der Einfluss der Vakzinazin auf die normale Entwicklung und Ausbildung der einzelnen Systeme und Organe, was besonderns von Dr. Ebersberger u. Dr. Fritsch berücksichtigt worden. Das Zahlgeschäft erfolgt bei weitem regelmässiger, ohne die sonst so zahlreichen krankhaften Affekzionen. Der Zahlausbrauch, durch was immer für Umstände erschwert oder zurückgehalten, wird durch die Vakzine erweckt. </t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 514.</t>
+  </si>
+  <si>
+    <t>Keine Spur irgend einer Krankheit, oder einer nachtheiligen Modifikazion im Verlaufe, Grad, Form, Umwandlung, Verlarvung und Ausgang der bekannten Krankheiten hat sich als Folge der Vakzinazion auffinden lassen; keine neue Krankheiten hat man durch sie entstehen sehen; eben so wenig hat man einen nachthiligen oder erweckenden Einfluss der Vakzine auf die natürlichen oder widernatürlichen Krankheitsanlagen, oder auf den Gang und die Wenung der den verschiednene Lebensaltern, Volksklassen, Jahreszeiten, Gegenden und Lebensweisen eigenen, oder der in epidemischen Verhältnissen sich gründenen Krankheiten, oder Mängel und Unordnungen der körperlichen und geistigen Eintwickelung und Ausbildung oder eine ungüsntige Umänderung der Konstituzion [...] was man der Vakzinazion auch nur mit einiger Wahrscheinilichkeit zurechnen könnte, beobachtet.</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 515.</t>
+  </si>
+  <si>
+    <t>Und so hat die Erfahrung nach einer langen Reihe von Jahren in so vielen Tausend Fällen, und unter so verschiedenen Verhältnissen unwidersprechlich an Tag gelegt, dass durch das ziemlich plözliche Verschwinden der Menschenblattern und die durchgängeige Einführung der Vakzine keine neuen Uebel aus dem Inneren des organischen Lebens sich entwickeln, keine bekannten Krankheiten einen grössern Spielraum gewinnen, oder in neuen furchtbaren Gestalen und Modifikazionen, in vielfachen Komplikazonen auftreten;</t>
+  </si>
+  <si>
+    <t>Krauss, Schutzpockenimpfung, S. 517.</t>
+  </si>
+  <si>
+    <t>aus Google Books kostenloses e-book</t>
+  </si>
+  <si>
+    <t>Die zahlreichen bis auf den heutigen Tag angestellten Erfahrungen lassen keinen Zweifel über die Unschädlichkeit der Kuhpockenkrankheit. In keinem Fall e folgte auf sie weder Furunkeln, noch Augenentzündungen, noch Ohrenschmerzen, was man so oft nach der Blatternkrankheit, selbst wenn man sie einimpft, entstehen sieht. Sie bringt in dem Blute keine Verderbnis, noch einen seiner Natur fremden Fehler hervor: auch hat man noch keineswegs bemerkt, daß sie eine prädisponierende Ursache zu irgend einer Krankheit gewesen sey.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 82.</t>
+  </si>
+  <si>
+    <t>Hoffungsträger</t>
+  </si>
+  <si>
+    <t>Da die Kuhpocken sich nicht durch Ausdünstungen mittheilen, und in uns die Fähigkeit die Kinderblattern zu bekommen, zerstört; so kann man mit Recht hoffen, daß durch die Impfung der Kuhpocken allein, diese leztere Krankheit, wie der Aussatz, u. A. uebel ganz aus Europa verschwinden werde.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen, S. 84.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen, S. 84--85.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 85--86.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen, S. 86.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 93.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 96.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 102.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 139.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 143.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen, S. 144-145.</t>
+  </si>
+  <si>
+    <t>Husson, Historische und medizinische Untersuchungen,  S. 159.</t>
+  </si>
+  <si>
+    <t>Die Kuhpockenkrankheit hat einen so regelmäßigen Gang, daß ihre Einförmigkeit eine grosse Quelle von Unruhe weniger ist, und dieses als einer der Hauptvorzüge der Kuhpockenimpfung angesehen werden kann.</t>
+  </si>
+  <si>
+    <t>Das Fieber, welches die Entwickelung der Kuhpockenkrankheit anzeigt, erhebt das Lebensprinzip, beugt veilleicht, durch die Bewegung, welche es in der thierischen Oekonomie erregt, einer gefährlichen Krankheit vor; sie führt eine heilsame Crise herbe, welche zu einer Art von Reinigung bestimmt; stellt im Individuum das durch so verschiedene Ursachen gestörte Gleichgewicht wieder her, und in diesem Sinne kann man sage, daß sie die Wahrscheinlichkeit der Lebensdauer vermehrt.</t>
+  </si>
+  <si>
+    <t>bezogen auf die Art der Impfung: Menschen oder Tierlymphen</t>
+  </si>
+  <si>
+    <t>Es ist eine wichtige Thatsache, daß die Operation des Kuhpockeneinimpfens, auf dieselbe Art angestellt als die Einimpfung der Blattern, bey durch sie hervorgebrachten Krankheiten einen milderen Charakter einprägt, und den Ausgang derselben sicherer macht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die eingeimpften Kuhpocken haben, in Ansehung der Gutartigkeit und Sicherheit, eben so große Vorzüge vor den eingeimpften Blattern, als letztere vor den natürlichen Blattern.  Die Erfahrungen, die man bis jetzt über die Einimpfung der Kuhpocken gemacht hat, scheinen zu beweisen, daß sie in jedem Alter- selbst in der zartesten Kindheit mit der größten Sicherheit vorgenommen werden könne.  Im Allgemeinen sind indeß dieselben Vorsichtsregeln in Ansehung der Einimpfung dieser Krankheit zu empfehlen, welche man, als bewährt, beim Einimpfen der Blattern befolgt. </t>
+  </si>
+  <si>
+    <t>Man hat oft die wichtige Bemerkung gemacht, daß nach den Blattern, wenn längst alle übrigen Symptome der Krankheit verwunden sind, sehr oft der Körper an Skrofeln leidet [...] Kein ähnliches Phänomen zeigt sich nach den Kuhpocken. Ob dies der Gelindigkeit, welche diese Krankheit charakterisiert, oder einer anderen, verstecktern, in der Natur derselben gegründeten Ursache beizumessen sey, dies hat noch nicht mit Sicherheit bestimmt werden können.</t>
+  </si>
+  <si>
+    <t>Als sicher und gefahrlos kann man den Blatternimpfling in keinem Falle betrachten. Bei den Kuhpocken hat man niemals Gefahr zu ahnden, denn wenn man auch einzelne Fälle, in welchen Impflinge starben, wirklich allein auf Rechnung dieser Krankheit setzen will, so verlieren sich dieselben doch dergestalt unter der unübersehbaren Menge vollkomen glücklicher Fälle, daß der Gedanke an die Kuhpockenimpfung nie etwas Aengstliches mit sich führen kann.</t>
+  </si>
+  <si>
+    <t>Schon die Einrichtung der Natur, der natürliche Instinkt der Eltern, sowohl bey Menschen als Thieren, und die Hilfsbedürftigkeit des Kindes zeigen uns den Willen des Schöpfers nur zu deutlich an, daß die Eltern für ihre Kleinen machen sollen; die Religion schärfet diese Pflicht sehr ernstlich ein. Alle, welche sich durch Starrsinn, Aberglaube, sträfliche Unwissenheit, [...] etwas zu thun, oder zu unterlassen, wodruch das Leben oder auch nur die Gesundheit der Kinder irgend einer großen Gefahr ausgesetzt wird, erfüllen die Elternpflicht nicht, und sind daher bey Gott strafbar. Nun ist aber, theure Eltern! nichts gefährlicher für das Leben, und die Gesundheit eurer lieben Kinder, als die natürlichen Blattern.</t>
+  </si>
+  <si>
+    <t>[..] Ich will dadurch euch, und andere aufmuntern, für´s künftige die große, unschätzbare Wohlthat, die uns Gott durch die gemachte Entdeckung der Kuhpockenimpfung, als eines gewissen, zuverlässigen Mittels gegen die natürlichen, mit so grosser Gefahr verbundenen Blattern an die Hand gegeben hat, besser zum Wohl eurer von Gott euch anvertrauten Kinder zu benützen.</t>
+  </si>
+  <si>
+    <t>Was aber die anderen Zweifel und Bedenklichkeiten, die ihr etwa noch dagegen haben möget, betrifft; so müssen diese von selbst verschwinden, wenn ich euch sage: daß nicht nur alle Aerzte, und so viele andere recht verständige Leute, die dabey ihre Kinder so zärtlich, als ihr die eurigen lieben; sondern selbst auch die ersten Häupter dieser Welt christliche Kaiser, Könige und Fürsten, von der guten Sache ganz überzeugt, die Kuhpocken ihren Kindern einimpfen, und sie dadurch vor den so gefährlichen natürlichen Blattern schützen lassen.</t>
+  </si>
+  <si>
+    <t>Diese hat unter andern hohen gekrönten Häuptern dieser Welt, der österreichische Kaiser, Franz der Erste, unser gnädigster Landesfürst, nicht nur an seinen eigenen Kindern gethan; sondern auch aus wahrer väterlicher Sorgfalt für eure Kinder schon mehrmalen den Seelsorgern den gemessenen Auftrag gegeben, euch aufzumuntern, das Nämliche an euren Kindern zu thun.</t>
+  </si>
+  <si>
+    <t>Gewissen</t>
+  </si>
+  <si>
+    <t>Johann Kumpfhofer, Predigt von der Pflicht der Eltern ihren Kindern die Kuhpocken einimpfen zu lassen, Linz, 1808, S. 11.</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, Predigt von der Pflicht der Eltern, S. 13.</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, Predigt von der Pflicht der Eltern, S. 14.</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, Predigt von der Pflicht der Eltern, S. 14--15.</t>
+  </si>
+  <si>
+    <t>Kumpfhofer, Predigt von der Pflicht der Eltern, S. 16.</t>
+  </si>
+  <si>
+    <t>Wenn ihr denn aber noch anstehet, euren Kindern die Schutzblattern einimpfen zu lassen; so stellet euch izt (sic!)  im Gedanken jenen alle Augenblicke möglichen Zeitpunkt vor, wo eure Kindern von der Blatternseuche ergriffen da liegen werden, in wildem, heftigen Fraisen, [...] vom Scheitel bis zur Fußsohle voll Beulen, daß ihr nicht wisset, wo ihr sie angreifen sollt,  alles Augenlichtes beraubt, und überhaupt, mit einem Worte, kaum kenntlich mehr nach ihrer vorigen Gestalt. Stellet euch vor, wie ihr dann mit langem, zerrissenen Herzen bey dem Jammerlager [...] da stehen werdet, zwar bereit, ihnen zu helfen, aber unvermögend ihren Jammer zu stillen. Was aber dann diesen euren, ohnehin schon so betrübten Zustande noch fürchterlicher, ja schreckbar machen muß, ist dieses: Daß von nun an, als ich euch diese Predigt gehalten habe, euch euer eigenes Gewissen laut zurufen wird: Allen diesen Jammer hätte ich mir, und meinem lieben Kinde ersparen können, wenn ich zur rechten Zeit der väterlichen Ermahnung meines gnädigsten Landesfürsten und dem herzlichen wohlmeinden Rathe meines treuen Seelsorgers Gehör gegeben und Folge geleistet hätte [...] Nun aber bin ich Vater! Mutter! [...] an meinem eigenen Kinde zum Mörder -- ja zum Mörder geworden.</t>
+  </si>
+  <si>
+    <t>Saget nicht: Ich habe viele Kinder, welche die Blattern leicht und glücklich überstanden haben; denn ist es nicht schon unrecht, sie einer so großen möglichen Gefahr bloß zu stellen? Und handelt ihr väterlich an ihnen, wenn ihr durch Verabsäumung des Mittels, das ihr bey Händen habt, es aufs Geradewohl ankommen lasset, ob sie gerettet werden oder nicht? Seyd ihr denn, als Eltern nicht auf das strengste verpflichtet, für die Erhaltung des Lebens, und der Gesundheit eurer Kinder nach aller Möglichkeit zu sorgen?</t>
+  </si>
+  <si>
+    <t>Eben so sah ich oft Skropheln, böse Augen, Milchschorf, trockene Husten, Kopfgrind, ungeachtet der vorher vergebens angewandten Arzneimittel, durch die Anwendung der Vaccination verschwinden. Aus diesen und von anderen Aerzten bekannt gemachten ähnliche Erfahrunge erhellet, daß die Schutzpockenimpfung die größte Wohlthat für die Menschheit ist, daher nie genug verbreitet werden kann; indem aus den sorgfälltigst angestellten Erfahrungen und Prüfungen aller Art unter den verschiedenen Himmelsstrichen und mannigfaltigsten Umständen sie die unwiederlegbare Wahrheit begründen, daß, wer die ächten Kuhpocken überstanden hat, niemals mehr von den Menschenblattern befallen wird.</t>
+  </si>
+  <si>
+    <t>Sicherheit/Gesundheitsfördernd</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern,  S. 15.</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern, S. 13--14.</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern, S. 380-381.</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern, S. 387.</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern, S. 406.</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern, S. 13.</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern, S. 116.</t>
+  </si>
+  <si>
+    <t>Giel, Schutzpocken=Impfung in Bayern, S. 59.</t>
+  </si>
+  <si>
+    <t>Die Vaccine hat sich bis hieher, aller Anfechtungen ungeachtet, als das einzige Schutzmitel gegen die Blattern bewährt. Auch die laufende Epidemie trägt dazu bei, ihre Wohlthaten in ein helleres Licht zu stellen, und man wird die Wuth des Exanthems nicht eher zähmen können, als bis man zu einer allgemeinen Impfung, die vorzüglich alle Neugeborenen in sich begreifen muß, seine Zuflucht nimmt. Kein Mittel der Hygiene, kein Rath der Medizinpolizei wird die armen Geschöpfe vor dem tödtlichen Einflusse der Miasmen zu schützen im Stande seyn, die sie heut mit dem ersten Athemzuge einsaugen.</t>
+  </si>
+  <si>
+    <t>Der Augenblick ist gekommen, wo die Impfung in den Rang unserer Nationaleinrichtungen treten und geradezu unter dem Schutze und dem Einflusse der Gesetze wirken muß. Dreißig Jahre wohlthätiger Kraftäusserung geben einen wohlbegründeten, einen achtbaren Anspruch, um endlich von Seiten der legitimen Macht das Bürgerrecht zu erhalten; ich will sagen, die Impfung muß, soll sie anders in Freiheit ihren Segen verbreiten, erzwungen werden. Ein Gesetz, welches diese Maßregel in Schutz nehmen soll, verletzt das Naturrecht keinesweges.</t>
+  </si>
+  <si>
+    <t>bezogen auf die Befürwortung der gesetzlichen Impflicht</t>
+  </si>
+  <si>
+    <t>Revaccination</t>
+  </si>
+  <si>
+    <t>Der Einhalt der Seuchen gewährt den Menschen größere Freiheit</t>
+  </si>
+  <si>
+    <t>Der höchste Pflicht der Medizin besteht darin, vor Krankheiten zu bewahren und Seuchen für alle vermeidbar zu machen</t>
+  </si>
+  <si>
+    <t>auf Impfstoff bezogen</t>
+  </si>
+  <si>
+    <t>Es wird vielfach bestritten, dass die Vaccination vor den Pocken schützt. [...] Die Mehrzahl der Ärzte hat in frühereh Jahren grössere Zahlen von Pockenkranken in Behandlung gehabt, nach Einführung des Impfgesetzes ist die Krankheit in Deutschland sehr selten geworden.</t>
+  </si>
+  <si>
+    <t>Rückgang Erkrankungen</t>
+  </si>
+  <si>
+    <t>Bezogen auf anfängliche Experiement, Patienten zuerst im Kuhpocken zu immunisieren und dann mit Variola zu impfen, was keinen Krankheitsausbruch zur Folge hatte</t>
+  </si>
+  <si>
+    <t>Der wichtigste Prüfstein des Nutzens der Impfung ist eine gut ausgearbeitete Statstik der Pocken-Todesfälle.  [...] Das einmalige Überstehen der Pockenkrankheit verleiht mit seltenen Ausnahmen Schutz gegen ein nochmaliges Befallenwerden von derselben. Die Impfung mit Vaccine ist imstande, einen ähnlichen Schutz zu bewirken.</t>
+  </si>
+  <si>
+    <t>kein Argument</t>
+  </si>
+  <si>
+    <t>Die Impfung kann unter Umständen mit Gefahr für den Impfling verbunden sein. Bei der Impfung mit Menschenlymphe ist die Gefahr der Übertragung von Syphilis obwohl ausserordentlich gering, doch nicht gänzlich ausgeschlossen. Von anderen Impfschädigungen kommen nachweisbar nur accidentelle Wundkrankheiten vor. All diese Gefahren können durch sorgfälltige Ausführung der Impfung auf einen so geringen Umfang beschrängt werden, dass der Nutzen der Impfung den eventuellen Schaden derselben unendlich überwiegt.</t>
+  </si>
+  <si>
+    <t>Nutzen &gt; Schaden</t>
+  </si>
+  <si>
+    <t>Impfschäden entstünden nur bei schlecht ausgeführter Impfung und nicht die Impfung per se ist schuld daran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da die mit der Impfung mit Menschenlymphe unter Umständen verbundenen Gefahren für Gesundheit und Leben der Impflinge (Impfsyphilis, Impferysipel u.s.w.) durch die Impfung mit Tierlymphe, soweit es sich um direkte Übertragung der Syphilis oder der accidentellen Wundkrenkaheiten handelt, vermieden werden können und da die Impfung mit Tierlymphe in der neuzeit soweit vervollkommnet ist, dass sie der Impfung mit Menschen-Lymphe fast gleich zu stellen ist, so hat die Impfung mit Tierlymphe thunlichst an Stelle der Menschenlymphe zu treten. </t>
+  </si>
+  <si>
+    <t>geht um Vorzug der Tierlymphen</t>
+  </si>
+  <si>
+    <t>Statistik</t>
+  </si>
+  <si>
+    <t>Ferner wird die Behauptung aufgestellt (Anm.: von den Impfgegnern), das Nachlassen der Pocken in Deutschland nach Erlass des Impfgesetzes sei nicht als eine Wirkung des Letzteren anzusehen, sondern die natürliche Folge der Epidemie von 1870/71 durch welche ein grosser Teil der Bevölkerung geblattert, also immun geworden sei. Der Gegenbeweis liegt darin, dass in Ländern ohne Vaccinations- und Revaccinationszwang, obwohl sie ebenfalls im Anfang der siebziger Jahre heftige Epidemien zu überstehen hatten, die Pocken wieder ebenso grosse Mortalitäten bewirken wie früher, während sie in Deutschland fast vollkommen aufgehört haben.</t>
+  </si>
+  <si>
+    <t>Das Zurückgehen der Pockenepidemie in der neuen Zeit gegenüber den Vrhältnissen des vorigen Jahrhunderst soll Folge der höheren Zivilisation, nicht der Impfung sein. Den Gegenbeweis liefert die grosse Pockenepidemie zu Anfang der siebziger Jahre, welche sich an die ganze Zivilisation nicht kehrte und die mangelhaft durchimpfte Bevölkerung decimierte.</t>
+  </si>
+  <si>
+    <t>M. Schulz, Impfung, Impfgeschäft und Impftechnik. Ein kurzer Leitfaden für Studierende und Arzte, Berlin, 1888, S. 10.</t>
+  </si>
+  <si>
+    <t>Schulz, Impfung, Impfgeschäft und Impftechnik, S. 10.</t>
+  </si>
+  <si>
+    <t>Schulz, Impfung, Impfgeschäft und Impftechnik, S. 11 u. 14.</t>
+  </si>
+  <si>
+    <t>Schulz, Impfung, Impfgeschäft und Impftechnik, S. 27.</t>
+  </si>
+  <si>
+    <t>Schulz, Impfung, Impfgeschäft und Impftechnik, S. 27-28.</t>
+  </si>
+  <si>
+    <t>Schulz, Impfung, Impfgeschäft und Impftechnik, S. 32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Einfluss der Impfung und Wiederimpfung auf die Pockensterblichkeit kann man am deutlichsten wahrnehmen, wenn man einen Blick auf die folgende Zusammenstellung wirft, [...]. In der Civilbevölkerung zeigt sich nach dem Jahre 1874, dem Zeitpunkte der Einführung des Reichs-Impfgesetzes, ein rapider Abfall der Blatternsterblickeit, die seit dieser Zeit constant auf diesem niedrigen Niveau geblieben ist. </t>
+  </si>
+  <si>
+    <t>Gustav Paul, der Nutzen der Schutzpocken-Impfung. Vortrag gehalten am 30.März 1901 in der 87. Vollversammlung des Vereins für Kindergärten und Kinderbewahranstalten in Österreich, Wien, 1901, S. 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Nutzen einer genau durchgeführten Revaccination wird zur Evidenz klar, wenn man die Pockensterblichkeit in den Kriegsjahren 1870-1871 der gut geimpften deutschen Armee mit der nur sehr mangelhaft geimpften und revaccinierten französischen Armee in Vergleich zieht. Von der deutschen Armee mit nahezu 1 1/2 Millionen Mann starben an Blattern 459 Mann, von der französischen Armee wurden 23.400 Todesfälle an Blattern berichtet. Diese Erfahrung veranlasste auch die österreichische Herresverwaltung, die obligatorische Impfung und Widerimpfung im Jahre 1886 einzuführen. </t>
+  </si>
+  <si>
+    <t>oft bemühtes Beispiel auf beiden Seiten tlw mit variierenden Zahlen</t>
+  </si>
+  <si>
+    <t>Paul, der Nutzen der Schutzpocken-Impfung, S. 7.</t>
+  </si>
+  <si>
+    <t>Paul, der Nutzen der Schutzpocken-Impfung S. 18.</t>
+  </si>
+  <si>
+    <t>Paul, der Nutzen der Schutzpocken-Impfung S. 17.</t>
+  </si>
+  <si>
+    <t>Paul, der Nutzen der Schutzpocken-Impfung, S. 15.</t>
+  </si>
+  <si>
+    <t>In den Jahren 1889--1890 hatte ich als k.k. Amtsarzt in einem Bezirke Böhmens die traurige Gelegenheite, Zeuge einer ausgebreiteten Blatternepidemie in meinem eigenen Amtsbezirke zu sein, [...] deren Ausbreitung und Intensivität die Folge einer jahrelangen sehr nachlässig gehandhabten Impfung war. Zur Eindämmung der Epidemie nahm ich persönlich [...] die Revaccination von einigen hundert Schulkindern vor [..]. Am Schluß der Epidemie hatte ich die Freude, [...] constatieren zu können, dass kein einziges der von mir mit Erfolg zum Theile erstgeimpften, zum Theile revaccinierten Kindern an Blattern erkrankt war [...]. Die Beweise für den Wert der Impfung liefern also nach dem Gesagten das Experiment, die Erfahrung und die Statistik.</t>
+  </si>
+  <si>
+    <t>persönliche Erfahrungswert</t>
+  </si>
+  <si>
+    <t>Das verhältnismäßig geringfügige, nur wenige Tage dauernde und ungefährliche Unwohlsein, welches dem kleinen Impfling aus der Impfprocedur erwächst, wird mehr als reichlich aufgewogen durch den unschätzbaren Nutzen, den ihm der Impfschutz gegen die Blatternansteckung für eine lange Zeit gewährt. Diese Unbewquemlichkeiten und Gefahren sind gewiss weit geringer als die höchst überflüssige, weitverbreitete und nicht angefochtene Sitte des Ohrenstechens, durch welche nicht so selten, als man es glaubt, Eiterung, Hautausschläge, Geschwüre und Geschwulstbildungen und Übertragungen von ansteckenden Krankheiten durch unreine Instrumente verursacht werden können.</t>
+  </si>
+  <si>
+    <t>Fejes, Die Enststehung, Verbreitung und Verhütung der Seuchen, S. 103 u . 109.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Blattern sind eine, mit charakteristischer Blasenbildung einhergehende akute Infektionskrankheit. Von ihrer Bedeutung hat sie seit der allgemeinen Einführung der obligaten Blatternschutzimpfung viel verloren. Früher trat sie aber in Gestalt der schwersten Volksseuche in Erscheinung. Der allgemeine Impfzwang hat ein epidemisches Auftreten der Blattern zu den größten Seltenheiten gestaltet. Wird die Seuche auch von anderen Ländern eingeschleppt, so verursacht sie keine Epidemie; die Schutzgeimpften erkranken überhaupt nicht oder nur sehr leicht. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob Bernheim-Karrer, Gesundheitspflege des Kindes, 2. Auflag, Zürich, 1922,  S. 166. </t>
+  </si>
+  <si>
+    <t>(Zitiert nach: Jana Gärtner, Elternratgeber im Wandel)</t>
+  </si>
+  <si>
+    <t>Die Salk-Vakzine ist in den USA und im Ausland allein 1956 bei 70 Mio Impfungen injiziert worden, sie unterliegt strengen staatlichen Prüfungsbestimmungen. [...] Das Ergebnis der bisherigen aktiven Poliomyelitis-Schutzimpfung kann nach dem amerikanischen Großversuch 1954 und den späteren Erfahrungen als günstig bezeichnet werden, die Impfung ist etwa zu 80% wirksam und praktisch unschädlich.</t>
+  </si>
+  <si>
+    <t>Empfehlung</t>
+  </si>
+  <si>
+    <t>Pocken/BCG</t>
+  </si>
+  <si>
+    <t>hisorisches Argument</t>
+  </si>
+  <si>
+    <t>Invasive Hib-Erkrankungen sind seit Einführung der Impfung deutlich zurückgegangen</t>
+  </si>
+  <si>
+    <t>Impfbeführworter sehen in den Epedemien (Anm: Masern) einen Beweis für die Rückständigkeit und Rücksichtslosigkeit der Impfgegner, die ihre Kinder unnötig gefährden.</t>
+  </si>
+  <si>
+    <t>Der schwerwiegende Vorwurf, die Impfung könnte Autismus begünstigen, stellte sich als wissenschaftlicher Betrug heraus</t>
+  </si>
+  <si>
+    <t>Skeptiker/Gegner</t>
+  </si>
+  <si>
+    <t>wird klassischerweise zu den Impfgegner gezählt. In diesem Werk erscheint er eher als Skeptiker</t>
+  </si>
+  <si>
+    <t>Die allgemeine (Menigokokken)impfempfehlung für Einjährige betrifft die Menigokokken C, die in diesem Alter eine nur untergeordnete und tendenziell abenhmende Rolle spielen</t>
+  </si>
+  <si>
+    <t>Diphtherie/Keuchhusten</t>
+  </si>
+  <si>
+    <t>Recht auf freie Entscheidung</t>
+  </si>
+  <si>
+    <t>Schreiber beanstandet aber die zu seiner Zeit vorhandenen "Mängel", wie kurze Wirksamkeit, keine Revaccine, von Mensch zu Mensch impfen was die Lymphe mangelhaft macht...</t>
+  </si>
+  <si>
+    <t>krankmachen</t>
+  </si>
+  <si>
+    <t>Die Voraussetzung, daß fast jeder Mensch die Pocken bekommen müsse und von ihren Gefahren bedroht werde, ist nicht begründet. Es gibt Gegenden, die verschont geblieben sind [...]. Selbst da, wo sie gewühtet haben, ist ein Theil der Menschen nicht von ihnen angesteckt worden.  [...] Viele Krankheiten lernte die, sich immer mehr ausbildende Kunst, besser behandeln. Es läßt sich daher auch erwarten, daß sie die Gefahren der Pocken nach und nach werde mildern lernen, ohne eines zweifelhaften Vorbauungsmittels zu bedürfen.</t>
+  </si>
+  <si>
+    <t>Die Meinung, daß das, nach vorausgegangener Kuhpockenimpfung beobachtete, den natürlichen Blattern entsprechende Eranthem wesentlich von diesen verschieden sey, gründet sich auf den unersschütterlichen Glauben an die Unfehlbarkeit von Jenners Tochter. (Anm.: die Impfung) Die Varioloiden sind mit den natürlichen Blattern identisch [...]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1783,8 +2140,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,6 +2158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,8 +2192,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1847,13 +2221,16 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2124,7 +2501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2132,11 +2509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2160,10 +2537,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -2172,48 +2549,50 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="114.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="76.5">
       <c r="A2" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E2" s="7">
         <v>1834</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>647</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>209</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="114.75">
       <c r="A3" s="7" t="s">
-        <v>198</v>
+        <v>650</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E3" s="7">
         <v>1834</v>
@@ -2222,252 +2601,268 @@
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E4" s="7">
         <v>1834</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="38.25">
       <c r="A5" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E5" s="7">
         <v>1834</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="114.75">
       <c r="A6" s="7" t="s">
-        <v>201</v>
+        <v>651</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E6" s="7">
         <v>1834</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="114.75">
       <c r="A7" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E7" s="7">
         <v>1834</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="76.5">
       <c r="A8" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E8" s="7">
         <v>1834</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="89.25">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E9" s="7">
         <v>1834</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51">
       <c r="A10" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E10" s="7">
         <v>1834</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>649</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="102">
       <c r="A11" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E11" s="7">
         <v>1834</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>649</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="76.5">
       <c r="A12" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E12" s="7">
         <v>1834</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="204">
       <c r="A13" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E13" s="7">
         <v>1834</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="178.5">
       <c r="A14" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E14" s="7">
         <v>1857</v>
@@ -2476,48 +2871,48 @@
         <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="89.25">
       <c r="A15" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E15" s="7">
         <v>1857</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="102">
       <c r="A16" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E16" s="7">
         <v>1857</v>
@@ -2526,22 +2921,22 @@
         <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="114.75">
       <c r="A17" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E17" s="7">
         <v>1857</v>
@@ -2550,46 +2945,46 @@
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="140.25">
       <c r="A18" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E18" s="7">
         <v>1857</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="102">
       <c r="A19" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E19" s="7">
         <v>1857</v>
@@ -2598,24 +2993,24 @@
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="38.25">
       <c r="A20" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E20" s="7">
         <v>1863</v>
@@ -2624,22 +3019,22 @@
         <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="51">
       <c r="A21" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E21" s="7">
         <v>1864</v>
@@ -2648,224 +3043,224 @@
         <v>5</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="127.5">
       <c r="A22" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E22" s="7">
         <v>1865</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="89.25">
       <c r="A23" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E23" s="7">
         <v>1866</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="127.5">
       <c r="A24" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E24" s="7">
         <v>1867</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="140.25">
       <c r="A25" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E25" s="7">
         <v>1868</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="89.25">
       <c r="A26" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E26" s="7">
         <v>1869</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="102">
       <c r="A27" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E27" s="7">
         <v>1870</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="153">
       <c r="A28" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E28" s="7">
         <v>1871</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="76.5">
       <c r="A29" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E29" s="7">
         <v>1872</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="102">
       <c r="A30" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E30" s="7">
         <v>1879</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="89.25">
       <c r="A31" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E31" s="7">
         <v>1879</v>
@@ -2876,40 +3271,40 @@
     </row>
     <row r="32" spans="1:8" ht="89.25">
       <c r="A32" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E32" s="7">
         <v>1879</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="76.5">
       <c r="A33" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E33" s="7">
         <v>1879</v>
@@ -2917,15 +3312,15 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="25.5">
       <c r="A34" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2934,18 +3329,18 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25.5">
       <c r="A35" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2954,18 +3349,18 @@
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="38.25">
       <c r="A36" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2974,18 +3369,18 @@
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="25.5">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2996,18 +3391,18 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="25.5">
       <c r="A38" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -3018,18 +3413,18 @@
         <v>5</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="25.5">
       <c r="A39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -3040,18 +3435,18 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="25.5">
       <c r="A40" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3060,62 +3455,62 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="89.25">
       <c r="A41" s="7" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E41" s="7">
         <v>1888</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="63.75">
       <c r="A42" s="7" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E42" s="7">
         <v>1889</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="114.75">
       <c r="A43" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3123,19 +3518,19 @@
         <v>1922</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="63.75">
       <c r="A44" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3146,46 +3541,46 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="191.25">
       <c r="A45" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E45" s="7">
         <v>1995</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="102">
       <c r="A46" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E46" s="7">
         <v>1995</v>
@@ -3194,22 +3589,22 @@
         <v>5</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" ht="25.5">
       <c r="A47" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E47" s="7">
         <v>1995</v>
@@ -3218,22 +3613,22 @@
         <v>5</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="51">
       <c r="A48" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E48" s="7">
         <v>1995</v>
@@ -3242,22 +3637,22 @@
         <v>5</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" ht="102">
       <c r="A49" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E49" s="7">
         <v>1995</v>
@@ -3266,22 +3661,22 @@
         <v>5</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="76.5">
       <c r="A50" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E50" s="7">
         <v>1995</v>
@@ -3290,22 +3685,22 @@
         <v>5</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="102">
       <c r="A51" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E51" s="7">
         <v>1995</v>
@@ -3314,22 +3709,22 @@
         <v>5</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" ht="76.5">
       <c r="A52" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E52" s="7">
         <v>1995</v>
@@ -3338,46 +3733,46 @@
         <v>5</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" ht="127.5">
       <c r="A53" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E53" s="7">
         <v>1995</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" ht="89.25">
       <c r="A54" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E54" s="7">
         <v>1995</v>
@@ -3386,31 +3781,31 @@
         <v>34</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" ht="51">
       <c r="A55" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E55" s="7">
         <v>1995</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3430,7 +3825,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -3450,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3470,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -3490,7 +3885,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -3510,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -3530,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -3550,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -3570,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3590,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -3610,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3630,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -3650,7 +4045,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3670,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -3690,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3710,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3730,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3750,7 +4145,7 @@
         <v>5</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -3770,7 +4165,7 @@
         <v>5</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -3790,7 +4185,7 @@
         <v>5</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -3810,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -3830,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -3850,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -3870,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -3890,7 +4285,7 @@
         <v>34</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -3910,22 +4305,22 @@
         <v>34</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8" ht="76.5">
       <c r="A81" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E81" s="7">
         <v>2005</v>
@@ -3934,18 +4329,18 @@
         <v>12</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="76.5">
       <c r="A82" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3956,16 +4351,16 @@
         <v>34</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" ht="76.5">
       <c r="A83" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3976,16 +4371,16 @@
         <v>5</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" ht="76.5">
       <c r="A84" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3996,22 +4391,22 @@
         <v>5</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" ht="38.25">
       <c r="A85" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E85" s="7">
         <v>2008</v>
@@ -4020,46 +4415,46 @@
         <v>12</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" ht="114.75">
       <c r="A86" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E86" s="7">
         <v>2008</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="140.25">
       <c r="A87" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E87" s="7">
         <v>2008</v>
@@ -4068,46 +4463,46 @@
         <v>34</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="51">
       <c r="A88" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E88" s="7">
         <v>2008</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" ht="76.5">
       <c r="A89" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E89" s="7">
         <v>2008</v>
@@ -4116,24 +4511,24 @@
         <v>34</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="89.25">
       <c r="A90" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E90" s="7">
         <v>2008</v>
@@ -4142,24 +4537,24 @@
         <v>34</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="127.5">
       <c r="A91" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E91" s="7">
         <v>2008</v>
@@ -4168,24 +4563,24 @@
         <v>5</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="89.25">
       <c r="A92" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E92" s="7">
         <v>2008</v>
@@ -4194,24 +4589,24 @@
         <v>5</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="51">
       <c r="A93" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E93" s="7">
         <v>2008</v>
@@ -4220,22 +4615,22 @@
         <v>5</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" ht="51">
       <c r="A94" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E94" s="7">
         <v>2008</v>
@@ -4244,132 +4639,132 @@
         <v>5</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8" ht="51">
       <c r="A95" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E95" s="7">
         <v>2008</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H95" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" ht="51">
       <c r="A96" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E96" s="7">
         <v>2008</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" ht="51">
       <c r="A97" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E97" s="7">
         <v>2008</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" ht="51">
       <c r="A98" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E98" s="7">
         <v>2008</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8" ht="63.75">
       <c r="A99" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E99" s="7">
         <v>2008</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8" ht="165.75">
       <c r="A100" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E100" s="7">
         <v>2012</v>
@@ -4378,24 +4773,24 @@
         <v>6</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="191.25">
       <c r="A101" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E101" s="7">
         <v>2012</v>
@@ -4404,24 +4799,24 @@
         <v>5</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="38.25">
       <c r="A102" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E102" s="7">
         <v>2012</v>
@@ -4434,16 +4829,16 @@
     </row>
     <row r="103" spans="1:8" ht="114.75">
       <c r="A103" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E103" s="7">
         <v>2012</v>
@@ -4452,48 +4847,48 @@
         <v>5</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="89.25">
       <c r="A104" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E104" s="7">
         <v>2012</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="76.5">
       <c r="A105" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E105" s="7">
         <v>2012</v>
@@ -4502,50 +4897,50 @@
         <v>5</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="127.5">
       <c r="A106" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E106" s="7">
         <v>2012</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="114.75">
       <c r="A107" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E107" s="7">
         <v>2012</v>
@@ -4554,24 +4949,24 @@
         <v>6</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="102">
       <c r="A108" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E108" s="7">
         <v>2012</v>
@@ -4580,46 +4975,46 @@
         <v>5</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" ht="102">
       <c r="A109" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E109" s="7">
         <v>2012</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8" ht="114.75">
       <c r="A110" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E110" s="7">
         <v>2012</v>
@@ -4628,22 +5023,22 @@
         <v>5</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8" ht="127.5">
       <c r="A111" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E111" s="7">
         <v>2012</v>
@@ -4652,22 +5047,22 @@
         <v>5</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" ht="153">
       <c r="A112" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E112" s="7">
         <v>2012</v>
@@ -4676,46 +5071,46 @@
         <v>5</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8" ht="114.75">
       <c r="A113" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E113" s="7">
         <v>2012</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" ht="102">
       <c r="A114" s="8" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E114" s="7">
         <v>2013</v>
@@ -4724,24 +5119,24 @@
         <v>5</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="38.25">
       <c r="A115" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E115" s="7">
         <v>2013</v>
@@ -4750,22 +5145,22 @@
         <v>5</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" ht="102">
       <c r="A116" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E116" s="7">
         <v>2013</v>
@@ -4774,24 +5169,24 @@
         <v>5</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="76.5">
       <c r="A117" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E117" s="7">
         <v>2013</v>
@@ -4800,22 +5195,22 @@
         <v>5</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" ht="51">
       <c r="A118" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E118" s="7">
         <v>2013</v>
@@ -4824,22 +5219,22 @@
         <v>5</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" ht="76.5">
       <c r="A119" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E119" s="7">
         <v>2013</v>
@@ -4848,22 +5243,22 @@
         <v>5</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" ht="51">
       <c r="A120" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E120" s="7">
         <v>2013</v>
@@ -4872,24 +5267,24 @@
         <v>5</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="114.75">
       <c r="A121" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E121" s="7">
         <v>2013</v>
@@ -4898,24 +5293,24 @@
         <v>5</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="51">
       <c r="A122" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E122" s="7">
         <v>2013</v>
@@ -4924,22 +5319,22 @@
         <v>5</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" ht="63.75">
       <c r="A123" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E123" s="7">
         <v>2013</v>
@@ -4948,24 +5343,24 @@
         <v>5</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="76.5">
       <c r="A124" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E124" s="7">
         <v>2013</v>
@@ -4974,46 +5369,46 @@
         <v>5</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" ht="89.25">
       <c r="A125" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E125" s="7">
         <v>2013</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" ht="63.75">
       <c r="A126" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E126" s="2">
         <v>2013</v>
@@ -5022,21 +5417,21 @@
         <v>34</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="76.5">
       <c r="A127" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E127" s="2">
         <v>2013</v>
@@ -5045,21 +5440,21 @@
         <v>5</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="76.5">
       <c r="A128" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E128" s="2">
         <v>2013</v>
@@ -5068,21 +5463,21 @@
         <v>12</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="102">
       <c r="A129" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E129" s="2">
         <v>2013</v>
@@ -5091,50 +5486,50 @@
         <v>12</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="89.25">
       <c r="A130" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E130" s="2">
         <v>2013</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="89.25">
       <c r="A131" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E131" s="2">
         <v>2013</v>
@@ -5143,21 +5538,21 @@
         <v>5</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="127.5">
       <c r="A132" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E132" s="2">
         <v>2013</v>
@@ -5166,67 +5561,67 @@
         <v>5</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="25.5">
       <c r="A133" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E133" s="2">
         <v>2013</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="25.5">
       <c r="A134" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E134" s="2">
         <v>2013</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="140.25">
       <c r="A135" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E135" s="2">
         <v>2013</v>
@@ -5235,24 +5630,24 @@
         <v>5</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="63.75">
       <c r="A136" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E136" s="2">
         <v>2013</v>
@@ -5261,21 +5656,21 @@
         <v>5</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="102">
       <c r="A137" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E137" s="2">
         <v>2013</v>
@@ -5284,21 +5679,21 @@
         <v>5</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="51">
       <c r="A138" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E138" s="2">
         <v>2013</v>
@@ -5307,21 +5702,21 @@
         <v>5</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="63.75">
       <c r="A139" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E139" s="2">
         <v>2013</v>
@@ -5330,21 +5725,21 @@
         <v>5</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="76.5">
       <c r="A140" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E140" s="2">
         <v>2013</v>
@@ -5353,27 +5748,27 @@
         <v>5</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="51">
       <c r="A141" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E141" s="2">
         <v>2013</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="38.25">
@@ -5390,7 +5785,7 @@
         <v>6</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="38.25">
@@ -5407,7 +5802,7 @@
         <v>5</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="38.25">
@@ -5424,7 +5819,7 @@
         <v>5</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="38.25">
@@ -5441,7 +5836,7 @@
         <v>40</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="38.25">
@@ -5458,71 +5853,312 @@
         <v>43</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="38.25">
       <c r="A147" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="114.75">
       <c r="A148" s="2" t="s">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>527</v>
+        <v>449</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E148" s="2">
         <v>1872</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>526</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="127.5">
       <c r="A149" s="2" t="s">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>528</v>
+        <v>453</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1872</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="89.25">
       <c r="A150" s="2" t="s">
-        <v>530</v>
+        <v>451</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>531</v>
+        <v>454</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1872</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="89.25">
       <c r="A151" s="2" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>531</v>
+        <v>454</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1872</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="114.75">
+      <c r="A152" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1910</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="51">
+      <c r="A153" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="127.5">
+      <c r="A154" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="89.25">
+      <c r="A155" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="63.75">
+      <c r="A156" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="89.25">
+      <c r="A157" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="102">
+      <c r="A158" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="140.25">
+      <c r="A159" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1875</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="76.5">
+      <c r="A160" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1875</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="63.75">
+      <c r="A161" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1875</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="63.75">
+      <c r="A162" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1875</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="51">
+      <c r="A163" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="51">
+      <c r="A164" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="127.5">
+      <c r="A165" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5546,9 +6182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -5571,10 +6205,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -5583,361 +6217,361 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="63.75">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E2" s="7">
         <v>2008</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="38.25">
       <c r="A3" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E3" s="7">
         <v>2008</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="63.75">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E4" s="7">
         <v>2008</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="51">
       <c r="A5" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E5" s="7">
         <v>2008</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="38.25">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E6" s="7">
         <v>2008</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="38.25">
       <c r="A7" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E7" s="7">
         <v>2008</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="38.25">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E8" s="7">
         <v>2008</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="51">
       <c r="A9" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E9" s="7">
         <v>2008</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="51">
       <c r="A10" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E10" s="7">
         <v>2008</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="51">
       <c r="A11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E11" s="7">
         <v>2008</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="63.75">
       <c r="A12" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E12" s="7">
         <v>2008</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="63.75">
       <c r="A13" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E13" s="7">
         <v>2008</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="63.75">
       <c r="A14" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E14" s="7">
         <v>2008</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="127.5">
       <c r="A15" s="7" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E15" s="7">
         <v>1834</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="51">
       <c r="A16" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E16" s="7">
         <v>2005</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="51">
       <c r="A17" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E17" s="7">
         <v>2005</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -5955,11 +6589,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5970,9 +6604,10 @@
     <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -5983,10 +6618,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -5994,1762 +6629,2508 @@
       <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>67</v>
+      <c r="G1" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="89.25">
       <c r="A2" s="7" t="s">
-        <v>414</v>
+        <v>551</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E2" s="7">
         <v>1801</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10" t="s">
-        <v>69</v>
+      <c r="F2" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="38.25">
       <c r="A3" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>416</v>
+        <v>552</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E3" s="7">
         <v>1801</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
-        <v>69</v>
+      <c r="F3" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="51">
       <c r="A4" s="7" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E4" s="7">
         <v>1801</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10" t="s">
-        <v>69</v>
+      <c r="F4" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="25.5">
       <c r="A5" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E5" s="7">
         <v>1801</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10" t="s">
-        <v>69</v>
+      <c r="F5" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="51">
       <c r="A6" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>423</v>
+        <v>556</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E6" s="7">
         <v>1801</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10" t="s">
-        <v>69</v>
+      <c r="F6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="38.25">
       <c r="A7" s="7" t="s">
-        <v>421</v>
+        <v>566</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E7" s="7">
         <v>1801</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10" t="s">
-        <v>69</v>
+      <c r="F7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="7" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>425</v>
+        <v>558</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E8" s="7">
         <v>1801</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10" t="s">
-        <v>69</v>
+      <c r="F8" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="51">
       <c r="A9" s="7" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E9" s="7">
         <v>1801</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="10" t="s">
-        <v>69</v>
+      <c r="F9" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="76.5">
       <c r="A10" s="7" t="s">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>429</v>
+        <v>560</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E10" s="7">
         <v>1801</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10" t="s">
-        <v>69</v>
+      <c r="F10" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="63.75">
       <c r="A11" s="7" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>430</v>
+        <v>561</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E11" s="7">
         <v>1801</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10" t="s">
-        <v>69</v>
+      <c r="F11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="63.75">
+    <row r="12" spans="1:8" ht="114.75">
       <c r="A12" s="7" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>433</v>
+        <v>562</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E12" s="7">
         <v>1801</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10" t="s">
-        <v>69</v>
+      <c r="F12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="51">
       <c r="A13" s="7" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>436</v>
+        <v>563</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E13" s="7">
         <v>1801</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="102">
       <c r="A14" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>438</v>
+        <v>564</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E14" s="7">
         <v>1801</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="10" t="s">
-        <v>69</v>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="63.75">
       <c r="A15" s="7" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E15" s="7">
         <v>1801</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="10" t="s">
-        <v>69</v>
+      <c r="F15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="51">
       <c r="A16" s="7" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E16" s="7">
         <v>1802</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="10" t="s">
-        <v>69</v>
+      <c r="F16" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="89.25">
+    <row r="17" spans="1:9" ht="89.25">
       <c r="A17" s="7" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E17" s="7">
         <v>1802</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10" t="s">
-        <v>69</v>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="76.5">
+    <row r="18" spans="1:9" ht="76.5">
       <c r="A18" s="7" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E18" s="7">
         <v>1802</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>69</v>
+        <v>505</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="38.25">
+    <row r="19" spans="1:9" ht="38.25">
       <c r="A19" s="7" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E19" s="7">
         <v>1802</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="10" t="s">
-        <v>69</v>
+      <c r="F19" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="76.5">
+    <row r="20" spans="1:9" ht="76.5">
       <c r="A20" s="7" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E20" s="7">
         <v>1802</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="10" t="s">
-        <v>69</v>
+      <c r="F20" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="76.5">
+    <row r="21" spans="1:9" ht="76.5">
       <c r="A21" s="7" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E21" s="7">
         <v>1802</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="10" t="s">
-        <v>69</v>
+      <c r="F21" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="63.75">
+    <row r="22" spans="1:9" ht="63.75">
       <c r="A22" s="7" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E22" s="7">
         <v>1802</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="10" t="s">
-        <v>69</v>
+      <c r="F22" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="114.75">
+    <row r="23" spans="1:9" ht="114.75">
       <c r="A23" s="7" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E23" s="7">
         <v>1808</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>69</v>
+        <v>439</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="63.75">
+    <row r="24" spans="1:9" ht="63.75">
       <c r="A24" s="7" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E24" s="7">
         <v>1808</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>69</v>
+        <v>439</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="89.25">
+    <row r="25" spans="1:9" ht="89.25">
       <c r="A25" s="7" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E25" s="7">
         <v>1808</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>69</v>
+        <v>440</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="63.75">
+    <row r="26" spans="1:9" ht="63.75">
       <c r="A26" s="7" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E26" s="7">
         <v>1808</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>69</v>
+        <v>441</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="178.5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="178.5">
       <c r="A27" s="7" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E27" s="7">
         <v>1808</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>69</v>
+        <v>577</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="89.25">
+    <row r="28" spans="1:9" ht="89.25">
       <c r="A28" s="7" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E28" s="7">
         <v>1808</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>69</v>
+        <v>577</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="51">
+    <row r="29" spans="1:9" ht="51">
       <c r="A29" s="7" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E29" s="7">
         <v>1808</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="180">
+      <c r="A30" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1820</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="38.25">
+      <c r="A31" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1820</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="76.5">
+      <c r="A32" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1820</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="76.5">
+      <c r="A33" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="63.75">
-      <c r="A30" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1828</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="102">
-      <c r="A31" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="114.75">
-      <c r="A32" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="114.75">
-      <c r="A33" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E33" s="7">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="102">
+        <v>518</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="76.5">
       <c r="A34" s="7" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E34" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>510</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="89.25">
+    <row r="35" spans="1:8" ht="25.5">
       <c r="A35" s="7" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E35" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="51">
+    <row r="36" spans="1:8" ht="63.75">
       <c r="A36" s="7" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E36" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="25.5">
+    <row r="37" spans="1:8" ht="127.5">
       <c r="A37" s="7" t="s">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E37" s="7">
-        <v>1884</v>
+        <v>1820</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="25.5">
+    <row r="38" spans="1:8" ht="63.75">
       <c r="A38" s="7" t="s">
-        <v>46</v>
+        <v>529</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>45</v>
+        <v>530</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E38" s="7">
-        <v>1884</v>
+        <v>1820</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>47</v>
+        <v>531</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="38.25">
+    <row r="39" spans="1:8" ht="51">
       <c r="A39" s="7" t="s">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>533</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E39" s="7">
-        <v>1884</v>
+        <v>1820</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>50</v>
+        <v>433</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="51">
       <c r="A40" s="7" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E40" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="38.25">
       <c r="A41" s="7" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E41" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="51">
+    <row r="42" spans="1:8" ht="76.5">
       <c r="A42" s="7" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E42" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="89.25">
+    <row r="43" spans="1:8" ht="153">
       <c r="A43" s="7" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E43" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="38.25">
+    <row r="44" spans="1:8" ht="63.75">
       <c r="A44" s="7" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E44" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="89.25">
+    <row r="45" spans="1:8" ht="76.5">
       <c r="A45" s="7" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E45" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="102">
+    <row r="46" spans="1:8" ht="140.25">
       <c r="A46" s="7" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E46" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="76.5">
+    <row r="47" spans="1:8" ht="89.25">
       <c r="A47" s="7" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E47" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="10" t="s">
-        <v>69</v>
+        <v>1820</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="63.75">
       <c r="A48" s="7" t="s">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E48" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="10" t="s">
-        <v>69</v>
+        <v>1828</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="89.25">
+    <row r="49" spans="1:8" ht="102">
       <c r="A49" s="7" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E49" s="7">
-        <v>1901</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="10" t="s">
-        <v>69</v>
+        <v>1830</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="102">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="114.75">
       <c r="A50" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>456</v>
+        <v>585</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>587</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E50" s="7">
-        <v>1901</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="10" t="s">
-        <v>69</v>
+        <v>1830</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="127.5">
+    <row r="51" spans="1:8" ht="114.75">
       <c r="A51" s="7" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E51" s="7">
-        <v>1901</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="10" t="s">
-        <v>69</v>
+        <v>1830</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="114.75">
+    <row r="52" spans="1:8" ht="102">
       <c r="A52" s="7" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>461</v>
+        <v>589</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E52" s="7">
-        <v>1901</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="10" t="s">
-        <v>69</v>
+        <v>1830</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="153">
+    <row r="53" spans="1:8" ht="89.25">
       <c r="A53" s="7" t="s">
-        <v>462</v>
+        <v>596</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>463</v>
+        <v>590</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E53" s="7">
-        <v>1901</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="10" t="s">
-        <v>69</v>
+        <v>1830</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>464</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="51">
       <c r="A54" s="7" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>468</v>
+        <v>591</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E54" s="7">
-        <v>1917</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" ht="102">
+        <v>1830</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="270" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>470</v>
+        <v>592</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E55" s="7">
-        <v>1917</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="10" t="s">
-        <v>69</v>
+        <v>1830</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="63.75">
+    <row r="56" spans="1:8" ht="51">
       <c r="A56" s="7" t="s">
-        <v>71</v>
+        <v>495</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>593</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D56" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E56" s="7">
-        <v>1922</v>
+        <v>1830</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="51">
+    <row r="57" spans="1:8" ht="38.25">
       <c r="A57" s="7" t="s">
-        <v>229</v>
+        <v>497</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>348</v>
+        <v>594</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E57" s="7">
-        <v>2005</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" ht="51">
+        <v>1830</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="25.5">
       <c r="A58" s="7" t="s">
-        <v>232</v>
+        <v>599</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>348</v>
+        <v>44</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E58" s="7">
-        <v>2005</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8" t="s">
-        <v>124</v>
+        <v>1884</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="38.25">
+    <row r="59" spans="1:8" ht="25.5">
       <c r="A59" s="7" t="s">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E59" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F59" s="7"/>
+        <v>1884</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="G59" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="38.25">
       <c r="A60" s="7" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E60" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F60" s="7"/>
+        <v>1884</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G60" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="38.25">
+    <row r="61" spans="1:8" ht="51">
       <c r="A61" s="7" t="s">
-        <v>109</v>
+        <v>602</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>110</v>
+        <v>615</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E61" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F61" s="7"/>
+        <v>1888</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="G61" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="38.25">
+    <row r="62" spans="1:8" ht="76.5">
       <c r="A62" s="7" t="s">
-        <v>111</v>
+        <v>425</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>112</v>
+        <v>616</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E62" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>1888</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="G62" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" ht="38.25">
+        <v>67</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="51">
       <c r="A63" s="7" t="s">
-        <v>113</v>
+        <v>605</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>114</v>
+        <v>617</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E63" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>1888</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>606</v>
+      </c>
       <c r="G63" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="38.25">
+    <row r="64" spans="1:8" ht="89.25">
       <c r="A64" s="7" t="s">
-        <v>118</v>
+        <v>607</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>119</v>
+        <v>618</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E64" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>1888</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>608</v>
+      </c>
       <c r="G64" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H64" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="38.25">
       <c r="A65" s="7" t="s">
-        <v>123</v>
+        <v>430</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>121</v>
+        <v>618</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E65" s="7">
-        <v>2008</v>
+        <v>1888</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>124</v>
+        <v>505</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="38.25">
+    <row r="66" spans="1:8" ht="89.25">
       <c r="A66" s="7" t="s">
-        <v>128</v>
+        <v>610</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>129</v>
+        <v>619</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E66" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" ht="38.25">
+        <v>1888</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="102">
       <c r="A67" s="7" t="s">
-        <v>131</v>
+        <v>613</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>132</v>
+        <v>620</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E67" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="10" t="s">
-        <v>130</v>
+        <v>1888</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="38.25">
+    <row r="68" spans="1:8" ht="76.5">
       <c r="A68" s="7" t="s">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>132</v>
+        <v>620</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E68" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="10" t="s">
-        <v>130</v>
+        <v>1888</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="51">
+    <row r="69" spans="1:8" ht="63.75">
       <c r="A69" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>348</v>
+        <v>614</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E69" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8" t="s">
-        <v>169</v>
+        <v>1888</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="51">
+    <row r="70" spans="1:8" ht="89.25">
       <c r="A70" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>348</v>
+        <v>621</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E70" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8" ht="51">
+        <v>1901</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="102">
       <c r="A71" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>348</v>
+        <v>623</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E71" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8" ht="51">
+        <v>1901</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="127.5">
       <c r="A72" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>348</v>
+        <v>629</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E72" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8" t="s">
-        <v>191</v>
+        <v>1901</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="38.25">
+    <row r="73" spans="1:8" ht="114.75">
       <c r="A73" s="7" t="s">
-        <v>93</v>
+        <v>631</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>100</v>
+        <v>627</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E73" s="7">
-        <v>2013</v>
+        <v>1901</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>104</v>
+        <v>608</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="63.75">
+    <row r="74" spans="1:8" ht="267.75">
       <c r="A74" s="7" t="s">
-        <v>94</v>
+        <v>419</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>101</v>
+        <v>628</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E74" s="7">
-        <v>2013</v>
+        <v>1901</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>104</v>
+        <v>606</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" ht="38.25">
+        <v>67</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="51">
       <c r="A75" s="7" t="s">
-        <v>96</v>
+        <v>423</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>102</v>
+        <v>424</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E75" s="7">
-        <v>2013</v>
+        <v>1917</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>104</v>
+        <v>531</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="38.25">
+    <row r="76" spans="1:8" ht="89.25">
       <c r="A76" s="7" t="s">
-        <v>97</v>
+        <v>633</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>102</v>
+        <v>632</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E76" s="7">
-        <v>2013</v>
+        <v>1917</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>104</v>
+        <v>531</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8" ht="38.25">
       <c r="A77" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1922</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="102">
+      <c r="A78" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1958</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" ht="51">
+      <c r="A79" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1958</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" ht="63.75">
+      <c r="A80" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1958</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" ht="63.75">
+      <c r="A81" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1958</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" ht="51">
+      <c r="A82" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E82" s="7">
+        <v>2005</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="51">
+      <c r="A83" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E83" s="7">
+        <v>2005</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="38.25">
+      <c r="A84" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E84" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="38.25">
+      <c r="A85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" ht="38.25">
+      <c r="A86" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" ht="38.25">
+      <c r="A87" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E87" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" ht="38.25">
+      <c r="A88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E88" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" ht="38.25">
+      <c r="A89" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E89" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" ht="38.25">
+      <c r="A90" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" ht="38.25">
+      <c r="A91" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E91" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" ht="38.25">
+      <c r="A92" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E92" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" ht="38.25">
+      <c r="A93" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E93" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" ht="51">
+      <c r="A94" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E94" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="51">
+      <c r="A95" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E95" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" ht="51">
+      <c r="A96" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E96" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" ht="51">
+      <c r="A97" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E97" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" ht="38.25">
+      <c r="A98" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E98" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" ht="63.75">
+      <c r="A99" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="C99" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" ht="38.25">
+      <c r="A100" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E100" s="7">
         <v>2013</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="F100" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" ht="38.25">
+      <c r="A101" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E101" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" ht="38.25">
+      <c r="A102" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:8" ht="38.25">
-      <c r="A78" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="C102" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E102" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" ht="38.25">
+      <c r="A103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E103" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E78" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H78" s="7"/>
+      <c r="H103" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <sortState ref="A2:H78">
-    <sortCondition ref="E2:E78"/>
+  <autoFilter ref="A1:H85"/>
+  <sortState ref="A2:J103">
+    <sortCondition ref="E2:E103"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="I30" display="https://books.google.at/books?id=iRM_AAAAcAAJ&amp;pg=PA3&amp;lpg=PA3&amp;dq=G+J.+Krauss+die+schutzpockenimpfung&amp;source=bl&amp;ots=TLipaYypGn&amp;sig=mBM-cC98b37bjP27zjqqwti5Ql8&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiTmNm1juzRAhUBKpoKHQ9GA4cQ6AEIIjAD#v=onepage&amp;q=G%20J.%20Krauss%20die%20schut"/>
+  </hyperlinks>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
@@ -2629,7 +2629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2640,8 +2640,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
@@ -7175,8 +7175,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="102">
+    <row r="6" spans="1:8" ht="102" hidden="1">
       <c r="A6" s="7" t="s">
         <v>686</v>
       </c>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="63.75">
+    <row r="10" spans="1:8" ht="63.75" hidden="1">
       <c r="A10" s="7" t="s">
         <v>689</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="89.25">
+    <row r="12" spans="1:8" ht="89.25" hidden="1">
       <c r="A12" s="7" t="s">
         <v>378</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="102">
+    <row r="14" spans="1:8" ht="102" hidden="1">
       <c r="A14" s="7" t="s">
         <v>687</v>
       </c>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="76.5">
+    <row r="15" spans="1:8" ht="76.5" hidden="1">
       <c r="A15" s="7" t="s">
         <v>659</v>
       </c>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="51">
+    <row r="17" spans="1:8" ht="51" hidden="1">
       <c r="A17" s="7" t="s">
         <v>347</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="89.25">
+    <row r="29" spans="1:8" ht="89.25" hidden="1">
       <c r="A29" s="7" t="s">
         <v>359</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="102">
+    <row r="33" spans="1:9" ht="102" hidden="1">
       <c r="A33" s="7" t="s">
         <v>268</v>
       </c>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="89.25" hidden="1">
+    <row r="36" spans="1:9" ht="89.25">
       <c r="A36" s="7" t="s">
         <v>412</v>
       </c>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="127.5">
+    <row r="52" spans="1:8" ht="127.5" hidden="1">
       <c r="A52" s="7" t="s">
         <v>431</v>
       </c>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="38.25">
+    <row r="53" spans="1:8" ht="38.25" hidden="1">
       <c r="A53" s="7" t="s">
         <v>63</v>
       </c>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" s="7" t="s">
         <v>85</v>
       </c>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="63.75">
+    <row r="59" spans="1:8" ht="63.75" hidden="1">
       <c r="A59" s="7" t="s">
         <v>76</v>
       </c>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="76.5" hidden="1">
+    <row r="84" spans="1:8" ht="76.5">
       <c r="A84" s="7" t="s">
         <v>670</v>
       </c>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="51" hidden="1">
+    <row r="86" spans="1:8" ht="51">
       <c r="A86" s="7" t="s">
         <v>677</v>
       </c>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="38.25" hidden="1">
+    <row r="88" spans="1:8" ht="38.25">
       <c r="A88" s="7" t="s">
         <v>277</v>
       </c>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="89.25" hidden="1">
+    <row r="89" spans="1:8" ht="89.25">
       <c r="A89" s="7" t="s">
         <v>678</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="51" hidden="1">
+    <row r="98" spans="1:8" ht="51">
       <c r="A98" s="7" t="s">
         <v>409</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="102" hidden="1">
+    <row r="99" spans="1:8" ht="102">
       <c r="A99" s="7" t="s">
         <v>416</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="51">
+    <row r="102" spans="1:8" ht="51" hidden="1">
       <c r="A102" s="7" t="s">
         <v>309</v>
       </c>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="51">
+    <row r="105" spans="1:8" ht="51" hidden="1">
       <c r="A105" s="7" t="s">
         <v>148</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="25.5">
+    <row r="106" spans="1:8" ht="25.5" hidden="1">
       <c r="A106" s="7" t="s">
         <v>151</v>
       </c>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="38.25">
+    <row r="120" spans="1:8" ht="38.25" hidden="1">
       <c r="A120" s="7" t="s">
         <v>444</v>
       </c>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="51" hidden="1">
+    <row r="127" spans="1:8" ht="51">
       <c r="A127" s="7" t="s">
         <v>559</v>
       </c>
@@ -10301,11 +10301,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H127">
-    <filterColumn colId="5">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Erfahrungswert"/>
+        <filter val="M. Schulz, Impfung, Impfgeschäft und Impftechnik. Ein kurzer Leitfaden für Studierende und Arzte, Berlin, 1888, S. 10."/>
+        <filter val="Schulz,  Impfung, Impfgeschäft und Impftechnik, S. 24."/>
+        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 10."/>
+        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 11 u. 14."/>
+        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 27."/>
+        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 27-28."/>
+        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 32."/>
       </filters>
     </filterColumn>
+    <filterColumn colId="5"/>
     <sortState ref="A26:H47">
       <sortCondition ref="F2:F126"/>
     </sortState>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -930,9 +930,6 @@
     <t>Die wichtigste Waffe der Bekämpfung der Blatternverbreitung ist die Schutzimpfung. Natürlich müssen Blatternkranke sofort verläßlich isoliert und alle ihre Ausscheidungen, wie auch die mit ihnen in Berührung gekommenen Gegenstände sorgfältig fortlaufend desinfiziert werden.</t>
   </si>
   <si>
-    <t>Die Wirkung der Vaccination wird für den Sachverständigen zweifellos erwiesen durch die in tausenden von Fällen im Anfang dieses Jahrhunderst an Geimpften (Anm.: mit Kuhpocken) ausgeführten erfolglosen Variolationen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seit Einführung der Impfung hat sich keine wissenschaftlich nachweisbare Zunahme bestimmter Krankheiten oder der Sterblichkeit im Allgemeinen geltend gemacht, welche als eine Folge der Impfung anzusehen wäre. </t>
   </si>
   <si>
@@ -2218,6 +2215,9 @@
   </si>
   <si>
     <t>Man kennt das WIE nicht, aber man weis daß die Sache ganz sicher ist. Man würde fruchtlos sich mit weitläuftigen (sic!) Untersuchungen über die Art, wie die Kuhpocken in uns die Fähigkeit, die Kinderblattern zu bekommen, zerstören können, erschöpfen: [...] es ist genug, daß die Thatsache wahr, und durch zahlreiche Erfahrungen bestätigt ist.</t>
+  </si>
+  <si>
+    <t>Die Wirkung der Vaccination wird für den Sachverständigen zweifellos erwiesen durch die in tausenden von Fällen im Anfang dieses Jahrhunderts an Geimpften (Anm.: mit Kuhpocken) ausgeführten erfolglosen Variolationen (Anm.: Ansteckung mit Menschenpocken).</t>
   </si>
 </sst>
 </file>
@@ -2689,7 +2689,7 @@
         <v>135</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>74</v>
@@ -2701,13 +2701,13 @@
         <v>1834</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I2" s="3">
         <v>3</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="3" spans="1:9" ht="114.75" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>74</v>
@@ -2744,7 +2744,7 @@
         <v>136</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>74</v>
@@ -2768,7 +2768,7 @@
         <v>137</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>74</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="6" spans="1:9" ht="114.75">
       <c r="A6" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>74</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="7" spans="1:9" ht="114.75" hidden="1">
       <c r="A7" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>74</v>
@@ -2832,7 +2832,7 @@
         <v>1834</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>61</v>
@@ -2846,7 +2846,7 @@
         <v>139</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>74</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="9" spans="1:9" ht="89.25" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>74</v>
@@ -2882,7 +2882,7 @@
         <v>1834</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>61</v>
@@ -2896,7 +2896,7 @@
         <v>142</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>74</v>
@@ -2908,7 +2908,7 @@
         <v>1834</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>61</v>
@@ -2925,7 +2925,7 @@
         <v>147</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>74</v>
@@ -2937,7 +2937,7 @@
         <v>1834</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="12" spans="1:9" ht="76.5" hidden="1">
       <c r="A12" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>74</v>
@@ -2963,7 +2963,7 @@
         <v>1834</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>61</v>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="13" spans="1:9" ht="204">
       <c r="A13" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>74</v>
@@ -2995,15 +2995,15 @@
         <v>61</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="191.25" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>74</v>
@@ -3015,7 +3015,7 @@
         <v>1857</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>61</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="15" spans="1:9" ht="102" hidden="1">
       <c r="A15" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>74</v>
@@ -3039,7 +3039,7 @@
         <v>1857</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>61</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="16" spans="1:9" ht="89.25" hidden="1">
       <c r="A16" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>74</v>
@@ -3065,7 +3065,7 @@
         <v>1857</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>61</v>
@@ -3082,7 +3082,7 @@
         <v>250</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>74</v>
@@ -3094,7 +3094,7 @@
         <v>1857</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>61</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="18" spans="1:8" ht="114.75" hidden="1">
       <c r="A18" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>541</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>74</v>
@@ -3118,7 +3118,7 @@
         <v>1857</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="19" spans="1:8" ht="140.25" hidden="1">
       <c r="A19" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>74</v>
@@ -3144,7 +3144,7 @@
         <v>1857</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>61</v>
@@ -3156,7 +3156,7 @@
         <v>253</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>74</v>
@@ -3180,7 +3180,7 @@
         <v>254</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>74</v>
@@ -3204,7 +3204,7 @@
         <v>255</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>74</v>
@@ -3216,7 +3216,7 @@
         <v>1863</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>61</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="23" spans="1:8" ht="76.5" hidden="1">
       <c r="A23" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>74</v>
@@ -3240,7 +3240,7 @@
         <v>1863</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>61</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="24" spans="1:8" ht="89.25" hidden="1">
       <c r="A24" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>74</v>
@@ -3264,7 +3264,7 @@
         <v>1863</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>61</v>
@@ -3273,10 +3273,10 @@
     </row>
     <row r="25" spans="1:8" ht="140.25" hidden="1">
       <c r="A25" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>74</v>
@@ -3288,13 +3288,13 @@
         <v>1863</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="89.25" hidden="1">
@@ -3302,7 +3302,7 @@
         <v>256</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>74</v>
@@ -3314,7 +3314,7 @@
         <v>1863</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>61</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="27" spans="1:8" ht="127.5" hidden="1">
       <c r="A27" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>74</v>
@@ -3338,7 +3338,7 @@
         <v>1863</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>61</v>
@@ -3350,7 +3350,7 @@
         <v>257</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>74</v>
@@ -3362,7 +3362,7 @@
         <v>1863</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>61</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="29" spans="1:8" ht="102" hidden="1">
       <c r="A29" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>74</v>
@@ -3386,7 +3386,7 @@
         <v>1863</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>61</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="30" spans="1:8" ht="127.5" hidden="1">
       <c r="A30" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>238</v>
@@ -3410,7 +3410,7 @@
         <v>1872</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>61</v>
@@ -3419,13 +3419,13 @@
     </row>
     <row r="31" spans="1:8" ht="89.25" hidden="1">
       <c r="A31" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>238</v>
@@ -3434,7 +3434,7 @@
         <v>1872</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>61</v>
@@ -3443,13 +3443,13 @@
     </row>
     <row r="32" spans="1:8" ht="89.25" hidden="1">
       <c r="A32" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>238</v>
@@ -3458,7 +3458,7 @@
         <v>1872</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>61</v>
@@ -3467,13 +3467,13 @@
     </row>
     <row r="33" spans="1:9" ht="114.75" hidden="1">
       <c r="A33" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>238</v>
@@ -3482,13 +3482,13 @@
         <v>1872</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I33" s="3">
         <v>21</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="34" spans="1:9" ht="63.75" hidden="1">
       <c r="A34" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>74</v>
@@ -3511,7 +3511,7 @@
         <v>1875</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>61</v>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="35" spans="1:9" ht="63.75" hidden="1">
       <c r="A35" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>74</v>
@@ -3535,7 +3535,7 @@
         <v>1875</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>61</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="36" spans="1:9" ht="51" hidden="1">
       <c r="A36" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>74</v>
@@ -3559,7 +3559,7 @@
         <v>1875</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="37" spans="1:9" ht="51" hidden="1">
       <c r="A37" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>74</v>
@@ -3583,7 +3583,7 @@
         <v>1875</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>61</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="38" spans="1:9" ht="76.5" hidden="1">
       <c r="A38" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>74</v>
@@ -3607,21 +3607,21 @@
         <v>1875</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="127.5" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>74</v>
@@ -3633,21 +3633,21 @@
         <v>1875</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="140.25" hidden="1">
       <c r="A40" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>74</v>
@@ -3659,13 +3659,13 @@
         <v>1875</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="102">
@@ -3699,7 +3699,7 @@
         <v>247</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>74</v>
@@ -3711,7 +3711,7 @@
         <v>1879</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>61</v>
@@ -3725,7 +3725,7 @@
         <v>243</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>74</v>
@@ -3737,7 +3737,7 @@
         <v>1879</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>61</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="44" spans="1:9" ht="89.25" hidden="1">
       <c r="A44" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>74</v>
@@ -3761,7 +3761,7 @@
         <v>1879</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>61</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="45" spans="1:9" ht="89.25" hidden="1">
       <c r="A45" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>74</v>
@@ -3785,21 +3785,21 @@
         <v>1888</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="127.5" hidden="1">
       <c r="A46" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>74</v>
@@ -3811,7 +3811,7 @@
         <v>1910</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>61</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="47" spans="1:9" ht="89.25" hidden="1">
       <c r="A47" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>74</v>
@@ -3835,13 +3835,13 @@
         <v>1910</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="48" spans="1:9" ht="63.75" hidden="1">
       <c r="A48" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>74</v>
@@ -3864,7 +3864,7 @@
         <v>1910</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>61</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="49" spans="1:8" ht="89.25" hidden="1">
       <c r="A49" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>74</v>
@@ -3888,7 +3888,7 @@
         <v>1910</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>61</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="50" spans="1:8" ht="102" hidden="1">
       <c r="A50" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>74</v>
@@ -3912,7 +3912,7 @@
         <v>1910</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>61</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="51" spans="1:8" ht="51" hidden="1">
       <c r="A51" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>74</v>
@@ -3936,7 +3936,7 @@
         <v>1910</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>62</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="52" spans="1:8" ht="114.75" hidden="1">
       <c r="A52" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>74</v>
@@ -3960,21 +3960,21 @@
         <v>1910</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="102" hidden="1">
       <c r="A53" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12" t="s">
@@ -3984,21 +3984,21 @@
         <v>1922</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="51" hidden="1">
       <c r="A54" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>74</v>
@@ -4016,7 +4016,7 @@
         <v>67</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="102" hidden="1">
@@ -4024,7 +4024,7 @@
         <v>231</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>74</v>
@@ -4036,7 +4036,7 @@
         <v>1995</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>62</v>
@@ -4048,7 +4048,7 @@
         <v>232</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>74</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="57" spans="1:8" ht="102" hidden="1">
       <c r="A57" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>74</v>
@@ -4086,7 +4086,7 @@
         <v>1995</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>62</v>
@@ -4095,10 +4095,10 @@
     </row>
     <row r="58" spans="1:8" ht="51" hidden="1">
       <c r="A58" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>74</v>
@@ -4110,7 +4110,7 @@
         <v>1995</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>62</v>
@@ -4122,7 +4122,7 @@
         <v>239</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>74</v>
@@ -4134,7 +4134,7 @@
         <v>1995</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>62</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="60" spans="1:8" ht="102" hidden="1">
       <c r="A60" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>74</v>
@@ -4158,7 +4158,7 @@
         <v>1995</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>62</v>
@@ -4167,10 +4167,10 @@
     </row>
     <row r="61" spans="1:8" ht="76.5" hidden="1">
       <c r="A61" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>74</v>
@@ -4182,7 +4182,7 @@
         <v>1995</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>62</v>
@@ -4191,10 +4191,10 @@
     </row>
     <row r="62" spans="1:8" ht="127.5">
       <c r="A62" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>74</v>
@@ -4218,7 +4218,7 @@
         <v>240</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>74</v>
@@ -4242,7 +4242,7 @@
         <v>241</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>74</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="65" spans="1:8" ht="191.25">
       <c r="A65" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>245</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="67" spans="1:8" ht="63.75" hidden="1">
       <c r="A67" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>210</v>
@@ -4334,15 +4334,15 @@
         <v>62</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="63.75" hidden="1">
       <c r="A68" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>210</v>
@@ -4354,21 +4354,21 @@
         <v>2007</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="63.75" hidden="1">
       <c r="A69" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>210</v>
@@ -4380,18 +4380,18 @@
         <v>2007</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="51">
       <c r="A70" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>119</v>
@@ -4418,7 +4418,7 @@
         <v>107</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>74</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="72" spans="1:8" ht="38.25" hidden="1">
       <c r="A72" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>74</v>
@@ -4456,7 +4456,7 @@
         <v>2008</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>122</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="73" spans="1:8" ht="140.25" hidden="1">
       <c r="A73" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>74</v>
@@ -4496,7 +4496,7 @@
         <v>108</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>74</v>
@@ -4508,7 +4508,7 @@
         <v>2008</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>62</v>
@@ -4520,7 +4520,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>74</v>
@@ -4532,7 +4532,7 @@
         <v>2008</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>97</v>
@@ -4541,10 +4541,10 @@
     </row>
     <row r="76" spans="1:8" ht="63.75" hidden="1">
       <c r="A76" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>74</v>
@@ -4556,7 +4556,7 @@
         <v>2008</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>105</v>
@@ -4568,7 +4568,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>74</v>
@@ -4580,7 +4580,7 @@
         <v>2008</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>124</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="78" spans="1:8" ht="127.5" hidden="1">
       <c r="A78" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>74</v>
@@ -4604,7 +4604,7 @@
         <v>2008</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>62</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="79" spans="1:8" ht="76.5" hidden="1">
       <c r="A79" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>74</v>
@@ -4641,10 +4641,10 @@
     </row>
     <row r="80" spans="1:8" ht="89.25" hidden="1">
       <c r="A80" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>74</v>
@@ -4656,7 +4656,7 @@
         <v>2008</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>62</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="81" spans="1:8" ht="89.25" hidden="1">
       <c r="A81" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>74</v>
@@ -4682,13 +4682,13 @@
         <v>2008</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="38.25" hidden="1">
@@ -4696,7 +4696,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>74</v>
@@ -4708,7 +4708,7 @@
         <v>2008</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>125</v>
@@ -4720,7 +4720,7 @@
         <v>113</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>74</v>
@@ -4732,7 +4732,7 @@
         <v>2008</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>62</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="84" spans="1:8" ht="38.25" hidden="1">
       <c r="A84" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>112</v>
@@ -4768,7 +4768,7 @@
         <v>211</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>210</v>
@@ -4794,7 +4794,7 @@
         <v>227</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>210</v>
@@ -4815,10 +4815,10 @@
     </row>
     <row r="87" spans="1:8" ht="127.5" hidden="1">
       <c r="A87" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>210</v>
@@ -4830,7 +4830,7 @@
         <v>2012</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>201</v>
@@ -4842,7 +4842,7 @@
         <v>226</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>210</v>
@@ -4854,7 +4854,7 @@
         <v>2012</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>102</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="89" spans="1:8" ht="191.25" hidden="1">
       <c r="A89" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>210</v>
@@ -4878,7 +4878,7 @@
         <v>2012</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>62</v>
@@ -4892,7 +4892,7 @@
         <v>212</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>210</v>
@@ -4913,10 +4913,10 @@
     </row>
     <row r="91" spans="1:8" ht="114.75" hidden="1">
       <c r="A91" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>210</v>
@@ -4928,7 +4928,7 @@
         <v>2012</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>62</v>
@@ -4942,7 +4942,7 @@
         <v>214</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>210</v>
@@ -4954,7 +4954,7 @@
         <v>2012</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>62</v>
@@ -4968,7 +4968,7 @@
         <v>216</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>210</v>
@@ -4980,7 +4980,7 @@
         <v>2012</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>62</v>
@@ -4994,7 +4994,7 @@
         <v>218</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>210</v>
@@ -5020,7 +5020,7 @@
         <v>220</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>210</v>
@@ -5046,7 +5046,7 @@
         <v>223</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>210</v>
@@ -5070,7 +5070,7 @@
         <v>224</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>210</v>
@@ -5082,7 +5082,7 @@
         <v>2012</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>67</v>
@@ -5094,7 +5094,7 @@
         <v>225</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>210</v>
@@ -5106,7 +5106,7 @@
         <v>2012</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>97</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="99" spans="1:8" ht="102" hidden="1">
       <c r="A99" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>158</v>
@@ -5130,7 +5130,7 @@
         <v>2013</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>118</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="100" spans="1:8" ht="127.5" hidden="1">
       <c r="A100" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>194</v>
@@ -5156,7 +5156,7 @@
         <v>2013</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>67</v>
@@ -5182,7 +5182,7 @@
         <v>2013</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>62</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="103" spans="1:8" ht="140.25" hidden="1">
       <c r="A103" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>196</v>
@@ -5232,7 +5232,7 @@
         <v>2013</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>197</v>
@@ -5258,7 +5258,7 @@
         <v>2013</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>97</v>
@@ -5282,7 +5282,7 @@
         <v>2013</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>201</v>
@@ -5330,7 +5330,7 @@
         <v>2013</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>206</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="108" spans="1:8" ht="76.5" hidden="1">
       <c r="A108" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>207</v>
@@ -5378,7 +5378,7 @@
         <v>2013</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>62</v>
@@ -5402,7 +5402,7 @@
         <v>2013</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>62</v>
@@ -5450,7 +5450,7 @@
         <v>2013</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>62</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="113" spans="1:8" ht="51" hidden="1">
       <c r="A113" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>166</v>
@@ -5474,7 +5474,7 @@
         <v>2013</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>62</v>
@@ -5498,7 +5498,7 @@
         <v>2013</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>62</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="115" spans="1:8" ht="51" hidden="1">
       <c r="A115" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>169</v>
@@ -5524,7 +5524,7 @@
         <v>2013</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>62</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="116" spans="1:8" ht="114.75" hidden="1">
       <c r="A116" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>171</v>
@@ -5576,7 +5576,7 @@
         <v>2013</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>62</v>
@@ -5600,7 +5600,7 @@
         <v>2013</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>62</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="119" spans="1:8" ht="76.5" hidden="1">
       <c r="A119" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>176</v>
@@ -5626,7 +5626,7 @@
         <v>2013</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>62</v>
@@ -5650,7 +5650,7 @@
         <v>2013</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>62</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="121" spans="1:8" ht="63.75" hidden="1">
       <c r="A121" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>176</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="122" spans="1:8" ht="76.5" hidden="1">
       <c r="A122" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>178</v>
@@ -5698,7 +5698,7 @@
         <v>2013</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>62</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="126" spans="1:8" ht="89.25" hidden="1">
       <c r="A126" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>189</v>
@@ -5798,7 +5798,7 @@
         <v>2013</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>62</v>
@@ -6307,7 +6307,7 @@
         <v>1888</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>60</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="25" spans="1:8" ht="102">
       <c r="A25" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
@@ -6365,7 +6365,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="102">
@@ -6411,13 +6411,13 @@
         <v>2002</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="38.25">
@@ -6443,7 +6443,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="38.25">
@@ -6469,7 +6469,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="38.25">
@@ -6495,7 +6495,7 @@
         <v>62</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="38.25">
@@ -6521,7 +6521,7 @@
         <v>62</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="38.25">
@@ -6547,7 +6547,7 @@
         <v>62</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="38.25">
@@ -6573,7 +6573,7 @@
         <v>62</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="38.25">
@@ -6599,7 +6599,7 @@
         <v>62</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="38.25">
@@ -6625,7 +6625,7 @@
         <v>62</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="38.25">
@@ -6651,7 +6651,7 @@
         <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="38.25">
@@ -6677,7 +6677,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="38.25">
@@ -6703,7 +6703,7 @@
         <v>62</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="38.25">
@@ -6729,7 +6729,7 @@
         <v>62</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="38.25">
@@ -6755,7 +6755,7 @@
         <v>62</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="38.25">
@@ -6781,7 +6781,7 @@
         <v>62</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="38.25">
@@ -6807,7 +6807,7 @@
         <v>62</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="38.25">
@@ -6833,7 +6833,7 @@
         <v>62</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="38.25">
@@ -6859,7 +6859,7 @@
         <v>62</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="38.25">
@@ -6885,7 +6885,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="38.25">
@@ -6911,7 +6911,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="38.25">
@@ -6937,7 +6937,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="38.25">
@@ -6963,7 +6963,7 @@
         <v>62</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="38.25">
@@ -6989,7 +6989,7 @@
         <v>62</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="38.25">
@@ -7015,7 +7015,7 @@
         <v>62</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="38.25">
@@ -7041,7 +7041,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="38.25">
@@ -7176,8 +7176,8 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="2" spans="1:8" ht="89.25" hidden="1">
       <c r="A2" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>258</v>
@@ -7237,7 +7237,7 @@
         <v>1801</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>61</v>
@@ -7251,7 +7251,7 @@
         <v>259</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>74</v>
@@ -7263,7 +7263,7 @@
         <v>1801</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>61</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="4" spans="1:8" ht="51" hidden="1">
       <c r="A4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>74</v>
@@ -7287,7 +7287,7 @@
         <v>1801</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>61</v>
@@ -7301,7 +7301,7 @@
         <v>260</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>74</v>
@@ -7313,7 +7313,7 @@
         <v>1801</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>61</v>
@@ -7322,10 +7322,10 @@
     </row>
     <row r="6" spans="1:8" ht="102" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>74</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="7" spans="1:8" ht="38.25" hidden="1">
       <c r="A7" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>74</v>
@@ -7363,7 +7363,7 @@
         <v>1801</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>61</v>
@@ -7375,7 +7375,7 @@
         <v>262</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>74</v>
@@ -7387,7 +7387,7 @@
         <v>1801</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>61</v>
@@ -7399,7 +7399,7 @@
         <v>263</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>74</v>
@@ -7411,7 +7411,7 @@
         <v>1801</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>61</v>
@@ -7420,10 +7420,10 @@
     </row>
     <row r="10" spans="1:8" ht="63.75" hidden="1">
       <c r="A10" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>74</v>
@@ -7447,7 +7447,7 @@
         <v>264</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>74</v>
@@ -7459,7 +7459,7 @@
         <v>1801</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -7468,13 +7468,13 @@
     </row>
     <row r="12" spans="1:8" ht="89.25" hidden="1">
       <c r="A12" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>235</v>
@@ -7495,7 +7495,7 @@
         <v>267</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>74</v>
@@ -7507,21 +7507,21 @@
         <v>1801</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="102" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>74</v>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="15" spans="1:8" ht="76.5" hidden="1">
       <c r="A15" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>74</v>
@@ -7566,13 +7566,13 @@
     </row>
     <row r="16" spans="1:8" ht="51" hidden="1">
       <c r="A16" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>235</v>
@@ -7581,7 +7581,7 @@
         <v>1802</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>61</v>
@@ -7590,10 +7590,10 @@
     </row>
     <row r="17" spans="1:8" ht="51" hidden="1">
       <c r="A17" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>74</v>
@@ -7614,13 +7614,13 @@
     </row>
     <row r="18" spans="1:8" ht="76.5" hidden="1">
       <c r="A18" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>235</v>
@@ -7629,7 +7629,7 @@
         <v>1802</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
@@ -7638,13 +7638,13 @@
     </row>
     <row r="19" spans="1:8" ht="38.25" hidden="1">
       <c r="A19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>235</v>
@@ -7653,7 +7653,7 @@
         <v>1802</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>61</v>
@@ -7662,13 +7662,13 @@
     </row>
     <row r="20" spans="1:8" ht="76.5" hidden="1">
       <c r="A20" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>235</v>
@@ -7677,7 +7677,7 @@
         <v>1802</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>61</v>
@@ -7686,13 +7686,13 @@
     </row>
     <row r="21" spans="1:8" ht="76.5" hidden="1">
       <c r="A21" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>235</v>
@@ -7701,7 +7701,7 @@
         <v>1802</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>61</v>
@@ -7710,13 +7710,13 @@
     </row>
     <row r="22" spans="1:8" ht="63.75" hidden="1">
       <c r="A22" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>235</v>
@@ -7725,7 +7725,7 @@
         <v>1802</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>61</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="23" spans="1:8" ht="102" hidden="1">
       <c r="A23" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>74</v>
@@ -7749,21 +7749,21 @@
         <v>1802</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25.5" hidden="1">
       <c r="A24" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>74</v>
@@ -7775,17 +7775,17 @@
         <v>1802</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="38.25" hidden="1">
       <c r="A25" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>74</v>
@@ -7797,17 +7797,17 @@
         <v>1802</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="63.75" hidden="1">
       <c r="A26" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>74</v>
@@ -7819,7 +7819,7 @@
         <v>1802</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>61</v>
@@ -7830,10 +7830,10 @@
     </row>
     <row r="27" spans="1:8" ht="76.5" hidden="1">
       <c r="A27" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>74</v>
@@ -7845,17 +7845,17 @@
         <v>1802</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" hidden="1">
       <c r="A28" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>74</v>
@@ -7867,7 +7867,7 @@
         <v>1802</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7">
@@ -7876,10 +7876,10 @@
     </row>
     <row r="29" spans="1:8" ht="89.25" hidden="1">
       <c r="A29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>74</v>
@@ -7900,10 +7900,10 @@
     </row>
     <row r="30" spans="1:8" ht="51" hidden="1">
       <c r="A30" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>74</v>
@@ -7915,17 +7915,17 @@
         <v>1802</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="165.75" hidden="1">
       <c r="A31" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>74</v>
@@ -7937,19 +7937,19 @@
         <v>1803</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="51" hidden="1">
       <c r="A32" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>74</v>
@@ -7961,13 +7961,13 @@
         <v>1803</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="102" hidden="1">
@@ -7993,15 +7993,15 @@
         <v>61</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="25.5" hidden="1">
       <c r="A34" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>74</v>
@@ -8013,7 +8013,7 @@
         <v>1803</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>61</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="35" spans="1:9" ht="25.5" hidden="1">
       <c r="A35" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>74</v>
@@ -8037,19 +8037,19 @@
         <v>1803</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="89.25">
+    <row r="36" spans="1:9" ht="89.25" hidden="1">
       <c r="A36" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>74</v>
@@ -8061,21 +8061,21 @@
         <v>1888</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="38.25" hidden="1">
       <c r="A37" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>74</v>
@@ -8087,19 +8087,19 @@
         <v>1803</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:9" ht="76.5">
+    <row r="38" spans="1:9" ht="76.5" hidden="1">
       <c r="A38" s="7" t="s">
-        <v>276</v>
+        <v>689</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>74</v>
@@ -8117,18 +8117,18 @@
         <v>61</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="178.5" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>235</v>
@@ -8137,7 +8137,7 @@
         <v>1808</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>61</v>
@@ -8146,13 +8146,13 @@
     </row>
     <row r="40" spans="1:9" ht="89.25" hidden="1">
       <c r="A40" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>235</v>
@@ -8161,7 +8161,7 @@
         <v>1808</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>61</v>
@@ -8170,10 +8170,10 @@
     </row>
     <row r="41" spans="1:9" ht="114.75" hidden="1">
       <c r="A41" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>74</v>
@@ -8185,7 +8185,7 @@
         <v>1901</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>61</v>
@@ -8194,13 +8194,13 @@
     </row>
     <row r="42" spans="1:9" ht="51" hidden="1">
       <c r="A42" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>235</v>
@@ -8209,7 +8209,7 @@
         <v>1808</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>61</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="43" spans="1:9" ht="63.75" hidden="1">
       <c r="A43" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>74</v>
@@ -8233,7 +8233,7 @@
         <v>1803</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>61</v>
@@ -8244,10 +8244,10 @@
     </row>
     <row r="44" spans="1:9" ht="63.75" hidden="1">
       <c r="A44" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>74</v>
@@ -8259,7 +8259,7 @@
         <v>1803</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>61</v>
@@ -8268,13 +8268,13 @@
     </row>
     <row r="45" spans="1:9" ht="89.25" hidden="1">
       <c r="A45" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>235</v>
@@ -8283,7 +8283,7 @@
         <v>1808</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>61</v>
@@ -8292,13 +8292,13 @@
     </row>
     <row r="46" spans="1:9" ht="63.75" hidden="1">
       <c r="A46" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>235</v>
@@ -8307,21 +8307,21 @@
         <v>1808</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="76.5" hidden="1">
       <c r="A47" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>74</v>
@@ -8333,21 +8333,21 @@
         <v>1820</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="77.25" hidden="1">
       <c r="A48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>74</v>
@@ -8359,22 +8359,22 @@
         <v>1820</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:8" ht="38.25" hidden="1">
       <c r="A49" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>74</v>
@@ -8386,7 +8386,7 @@
         <v>1820</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>61</v>
@@ -8395,10 +8395,10 @@
     </row>
     <row r="50" spans="1:8" ht="102" hidden="1">
       <c r="A50" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>74</v>
@@ -8410,7 +8410,7 @@
         <v>1803</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>61</v>
@@ -8419,12 +8419,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="63.75">
+    <row r="51" spans="1:8" ht="63.75" hidden="1">
       <c r="A51" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>74</v>
@@ -8445,10 +8445,10 @@
     </row>
     <row r="52" spans="1:8" ht="127.5" hidden="1">
       <c r="A52" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>74</v>
@@ -8472,7 +8472,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>74</v>
@@ -8490,15 +8490,15 @@
         <v>65</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="63.75" hidden="1">
       <c r="A54" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>74</v>
@@ -8510,7 +8510,7 @@
         <v>1820</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>61</v>
@@ -8519,10 +8519,10 @@
     </row>
     <row r="55" spans="1:8" ht="127.5" hidden="1">
       <c r="A55" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>74</v>
@@ -8534,7 +8534,7 @@
         <v>1820</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>61</v>
@@ -8543,10 +8543,10 @@
     </row>
     <row r="56" spans="1:8" ht="63.75" hidden="1">
       <c r="A56" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>74</v>
@@ -8558,7 +8558,7 @@
         <v>1820</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>61</v>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="57" spans="1:8" ht="51" hidden="1">
       <c r="A57" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>74</v>
@@ -8582,7 +8582,7 @@
         <v>1820</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>61</v>
@@ -8594,7 +8594,7 @@
         <v>85</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>74</v>
@@ -8618,7 +8618,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>74</v>
@@ -8637,12 +8637,12 @@
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="51" hidden="1">
+    <row r="60" spans="1:8" ht="51">
       <c r="A60" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>74</v>
@@ -8654,7 +8654,7 @@
         <v>1801</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>61</v>
@@ -8663,12 +8663,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="76.5" hidden="1">
+    <row r="61" spans="1:8" ht="76.5">
       <c r="A61" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>74</v>
@@ -8680,19 +8680,19 @@
         <v>1801</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="114.75" hidden="1">
+    <row r="62" spans="1:8" ht="114.75">
       <c r="A62" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>74</v>
@@ -8704,7 +8704,7 @@
         <v>1801</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>61</v>
@@ -8713,12 +8713,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="63.75" hidden="1">
+    <row r="63" spans="1:8" ht="63.75">
       <c r="A63" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>74</v>
@@ -8730,17 +8730,17 @@
         <v>1803</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" ht="140.25" hidden="1">
       <c r="A64" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>74</v>
@@ -8752,19 +8752,19 @@
         <v>1820</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="76.5" hidden="1">
+    <row r="65" spans="1:8" ht="76.5">
       <c r="A65" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>74</v>
@@ -8776,13 +8776,13 @@
         <v>1820</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="63.75" hidden="1">
@@ -8790,7 +8790,7 @@
         <v>274</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>74</v>
@@ -8802,19 +8802,19 @@
         <v>1828</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="76.5" hidden="1">
+    <row r="67" spans="1:8" ht="76.5">
       <c r="A67" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>74</v>
@@ -8826,19 +8826,19 @@
         <v>1820</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="25.5" hidden="1">
+    <row r="68" spans="1:8" ht="25.5">
       <c r="A68" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>74</v>
@@ -8850,7 +8850,7 @@
         <v>1820</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>61</v>
@@ -8862,7 +8862,7 @@
         <v>269</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>74</v>
@@ -8874,7 +8874,7 @@
         <v>1830</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>61</v>
@@ -8883,10 +8883,10 @@
     </row>
     <row r="70" spans="1:8" ht="102" hidden="1">
       <c r="A70" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>74</v>
@@ -8898,7 +8898,7 @@
         <v>1830</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>61</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="71" spans="1:8" ht="89.25" hidden="1">
       <c r="A71" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>74</v>
@@ -8922,13 +8922,13 @@
         <v>1830</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="51" hidden="1">
@@ -8936,7 +8936,7 @@
         <v>271</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>74</v>
@@ -8948,21 +8948,21 @@
         <v>1830</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25" hidden="1">
       <c r="A73" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>74</v>
@@ -8974,19 +8974,19 @@
         <v>1830</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="38.25" hidden="1">
+    <row r="74" spans="1:8" ht="38.25">
       <c r="A74" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>74</v>
@@ -8998,7 +8998,7 @@
         <v>1820</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>61</v>
@@ -9007,10 +9007,10 @@
     </row>
     <row r="75" spans="1:8" ht="38.25" hidden="1">
       <c r="A75" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>74</v>
@@ -9022,21 +9022,21 @@
         <v>1830</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="77.25" hidden="1">
       <c r="A76" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>74</v>
@@ -9048,7 +9048,7 @@
         <v>1866</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>61</v>
@@ -9057,10 +9057,10 @@
     </row>
     <row r="77" spans="1:8" ht="77.25" hidden="1">
       <c r="A77" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>74</v>
@@ -9072,7 +9072,7 @@
         <v>1866</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>61</v>
@@ -9081,10 +9081,10 @@
     </row>
     <row r="78" spans="1:8" ht="141" hidden="1">
       <c r="A78" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>74</v>
@@ -9096,7 +9096,7 @@
         <v>1866</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>61</v>
@@ -9105,10 +9105,10 @@
     </row>
     <row r="79" spans="1:8" ht="39" hidden="1">
       <c r="A79" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>74</v>
@@ -9120,7 +9120,7 @@
         <v>1866</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>61</v>
@@ -9129,10 +9129,10 @@
     </row>
     <row r="80" spans="1:8" ht="39" hidden="1">
       <c r="A80" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>74</v>
@@ -9144,7 +9144,7 @@
         <v>1866</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>61</v>
@@ -9153,10 +9153,10 @@
     </row>
     <row r="81" spans="1:8" ht="76.5" hidden="1">
       <c r="A81" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>74</v>
@@ -9168,7 +9168,7 @@
         <v>1884</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>61</v>
@@ -9177,10 +9177,10 @@
     </row>
     <row r="82" spans="1:8" ht="25.5" hidden="1">
       <c r="A82" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>74</v>
@@ -9192,7 +9192,7 @@
         <v>1884</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>61</v>
@@ -9201,10 +9201,10 @@
     </row>
     <row r="83" spans="1:8" ht="38.25" hidden="1">
       <c r="A83" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>74</v>
@@ -9216,19 +9216,19 @@
         <v>1884</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="76.5">
+    <row r="84" spans="1:8" ht="76.5" hidden="1">
       <c r="A84" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>74</v>
@@ -9240,19 +9240,19 @@
         <v>1888</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" ht="76.5" hidden="1">
+    <row r="85" spans="1:8" ht="76.5">
       <c r="A85" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>74</v>
@@ -9264,19 +9264,19 @@
         <v>1820</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="51">
+    <row r="86" spans="1:8" ht="51" hidden="1">
       <c r="A86" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>74</v>
@@ -9288,7 +9288,7 @@
         <v>1888</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>61</v>
@@ -9297,13 +9297,13 @@
     </row>
     <row r="87" spans="1:8" ht="114.75" hidden="1">
       <c r="A87" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>235</v>
@@ -9312,19 +9312,19 @@
         <v>1808</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="38.25">
+    <row r="88" spans="1:8" ht="38.25" hidden="1">
       <c r="A88" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>74</v>
@@ -9336,19 +9336,19 @@
         <v>1888</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="89.25">
+    <row r="89" spans="1:8" ht="89.25" hidden="1">
       <c r="A89" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>74</v>
@@ -9360,13 +9360,13 @@
         <v>1888</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="51" hidden="1">
@@ -9374,7 +9374,7 @@
         <v>275</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>74</v>
@@ -9386,7 +9386,7 @@
         <v>1917</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>61</v>
@@ -9395,10 +9395,10 @@
     </row>
     <row r="91" spans="1:8" ht="89.25" hidden="1">
       <c r="A91" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>74</v>
@@ -9410,19 +9410,19 @@
         <v>1917</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" ht="153" hidden="1">
+    <row r="92" spans="1:8" ht="153">
       <c r="A92" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>74</v>
@@ -9434,7 +9434,7 @@
         <v>1820</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>61</v>
@@ -9446,7 +9446,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>74</v>
@@ -9458,7 +9458,7 @@
         <v>2008</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>118</v>
@@ -9482,21 +9482,21 @@
         <v>2008</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="63.75" hidden="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="63.75">
       <c r="A95" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>74</v>
@@ -9508,7 +9508,7 @@
         <v>1820</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>61</v>
@@ -9517,13 +9517,13 @@
     </row>
     <row r="96" spans="1:8" ht="63.75" hidden="1">
       <c r="A96" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>235</v>
@@ -9532,7 +9532,7 @@
         <v>1808</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>61</v>
@@ -9541,10 +9541,10 @@
     </row>
     <row r="97" spans="1:8" ht="267.75" hidden="1">
       <c r="A97" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>74</v>
@@ -9556,7 +9556,7 @@
         <v>1901</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>61</v>
@@ -9565,12 +9565,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="51">
+    <row r="98" spans="1:8" ht="51" hidden="1">
       <c r="A98" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>74</v>
@@ -9582,7 +9582,7 @@
         <v>1888</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>61</v>
@@ -9591,12 +9591,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="102">
+    <row r="99" spans="1:8" ht="102" hidden="1">
       <c r="A99" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>74</v>
@@ -9608,19 +9608,19 @@
         <v>1888</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="76.5" hidden="1">
+    <row r="100" spans="1:8" ht="76.5">
       <c r="A100" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>74</v>
@@ -9632,7 +9632,7 @@
         <v>1820</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>61</v>
@@ -9641,10 +9641,10 @@
     </row>
     <row r="101" spans="1:8" ht="89.25" hidden="1">
       <c r="A101" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>74</v>
@@ -9656,21 +9656,21 @@
         <v>1901</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="51" hidden="1">
       <c r="A102" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>74</v>
@@ -9685,16 +9685,16 @@
         <v>64</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" ht="102" hidden="1">
       <c r="A103" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>74</v>
@@ -9706,21 +9706,21 @@
         <v>1901</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="63.75" hidden="1">
       <c r="A104" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>74</v>
@@ -9732,7 +9732,7 @@
         <v>1958</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>67</v>
@@ -9762,7 +9762,7 @@
         <v>149</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="25.5" hidden="1">
@@ -9770,7 +9770,7 @@
         <v>151</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>74</v>
@@ -9788,7 +9788,7 @@
         <v>93</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="38.25" hidden="1">
@@ -9796,7 +9796,7 @@
         <v>80</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>74</v>
@@ -9808,7 +9808,7 @@
         <v>2008</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>77</v>
@@ -9817,12 +9817,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="114.75" hidden="1">
+    <row r="108" spans="1:8" ht="114.75">
       <c r="A108" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>74</v>
@@ -9834,7 +9834,7 @@
         <v>1830</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>61</v>
@@ -9846,7 +9846,7 @@
         <v>83</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>74</v>
@@ -9858,19 +9858,19 @@
         <v>2008</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="51" hidden="1">
+    <row r="110" spans="1:8" ht="51">
       <c r="A110" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>74</v>
@@ -9882,19 +9882,19 @@
         <v>1830</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" ht="38.25" hidden="1">
+    <row r="111" spans="1:8" ht="38.25">
       <c r="A111" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>74</v>
@@ -9906,7 +9906,7 @@
         <v>2008</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>154</v>
@@ -9915,10 +9915,10 @@
     </row>
     <row r="112" spans="1:8" ht="102" hidden="1">
       <c r="A112" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>74</v>
@@ -9930,7 +9930,7 @@
         <v>1958</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>182</v>
@@ -9939,10 +9939,10 @@
     </row>
     <row r="113" spans="1:8" ht="63.75" hidden="1">
       <c r="A113" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>74</v>
@@ -9954,19 +9954,19 @@
         <v>1958</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" ht="38.25" hidden="1">
       <c r="A114" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>74</v>
@@ -9978,7 +9978,7 @@
         <v>2008</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>97</v>
@@ -9987,10 +9987,10 @@
     </row>
     <row r="115" spans="1:8" ht="25.5" hidden="1">
       <c r="A115" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>74</v>
@@ -10002,19 +10002,19 @@
         <v>2008</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" ht="38.25" hidden="1">
+    <row r="116" spans="1:8" ht="38.25">
       <c r="A116" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>74</v>
@@ -10026,19 +10026,19 @@
         <v>2008</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" ht="25.5" hidden="1">
       <c r="A117" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>74</v>
@@ -10050,7 +10050,7 @@
         <v>2008</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>93</v>
@@ -10062,7 +10062,7 @@
         <v>229</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>74</v>
@@ -10074,7 +10074,7 @@
         <v>2008</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>67</v>
@@ -10086,7 +10086,7 @@
         <v>130</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>74</v>
@@ -10098,7 +10098,7 @@
         <v>2008</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>97</v>
@@ -10107,10 +10107,10 @@
     </row>
     <row r="120" spans="1:8" ht="38.25" hidden="1">
       <c r="A120" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>74</v>
@@ -10134,7 +10134,7 @@
         <v>75</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>74</v>
@@ -10146,19 +10146,19 @@
         <v>2013</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="25.5" hidden="1">
+    <row r="122" spans="1:8" ht="25.5">
       <c r="A122" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>74</v>
@@ -10170,7 +10170,7 @@
         <v>2008</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>97</v>
@@ -10182,7 +10182,7 @@
         <v>78</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>74</v>
@@ -10194,19 +10194,19 @@
         <v>2013</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="38.25" hidden="1">
+    <row r="124" spans="1:8" ht="38.25">
       <c r="A124" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>74</v>
@@ -10218,19 +10218,19 @@
         <v>2013</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="25.5" hidden="1">
+    <row r="125" spans="1:8" ht="25.5">
       <c r="A125" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>74</v>
@@ -10242,10 +10242,10 @@
         <v>2013</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -10254,7 +10254,7 @@
         <v>79</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>74</v>
@@ -10266,19 +10266,19 @@
         <v>2013</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="51">
+    <row r="127" spans="1:8" ht="51" hidden="1">
       <c r="A127" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>74</v>
@@ -10290,29 +10290,23 @@
         <v>1888</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H127">
-    <filterColumn colId="1">
+    <filterColumn colId="1"/>
+    <filterColumn colId="5">
       <filters>
-        <filter val="M. Schulz, Impfung, Impfgeschäft und Impftechnik. Ein kurzer Leitfaden für Studierende und Arzte, Berlin, 1888, S. 10."/>
-        <filter val="Schulz,  Impfung, Impfgeschäft und Impftechnik, S. 24."/>
-        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 10."/>
-        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 11 u. 14."/>
-        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 27."/>
-        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 27-28."/>
-        <filter val="Schulz, Impfung, Impfgeschäft und Impftechnik, S. 32."/>
+        <filter val="Gesundheitsfördernd"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5"/>
     <sortState ref="A26:H47">
       <sortCondition ref="F2:F126"/>
     </sortState>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -1149,9 +1149,6 @@
     <t>Krauss, Schutzpockenimpfung, S. 510.</t>
   </si>
   <si>
-    <t>Geistliche, die eine lange Reihe von Jahren ihr heiliges Amt verwalten, bezeugen, dass das Aussehen der Kinder an Schönheit und Kraft bedeutend zugenommen hat. Die ehemalige grosse Zahl der bleichen, übelgenhrten, schwächlische, verschleimten, mit welker, schlaffer Haut und Muskeln begabten, mit Haut- und Kopfausschlägen ehafteten, verdrieslichen, mürrischen grämlichen, stumpfen und trägen Kindern, die man sonst, besonders in den Schulen erblickte, ist verwunden.</t>
-  </si>
-  <si>
     <t>Krauss, Schutzpockenimpfung, S. 511--512.</t>
   </si>
   <si>
@@ -2218,6 +2215,9 @@
   </si>
   <si>
     <t>Die Wirkung der Vaccination wird für den Sachverständigen zweifellos erwiesen durch die in tausenden von Fällen im Anfang dieses Jahrhunderts an Geimpften (Anm.: mit Kuhpocken) ausgeführten erfolglosen Variolationen (Anm.: Ansteckung mit Menschenpocken).</t>
+  </si>
+  <si>
+    <t>Geistliche, die eine lange Reihe von Jahren ihr heiliges Amt verwalten, bezeugen, dass das Aussehen der Kinder an Schönheit und Kraft bedeutend zugenommen hat. Die ehemalige grosse Zahl der bleichen, übelgenährten, schwächlische, verschleimten, mit welker, schlaffer Haut und Muskeln begabten, mit Haut- und Kopfausschlägen ehafteten, verdrieslichen, mürrischen grämlichen, stumpfen und trägen Kindern, die man sonst, besonders in den Schulen erblickte, ist verwunden.</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2641,8 +2641,8 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2689,7 +2689,7 @@
         <v>135</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>74</v>
@@ -2701,13 +2701,13 @@
         <v>1834</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I2" s="3">
         <v>3</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="3" spans="1:9" ht="114.75" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>74</v>
@@ -2739,12 +2739,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="38.25">
+    <row r="4" spans="1:9" ht="38.25" hidden="1">
       <c r="A4" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>74</v>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="38.25">
+    <row r="5" spans="1:9" ht="38.25" hidden="1">
       <c r="A5" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>74</v>
@@ -2789,12 +2789,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="114.75">
+    <row r="6" spans="1:9" ht="114.75" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>74</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="7" spans="1:9" ht="114.75" hidden="1">
       <c r="A7" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>74</v>
@@ -2841,12 +2841,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="76.5">
+    <row r="8" spans="1:9" ht="76.5" hidden="1">
       <c r="A8" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>74</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="9" spans="1:9" ht="89.25" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>74</v>
@@ -2891,12 +2891,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" hidden="1">
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>74</v>
@@ -2908,7 +2908,7 @@
         <v>1834</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>61</v>
@@ -2920,12 +2920,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="102" hidden="1">
+    <row r="11" spans="1:9" ht="102">
       <c r="A11" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>74</v>
@@ -2937,7 +2937,7 @@
         <v>1834</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -2946,12 +2946,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="76.5" hidden="1">
+    <row r="12" spans="1:9" ht="76.5">
       <c r="A12" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>74</v>
@@ -2963,7 +2963,7 @@
         <v>1834</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>61</v>
@@ -2972,12 +2972,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="204">
+    <row r="13" spans="1:9" ht="204" hidden="1">
       <c r="A13" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>74</v>
@@ -2995,15 +2995,15 @@
         <v>61</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="191.25" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="191.25">
       <c r="A14" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>74</v>
@@ -3015,19 +3015,19 @@
         <v>1857</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="102" hidden="1">
+    <row r="15" spans="1:9" ht="102">
       <c r="A15" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>74</v>
@@ -3039,7 +3039,7 @@
         <v>1857</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>61</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="16" spans="1:9" ht="89.25" hidden="1">
       <c r="A16" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>74</v>
@@ -3065,7 +3065,7 @@
         <v>1857</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>61</v>
@@ -3077,12 +3077,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="102" hidden="1">
+    <row r="17" spans="1:8" ht="102">
       <c r="A17" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>74</v>
@@ -3094,19 +3094,19 @@
         <v>1857</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="114.75" hidden="1">
+    <row r="18" spans="1:8" ht="114.75">
       <c r="A18" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>540</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>74</v>
@@ -3118,7 +3118,7 @@
         <v>1857</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
@@ -3127,12 +3127,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="140.25" hidden="1">
+    <row r="19" spans="1:8" ht="140.25">
       <c r="A19" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>74</v>
@@ -3144,14 +3144,14 @@
         <v>1857</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="38.25">
+    <row r="20" spans="1:8" ht="38.25" hidden="1">
       <c r="A20" s="7" t="s">
         <v>253</v>
       </c>
@@ -3175,12 +3175,12 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="51">
+    <row r="21" spans="1:8" ht="51" hidden="1">
       <c r="A21" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>74</v>
@@ -3204,7 +3204,7 @@
         <v>255</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>74</v>
@@ -3216,19 +3216,19 @@
         <v>1863</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="76.5" hidden="1">
+    <row r="23" spans="1:8" ht="76.5">
       <c r="A23" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>74</v>
@@ -3240,19 +3240,19 @@
         <v>1863</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="89.25" hidden="1">
+    <row r="24" spans="1:8" ht="89.25">
       <c r="A24" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>74</v>
@@ -3264,7 +3264,7 @@
         <v>1863</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>61</v>
@@ -3273,10 +3273,10 @@
     </row>
     <row r="25" spans="1:8" ht="140.25" hidden="1">
       <c r="A25" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>74</v>
@@ -3294,7 +3294,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="89.25" hidden="1">
@@ -3302,7 +3302,7 @@
         <v>256</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>74</v>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="127.5" hidden="1">
+    <row r="27" spans="1:8" ht="127.5">
       <c r="A27" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>74</v>
@@ -3338,7 +3338,7 @@
         <v>1863</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>61</v>
@@ -3350,7 +3350,7 @@
         <v>257</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>74</v>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="102" hidden="1">
+    <row r="29" spans="1:8" ht="102">
       <c r="A29" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>74</v>
@@ -3386,16 +3386,16 @@
         <v>1863</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="127.5" hidden="1">
+    <row r="30" spans="1:8" ht="127.5">
       <c r="A30" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>291</v>
@@ -3410,14 +3410,14 @@
         <v>1872</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="89.25" hidden="1">
+    <row r="31" spans="1:8" ht="89.25">
       <c r="A31" s="7" t="s">
         <v>290</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>1872</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>61</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="32" spans="1:8" ht="89.25" hidden="1">
       <c r="A32" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>292</v>
@@ -3458,16 +3458,16 @@
         <v>1872</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="114.75" hidden="1">
+    <row r="33" spans="1:9" ht="114.75">
       <c r="A33" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>289</v>
@@ -3482,13 +3482,13 @@
         <v>1872</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I33" s="3">
         <v>21</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="34" spans="1:9" ht="63.75" hidden="1">
       <c r="A34" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>74</v>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="35" spans="1:9" ht="63.75" hidden="1">
       <c r="A35" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>74</v>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="51" hidden="1">
+    <row r="36" spans="1:9" ht="51">
       <c r="A36" s="7" t="s">
         <v>316</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>74</v>
@@ -3559,19 +3559,19 @@
         <v>1875</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="51" hidden="1">
+    <row r="37" spans="1:9" ht="51">
       <c r="A37" s="7" t="s">
         <v>317</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>74</v>
@@ -3583,19 +3583,19 @@
         <v>1875</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:9" ht="76.5" hidden="1">
+    <row r="38" spans="1:9" ht="76.5">
       <c r="A38" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>74</v>
@@ -3607,7 +3607,7 @@
         <v>1875</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>61</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="39" spans="1:9" ht="127.5" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>74</v>
@@ -3633,7 +3633,7 @@
         <v>1875</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>61</v>
@@ -3642,9 +3642,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="140.25" hidden="1">
+    <row r="40" spans="1:9" ht="140.25">
       <c r="A40" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>313</v>
@@ -3659,7 +3659,7 @@
         <v>1875</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>61</v>
@@ -3668,7 +3668,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="102">
+    <row r="41" spans="1:9" ht="102" hidden="1">
       <c r="A41" s="7" t="s">
         <v>242</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>247</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>74</v>
@@ -3711,7 +3711,7 @@
         <v>1879</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>61</v>
@@ -3725,7 +3725,7 @@
         <v>243</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>74</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="44" spans="1:9" ht="89.25" hidden="1">
       <c r="A44" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>74</v>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:9" ht="89.25" hidden="1">
+    <row r="45" spans="1:9" ht="89.25">
       <c r="A45" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>74</v>
@@ -3785,13 +3785,13 @@
         <v>1888</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="127.5" hidden="1">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:9" ht="89.25" hidden="1">
+    <row r="47" spans="1:9" ht="89.25">
       <c r="A47" s="7" t="s">
         <v>299</v>
       </c>
@@ -3835,13 +3835,13 @@
         <v>1910</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="50" spans="1:8" ht="102" hidden="1">
       <c r="A50" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>304</v>
@@ -3919,9 +3919,9 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="51" hidden="1">
+    <row r="51" spans="1:8" ht="51">
       <c r="A51" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>298</v>
@@ -3936,7 +3936,7 @@
         <v>1910</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>62</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="53" spans="1:8" ht="102" hidden="1">
       <c r="A53" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12" t="s">
@@ -3984,21 +3984,21 @@
         <v>1922</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="51" hidden="1">
       <c r="A54" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>74</v>
@@ -4016,15 +4016,15 @@
         <v>67</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="102" hidden="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="102">
       <c r="A55" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>74</v>
@@ -4036,7 +4036,7 @@
         <v>1995</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>62</v>
@@ -4048,7 +4048,7 @@
         <v>232</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>74</v>
@@ -4069,12 +4069,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="102" hidden="1">
+    <row r="57" spans="1:8" ht="102">
       <c r="A57" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>74</v>
@@ -4086,19 +4086,19 @@
         <v>1995</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="51" hidden="1">
+    <row r="58" spans="1:8" ht="51">
       <c r="A58" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>74</v>
@@ -4110,19 +4110,19 @@
         <v>1995</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="76.5" hidden="1">
+    <row r="59" spans="1:8" ht="76.5">
       <c r="A59" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>74</v>
@@ -4134,19 +4134,19 @@
         <v>1995</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="102" hidden="1">
+    <row r="60" spans="1:8" ht="102">
       <c r="A60" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>74</v>
@@ -4158,19 +4158,19 @@
         <v>1995</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="76.5" hidden="1">
+    <row r="61" spans="1:8" ht="76.5">
       <c r="A61" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>74</v>
@@ -4182,19 +4182,19 @@
         <v>1995</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="127.5">
+    <row r="62" spans="1:8" ht="127.5" hidden="1">
       <c r="A62" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>74</v>
@@ -4218,7 +4218,7 @@
         <v>240</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>74</v>
@@ -4237,12 +4237,12 @@
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="51">
+    <row r="64" spans="1:8" ht="51" hidden="1">
       <c r="A64" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>74</v>
@@ -4261,9 +4261,9 @@
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="191.25">
+    <row r="65" spans="1:8" ht="191.25" hidden="1">
       <c r="A65" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>245</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="67" spans="1:8" ht="63.75" hidden="1">
       <c r="A67" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>210</v>
@@ -4334,15 +4334,15 @@
         <v>62</v>
       </c>
       <c r="H67" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="63.75">
+      <c r="A68" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="63.75" hidden="1">
-      <c r="A68" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>210</v>
@@ -4354,21 +4354,21 @@
         <v>2007</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="63.75">
+      <c r="A69" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="63.75" hidden="1">
-      <c r="A69" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>210</v>
@@ -4380,18 +4380,18 @@
         <v>2007</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="51">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="51" hidden="1">
       <c r="A70" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>119</v>
@@ -4418,7 +4418,7 @@
         <v>107</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>74</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="72" spans="1:8" ht="38.25" hidden="1">
       <c r="A72" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>74</v>
@@ -4456,7 +4456,7 @@
         <v>2008</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>122</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="73" spans="1:8" ht="140.25" hidden="1">
       <c r="A73" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>74</v>
@@ -4496,7 +4496,7 @@
         <v>108</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>74</v>
@@ -4515,12 +4515,12 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="51" hidden="1">
+    <row r="75" spans="1:8" ht="51">
       <c r="A75" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>74</v>
@@ -4532,19 +4532,19 @@
         <v>2008</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="63.75" hidden="1">
+    <row r="76" spans="1:8" ht="63.75">
       <c r="A76" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>74</v>
@@ -4556,7 +4556,7 @@
         <v>2008</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>105</v>
@@ -4568,7 +4568,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>74</v>
@@ -4580,19 +4580,19 @@
         <v>2008</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="127.5" hidden="1">
+    <row r="78" spans="1:8" ht="127.5">
       <c r="A78" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>74</v>
@@ -4604,7 +4604,7 @@
         <v>2008</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>62</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="79" spans="1:8" ht="76.5" hidden="1">
       <c r="A79" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>74</v>
@@ -4641,10 +4641,10 @@
     </row>
     <row r="80" spans="1:8" ht="89.25" hidden="1">
       <c r="A80" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>74</v>
@@ -4665,12 +4665,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="89.25" hidden="1">
+    <row r="81" spans="1:8" ht="89.25">
       <c r="A81" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>74</v>
@@ -4682,21 +4682,21 @@
         <v>2008</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="38.25" hidden="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="38.25">
       <c r="A82" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>74</v>
@@ -4708,19 +4708,19 @@
         <v>2008</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="51" hidden="1">
+    <row r="83" spans="1:8" ht="51">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>74</v>
@@ -4732,7 +4732,7 @@
         <v>2008</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>62</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="84" spans="1:8" ht="38.25" hidden="1">
       <c r="A84" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>112</v>
@@ -4763,12 +4763,12 @@
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" ht="165.75">
+    <row r="85" spans="1:8" ht="165.75" hidden="1">
       <c r="A85" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>210</v>
@@ -4794,7 +4794,7 @@
         <v>227</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>210</v>
@@ -4813,12 +4813,12 @@
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="127.5" hidden="1">
+    <row r="87" spans="1:8" ht="127.5">
       <c r="A87" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>210</v>
@@ -4830,19 +4830,19 @@
         <v>2012</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>201</v>
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="153" hidden="1">
+    <row r="88" spans="1:8" ht="153">
       <c r="A88" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>210</v>
@@ -4854,19 +4854,19 @@
         <v>2012</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>102</v>
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="191.25" hidden="1">
+    <row r="89" spans="1:8" ht="191.25">
       <c r="A89" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>210</v>
@@ -4878,7 +4878,7 @@
         <v>2012</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>62</v>
@@ -4887,12 +4887,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="38.25">
+    <row r="90" spans="1:8" ht="38.25" hidden="1">
       <c r="A90" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>210</v>
@@ -4911,12 +4911,12 @@
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" ht="114.75" hidden="1">
+    <row r="91" spans="1:8" ht="114.75">
       <c r="A91" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>210</v>
@@ -4928,7 +4928,7 @@
         <v>2012</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>62</v>
@@ -4937,12 +4937,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="89.25" hidden="1">
+    <row r="92" spans="1:8" ht="89.25">
       <c r="A92" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>210</v>
@@ -4954,7 +4954,7 @@
         <v>2012</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>62</v>
@@ -4963,12 +4963,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="76.5" hidden="1">
+    <row r="93" spans="1:8" ht="76.5">
       <c r="A93" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>210</v>
@@ -4980,7 +4980,7 @@
         <v>2012</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>62</v>
@@ -4989,12 +4989,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="127.5">
+    <row r="94" spans="1:8" ht="127.5" hidden="1">
       <c r="A94" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>210</v>
@@ -5015,12 +5015,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="114.75">
+    <row r="95" spans="1:8" ht="114.75" hidden="1">
       <c r="A95" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>210</v>
@@ -5046,7 +5046,7 @@
         <v>223</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>210</v>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" ht="102" hidden="1">
+    <row r="97" spans="1:8" ht="102">
       <c r="A97" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>210</v>
@@ -5082,19 +5082,19 @@
         <v>2012</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="114.75" hidden="1">
+    <row r="98" spans="1:8" ht="114.75">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>210</v>
@@ -5106,16 +5106,16 @@
         <v>2012</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" ht="102" hidden="1">
+    <row r="99" spans="1:8" ht="102">
       <c r="A99" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>158</v>
@@ -5130,7 +5130,7 @@
         <v>2013</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>118</v>
@@ -5139,9 +5139,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="127.5" hidden="1">
+    <row r="100" spans="1:8" ht="127.5">
       <c r="A100" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>194</v>
@@ -5156,7 +5156,7 @@
         <v>2013</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>67</v>
@@ -5165,7 +5165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="25.5" hidden="1">
+    <row r="101" spans="1:8" ht="25.5">
       <c r="A101" s="7" t="s">
         <v>191</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>2013</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>62</v>
@@ -5215,9 +5215,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="140.25" hidden="1">
+    <row r="103" spans="1:8" ht="140.25">
       <c r="A103" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>196</v>
@@ -5232,7 +5232,7 @@
         <v>2013</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>197</v>
@@ -5241,7 +5241,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="63.75" hidden="1">
+    <row r="104" spans="1:8" ht="63.75">
       <c r="A104" s="7" t="s">
         <v>198</v>
       </c>
@@ -5258,14 +5258,14 @@
         <v>2013</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="102" hidden="1">
+    <row r="105" spans="1:8" ht="102">
       <c r="A105" s="7" t="s">
         <v>199</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>2013</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>201</v>
@@ -5330,7 +5330,7 @@
         <v>2013</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>206</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="108" spans="1:8" ht="76.5" hidden="1">
       <c r="A108" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>207</v>
@@ -5378,14 +5378,14 @@
         <v>2013</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="38.25" hidden="1">
+    <row r="110" spans="1:8" ht="38.25">
       <c r="A110" s="7" t="s">
         <v>159</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>2013</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>62</v>
@@ -5457,9 +5457,9 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="51" hidden="1">
+    <row r="113" spans="1:8" ht="51">
       <c r="A113" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>166</v>
@@ -5474,14 +5474,14 @@
         <v>2013</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="102" hidden="1">
+    <row r="114" spans="1:8" ht="102">
       <c r="A114" s="7" t="s">
         <v>162</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>2013</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>62</v>
@@ -5507,9 +5507,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="51" hidden="1">
+    <row r="115" spans="1:8" ht="51">
       <c r="A115" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>169</v>
@@ -5524,7 +5524,7 @@
         <v>2013</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>62</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="116" spans="1:8" ht="114.75" hidden="1">
       <c r="A116" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>171</v>
@@ -5559,7 +5559,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="51" hidden="1">
+    <row r="117" spans="1:8" ht="51">
       <c r="A117" s="7" t="s">
         <v>173</v>
       </c>
@@ -5576,14 +5576,14 @@
         <v>2013</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="63.75" hidden="1">
+    <row r="118" spans="1:8" ht="63.75">
       <c r="A118" s="7" t="s">
         <v>174</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>2013</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>62</v>
@@ -5609,9 +5609,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="76.5" hidden="1">
+    <row r="119" spans="1:8" ht="76.5">
       <c r="A119" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>176</v>
@@ -5626,7 +5626,7 @@
         <v>2013</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>62</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="121" spans="1:8" ht="63.75" hidden="1">
       <c r="A121" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>176</v>
@@ -5681,9 +5681,9 @@
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="76.5" hidden="1">
+    <row r="122" spans="1:8" ht="76.5">
       <c r="A122" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>178</v>
@@ -5698,7 +5698,7 @@
         <v>2013</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>62</v>
@@ -5781,9 +5781,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="89.25" hidden="1">
+    <row r="126" spans="1:8" ht="89.25">
       <c r="A126" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>189</v>
@@ -5798,7 +5798,7 @@
         <v>2013</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>62</v>
@@ -5816,7 +5816,8 @@
     <filterColumn colId="2"/>
     <filterColumn colId="5">
       <filters>
-        <filter val="wirkungslos"/>
+        <filter val="Gesundheitsschädlich"/>
+        <filter val="hinderlich"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6307,7 +6308,7 @@
         <v>1888</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>60</v>
@@ -6318,7 +6319,7 @@
     </row>
     <row r="25" spans="1:8" ht="102">
       <c r="A25" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
@@ -6365,7 +6366,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="102">
@@ -6411,13 +6412,13 @@
         <v>2002</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="38.25">
@@ -6443,7 +6444,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="38.25">
@@ -6469,7 +6470,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="38.25">
@@ -6495,7 +6496,7 @@
         <v>62</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="38.25">
@@ -6521,7 +6522,7 @@
         <v>62</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="38.25">
@@ -6547,7 +6548,7 @@
         <v>62</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="38.25">
@@ -6573,7 +6574,7 @@
         <v>62</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="38.25">
@@ -6599,7 +6600,7 @@
         <v>62</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="38.25">
@@ -6625,7 +6626,7 @@
         <v>62</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="38.25">
@@ -6651,7 +6652,7 @@
         <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="38.25">
@@ -6677,7 +6678,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="38.25">
@@ -6703,7 +6704,7 @@
         <v>62</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="38.25">
@@ -6729,7 +6730,7 @@
         <v>62</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="38.25">
@@ -6755,7 +6756,7 @@
         <v>62</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="38.25">
@@ -6781,7 +6782,7 @@
         <v>62</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="38.25">
@@ -6807,7 +6808,7 @@
         <v>62</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="38.25">
@@ -6833,7 +6834,7 @@
         <v>62</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="38.25">
@@ -6859,7 +6860,7 @@
         <v>62</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="38.25">
@@ -6885,7 +6886,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="38.25">
@@ -6911,7 +6912,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="38.25">
@@ -6937,7 +6938,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="38.25">
@@ -6963,7 +6964,7 @@
         <v>62</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="38.25">
@@ -6989,7 +6990,7 @@
         <v>62</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="38.25">
@@ -7015,7 +7016,7 @@
         <v>62</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="38.25">
@@ -7041,7 +7042,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="38.25">
@@ -7176,7 +7177,7 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -7220,9 +7221,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="89.25" hidden="1">
+    <row r="2" spans="1:8" ht="89.25">
       <c r="A2" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>258</v>
@@ -7246,12 +7247,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25" hidden="1">
+    <row r="3" spans="1:8" ht="38.25">
       <c r="A3" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>74</v>
@@ -7272,10 +7273,10 @@
     </row>
     <row r="4" spans="1:8" ht="51" hidden="1">
       <c r="A4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>74</v>
@@ -7296,12 +7297,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5" hidden="1">
+    <row r="5" spans="1:8" ht="25.5">
       <c r="A5" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>74</v>
@@ -7322,10 +7323,10 @@
     </row>
     <row r="6" spans="1:8" ht="102" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>74</v>
@@ -7346,12 +7347,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" hidden="1">
+    <row r="7" spans="1:8" ht="38.25">
       <c r="A7" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>74</v>
@@ -7370,12 +7371,12 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" hidden="1">
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>74</v>
@@ -7394,12 +7395,12 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="51" hidden="1">
+    <row r="9" spans="1:8" ht="51">
       <c r="A9" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>74</v>
@@ -7420,10 +7421,10 @@
     </row>
     <row r="10" spans="1:8" ht="63.75" hidden="1">
       <c r="A10" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>74</v>
@@ -7442,12 +7443,12 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="63.75" hidden="1">
+    <row r="11" spans="1:8" ht="63.75">
       <c r="A11" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>74</v>
@@ -7468,10 +7469,10 @@
     </row>
     <row r="12" spans="1:8" ht="89.25" hidden="1">
       <c r="A12" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>281</v>
@@ -7490,12 +7491,12 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="51" hidden="1">
+    <row r="13" spans="1:8" ht="51">
       <c r="A13" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>74</v>
@@ -7513,15 +7514,15 @@
         <v>61</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="102" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>74</v>
@@ -7542,10 +7543,10 @@
     </row>
     <row r="15" spans="1:8" ht="76.5" hidden="1">
       <c r="A15" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>74</v>
@@ -7564,9 +7565,9 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="51" hidden="1">
+    <row r="16" spans="1:8" ht="51">
       <c r="A16" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>280</v>
@@ -7612,12 +7613,12 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="76.5" hidden="1">
+    <row r="18" spans="1:8" ht="76.5">
       <c r="A18" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>281</v>
@@ -7636,12 +7637,12 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="38.25" hidden="1">
+    <row r="19" spans="1:8" ht="38.25">
       <c r="A19" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>281</v>
@@ -7660,12 +7661,12 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="76.5" hidden="1">
+    <row r="20" spans="1:8" ht="76.5">
       <c r="A20" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>281</v>
@@ -7684,12 +7685,12 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="76.5" hidden="1">
+    <row r="21" spans="1:8" ht="76.5">
       <c r="A21" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>281</v>
@@ -7708,12 +7709,12 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="63.75" hidden="1">
+    <row r="22" spans="1:8" ht="63.75">
       <c r="A22" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>281</v>
@@ -7732,12 +7733,12 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="102" hidden="1">
+    <row r="23" spans="1:8" ht="102">
       <c r="A23" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>74</v>
@@ -7755,15 +7756,15 @@
         <v>61</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25.5" hidden="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.5">
       <c r="A24" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>74</v>
@@ -7780,12 +7781,12 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="38.25" hidden="1">
+    <row r="25" spans="1:8" ht="38.25">
       <c r="A25" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>74</v>
@@ -7804,10 +7805,10 @@
     </row>
     <row r="26" spans="1:8" ht="63.75" hidden="1">
       <c r="A26" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>74</v>
@@ -7819,7 +7820,7 @@
         <v>1802</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>61</v>
@@ -7828,12 +7829,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="76.5" hidden="1">
+    <row r="27" spans="1:8" ht="76.5">
       <c r="A27" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>74</v>
@@ -7852,10 +7853,10 @@
     </row>
     <row r="28" spans="1:8" ht="63.75" hidden="1">
       <c r="A28" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>74</v>
@@ -7867,7 +7868,7 @@
         <v>1802</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7">
@@ -7876,10 +7877,10 @@
     </row>
     <row r="29" spans="1:8" ht="89.25" hidden="1">
       <c r="A29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>74</v>
@@ -7898,12 +7899,12 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="51" hidden="1">
+    <row r="30" spans="1:8" ht="51">
       <c r="A30" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>74</v>
@@ -7920,12 +7921,12 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="165.75" hidden="1">
+    <row r="31" spans="1:8" ht="165.75">
       <c r="A31" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>74</v>
@@ -7941,15 +7942,15 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="51" hidden="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="51">
       <c r="A32" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>74</v>
@@ -7967,7 +7968,7 @@
         <v>61</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="102" hidden="1">
@@ -7996,12 +7997,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="25.5" hidden="1">
+    <row r="34" spans="1:9" ht="25.5">
       <c r="A34" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>74</v>
@@ -8020,12 +8021,12 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:9" ht="25.5" hidden="1">
+    <row r="35" spans="1:9" ht="25.5">
       <c r="A35" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>655</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>74</v>
@@ -8046,10 +8047,10 @@
     </row>
     <row r="36" spans="1:9" ht="89.25" hidden="1">
       <c r="A36" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>74</v>
@@ -8061,21 +8062,21 @@
         <v>1888</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="38.25" hidden="1">
       <c r="A37" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>74</v>
@@ -8087,7 +8088,7 @@
         <v>1803</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>61</v>
@@ -8096,10 +8097,10 @@
     </row>
     <row r="38" spans="1:9" ht="76.5" hidden="1">
       <c r="A38" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>74</v>
@@ -8117,15 +8118,15 @@
         <v>61</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="178.5" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>282</v>
@@ -8137,7 +8138,7 @@
         <v>1808</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>61</v>
@@ -8146,10 +8147,10 @@
     </row>
     <row r="40" spans="1:9" ht="89.25" hidden="1">
       <c r="A40" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>282</v>
@@ -8161,7 +8162,7 @@
         <v>1808</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>61</v>
@@ -8170,10 +8171,10 @@
     </row>
     <row r="41" spans="1:9" ht="114.75" hidden="1">
       <c r="A41" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>74</v>
@@ -8185,7 +8186,7 @@
         <v>1901</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>61</v>
@@ -8197,7 +8198,7 @@
         <v>285</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>282</v>
@@ -8209,7 +8210,7 @@
         <v>1808</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>61</v>
@@ -8218,10 +8219,10 @@
     </row>
     <row r="43" spans="1:9" ht="63.75" hidden="1">
       <c r="A43" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>74</v>
@@ -8233,7 +8234,7 @@
         <v>1803</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>61</v>
@@ -8244,10 +8245,10 @@
     </row>
     <row r="44" spans="1:9" ht="63.75" hidden="1">
       <c r="A44" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>74</v>
@@ -8259,7 +8260,7 @@
         <v>1803</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>61</v>
@@ -8268,10 +8269,10 @@
     </row>
     <row r="45" spans="1:9" ht="89.25" hidden="1">
       <c r="A45" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>282</v>
@@ -8283,7 +8284,7 @@
         <v>1808</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>61</v>
@@ -8292,10 +8293,10 @@
     </row>
     <row r="46" spans="1:9" ht="63.75" hidden="1">
       <c r="A46" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>282</v>
@@ -8307,7 +8308,7 @@
         <v>1808</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>61</v>
@@ -8318,7 +8319,7 @@
     </row>
     <row r="47" spans="1:9" ht="76.5" hidden="1">
       <c r="A47" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>328</v>
@@ -8333,7 +8334,7 @@
         <v>1820</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>61</v>
@@ -8342,7 +8343,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="77.25" hidden="1">
+    <row r="48" spans="1:9" ht="77.25">
       <c r="A48" s="7" t="s">
         <v>324</v>
       </c>
@@ -8365,11 +8366,11 @@
         <v>61</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="38.25" hidden="1">
+    <row r="49" spans="1:8" ht="38.25">
       <c r="A49" s="7" t="s">
         <v>339</v>
       </c>
@@ -8395,10 +8396,10 @@
     </row>
     <row r="50" spans="1:8" ht="102" hidden="1">
       <c r="A50" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>74</v>
@@ -8421,10 +8422,10 @@
     </row>
     <row r="51" spans="1:8" ht="63.75" hidden="1">
       <c r="A51" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>74</v>
@@ -8445,10 +8446,10 @@
     </row>
     <row r="52" spans="1:8" ht="127.5" hidden="1">
       <c r="A52" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>74</v>
@@ -8472,7 +8473,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>74</v>
@@ -8490,10 +8491,10 @@
         <v>65</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="63.75" hidden="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="63.75">
       <c r="A54" s="7" t="s">
         <v>336</v>
       </c>
@@ -8517,7 +8518,7 @@
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" ht="127.5" hidden="1">
+    <row r="55" spans="1:8" ht="127.5">
       <c r="A55" s="7" t="s">
         <v>340</v>
       </c>
@@ -8565,9 +8566,9 @@
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="51" hidden="1">
+    <row r="57" spans="1:8" ht="51">
       <c r="A57" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>345</v>
@@ -8594,7 +8595,7 @@
         <v>85</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>74</v>
@@ -8618,7 +8619,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>74</v>
@@ -8642,7 +8643,7 @@
         <v>261</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>74</v>
@@ -8665,10 +8666,10 @@
     </row>
     <row r="61" spans="1:8" ht="76.5">
       <c r="A61" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>74</v>
@@ -8692,7 +8693,7 @@
         <v>265</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>74</v>
@@ -8715,10 +8716,10 @@
     </row>
     <row r="63" spans="1:8" ht="63.75">
       <c r="A63" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>74</v>
@@ -8735,12 +8736,12 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="140.25" hidden="1">
+    <row r="64" spans="1:8" ht="140.25">
       <c r="A64" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>74</v>
@@ -8785,12 +8786,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="63.75" hidden="1">
+    <row r="66" spans="1:8" ht="63.75">
       <c r="A66" s="7" t="s">
         <v>274</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>74</v>
@@ -8811,7 +8812,7 @@
     </row>
     <row r="67" spans="1:8" ht="76.5">
       <c r="A67" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>334</v>
@@ -8857,12 +8858,12 @@
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="114.75" hidden="1">
+    <row r="69" spans="1:8" ht="114.75">
       <c r="A69" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>74</v>
@@ -8883,10 +8884,10 @@
     </row>
     <row r="70" spans="1:8" ht="102" hidden="1">
       <c r="A70" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>74</v>
@@ -8905,12 +8906,12 @@
       </c>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="89.25" hidden="1">
+    <row r="71" spans="1:8" ht="89.25">
       <c r="A71" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>74</v>
@@ -8928,15 +8929,15 @@
         <v>61</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="51" hidden="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="51">
       <c r="A72" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>74</v>
@@ -8954,7 +8955,7 @@
         <v>61</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25" hidden="1">
@@ -8962,7 +8963,7 @@
         <v>320</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>74</v>
@@ -9005,12 +9006,12 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="38.25" hidden="1">
+    <row r="75" spans="1:8" ht="38.25">
       <c r="A75" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>74</v>
@@ -9028,15 +9029,15 @@
         <v>61</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="77.25" hidden="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="77.25">
       <c r="A76" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>74</v>
@@ -9057,10 +9058,10 @@
     </row>
     <row r="77" spans="1:8" ht="77.25" hidden="1">
       <c r="A77" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>74</v>
@@ -9079,12 +9080,12 @@
       </c>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8" ht="141" hidden="1">
+    <row r="78" spans="1:8" ht="141">
       <c r="A78" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>74</v>
@@ -9105,10 +9106,10 @@
     </row>
     <row r="79" spans="1:8" ht="39" hidden="1">
       <c r="A79" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>74</v>
@@ -9127,12 +9128,12 @@
       </c>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8" ht="39" hidden="1">
+    <row r="80" spans="1:8" ht="39">
       <c r="A80" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>74</v>
@@ -9153,10 +9154,10 @@
     </row>
     <row r="81" spans="1:8" ht="76.5" hidden="1">
       <c r="A81" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>74</v>
@@ -9175,12 +9176,12 @@
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="25.5" hidden="1">
+    <row r="82" spans="1:8" ht="25.5">
       <c r="A82" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>74</v>
@@ -9199,12 +9200,12 @@
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="38.25" hidden="1">
+    <row r="83" spans="1:8" ht="38.25">
       <c r="A83" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>74</v>
@@ -9225,10 +9226,10 @@
     </row>
     <row r="84" spans="1:8" ht="76.5" hidden="1">
       <c r="A84" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>74</v>
@@ -9249,10 +9250,10 @@
     </row>
     <row r="85" spans="1:8" ht="76.5">
       <c r="A85" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>74</v>
@@ -9271,12 +9272,12 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="51" hidden="1">
+    <row r="86" spans="1:8" ht="51">
       <c r="A86" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>74</v>
@@ -9297,10 +9298,10 @@
     </row>
     <row r="87" spans="1:8" ht="114.75" hidden="1">
       <c r="A87" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>282</v>
@@ -9319,12 +9320,12 @@
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="38.25" hidden="1">
+    <row r="88" spans="1:8" ht="38.25">
       <c r="A88" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>74</v>
@@ -9343,12 +9344,12 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="89.25" hidden="1">
+    <row r="89" spans="1:8" ht="89.25">
       <c r="A89" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>74</v>
@@ -9366,7 +9367,7 @@
         <v>61</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="51" hidden="1">
@@ -9374,7 +9375,7 @@
         <v>275</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>74</v>
@@ -9395,10 +9396,10 @@
     </row>
     <row r="91" spans="1:8" ht="89.25" hidden="1">
       <c r="A91" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>74</v>
@@ -9419,10 +9420,10 @@
     </row>
     <row r="92" spans="1:8" ht="153">
       <c r="A92" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>74</v>
@@ -9446,7 +9447,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>74</v>
@@ -9488,15 +9489,15 @@
         <v>118</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="63.75">
       <c r="A95" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>74</v>
@@ -9517,10 +9518,10 @@
     </row>
     <row r="96" spans="1:8" ht="63.75" hidden="1">
       <c r="A96" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>282</v>
@@ -9541,10 +9542,10 @@
     </row>
     <row r="97" spans="1:8" ht="267.75" hidden="1">
       <c r="A97" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>74</v>
@@ -9556,7 +9557,7 @@
         <v>1901</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>61</v>
@@ -9567,10 +9568,10 @@
     </row>
     <row r="98" spans="1:8" ht="51" hidden="1">
       <c r="A98" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>74</v>
@@ -9582,7 +9583,7 @@
         <v>1888</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>61</v>
@@ -9593,10 +9594,10 @@
     </row>
     <row r="99" spans="1:8" ht="102" hidden="1">
       <c r="A99" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>74</v>
@@ -9608,7 +9609,7 @@
         <v>1888</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>61</v>
@@ -9617,10 +9618,10 @@
     </row>
     <row r="100" spans="1:8" ht="76.5">
       <c r="A100" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>74</v>
@@ -9641,10 +9642,10 @@
     </row>
     <row r="101" spans="1:8" ht="89.25" hidden="1">
       <c r="A101" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>74</v>
@@ -9656,7 +9657,7 @@
         <v>1901</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>61</v>
@@ -9691,10 +9692,10 @@
     </row>
     <row r="103" spans="1:8" ht="102" hidden="1">
       <c r="A103" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>74</v>
@@ -9706,18 +9707,18 @@
         <v>1901</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="63.75" hidden="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="63.75">
       <c r="A104" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>312</v>
@@ -9762,7 +9763,7 @@
         <v>149</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="25.5" hidden="1">
@@ -9770,7 +9771,7 @@
         <v>151</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>74</v>
@@ -9788,15 +9789,15 @@
         <v>93</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="38.25" hidden="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="38.25">
       <c r="A107" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>74</v>
@@ -9819,10 +9820,10 @@
     </row>
     <row r="108" spans="1:8" ht="114.75">
       <c r="A108" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>74</v>
@@ -9841,12 +9842,12 @@
       </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>74</v>
@@ -9870,7 +9871,7 @@
         <v>319</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>74</v>
@@ -9894,7 +9895,7 @@
         <v>106</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>74</v>
@@ -9930,7 +9931,7 @@
         <v>1958</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>182</v>
@@ -9939,7 +9940,7 @@
     </row>
     <row r="113" spans="1:8" ht="63.75" hidden="1">
       <c r="A113" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>307</v>
@@ -9954,7 +9955,7 @@
         <v>1958</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>310</v>
@@ -9963,10 +9964,10 @@
     </row>
     <row r="114" spans="1:8" ht="38.25" hidden="1">
       <c r="A114" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>74</v>
@@ -9985,12 +9986,12 @@
       </c>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="25.5" hidden="1">
+    <row r="115" spans="1:8" ht="25.5">
       <c r="A115" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>74</v>
@@ -10014,7 +10015,7 @@
         <v>84</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>74</v>
@@ -10029,16 +10030,16 @@
         <v>332</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" ht="25.5" hidden="1">
       <c r="A117" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>74</v>
@@ -10050,7 +10051,7 @@
         <v>2008</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>93</v>
@@ -10062,7 +10063,7 @@
         <v>229</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>74</v>
@@ -10074,7 +10075,7 @@
         <v>2008</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>67</v>
@@ -10086,7 +10087,7 @@
         <v>130</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>74</v>
@@ -10098,7 +10099,7 @@
         <v>2008</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>97</v>
@@ -10107,10 +10108,10 @@
     </row>
     <row r="120" spans="1:8" ht="38.25" hidden="1">
       <c r="A120" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>74</v>
@@ -10134,7 +10135,7 @@
         <v>75</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>74</v>
@@ -10146,7 +10147,7 @@
         <v>2013</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>77</v>
@@ -10155,10 +10156,10 @@
     </row>
     <row r="122" spans="1:8" ht="25.5">
       <c r="A122" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>74</v>
@@ -10182,7 +10183,7 @@
         <v>78</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>74</v>
@@ -10194,7 +10195,7 @@
         <v>2013</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>97</v>
@@ -10203,10 +10204,10 @@
     </row>
     <row r="124" spans="1:8" ht="38.25">
       <c r="A124" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>74</v>
@@ -10227,10 +10228,10 @@
     </row>
     <row r="125" spans="1:8" ht="25.5">
       <c r="A125" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>74</v>
@@ -10245,16 +10246,16 @@
         <v>332</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="38.25" hidden="1">
+    <row r="126" spans="1:8" ht="38.25">
       <c r="A126" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>74</v>
@@ -10275,10 +10276,10 @@
     </row>
     <row r="127" spans="1:8" ht="51" hidden="1">
       <c r="A127" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>74</v>
@@ -10290,13 +10291,13 @@
         <v>1888</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -10305,6 +10306,7 @@
     <filterColumn colId="5">
       <filters>
         <filter val="Gesundheitsfördernd"/>
+        <filter val="Sicherheit"/>
       </filters>
     </filterColumn>
     <sortState ref="A26:H47">

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -2629,7 +2629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7173,12 +7173,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7271,7 +7270,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="51" hidden="1">
+    <row r="4" spans="1:8" ht="51">
       <c r="A4" s="7" t="s">
         <v>361</v>
       </c>
@@ -7321,7 +7320,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="102" hidden="1">
+    <row r="6" spans="1:8" ht="102">
       <c r="A6" s="7" t="s">
         <v>684</v>
       </c>
@@ -7419,7 +7418,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="63.75" hidden="1">
+    <row r="10" spans="1:8" ht="63.75">
       <c r="A10" s="7" t="s">
         <v>687</v>
       </c>
@@ -7467,36 +7466,38 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="89.25" hidden="1">
+    <row r="12" spans="1:8" ht="51">
       <c r="A12" s="7" t="s">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>607</v>
+        <v>370</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E12" s="7">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="51">
       <c r="A13" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>74</v>
@@ -7508,21 +7509,21 @@
         <v>1801</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="102" hidden="1">
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="76.5">
       <c r="A14" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>642</v>
+        <v>367</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>74</v>
@@ -7531,22 +7532,22 @@
         <v>235</v>
       </c>
       <c r="E14" s="7">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="76.5" hidden="1">
+    <row r="15" spans="1:8" ht="114.75">
       <c r="A15" s="7" t="s">
-        <v>657</v>
+        <v>265</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>658</v>
+        <v>369</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>74</v>
@@ -7555,22 +7556,24 @@
         <v>235</v>
       </c>
       <c r="E15" s="7">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="51">
+      <c r="H15" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="89.25">
       <c r="A16" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>280</v>
+        <v>607</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>281</v>
@@ -7582,19 +7585,19 @@
         <v>1802</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="51" hidden="1">
+    <row r="17" spans="1:8" ht="102">
       <c r="A17" s="7" t="s">
-        <v>346</v>
+        <v>685</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>345</v>
+        <v>642</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>74</v>
@@ -7603,7 +7606,7 @@
         <v>235</v>
       </c>
       <c r="E17" s="7">
-        <v>1820</v>
+        <v>1802</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>64</v>
@@ -7613,12 +7616,12 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="76.5">
+    <row r="18" spans="1:8" ht="51">
       <c r="A18" s="7" t="s">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>608</v>
+        <v>280</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>281</v>
@@ -7637,12 +7640,12 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="38.25">
+    <row r="19" spans="1:8" ht="76.5">
       <c r="A19" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>281</v>
@@ -7661,9 +7664,9 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="76.5">
+    <row r="20" spans="1:8" ht="38.25">
       <c r="A20" s="7" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>609</v>
@@ -7687,10 +7690,10 @@
     </row>
     <row r="21" spans="1:8" ht="76.5">
       <c r="A21" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>281</v>
@@ -7709,9 +7712,9 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="63.75">
+    <row r="22" spans="1:8" ht="76.5">
       <c r="A22" s="7" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>610</v>
@@ -7733,15 +7736,15 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="102">
+    <row r="23" spans="1:8" ht="63.75">
       <c r="A23" s="7" t="s">
-        <v>634</v>
+        <v>279</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>235</v>
@@ -7755,16 +7758,14 @@
       <c r="G23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25.5">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="102">
       <c r="A24" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>74</v>
@@ -7778,12 +7779,16 @@
       <c r="F24" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="38.25">
+      <c r="G24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5">
       <c r="A25" s="7" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>637</v>
@@ -7803,12 +7808,12 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="63.75" hidden="1">
+    <row r="26" spans="1:8" ht="38.25">
       <c r="A26" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>74</v>
@@ -7820,21 +7825,17 @@
         <v>1802</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="76.5">
+        <v>326</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="63.75">
       <c r="A27" s="7" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>74</v>
@@ -7846,17 +7847,21 @@
         <v>1802</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="63.75" hidden="1">
+        <v>383</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="76.5">
       <c r="A28" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>74</v>
@@ -7868,36 +7873,34 @@
         <v>1802</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="63.75">
+      <c r="A29" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1802</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="89.25" hidden="1">
-      <c r="A29" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1820</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="51">
       <c r="A30" s="7" t="s">
@@ -7921,12 +7924,12 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="165.75">
+    <row r="31" spans="1:8" ht="76.5">
       <c r="A31" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>74</v>
@@ -7938,19 +7941,19 @@
         <v>1803</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="51">
+        <v>64</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="165.75">
       <c r="A32" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>74</v>
@@ -7964,40 +7967,38 @@
       <c r="F32" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="51">
+      <c r="A33" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1803</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="102" hidden="1">
-      <c r="A33" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="25.5">
+    <row r="34" spans="1:8" ht="25.5">
       <c r="A34" s="7" t="s">
         <v>652</v>
       </c>
@@ -8021,7 +8022,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:9" ht="25.5">
+    <row r="35" spans="1:8" ht="25.5">
       <c r="A35" s="7" t="s">
         <v>653</v>
       </c>
@@ -8045,12 +8046,12 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="89.25" hidden="1">
+    <row r="36" spans="1:8" ht="38.25">
       <c r="A36" s="7" t="s">
-        <v>410</v>
+        <v>661</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>418</v>
+        <v>662</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>74</v>
@@ -8059,24 +8060,22 @@
         <v>235</v>
       </c>
       <c r="E36" s="7">
-        <v>1888</v>
+        <v>1803</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>601</v>
+        <v>383</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="38.25" hidden="1">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="63.75">
       <c r="A37" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>74</v>
@@ -8088,114 +8087,114 @@
         <v>1803</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="63.75">
+      <c r="A38" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1803</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="102">
+      <c r="A39" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1803</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="63.75">
+      <c r="A40" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1803</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="178.5">
+      <c r="A41" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1808</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="76.5" hidden="1">
-      <c r="A38" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="178.5" hidden="1">
-      <c r="A39" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1808</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" ht="89.25" hidden="1">
-      <c r="A40" s="7" t="s">
+      <c r="G41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="89.25">
+      <c r="A42" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1808</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" ht="114.75" hidden="1">
-      <c r="A41" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1901</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" ht="51" hidden="1">
-      <c r="A42" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>388</v>
@@ -8217,47 +8216,45 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:9" ht="63.75" hidden="1">
+    <row r="43" spans="1:8" ht="51">
       <c r="A43" s="7" t="s">
-        <v>656</v>
+        <v>285</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>654</v>
+        <v>388</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E43" s="7">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>600</v>
+        <v>383</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="63.75" hidden="1">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="89.25">
       <c r="A44" s="7" t="s">
-        <v>659</v>
+        <v>381</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>660</v>
+        <v>386</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E44" s="7">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>600</v>
@@ -8267,9 +8264,9 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:9" ht="89.25" hidden="1">
+    <row r="45" spans="1:8" ht="63.75">
       <c r="A45" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>386</v>
@@ -8289,14 +8286,16 @@
       <c r="G45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="63.75" hidden="1">
+      <c r="H45" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="114.75">
       <c r="A46" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>282</v>
@@ -8308,47 +8307,43 @@
         <v>1808</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>600</v>
+        <v>283</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="76.5" hidden="1">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="63.75">
       <c r="A47" s="7" t="s">
-        <v>606</v>
+        <v>380</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E47" s="7">
-        <v>1820</v>
+        <v>1808</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>600</v>
+        <v>283</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="77.25">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="51">
       <c r="A48" s="7" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>74</v>
@@ -8360,22 +8355,19 @@
         <v>1820</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" ht="38.25">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" ht="89.25">
       <c r="A49" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>74</v>
@@ -8387,69 +8379,72 @@
         <v>1820</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" ht="76.5">
+      <c r="A50" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1820</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="77.25">
+      <c r="A51" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1820</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" ht="102" hidden="1">
-      <c r="A50" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1803</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H50" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="63.75" hidden="1">
-      <c r="A51" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G51" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" ht="127.5" hidden="1">
+      <c r="H51" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="38.25">
       <c r="A52" s="7" t="s">
-        <v>429</v>
+        <v>339</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>74</v>
@@ -8458,22 +8453,22 @@
         <v>235</v>
       </c>
       <c r="E52" s="7">
-        <v>1901</v>
+        <v>1820</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="38.25" hidden="1">
+    <row r="53" spans="1:9" ht="63.75">
       <c r="A53" s="7" t="s">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>74</v>
@@ -8482,24 +8477,22 @@
         <v>235</v>
       </c>
       <c r="E53" s="7">
-        <v>1922</v>
+        <v>1820</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="63.75">
+        <v>61</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" ht="127.5">
       <c r="A54" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>74</v>
@@ -8518,12 +8511,12 @@
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" ht="127.5">
+    <row r="55" spans="1:9" ht="63.75">
       <c r="A55" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>74</v>
@@ -8535,19 +8528,19 @@
         <v>1820</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="63.75" hidden="1">
+    <row r="56" spans="1:9" ht="51">
       <c r="A56" s="7" t="s">
-        <v>342</v>
+        <v>604</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>74</v>
@@ -8559,19 +8552,19 @@
         <v>1820</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="51">
+    <row r="57" spans="1:9" ht="140.25">
       <c r="A57" s="7" t="s">
-        <v>604</v>
+        <v>355</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>74</v>
@@ -8590,12 +8583,12 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:9" ht="76.5">
       <c r="A58" s="7" t="s">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>622</v>
+        <v>331</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>74</v>
@@ -8604,22 +8597,24 @@
         <v>235</v>
       </c>
       <c r="E58" s="7">
-        <v>2008</v>
+        <v>1820</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" ht="63.75" hidden="1">
+        <v>61</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="76.5">
       <c r="A59" s="7" t="s">
-        <v>76</v>
+        <v>605</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>630</v>
+        <v>334</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>74</v>
@@ -8628,22 +8623,22 @@
         <v>235</v>
       </c>
       <c r="E59" s="7">
-        <v>2013</v>
+        <v>1820</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="51">
+    <row r="60" spans="1:9" ht="25.5">
       <c r="A60" s="7" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>74</v>
@@ -8652,7 +8647,7 @@
         <v>235</v>
       </c>
       <c r="E60" s="7">
-        <v>1801</v>
+        <v>1820</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>332</v>
@@ -8660,16 +8655,14 @@
       <c r="G60" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="76.5">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" ht="38.25">
       <c r="A61" s="7" t="s">
-        <v>679</v>
+        <v>347</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>74</v>
@@ -8678,7 +8671,7 @@
         <v>235</v>
       </c>
       <c r="E61" s="7">
-        <v>1801</v>
+        <v>1820</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>332</v>
@@ -8688,12 +8681,12 @@
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="114.75">
+    <row r="62" spans="1:9" ht="76.5">
       <c r="A62" s="7" t="s">
-        <v>265</v>
+        <v>689</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>74</v>
@@ -8702,7 +8695,7 @@
         <v>235</v>
       </c>
       <c r="E62" s="7">
-        <v>1801</v>
+        <v>1820</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>332</v>
@@ -8710,16 +8703,14 @@
       <c r="G62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="63.75">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" ht="153">
       <c r="A63" s="7" t="s">
-        <v>651</v>
+        <v>351</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>74</v>
@@ -8728,20 +8719,22 @@
         <v>235</v>
       </c>
       <c r="E63" s="7">
-        <v>1803</v>
+        <v>1820</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="140.25">
+    <row r="64" spans="1:9" ht="63.75">
       <c r="A64" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>74</v>
@@ -8753,7 +8746,7 @@
         <v>1820</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>61</v>
@@ -8762,10 +8755,10 @@
     </row>
     <row r="65" spans="1:8" ht="76.5">
       <c r="A65" s="7" t="s">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>74</v>
@@ -8782,9 +8775,7 @@
       <c r="G65" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>333</v>
-      </c>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" ht="63.75">
       <c r="A66" s="7" t="s">
@@ -8810,12 +8801,12 @@
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="76.5">
+    <row r="67" spans="1:8" ht="102">
       <c r="A67" s="7" t="s">
-        <v>605</v>
+        <v>268</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>74</v>
@@ -8824,22 +8815,24 @@
         <v>235</v>
       </c>
       <c r="E67" s="7">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" ht="25.5">
+      <c r="H67" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="114.75">
       <c r="A68" s="7" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>74</v>
@@ -8848,22 +8841,22 @@
         <v>235</v>
       </c>
       <c r="E68" s="7">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="114.75">
+    <row r="69" spans="1:8" ht="102">
       <c r="A69" s="7" t="s">
-        <v>269</v>
+        <v>400</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>74</v>
@@ -8875,19 +8868,19 @@
         <v>1830</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="102" hidden="1">
+    <row r="70" spans="1:8" ht="89.25">
       <c r="A70" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>74</v>
@@ -8899,19 +8892,21 @@
         <v>1830</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8" ht="89.25">
+      <c r="H70" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="51">
       <c r="A71" s="7" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>74</v>
@@ -8929,15 +8924,15 @@
         <v>61</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="51">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="38.25">
       <c r="A72" s="7" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>74</v>
@@ -8949,21 +8944,19 @@
         <v>1830</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H72" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="38.25" hidden="1">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" ht="38.25">
       <c r="A73" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>74</v>
@@ -8975,19 +8968,21 @@
         <v>1830</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8" ht="38.25">
+      <c r="H73" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="114.75">
       <c r="A74" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>348</v>
+        <v>391</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>74</v>
@@ -8996,7 +8991,7 @@
         <v>235</v>
       </c>
       <c r="E74" s="7">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>332</v>
@@ -9006,12 +9001,12 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="38.25">
+    <row r="75" spans="1:8" ht="51">
       <c r="A75" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>74</v>
@@ -9023,14 +9018,12 @@
         <v>1830</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>406</v>
-      </c>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8" ht="77.25">
       <c r="A76" s="7" t="s">
@@ -9056,7 +9049,7 @@
       </c>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:8" ht="77.25" hidden="1">
+    <row r="77" spans="1:8" ht="77.25">
       <c r="A77" s="7" t="s">
         <v>603</v>
       </c>
@@ -9104,7 +9097,7 @@
       </c>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8" ht="39" hidden="1">
+    <row r="79" spans="1:8" ht="39">
       <c r="A79" s="7" t="s">
         <v>586</v>
       </c>
@@ -9152,7 +9145,7 @@
       </c>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8" ht="76.5" hidden="1">
+    <row r="81" spans="1:8" ht="76.5">
       <c r="A81" s="7" t="s">
         <v>404</v>
       </c>
@@ -9224,12 +9217,12 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="76.5" hidden="1">
+    <row r="84" spans="1:8" ht="89.25">
       <c r="A84" s="7" t="s">
-        <v>668</v>
+        <v>410</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>74</v>
@@ -9241,19 +9234,21 @@
         <v>1888</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>344</v>
+        <v>601</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="76.5">
       <c r="A85" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>74</v>
@@ -9262,22 +9257,24 @@
         <v>235</v>
       </c>
       <c r="E85" s="7">
-        <v>1820</v>
+        <v>1888</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8" ht="51">
+      <c r="H85" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="63.75">
       <c r="A86" s="7" t="s">
-        <v>675</v>
+        <v>596</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>74</v>
@@ -9289,43 +9286,43 @@
         <v>1888</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="114.75" hidden="1">
+    <row r="87" spans="1:8" ht="76.5">
       <c r="A87" s="7" t="s">
-        <v>379</v>
+        <v>668</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E87" s="7">
-        <v>1808</v>
+        <v>1888</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="38.25">
+    <row r="88" spans="1:8" ht="51">
       <c r="A88" s="7" t="s">
-        <v>276</v>
+        <v>675</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>74</v>
@@ -9344,12 +9341,12 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="89.25">
+    <row r="89" spans="1:8" ht="38.25">
       <c r="A89" s="7" t="s">
-        <v>676</v>
+        <v>276</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>74</v>
@@ -9366,40 +9363,40 @@
       <c r="G89" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" ht="89.25">
+      <c r="A90" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="51" hidden="1">
-      <c r="A90" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E90" s="7">
-        <v>1917</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="1:8" ht="89.25" hidden="1">
+    <row r="91" spans="1:8" ht="51">
       <c r="A91" s="7" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>74</v>
@@ -9408,22 +9405,24 @@
         <v>235</v>
       </c>
       <c r="E91" s="7">
-        <v>1917</v>
+        <v>1888</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="1:8" ht="153">
+      <c r="H91" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="102">
       <c r="A92" s="7" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>74</v>
@@ -9432,72 +9431,72 @@
         <v>235</v>
       </c>
       <c r="E92" s="7">
-        <v>1820</v>
+        <v>1888</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" ht="25.5" hidden="1">
+    <row r="93" spans="1:8" ht="51">
       <c r="A93" s="7" t="s">
-        <v>89</v>
+        <v>557</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>235</v>
+        <v>556</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="E93" s="7">
-        <v>2008</v>
+        <v>1888</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>344</v>
+        <v>601</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="1:8" ht="51" hidden="1">
+        <v>61</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="114.75">
       <c r="A94" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="E94" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="63.75">
+        <v>1901</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" ht="127.5">
       <c r="A95" s="7" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>74</v>
@@ -9506,46 +9505,48 @@
         <v>235</v>
       </c>
       <c r="E95" s="7">
-        <v>1820</v>
+        <v>1901</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="63.75" hidden="1">
+    <row r="96" spans="1:8" ht="267.75">
       <c r="A96" s="7" t="s">
-        <v>380</v>
+        <v>677</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E96" s="7">
-        <v>1808</v>
+        <v>1901</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="1:8" ht="267.75" hidden="1">
+      <c r="H96" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="89.25">
       <c r="A97" s="7" t="s">
-        <v>677</v>
+        <v>421</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>74</v>
@@ -9557,21 +9558,21 @@
         <v>1901</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>601</v>
+        <v>413</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="51" hidden="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="102">
       <c r="A98" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>74</v>
@@ -9580,7 +9581,7 @@
         <v>235</v>
       </c>
       <c r="E98" s="7">
-        <v>1888</v>
+        <v>1901</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>413</v>
@@ -9588,16 +9589,16 @@
       <c r="G98" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H98" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="102" hidden="1">
+      <c r="H98" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="51">
       <c r="A99" s="7" t="s">
-        <v>414</v>
+        <v>275</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>420</v>
+        <v>615</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>74</v>
@@ -9606,22 +9607,22 @@
         <v>235</v>
       </c>
       <c r="E99" s="7">
-        <v>1888</v>
+        <v>1917</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="76.5">
+    <row r="100" spans="1:8" ht="89.25">
       <c r="A100" s="7" t="s">
-        <v>680</v>
+        <v>432</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>74</v>
@@ -9630,22 +9631,22 @@
         <v>235</v>
       </c>
       <c r="E100" s="7">
-        <v>1820</v>
+        <v>1917</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="89.25" hidden="1">
+    <row r="101" spans="1:8" ht="38.25">
       <c r="A101" s="7" t="s">
-        <v>421</v>
+        <v>63</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>74</v>
@@ -9654,19 +9655,19 @@
         <v>235</v>
       </c>
       <c r="E101" s="7">
-        <v>1901</v>
+        <v>1922</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>413</v>
+        <v>64</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="51" hidden="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="51">
       <c r="A102" s="7" t="s">
         <v>308</v>
       </c>
@@ -9690,12 +9691,12 @@
       </c>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" ht="102" hidden="1">
+    <row r="103" spans="1:8" ht="63.75">
       <c r="A103" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>74</v>
@@ -9704,24 +9705,22 @@
         <v>235</v>
       </c>
       <c r="E103" s="7">
-        <v>1901</v>
+        <v>1958</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="63.75">
+        <v>67</v>
+      </c>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" ht="102">
       <c r="A104" s="7" t="s">
-        <v>435</v>
+        <v>305</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>74</v>
@@ -9733,45 +9732,43 @@
         <v>1958</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="51" hidden="1">
+    <row r="105" spans="1:8" ht="63.75">
       <c r="A105" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="7">
+        <v>1958</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" ht="51">
+      <c r="A106" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E105" s="7">
-        <v>2005</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="25.5" hidden="1">
-      <c r="A106" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>74</v>
@@ -9786,68 +9783,68 @@
         <v>64</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="38.25">
+    <row r="107" spans="1:8" ht="25.5">
       <c r="A107" s="7" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>235</v>
+        <v>616</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="E107" s="7">
+        <v>2005</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" s="7">
         <v>2008</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G107" s="7" t="s">
+      <c r="F108" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H107" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="114.75">
-      <c r="A108" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E108" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="25.5">
       <c r="A109" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>74</v>
@@ -9859,43 +9856,45 @@
         <v>2008</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8" ht="51">
       <c r="A110" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>235</v>
+        <v>117</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="E110" s="7">
-        <v>1830</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H110" s="7"/>
+        <v>2008</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="38.25">
       <c r="A111" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>74</v>
@@ -9907,62 +9906,64 @@
         <v>2008</v>
       </c>
       <c r="F111" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8" ht="38.25">
+      <c r="A113" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E113" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8" ht="102" hidden="1">
-      <c r="A112" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E112" s="7">
-        <v>1958</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="1:8" ht="63.75" hidden="1">
-      <c r="A113" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E113" s="7">
-        <v>1958</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="38.25" hidden="1">
+    <row r="114" spans="1:8" ht="38.25">
       <c r="A114" s="7" t="s">
         <v>439</v>
       </c>
@@ -10034,7 +10035,7 @@
       </c>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="25.5" hidden="1">
+    <row r="117" spans="1:8" ht="25.5">
       <c r="A117" s="7" t="s">
         <v>438</v>
       </c>
@@ -10058,7 +10059,7 @@
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="38.25" hidden="1">
+    <row r="118" spans="1:8" ht="38.25">
       <c r="A118" s="7" t="s">
         <v>229</v>
       </c>
@@ -10082,7 +10083,7 @@
       </c>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="51" hidden="1">
+    <row r="119" spans="1:8" ht="51">
       <c r="A119" s="7" t="s">
         <v>130</v>
       </c>
@@ -10106,7 +10107,7 @@
       </c>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="38.25" hidden="1">
+    <row r="120" spans="1:8" ht="38.25">
       <c r="A120" s="7" t="s">
         <v>442</v>
       </c>
@@ -10130,60 +10131,60 @@
       </c>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" ht="38.25" hidden="1">
+    <row r="121" spans="1:8" ht="25.5">
       <c r="A121" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E121" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="1:8" ht="63.75">
+      <c r="A122" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E122" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:8" ht="38.25">
+      <c r="A123" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B123" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E121" s="7">
-        <v>2013</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" spans="1:8" ht="25.5">
-      <c r="A122" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E122" s="7">
-        <v>2008</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H122" s="7"/>
-    </row>
-    <row r="123" spans="1:8" ht="38.25" hidden="1">
-      <c r="A123" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>74</v>
@@ -10198,13 +10199,13 @@
         <v>413</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" ht="38.25">
       <c r="A124" s="7" t="s">
-        <v>598</v>
+        <v>78</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>631</v>
@@ -10219,16 +10220,16 @@
         <v>2013</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="25.5">
+    <row r="125" spans="1:8" ht="38.25">
       <c r="A125" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>631</v>
@@ -10246,16 +10247,16 @@
         <v>332</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="38.25">
+    <row r="126" spans="1:8" ht="25.5">
       <c r="A126" s="7" t="s">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>74</v>
@@ -10267,54 +10268,47 @@
         <v>2013</v>
       </c>
       <c r="F126" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="1:8" ht="38.25">
+      <c r="A127" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E127" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="1:8" ht="51" hidden="1">
-      <c r="A127" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E127" s="7">
-        <v>1888</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>558</v>
-      </c>
+      <c r="H127" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H127">
     <filterColumn colId="1"/>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Gesundheitsfördernd"/>
-        <filter val="Sicherheit"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5"/>
     <sortState ref="A26:H47">
       <sortCondition ref="F2:F126"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:I126">
-    <sortCondition ref="E2:E126"/>
+  <sortState ref="A2:I127">
+    <sortCondition ref="E2:E127"/>
   </sortState>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4485" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Contra" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Impfungen schwächen nicht die Abwehr, Schüren keine Autoimmunkrankheiten</t>
   </si>
   <si>
-    <t>Zahlreiche Hinweise zeigen, dass Impfugen sogar einen Mehrwert für das Immunsystem haben. Einzelne Studien deuten darauf hin, dass die Pockenimpfung ebenso wie die Impfung gegen Tuberkulose vor dem Schwarzen Hautkrebs schützt.</t>
-  </si>
-  <si>
     <t>Die Geschichte belegt die Wirksamkeit der Impfung</t>
   </si>
   <si>
@@ -464,9 +461,6 @@
   </si>
   <si>
     <t>Dr. Martin Hirte, Mitglied im Verein "Ärzte für individuelle Impfentscheidung" , wird gemäß meiner Definition als Skeptiker eingestuft, weil er Impfungen nicht generell ablehnt - er wird offenbar allgemein als Impfgegner betrachtet - hält er sich in seinem Büchern an gesellschaftliche/ärztliche Konventionen?</t>
-  </si>
-  <si>
-    <t>Der Mensch wird also durch die Kuhpockenimpfung zuerst augenscheinlich krank gemacht, muß dann auf eine mehr oder weniger sichtbare Weise krank bleiben, um gegen die natürlichen Blattern eingigermaßen geschützt zu seyn, und dies sind ihre unabänderlichen Folgen; aber es gibt auch noch andere größere, welche nicht in der Berechnung des Impfarztes liegen, und theils [...] als sebstständige Nachkrankheiten auftreten</t>
   </si>
   <si>
     <t>Werden wir von den Eltern um Entscheidungshilfe gebeten, so raten wir ihnen zur vorsorglichen Wundstarrkrampf- und Diphtherie-Impfung etwa ab dem 12., manchmal ab dem 9. Lebensmonat, meist auch zur Kinderlähmungsimpfung</t>
@@ -2218,6 +2212,12 @@
   </si>
   <si>
     <t>Geistliche, die eine lange Reihe von Jahren ihr heiliges Amt verwalten, bezeugen, dass das Aussehen der Kinder an Schönheit und Kraft bedeutend zugenommen hat. Die ehemalige grosse Zahl der bleichen, übelgenährten, schwächlische, verschleimten, mit welker, schlaffer Haut und Muskeln begabten, mit Haut- und Kopfausschlägen ehafteten, verdrieslichen, mürrischen grämlichen, stumpfen und trägen Kindern, die man sonst, besonders in den Schulen erblickte, ist verwunden.</t>
+  </si>
+  <si>
+    <t>Zahlreiche Hinweise zeigen, dass Impfungen sogar einen Mehrwert für das Immunsystem haben. Einzelne Studien deuten darauf hin, dass die Pockenimpfung ebenso wie die Impfung gegen Tuberkulose vor dem Schwarzen Hautkrebs schützt.</t>
+  </si>
+  <si>
+    <t>Der Mensch wird also durch die Kuhpockenimpfung zuerst augenscheinlich krank gemacht, muß dann auf eine mehr oder weniger sichtbare Weise krank bleiben, um gegen die natürlichen Blattern einigermaßen geschützt zu seyn, und dies sind ihre unabänderlichen Folgen; aber es gibt auch noch andere größere, welche nicht in der Berechnung des Impfarztes liegen, und theils [...] als sebstständige Nachkrankheiten auftreten</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2640,9 +2640,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2686,28 +2686,28 @@
     </row>
     <row r="2" spans="1:9" ht="76.5" hidden="1">
       <c r="A2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" s="7">
         <v>1834</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I2" s="3">
         <v>3</v>
@@ -2715,22 +2715,22 @@
     </row>
     <row r="3" spans="1:9" ht="114.75" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="7">
         <v>1834</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>61</v>
@@ -2741,22 +2741,22 @@
     </row>
     <row r="4" spans="1:9" ht="38.25" hidden="1">
       <c r="A4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="7">
         <v>1834</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>61</v>
@@ -2765,22 +2765,22 @@
     </row>
     <row r="5" spans="1:9" ht="38.25" hidden="1">
       <c r="A5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" s="7">
         <v>1834</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>61</v>
@@ -2791,48 +2791,48 @@
     </row>
     <row r="6" spans="1:9" ht="114.75" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E6" s="7">
         <v>1834</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="114.75" hidden="1">
       <c r="A7" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" s="7">
         <v>1834</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>61</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="8" spans="1:9" ht="76.5" hidden="1">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E8" s="7">
         <v>1834</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>61</v>
@@ -2867,54 +2867,54 @@
     </row>
     <row r="9" spans="1:9" ht="89.25" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E9" s="7">
         <v>1834</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51">
       <c r="A10" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E10" s="7">
         <v>1834</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" s="3">
         <v>25</v>
@@ -2922,100 +2922,100 @@
     </row>
     <row r="11" spans="1:9" ht="102">
       <c r="A11" s="7" t="s">
-        <v>147</v>
+        <v>689</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" s="7">
         <v>1834</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="76.5">
       <c r="A12" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E12" s="7">
         <v>1834</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="204" hidden="1">
       <c r="A13" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="7">
         <v>1834</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="191.25">
       <c r="A14" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="7">
         <v>1857</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>61</v>
@@ -3024,54 +3024,54 @@
     </row>
     <row r="15" spans="1:9" ht="102">
       <c r="A15" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E15" s="7">
         <v>1857</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="89.25" hidden="1">
       <c r="A16" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E16" s="7">
         <v>1857</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
@@ -3079,22 +3079,22 @@
     </row>
     <row r="17" spans="1:8" ht="102">
       <c r="A17" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E17" s="7">
         <v>1857</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>61</v>
@@ -3103,48 +3103,48 @@
     </row>
     <row r="18" spans="1:8" ht="114.75">
       <c r="A18" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E18" s="7">
         <v>1857</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="140.25">
       <c r="A19" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E19" s="7">
         <v>1857</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>61</v>
@@ -3153,22 +3153,22 @@
     </row>
     <row r="20" spans="1:8" ht="38.25" hidden="1">
       <c r="A20" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E20" s="7">
         <v>1863</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>61</v>
@@ -3177,22 +3177,22 @@
     </row>
     <row r="21" spans="1:8" ht="51" hidden="1">
       <c r="A21" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="7">
         <v>1863</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>61</v>
@@ -3201,22 +3201,22 @@
     </row>
     <row r="22" spans="1:8" ht="127.5" hidden="1">
       <c r="A22" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22" s="7">
         <v>1863</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>61</v>
@@ -3225,22 +3225,22 @@
     </row>
     <row r="23" spans="1:8" ht="76.5">
       <c r="A23" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E23" s="7">
         <v>1863</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>61</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="24" spans="1:8" ht="89.25">
       <c r="A24" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" s="7">
         <v>1863</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>61</v>
@@ -3273,48 +3273,48 @@
     </row>
     <row r="25" spans="1:8" ht="140.25" hidden="1">
       <c r="A25" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E25" s="7">
         <v>1863</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="89.25" hidden="1">
       <c r="A26" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E26" s="7">
         <v>1863</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>61</v>
@@ -3323,22 +3323,22 @@
     </row>
     <row r="27" spans="1:8" ht="127.5">
       <c r="A27" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E27" s="7">
         <v>1863</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>61</v>
@@ -3347,22 +3347,22 @@
     </row>
     <row r="28" spans="1:8" ht="153" hidden="1">
       <c r="A28" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E28" s="7">
         <v>1863</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>61</v>
@@ -3371,22 +3371,22 @@
     </row>
     <row r="29" spans="1:8" ht="102">
       <c r="A29" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E29" s="7">
         <v>1863</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>61</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="30" spans="1:8" ht="127.5">
       <c r="A30" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E30" s="7">
         <v>1872</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>61</v>
@@ -3419,22 +3419,22 @@
     </row>
     <row r="31" spans="1:8" ht="89.25">
       <c r="A31" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="C31" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E31" s="7">
         <v>1872</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>61</v>
@@ -3443,22 +3443,22 @@
     </row>
     <row r="32" spans="1:8" ht="89.25" hidden="1">
       <c r="A32" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" s="7">
         <v>1872</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>61</v>
@@ -3467,28 +3467,28 @@
     </row>
     <row r="33" spans="1:9" ht="114.75">
       <c r="A33" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E33" s="7">
         <v>1872</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I33" s="3">
         <v>21</v>
@@ -3496,22 +3496,22 @@
     </row>
     <row r="34" spans="1:9" ht="63.75" hidden="1">
       <c r="A34" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E34" s="7">
         <v>1875</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>61</v>
@@ -3520,22 +3520,22 @@
     </row>
     <row r="35" spans="1:9" ht="63.75" hidden="1">
       <c r="A35" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E35" s="7">
         <v>1875</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>61</v>
@@ -3544,22 +3544,22 @@
     </row>
     <row r="36" spans="1:9" ht="51">
       <c r="A36" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E36" s="7">
         <v>1875</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
@@ -3568,22 +3568,22 @@
     </row>
     <row r="37" spans="1:9" ht="51">
       <c r="A37" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E37" s="7">
         <v>1875</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>61</v>
@@ -3592,152 +3592,152 @@
     </row>
     <row r="38" spans="1:9" ht="76.5">
       <c r="A38" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E38" s="7">
         <v>1875</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="127.5" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E39" s="7">
         <v>1875</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="140.25">
       <c r="A40" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E40" s="7">
         <v>1875</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="102" hidden="1">
       <c r="A41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="C41" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E41" s="7">
         <v>1879</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="76.5" hidden="1">
       <c r="A42" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E42" s="7">
         <v>1879</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="89.25" hidden="1">
       <c r="A43" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E43" s="7">
         <v>1879</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>61</v>
@@ -3746,22 +3746,22 @@
     </row>
     <row r="44" spans="1:9" ht="89.25" hidden="1">
       <c r="A44" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E44" s="7">
         <v>1879</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>61</v>
@@ -3770,78 +3770,78 @@
     </row>
     <row r="45" spans="1:9" ht="89.25">
       <c r="A45" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E45" s="7">
         <v>1888</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="127.5" hidden="1">
       <c r="A46" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46" s="7">
         <v>1910</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:9" ht="89.25">
+    <row r="47" spans="1:9" ht="89.25" hidden="1">
       <c r="A47" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E47" s="7">
         <v>1910</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="48" spans="1:9" ht="63.75" hidden="1">
       <c r="A48" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E48" s="7">
         <v>1910</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>61</v>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="49" spans="1:8" ht="89.25" hidden="1">
       <c r="A49" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E49" s="7">
         <v>1910</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>61</v>
@@ -3897,22 +3897,22 @@
     </row>
     <row r="50" spans="1:8" ht="102" hidden="1">
       <c r="A50" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E50" s="7">
         <v>1910</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>61</v>
@@ -3921,22 +3921,22 @@
     </row>
     <row r="51" spans="1:8" ht="51">
       <c r="A51" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E51" s="7">
         <v>1910</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>62</v>
@@ -3945,98 +3945,98 @@
     </row>
     <row r="52" spans="1:8" ht="114.75" hidden="1">
       <c r="A52" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E52" s="7">
         <v>1910</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="102" hidden="1">
       <c r="A53" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E53" s="7">
         <v>1922</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="51" hidden="1">
       <c r="A54" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E54" s="7">
         <v>1987</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="102">
       <c r="A55" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E55" s="7">
         <v>1995</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>62</v>
@@ -4045,16 +4045,16 @@
     </row>
     <row r="56" spans="1:8" ht="25.5" hidden="1">
       <c r="A56" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E56" s="7">
         <v>1995</v>
@@ -4071,22 +4071,22 @@
     </row>
     <row r="57" spans="1:8" ht="102">
       <c r="A57" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E57" s="7">
         <v>1995</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>62</v>
@@ -4095,46 +4095,46 @@
     </row>
     <row r="58" spans="1:8" ht="51">
       <c r="A58" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E58" s="7">
         <v>1995</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="76.5">
+    <row r="59" spans="1:8" ht="76.5" hidden="1">
       <c r="A59" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E59" s="7">
         <v>1995</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>62</v>
@@ -4143,22 +4143,22 @@
     </row>
     <row r="60" spans="1:8" ht="102">
       <c r="A60" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E60" s="7">
         <v>1995</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>62</v>
@@ -4167,22 +4167,22 @@
     </row>
     <row r="61" spans="1:8" ht="76.5">
       <c r="A61" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E61" s="7">
         <v>1995</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>62</v>
@@ -4191,22 +4191,22 @@
     </row>
     <row r="62" spans="1:8" ht="127.5" hidden="1">
       <c r="A62" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E62" s="7">
         <v>1995</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>62</v>
@@ -4215,16 +4215,16 @@
     </row>
     <row r="63" spans="1:8" ht="89.25" hidden="1">
       <c r="A63" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E63" s="7">
         <v>1995</v>
@@ -4239,22 +4239,22 @@
     </row>
     <row r="64" spans="1:8" ht="51" hidden="1">
       <c r="A64" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E64" s="7">
         <v>1995</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>62</v>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="65" spans="1:8" ht="191.25" hidden="1">
       <c r="A65" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E65" s="7">
         <v>1995</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>62</v>
@@ -4287,42 +4287,42 @@
     </row>
     <row r="66" spans="1:8" ht="76.5" hidden="1">
       <c r="A66" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E66" s="7">
         <v>2005</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="63.75" hidden="1">
       <c r="A67" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E67" s="7">
         <v>2007</v>
@@ -4334,97 +4334,97 @@
         <v>62</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="63.75">
       <c r="A68" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E68" s="7">
         <v>2007</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="63.75">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="63.75" hidden="1">
       <c r="A69" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E69" s="7">
         <v>2007</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="51" hidden="1">
       <c r="A70" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E70" s="7">
         <v>2008</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" ht="114.75" hidden="1">
       <c r="A71" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E71" s="7">
         <v>2008</v>
@@ -4436,30 +4436,30 @@
         <v>62</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="38.25" hidden="1">
       <c r="A72" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E72" s="7">
         <v>2008</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H72" s="9">
         <v>4</v>
@@ -4467,16 +4467,16 @@
     </row>
     <row r="73" spans="1:8" ht="140.25" hidden="1">
       <c r="A73" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E73" s="7">
         <v>2008</v>
@@ -4488,27 +4488,27 @@
         <v>62</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="25.5" hidden="1">
       <c r="A74" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E74" s="7">
         <v>2008</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>62</v>
@@ -4517,114 +4517,114 @@
     </row>
     <row r="75" spans="1:8" ht="51">
       <c r="A75" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E75" s="7">
         <v>2008</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="63.75">
+    <row r="76" spans="1:8" ht="63.75" hidden="1">
       <c r="A76" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E76" s="7">
         <v>2008</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8" ht="51" hidden="1">
       <c r="A77" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E77" s="7">
         <v>2008</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8" ht="127.5">
       <c r="A78" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E78" s="7">
         <v>2008</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>62</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="76.5" hidden="1">
       <c r="A79" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E79" s="7">
         <v>2008</v>
@@ -4636,103 +4636,103 @@
         <v>62</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="89.25" hidden="1">
       <c r="A80" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E80" s="7">
         <v>2008</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>62</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="89.25">
       <c r="A81" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E81" s="7">
         <v>2008</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="38.25">
       <c r="A82" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E82" s="7">
         <v>2008</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" ht="51">
       <c r="A83" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E83" s="7">
         <v>2008</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>62</v>
@@ -4741,170 +4741,170 @@
     </row>
     <row r="84" spans="1:8" ht="38.25" hidden="1">
       <c r="A84" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E84" s="7">
         <v>2008</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" ht="165.75" hidden="1">
       <c r="A85" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E85" s="7">
         <v>2012</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="114.75" hidden="1">
       <c r="A86" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E86" s="7">
         <v>2012</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="127.5">
+    <row r="87" spans="1:8" ht="127.5" hidden="1">
       <c r="A87" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E87" s="7">
         <v>2012</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="153">
+    <row r="88" spans="1:8" ht="153" hidden="1">
       <c r="A88" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E88" s="7">
         <v>2012</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="191.25">
+    <row r="89" spans="1:8" ht="191.25" hidden="1">
       <c r="A89" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E89" s="7">
         <v>2012</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="38.25" hidden="1">
       <c r="A90" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E90" s="7">
         <v>2012</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>62</v>
@@ -4913,146 +4913,146 @@
     </row>
     <row r="91" spans="1:8" ht="114.75">
       <c r="A91" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E91" s="7">
         <v>2012</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="89.25">
       <c r="A92" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E92" s="7">
         <v>2012</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="76.5">
       <c r="A93" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E93" s="7">
         <v>2012</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="127.5" hidden="1">
       <c r="A94" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E94" s="7">
         <v>2012</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="114.75" hidden="1">
       <c r="A95" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E95" s="7">
         <v>2012</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="102" hidden="1">
       <c r="A96" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E96" s="7">
         <v>2012</v>
@@ -5061,128 +5061,128 @@
         <v>34</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" ht="102">
       <c r="A97" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E97" s="7">
         <v>2012</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="114.75">
+    <row r="98" spans="1:8" ht="114.75" hidden="1">
       <c r="A98" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E98" s="7">
         <v>2012</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8" ht="102">
       <c r="A99" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E99" s="7">
         <v>2013</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="127.5">
       <c r="A100" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E100" s="7">
         <v>2013</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="25.5">
       <c r="A101" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E101" s="7">
         <v>2013</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>62</v>
@@ -5191,218 +5191,218 @@
     </row>
     <row r="102" spans="1:8" ht="25.5" hidden="1">
       <c r="A102" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E102" s="7">
         <v>2013</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="140.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="140.25" hidden="1">
       <c r="A103" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E103" s="7">
         <v>2013</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="63.75">
       <c r="A104" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E104" s="7">
         <v>2013</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" ht="102">
       <c r="A105" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E105" s="7">
         <v>2013</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" ht="51" hidden="1">
       <c r="A106" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E106" s="7">
         <v>2013</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8" ht="63.75" hidden="1">
       <c r="A107" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E107" s="7">
         <v>2013</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8" ht="76.5" hidden="1">
       <c r="A108" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E108" s="7">
         <v>2013</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" ht="51" hidden="1">
       <c r="A109" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E109" s="7">
         <v>2013</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="38.25">
+    <row r="110" spans="1:8" ht="38.25" hidden="1">
       <c r="A110" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E110" s="7">
         <v>2013</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>62</v>
@@ -5411,16 +5411,16 @@
     </row>
     <row r="111" spans="1:8" ht="76.5" hidden="1">
       <c r="A111" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E111" s="7">
         <v>2013</v>
@@ -5435,22 +5435,22 @@
     </row>
     <row r="112" spans="1:8" ht="76.5" hidden="1">
       <c r="A112" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E112" s="7">
         <v>2013</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>62</v>
@@ -5459,22 +5459,22 @@
     </row>
     <row r="113" spans="1:8" ht="51">
       <c r="A113" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E113" s="7">
         <v>2013</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>62</v>
@@ -5483,100 +5483,100 @@
     </row>
     <row r="114" spans="1:8" ht="102">
       <c r="A114" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E114" s="7">
         <v>2013</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="51">
       <c r="A115" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E115" s="7">
         <v>2013</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="114.75" hidden="1">
       <c r="A116" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E116" s="7">
         <v>2013</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="51">
       <c r="A117" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E117" s="7">
         <v>2013</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>62</v>
@@ -5585,48 +5585,48 @@
     </row>
     <row r="118" spans="1:8" ht="63.75">
       <c r="A118" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="C118" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E118" s="7">
         <v>2013</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="76.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="76.5" hidden="1">
       <c r="A119" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E119" s="7">
         <v>2013</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>62</v>
@@ -5635,22 +5635,22 @@
     </row>
     <row r="120" spans="1:8" ht="89.25" hidden="1">
       <c r="A120" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E120" s="7">
         <v>2013</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>62</v>
@@ -5659,16 +5659,16 @@
     </row>
     <row r="121" spans="1:8" ht="63.75" hidden="1">
       <c r="A121" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E121" s="7">
         <v>2013</v>
@@ -5683,22 +5683,22 @@
     </row>
     <row r="122" spans="1:8" ht="76.5">
       <c r="A122" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E122" s="7">
         <v>2013</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>62</v>
@@ -5707,98 +5707,98 @@
     </row>
     <row r="123" spans="1:8" ht="76.5" hidden="1">
       <c r="A123" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E123" s="7">
         <v>2013</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" ht="102" hidden="1">
       <c r="A124" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E124" s="7">
         <v>2013</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="89.25" hidden="1">
       <c r="A125" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E125" s="7">
         <v>2013</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="89.25">
       <c r="A126" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E126" s="7">
         <v>2013</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>62</v>
@@ -5817,7 +5817,6 @@
     <filterColumn colId="5">
       <filters>
         <filter val="Gesundheitsschädlich"/>
-        <filter val="hinderlich"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5885,170 +5884,170 @@
     </row>
     <row r="2" spans="1:8" ht="63.75">
       <c r="A2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E2" s="7">
         <v>2008</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="38.25">
       <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E3" s="7">
         <v>2008</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="63.75">
       <c r="A4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E4" s="7">
         <v>2008</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="51">
       <c r="A5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E5" s="7">
         <v>2008</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="38.25">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E6" s="7">
         <v>2008</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="38.25">
       <c r="A7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E7" s="7">
         <v>2008</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="38.25">
       <c r="A8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E8" s="7">
         <v>2008</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="51">
       <c r="A9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="C9" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E9" s="7">
         <v>2008</v>
@@ -6061,16 +6060,16 @@
     </row>
     <row r="10" spans="1:8" ht="51">
       <c r="A10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" s="7">
         <v>2008</v>
@@ -6083,104 +6082,104 @@
     </row>
     <row r="11" spans="1:8" ht="51">
       <c r="A11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E11" s="7">
         <v>2008</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="63.75">
       <c r="A12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E12" s="7">
         <v>2008</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="63.75">
       <c r="A13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="C13" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="7">
         <v>2008</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="63.75">
       <c r="A14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="C14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7">
         <v>2008</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="127.5">
       <c r="A15" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E15" s="7">
         <v>1834</v>
@@ -6193,45 +6192,45 @@
     </row>
     <row r="16" spans="1:8" ht="51">
       <c r="A16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E16" s="7">
         <v>2005</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="51">
       <c r="A17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="C17" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" s="7">
         <v>2005</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -6308,7 +6307,7 @@
         <v>1888</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>60</v>
@@ -6319,7 +6318,7 @@
     </row>
     <row r="25" spans="1:8" ht="102">
       <c r="A25" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
@@ -6328,7 +6327,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E25" s="7">
         <v>1884</v>
@@ -6354,7 +6353,7 @@
         <v>74</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E26" s="7">
         <v>1884</v>
@@ -6366,7 +6365,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="102">
@@ -6380,7 +6379,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" s="7">
         <v>1884</v>
@@ -6406,19 +6405,19 @@
         <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E28" s="7">
         <v>2002</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="38.25">
@@ -6432,7 +6431,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E29" s="7">
         <v>2002</v>
@@ -6444,7 +6443,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="38.25">
@@ -6458,7 +6457,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E30" s="7">
         <v>2002</v>
@@ -6470,7 +6469,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="38.25">
@@ -6484,7 +6483,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E31" s="7">
         <v>2002</v>
@@ -6496,7 +6495,7 @@
         <v>62</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="38.25">
@@ -6510,7 +6509,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32" s="7">
         <v>2004</v>
@@ -6522,7 +6521,7 @@
         <v>62</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="38.25">
@@ -6536,19 +6535,19 @@
         <v>74</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E33" s="7">
         <v>2004</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="38.25">
@@ -6562,19 +6561,19 @@
         <v>74</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E34" s="7">
         <v>2004</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="38.25">
@@ -6588,19 +6587,19 @@
         <v>74</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E35" s="7">
         <v>2004</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="38.25">
@@ -6614,7 +6613,7 @@
         <v>74</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E36" s="7">
         <v>2004</v>
@@ -6626,7 +6625,7 @@
         <v>62</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="38.25">
@@ -6640,7 +6639,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E37" s="7">
         <v>2004</v>
@@ -6652,7 +6651,7 @@
         <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="38.25">
@@ -6666,7 +6665,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E38" s="7">
         <v>2004</v>
@@ -6678,7 +6677,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="38.25">
@@ -6692,7 +6691,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E39" s="7">
         <v>2004</v>
@@ -6704,7 +6703,7 @@
         <v>62</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="38.25">
@@ -6718,7 +6717,7 @@
         <v>74</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E40" s="7">
         <v>2004</v>
@@ -6730,7 +6729,7 @@
         <v>62</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="38.25">
@@ -6744,7 +6743,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E41" s="7">
         <v>2004</v>
@@ -6756,7 +6755,7 @@
         <v>62</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="38.25">
@@ -6770,7 +6769,7 @@
         <v>74</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E42" s="7">
         <v>2004</v>
@@ -6782,7 +6781,7 @@
         <v>62</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="38.25">
@@ -6796,7 +6795,7 @@
         <v>74</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E43" s="7">
         <v>2004</v>
@@ -6808,7 +6807,7 @@
         <v>62</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="38.25">
@@ -6822,7 +6821,7 @@
         <v>74</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E44" s="7">
         <v>2004</v>
@@ -6834,7 +6833,7 @@
         <v>62</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="38.25">
@@ -6848,7 +6847,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E45" s="7">
         <v>2004</v>
@@ -6860,7 +6859,7 @@
         <v>62</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="38.25">
@@ -6874,7 +6873,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E46" s="7">
         <v>2004</v>
@@ -6886,7 +6885,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="38.25">
@@ -6900,7 +6899,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E47" s="7">
         <v>2004</v>
@@ -6912,7 +6911,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="38.25">
@@ -6926,7 +6925,7 @@
         <v>74</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E48" s="7">
         <v>2004</v>
@@ -6938,7 +6937,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="38.25">
@@ -6952,7 +6951,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E49" s="7">
         <v>2004</v>
@@ -6964,7 +6963,7 @@
         <v>62</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="38.25">
@@ -6978,7 +6977,7 @@
         <v>74</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E50" s="7">
         <v>2004</v>
@@ -6990,7 +6989,7 @@
         <v>62</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="38.25">
@@ -7004,7 +7003,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E51" s="7">
         <v>2004</v>
@@ -7016,7 +7015,7 @@
         <v>62</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="38.25">
@@ -7030,7 +7029,7 @@
         <v>74</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E52" s="7">
         <v>2004</v>
@@ -7042,7 +7041,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="38.25">
@@ -7173,11 +7172,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7220,24 +7220,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="89.25">
+    <row r="2" spans="1:8" ht="89.25" hidden="1">
       <c r="A2" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E2" s="7">
         <v>1801</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>61</v>
@@ -7246,48 +7246,48 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25">
+    <row r="3" spans="1:8" ht="38.25" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="7">
         <v>1801</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="51">
+    <row r="4" spans="1:8" ht="51" hidden="1">
       <c r="A4" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E4" s="7">
         <v>1801</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>61</v>
@@ -7296,42 +7296,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5">
+    <row r="5" spans="1:8" ht="25.5" hidden="1">
       <c r="A5" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E5" s="7">
         <v>1801</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="102">
+    <row r="6" spans="1:8" ht="102" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" s="7">
         <v>1801</v>
@@ -7346,90 +7346,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25">
+    <row r="7" spans="1:8" ht="38.25" hidden="1">
       <c r="A7" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E7" s="7">
         <v>1801</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5">
+    <row r="8" spans="1:8" ht="25.5" hidden="1">
       <c r="A8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E8" s="7">
         <v>1801</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="51">
+    <row r="9" spans="1:8" ht="51" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E9" s="7">
         <v>1801</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="63.75">
+    <row r="10" spans="1:8" ht="63.75" hidden="1">
       <c r="A10" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E10" s="7">
         <v>1801</v>
@@ -7442,74 +7442,74 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="63.75">
+    <row r="11" spans="1:8" ht="63.75" hidden="1">
       <c r="A11" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E11" s="7">
         <v>1801</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="51">
+    <row r="12" spans="1:8" ht="51" hidden="1">
       <c r="A12" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E12" s="7">
         <v>1801</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="51">
       <c r="A13" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E13" s="7">
         <v>1801</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>61</v>
@@ -7520,22 +7520,22 @@
     </row>
     <row r="14" spans="1:8" ht="76.5">
       <c r="A14" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E14" s="7">
         <v>1801</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>61</v>
@@ -7544,42 +7544,42 @@
     </row>
     <row r="15" spans="1:8" ht="114.75">
       <c r="A15" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" s="7">
         <v>1801</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="89.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="89.25" hidden="1">
       <c r="A16" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="7">
         <v>1802</v>
@@ -7592,18 +7592,18 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="102">
+    <row r="17" spans="1:8" ht="102" hidden="1">
       <c r="A17" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E17" s="7">
         <v>1802</v>
@@ -7616,238 +7616,238 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="51">
+    <row r="18" spans="1:8" ht="51" hidden="1">
       <c r="A18" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E18" s="7">
         <v>1802</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="76.5">
+    <row r="19" spans="1:8" ht="76.5" hidden="1">
       <c r="A19" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E19" s="7">
         <v>1802</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="38.25">
+    <row r="20" spans="1:8" ht="38.25" hidden="1">
       <c r="A20" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E20" s="7">
         <v>1802</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="76.5">
+    <row r="21" spans="1:8" ht="76.5" hidden="1">
       <c r="A21" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E21" s="7">
         <v>1802</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="76.5">
+    <row r="22" spans="1:8" ht="76.5" hidden="1">
       <c r="A22" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E22" s="7">
         <v>1802</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="63.75">
+    <row r="23" spans="1:8" ht="63.75" hidden="1">
       <c r="A23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E23" s="7">
         <v>1802</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="102">
+    <row r="24" spans="1:8" ht="102" hidden="1">
       <c r="A24" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E24" s="7">
         <v>1802</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25.5">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" hidden="1">
       <c r="A25" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E25" s="7">
         <v>1802</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="38.25">
+    <row r="26" spans="1:8" ht="38.25" hidden="1">
       <c r="A26" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E26" s="7">
         <v>1802</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="63.75">
+    <row r="27" spans="1:8" ht="63.75" hidden="1">
       <c r="A27" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E27" s="7">
         <v>1802</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>61</v>
@@ -7856,86 +7856,86 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="76.5">
+    <row r="28" spans="1:8" ht="76.5" hidden="1">
       <c r="A28" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E28" s="7">
         <v>1802</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="63.75">
+    <row r="29" spans="1:8" ht="63.75" hidden="1">
       <c r="A29" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E29" s="7">
         <v>1802</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="51">
+    <row r="30" spans="1:8" ht="51" hidden="1">
       <c r="A30" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E30" s="7">
         <v>1802</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="76.5">
+    <row r="31" spans="1:8" ht="76.5" hidden="1">
       <c r="A31" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E31" s="7">
         <v>1803</v>
@@ -7948,146 +7948,146 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="165.75">
+    <row r="32" spans="1:8" ht="165.75" hidden="1">
       <c r="A32" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>648</v>
-      </c>
       <c r="C32" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E32" s="7">
         <v>1803</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="51" hidden="1">
+      <c r="A33" s="7" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="51">
-      <c r="A33" s="7" t="s">
-        <v>649</v>
-      </c>
       <c r="B33" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E33" s="7">
         <v>1803</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="25.5">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="25.5" hidden="1">
       <c r="A34" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>654</v>
-      </c>
       <c r="C34" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E34" s="7">
         <v>1803</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="25.5">
+    <row r="35" spans="1:8" ht="25.5" hidden="1">
       <c r="A35" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="7">
         <v>1803</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="38.25">
+    <row r="36" spans="1:8" ht="38.25" hidden="1">
       <c r="A36" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E36" s="7">
         <v>1803</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="63.75">
+    <row r="37" spans="1:8" ht="63.75" hidden="1">
       <c r="A37" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E37" s="7">
         <v>1803</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>61</v>
@@ -8096,48 +8096,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="63.75">
+    <row r="38" spans="1:8" ht="63.75" hidden="1">
       <c r="A38" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E38" s="7">
         <v>1803</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="102">
+    <row r="39" spans="1:8" ht="102" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E39" s="7">
         <v>1803</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>61</v>
@@ -8148,208 +8148,208 @@
     </row>
     <row r="40" spans="1:8" ht="63.75">
       <c r="A40" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E40" s="7">
         <v>1803</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="178.5">
+    <row r="41" spans="1:8" ht="178.5" hidden="1">
       <c r="A41" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E41" s="7">
         <v>1808</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="89.25">
+    <row r="42" spans="1:8" ht="89.25" hidden="1">
       <c r="A42" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E42" s="7">
         <v>1808</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="51">
+    <row r="43" spans="1:8" ht="51" hidden="1">
       <c r="A43" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E43" s="7">
         <v>1808</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="89.25">
+    <row r="44" spans="1:8" ht="89.25" hidden="1">
       <c r="A44" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E44" s="7">
         <v>1808</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="63.75">
+    <row r="45" spans="1:8" ht="63.75" hidden="1">
       <c r="A45" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E45" s="7">
         <v>1808</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="114.75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="114.75" hidden="1">
       <c r="A46" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E46" s="7">
         <v>1808</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="63.75">
+    <row r="47" spans="1:8" ht="63.75" hidden="1">
       <c r="A47" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E47" s="7">
         <v>1808</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="51">
+    <row r="48" spans="1:8" ht="51" hidden="1">
       <c r="A48" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E48" s="7">
         <v>1820</v>
@@ -8362,18 +8362,18 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:9" ht="89.25">
+    <row r="49" spans="1:9" ht="89.25" hidden="1">
       <c r="A49" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E49" s="7">
         <v>1820</v>
@@ -8386,197 +8386,197 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:9" ht="76.5">
+    <row r="50" spans="1:9" ht="76.5" hidden="1">
       <c r="A50" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E50" s="7">
         <v>1820</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="77.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="77.25" hidden="1">
       <c r="A51" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E51" s="7">
         <v>1820</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" ht="38.25">
+    <row r="52" spans="1:9" ht="38.25" hidden="1">
       <c r="A52" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E52" s="7">
         <v>1820</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="63.75">
+    <row r="53" spans="1:9" ht="63.75" hidden="1">
       <c r="A53" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E53" s="7">
         <v>1820</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="127.5">
+    <row r="54" spans="1:9" ht="127.5" hidden="1">
       <c r="A54" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E54" s="7">
         <v>1820</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:9" ht="63.75">
+    <row r="55" spans="1:9" ht="63.75" hidden="1">
       <c r="A55" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E55" s="7">
         <v>1820</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:9" ht="51">
+    <row r="56" spans="1:9" ht="51" hidden="1">
       <c r="A56" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E56" s="7">
         <v>1820</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:9" ht="140.25">
+    <row r="57" spans="1:9" ht="140.25" hidden="1">
       <c r="A57" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E57" s="7">
         <v>1820</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>61</v>
@@ -8585,48 +8585,48 @@
     </row>
     <row r="58" spans="1:9" ht="76.5">
       <c r="A58" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E58" s="7">
         <v>1820</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="76.5">
       <c r="A59" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E59" s="7">
         <v>1820</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>61</v>
@@ -8635,22 +8635,22 @@
     </row>
     <row r="60" spans="1:9" ht="25.5">
       <c r="A60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="C60" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E60" s="7">
         <v>1820</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>61</v>
@@ -8659,22 +8659,22 @@
     </row>
     <row r="61" spans="1:9" ht="38.25">
       <c r="A61" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E61" s="7">
         <v>1820</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>61</v>
@@ -8683,22 +8683,22 @@
     </row>
     <row r="62" spans="1:9" ht="76.5">
       <c r="A62" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E62" s="7">
         <v>1820</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>61</v>
@@ -8707,22 +8707,22 @@
     </row>
     <row r="63" spans="1:9" ht="153">
       <c r="A63" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E63" s="7">
         <v>1820</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>61</v>
@@ -8731,22 +8731,22 @@
     </row>
     <row r="64" spans="1:9" ht="63.75">
       <c r="A64" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E64" s="7">
         <v>1820</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>61</v>
@@ -8755,64 +8755,64 @@
     </row>
     <row r="65" spans="1:8" ht="76.5">
       <c r="A65" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E65" s="7">
         <v>1820</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="63.75">
+    <row r="66" spans="1:8" ht="63.75" hidden="1">
       <c r="A66" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E66" s="7">
         <v>1828</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="102">
+    <row r="67" spans="1:8" ht="102" hidden="1">
       <c r="A67" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="C67" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E67" s="7">
         <v>1830</v>
@@ -8824,177 +8824,177 @@
         <v>61</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="114.75">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="114.75" hidden="1">
       <c r="A68" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E68" s="7">
         <v>1830</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="102">
+    <row r="69" spans="1:8" ht="102" hidden="1">
       <c r="A69" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E69" s="7">
         <v>1830</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="89.25">
+    <row r="70" spans="1:8" ht="89.25" hidden="1">
       <c r="A70" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E70" s="7">
         <v>1830</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="51" hidden="1">
       <c r="A71" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E71" s="7">
         <v>1830</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="38.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="38.25" hidden="1">
       <c r="A72" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E72" s="7">
         <v>1830</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="38.25">
+    <row r="73" spans="1:8" ht="38.25" hidden="1">
       <c r="A73" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E73" s="7">
         <v>1830</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="114.75">
       <c r="A74" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E74" s="7">
         <v>1830</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>61</v>
@@ -9003,258 +9003,258 @@
     </row>
     <row r="75" spans="1:8" ht="51">
       <c r="A75" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E75" s="7">
         <v>1830</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="77.25">
+    <row r="76" spans="1:8" ht="77.25" hidden="1">
       <c r="A76" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E76" s="7">
         <v>1866</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:8" ht="77.25">
+    <row r="77" spans="1:8" ht="77.25" hidden="1">
       <c r="A77" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E77" s="7">
         <v>1866</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8" ht="141">
+    <row r="78" spans="1:8" ht="141" hidden="1">
       <c r="A78" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E78" s="7">
         <v>1866</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8" ht="39">
+    <row r="79" spans="1:8" ht="39" hidden="1">
       <c r="A79" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E79" s="7">
         <v>1866</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8" ht="39">
+    <row r="80" spans="1:8" ht="39" hidden="1">
       <c r="A80" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E80" s="7">
         <v>1866</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8" ht="76.5">
+    <row r="81" spans="1:8" ht="76.5" hidden="1">
       <c r="A81" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E81" s="7">
         <v>1884</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="25.5">
+    <row r="82" spans="1:8" ht="25.5" hidden="1">
       <c r="A82" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E82" s="7">
         <v>1884</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="38.25">
+    <row r="83" spans="1:8" ht="38.25" hidden="1">
       <c r="A83" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E83" s="7">
         <v>1884</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="89.25">
+    <row r="84" spans="1:8" ht="89.25" hidden="1">
       <c r="A84" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E84" s="7">
         <v>1888</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="76.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="76.5" hidden="1">
       <c r="A85" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E85" s="7">
         <v>1888</v>
@@ -9266,21 +9266,21 @@
         <v>61</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="63.75">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="63.75" hidden="1">
       <c r="A86" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E86" s="7">
         <v>1888</v>
@@ -9293,122 +9293,122 @@
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="76.5">
+    <row r="87" spans="1:8" ht="76.5" hidden="1">
       <c r="A87" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E87" s="7">
         <v>1888</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="51">
+    <row r="88" spans="1:8" ht="51" hidden="1">
       <c r="A88" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E88" s="7">
         <v>1888</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="38.25">
+    <row r="89" spans="1:8" ht="38.25" hidden="1">
       <c r="A89" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E89" s="7">
         <v>1888</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" ht="89.25">
+    <row r="90" spans="1:8" ht="89.25" hidden="1">
       <c r="A90" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E90" s="7">
         <v>1888</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="51">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="51" hidden="1">
       <c r="A91" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E91" s="7">
         <v>1888</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>61</v>
@@ -9417,92 +9417,92 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="102">
+    <row r="92" spans="1:8" ht="102" hidden="1">
       <c r="A92" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E92" s="7">
         <v>1888</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" ht="51">
+    <row r="93" spans="1:8" ht="51" hidden="1">
       <c r="A93" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E93" s="7">
         <v>1888</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="114.75">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="114.75" hidden="1">
       <c r="A94" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E94" s="7">
         <v>1901</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" ht="127.5">
+    <row r="95" spans="1:8" ht="127.5" hidden="1">
       <c r="A95" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E95" s="7">
         <v>1901</v>
@@ -9515,144 +9515,144 @@
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="267.75">
+    <row r="96" spans="1:8" ht="267.75" hidden="1">
       <c r="A96" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E96" s="7">
         <v>1901</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="89.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="89.25" hidden="1">
       <c r="A97" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E97" s="7">
         <v>1901</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="102">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="102" hidden="1">
       <c r="A98" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="C98" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E98" s="7">
         <v>1901</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="51">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="51" hidden="1">
       <c r="A99" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E99" s="7">
         <v>1917</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="89.25">
+    <row r="100" spans="1:8" ht="89.25" hidden="1">
       <c r="A100" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E100" s="7">
         <v>1917</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="38.25">
+    <row r="101" spans="1:8" ht="38.25" hidden="1">
       <c r="A101" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E101" s="7">
         <v>1922</v>
@@ -9664,21 +9664,21 @@
         <v>65</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="51">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="51" hidden="1">
       <c r="A102" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E102" s="7">
         <v>1958</v>
@@ -9687,94 +9687,94 @@
         <v>64</v>
       </c>
       <c r="G102" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" ht="63.75" hidden="1">
+      <c r="A103" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8" ht="63.75">
-      <c r="A103" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="C103" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E103" s="7">
         <v>1958</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="102">
+    <row r="104" spans="1:8" ht="102" hidden="1">
       <c r="A104" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E104" s="7">
         <v>1958</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="63.75">
+    <row r="105" spans="1:8" ht="63.75" hidden="1">
       <c r="A105" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E105" s="7">
         <v>1958</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" ht="51">
+    <row r="106" spans="1:8" ht="51" hidden="1">
       <c r="A106" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E106" s="7">
         <v>2005</v>
@@ -9783,24 +9783,24 @@
         <v>64</v>
       </c>
       <c r="G106" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="25.5" hidden="1">
+      <c r="A107" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H106" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="25.5">
-      <c r="A107" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="B107" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E107" s="7">
         <v>2005</v>
@@ -9809,24 +9809,24 @@
         <v>64</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E108" s="7">
         <v>2008</v>
@@ -9839,74 +9839,74 @@
       </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" ht="25.5">
+    <row r="109" spans="1:8" ht="25.5" hidden="1">
       <c r="A109" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E109" s="7">
         <v>2008</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="51">
+    <row r="110" spans="1:8" ht="51" hidden="1">
       <c r="A110" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E110" s="7">
         <v>2008</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="38.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="38.25" hidden="1">
       <c r="A111" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E111" s="7">
         <v>2008</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>77</v>
@@ -9915,24 +9915,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E112" s="7">
         <v>2008</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>77</v>
@@ -9941,184 +9941,184 @@
     </row>
     <row r="113" spans="1:8" ht="38.25">
       <c r="A113" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E113" s="7">
         <v>2008</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="38.25">
+    <row r="114" spans="1:8" ht="38.25" hidden="1">
       <c r="A114" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E114" s="7">
         <v>2008</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="25.5">
+    <row r="115" spans="1:8" ht="25.5" hidden="1">
       <c r="A115" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E115" s="7">
         <v>2008</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" ht="38.25">
       <c r="A116" s="7" t="s">
-        <v>84</v>
+        <v>688</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E116" s="7">
         <v>2008</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="25.5">
+    <row r="117" spans="1:8" ht="25.5" hidden="1">
       <c r="A117" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E117" s="7">
         <v>2008</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="38.25">
+    <row r="118" spans="1:8" ht="38.25" hidden="1">
       <c r="A118" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E118" s="7">
         <v>2008</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>67</v>
       </c>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="51">
+    <row r="119" spans="1:8" ht="51" hidden="1">
       <c r="A119" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E119" s="7">
         <v>2008</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="38.25">
+    <row r="120" spans="1:8" ht="38.25" hidden="1">
       <c r="A120" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E120" s="7">
         <v>2008</v>
@@ -10127,46 +10127,46 @@
         <v>64</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" ht="25.5">
       <c r="A121" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E121" s="7">
         <v>2008</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="63.75">
+    <row r="122" spans="1:8" ht="63.75" hidden="1">
       <c r="A122" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E122" s="7">
         <v>2013</v>
@@ -10179,72 +10179,72 @@
       </c>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="38.25">
+    <row r="123" spans="1:8" ht="38.25" hidden="1">
       <c r="A123" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E123" s="7">
         <v>2013</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="38.25">
+    <row r="124" spans="1:8" ht="38.25" hidden="1">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E124" s="7">
         <v>2013</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" ht="38.25">
       <c r="A125" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E125" s="7">
         <v>2013</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>77</v>
@@ -10253,46 +10253,46 @@
     </row>
     <row r="126" spans="1:8" ht="25.5">
       <c r="A126" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E126" s="7">
         <v>2013</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="38.25">
+    <row r="127" spans="1:8" ht="38.25" hidden="1">
       <c r="A127" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E127" s="7">
         <v>2013</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>77</v>
@@ -10302,7 +10302,11 @@
   </sheetData>
   <autoFilter ref="A1:H127">
     <filterColumn colId="1"/>
-    <filterColumn colId="5"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Gesundheitsfördernd"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A26:H47">
       <sortCondition ref="F2:F126"/>
     </sortState>

--- a/Argumente Impfen.xlsx
+++ b/Argumente Impfen.xlsx
@@ -2166,9 +2166,6 @@
     <t>Die Thatsache liegt vor uns, dass die Blattern- und Viehseuche seit dem Frühjahr 1801 seltener und harmloser geworden sind. Ist dies Folge der Verbreitung der Kuhopocken, oder liegt die Ursache davon in natürlichen Verhältnissen? Wir behaupten, dass eine Krankheit, welche so weit die Sonne scheint herrschend war, nur durch die göttliche soweit die Sonne scheint wirkende Gewalt aufgelöst werden konnte; dass die Vaccination zufällig gleichzeitig mit einem Naturereigniss eingeführt wurde, und dass sich nicht im Geringsten zur Unterdrückung der Blattern beigetragen hat. Der Impfschutz ist für den Menschen die Unmöglichkeit.</t>
   </si>
   <si>
-    <t>Durch Medien von Nahrungsmittel, in denen Einfachzucker enthalten ist, könne man sich enstprechend vor Poliomyelitis schützen</t>
-  </si>
-  <si>
     <t>Der wichtigste Prüfstein des Nutzens der Impfung ist eine gut ausgearbeitete Statistik der Pocken-Todesfälle.  [...] Das einmalige Überstehen der Pockenkrankheit verleiht mit seltenen Ausnahmen Schutz gegen ein nochmaliges Befallenwerden von derselben. Die Impfung mit Vaccine ist imstande, einen ähnlichen Schutz zu bewirken.</t>
   </si>
   <si>
@@ -2218,6 +2215,9 @@
   </si>
   <si>
     <t>Der Mensch wird also durch die Kuhpockenimpfung zuerst augenscheinlich krank gemacht, muß dann auf eine mehr oder weniger sichtbare Weise krank bleiben, um gegen die natürlichen Blattern einigermaßen geschützt zu seyn, und dies sind ihre unabänderlichen Folgen; aber es gibt auch noch andere größere, welche nicht in der Berechnung des Impfarztes liegen, und theils [...] als sebstständige Nachkrankheiten auftreten</t>
+  </si>
+  <si>
+    <t>Durch Medien von Nahrungsmittel, in denen Einfachzucker enthalten ist, könne man sich entsprechend vor Poliomyelitis schützen</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2642,7 +2642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2891,7 +2891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51">
+    <row r="10" spans="1:9" ht="51" hidden="1">
       <c r="A10" s="7" t="s">
         <v>141</v>
       </c>
@@ -2920,9 +2920,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="102">
+    <row r="11" spans="1:9" ht="102" hidden="1">
       <c r="A11" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>456</v>
@@ -2946,7 +2946,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="76.5">
+    <row r="12" spans="1:9" ht="76.5" hidden="1">
       <c r="A12" s="7" t="s">
         <v>459</v>
       </c>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="13" spans="1:9" ht="204" hidden="1">
       <c r="A13" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>458</v>
@@ -2998,7 +2998,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="191.25">
+    <row r="14" spans="1:9" ht="191.25" hidden="1">
       <c r="A14" s="7" t="s">
         <v>473</v>
       </c>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="102">
+    <row r="15" spans="1:9" ht="102" hidden="1">
       <c r="A15" s="7" t="s">
         <v>533</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="89.25" hidden="1">
+    <row r="16" spans="1:9" ht="89.25">
       <c r="A16" s="7" t="s">
         <v>474</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="102">
+    <row r="17" spans="1:8" ht="102" hidden="1">
       <c r="A17" s="7" t="s">
         <v>248</v>
       </c>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="114.75">
+    <row r="18" spans="1:8" ht="114.75" hidden="1">
       <c r="A18" s="7" t="s">
         <v>536</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="140.25">
+    <row r="19" spans="1:8" ht="140.25" hidden="1">
       <c r="A19" s="7" t="s">
         <v>538</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="127.5" hidden="1">
+    <row r="22" spans="1:8" ht="127.5">
       <c r="A22" s="7" t="s">
         <v>253</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="76.5">
+    <row r="23" spans="1:8" ht="76.5" hidden="1">
       <c r="A23" s="7" t="s">
         <v>546</v>
       </c>
@@ -3247,9 +3247,9 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="89.25">
+    <row r="24" spans="1:8" ht="89.25" hidden="1">
       <c r="A24" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>466</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="127.5">
+    <row r="27" spans="1:8" ht="127.5" hidden="1">
       <c r="A27" s="7" t="s">
         <v>539</v>
       </c>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="102">
+    <row r="29" spans="1:8" ht="102" hidden="1">
       <c r="A29" s="7" t="s">
         <v>542</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="127.5">
+    <row r="30" spans="1:8" ht="127.5" hidden="1">
       <c r="A30" s="7" t="s">
         <v>543</v>
       </c>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="89.25">
+    <row r="31" spans="1:8" ht="89.25" hidden="1">
       <c r="A31" s="7" t="s">
         <v>288</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="114.75">
+    <row r="33" spans="1:9" ht="114.75" hidden="1">
       <c r="A33" s="7" t="s">
         <v>593</v>
       </c>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="51">
+    <row r="36" spans="1:9" ht="51" hidden="1">
       <c r="A36" s="7" t="s">
         <v>314</v>
       </c>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="51">
+    <row r="37" spans="1:9" ht="51" hidden="1">
       <c r="A37" s="7" t="s">
         <v>315</v>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:9" ht="76.5">
+    <row r="38" spans="1:9" ht="76.5" hidden="1">
       <c r="A38" s="7" t="s">
         <v>548</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="127.5" hidden="1">
+    <row r="39" spans="1:9" ht="127.5">
       <c r="A39" s="7" t="s">
         <v>671</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="140.25">
+    <row r="40" spans="1:9" ht="140.25" hidden="1">
       <c r="A40" s="7" t="s">
         <v>549</v>
       </c>
@@ -3768,9 +3768,9 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:9" ht="89.25">
+    <row r="45" spans="1:9" ht="89.25" hidden="1">
       <c r="A45" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>553</v>
@@ -3919,9 +3919,9 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="51">
+    <row r="51" spans="1:8" ht="51" hidden="1">
       <c r="A51" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>296</v>
@@ -3969,7 +3969,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="102" hidden="1">
+    <row r="53" spans="1:8" ht="102">
       <c r="A53" s="7" t="s">
         <v>588</v>
       </c>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="54" spans="1:8" ht="51" hidden="1">
       <c r="A54" s="7" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>74</v>
@@ -4019,7 +4019,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="102">
+    <row r="55" spans="1:8" ht="102" hidden="1">
       <c r="A55" s="7" t="s">
         <v>229</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="102">
+    <row r="57" spans="1:8" ht="102" hidden="1">
       <c r="A57" s="7" t="s">
         <v>667</v>
       </c>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="51">
+    <row r="58" spans="1:8" ht="51" hidden="1">
       <c r="A58" s="7" t="s">
         <v>560</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="102">
+    <row r="60" spans="1:8" ht="102" hidden="1">
       <c r="A60" s="7" t="s">
         <v>561</v>
       </c>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="76.5">
+    <row r="61" spans="1:8" ht="76.5" hidden="1">
       <c r="A61" s="7" t="s">
         <v>562</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="63.75">
+    <row r="68" spans="1:8" ht="63.75" hidden="1">
       <c r="A68" s="7" t="s">
         <v>566</v>
       </c>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="51">
+    <row r="75" spans="1:8" ht="51" hidden="1">
       <c r="A75" s="7" t="s">
         <v>128</v>
       </c>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="127.5">
+    <row r="78" spans="1:8" ht="127.5" hidden="1">
       <c r="A78" s="7" t="s">
         <v>515</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="89.25">
+    <row r="81" spans="1:8" ht="89.25" hidden="1">
       <c r="A81" s="7" t="s">
         <v>516</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="38.25">
+    <row r="82" spans="1:8" ht="38.25" hidden="1">
       <c r="A82" s="7" t="s">
         <v>127</v>
       </c>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="51">
+    <row r="83" spans="1:8" ht="51" hidden="1">
       <c r="A83" s="7" t="s">
         <v>112</v>
       </c>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" ht="114.75">
+    <row r="91" spans="1:8" ht="114.75" hidden="1">
       <c r="A91" s="7" t="s">
         <v>592</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="89.25">
+    <row r="92" spans="1:8" ht="89.25" hidden="1">
       <c r="A92" s="7" t="s">
         <v>212</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="76.5">
+    <row r="93" spans="1:8" ht="76.5" hidden="1">
       <c r="A93" s="7" t="s">
         <v>214</v>
       </c>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" ht="102">
+    <row r="97" spans="1:8" ht="102" hidden="1">
       <c r="A97" s="7" t="s">
         <v>222</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" ht="102">
+    <row r="99" spans="1:8" ht="102" hidden="1">
       <c r="A99" s="8" t="s">
         <v>569</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="127.5">
+    <row r="100" spans="1:8" ht="127.5" hidden="1">
       <c r="A100" s="7" t="s">
         <v>570</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="25.5">
+    <row r="101" spans="1:8" ht="25.5" hidden="1">
       <c r="A101" s="7" t="s">
         <v>189</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="63.75">
+    <row r="104" spans="1:8" ht="63.75" hidden="1">
       <c r="A104" s="7" t="s">
         <v>196</v>
       </c>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="102">
+    <row r="105" spans="1:8" ht="102" hidden="1">
       <c r="A105" s="7" t="s">
         <v>197</v>
       </c>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="51">
+    <row r="113" spans="1:8" ht="51" hidden="1">
       <c r="A113" s="7" t="s">
         <v>573</v>
       </c>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="102">
+    <row r="114" spans="1:8" ht="102" hidden="1">
       <c r="A114" s="7" t="s">
         <v>160</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="51">
+    <row r="115" spans="1:8" ht="51" hidden="1">
       <c r="A115" s="7" t="s">
         <v>574</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="51">
+    <row r="117" spans="1:8" ht="51" hidden="1">
       <c r="A117" s="7" t="s">
         <v>171</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="63.75">
+    <row r="118" spans="1:8" ht="63.75" hidden="1">
       <c r="A118" s="7" t="s">
         <v>172</v>
       </c>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="76.5">
+    <row r="122" spans="1:8" ht="76.5" hidden="1">
       <c r="A122" s="7" t="s">
         <v>578</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="89.25">
+    <row r="126" spans="1:8" ht="89.25" hidden="1">
       <c r="A126" s="7" t="s">
         <v>579</v>
       </c>
@@ -5816,7 +5816,7 @@
     <filterColumn colId="2"/>
     <filterColumn colId="5">
       <filters>
-        <filter val="Gesundheitsschädlich"/>
+        <filter val="Religion-/Naturgesetz"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7176,8 +7176,8 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="6" spans="1:8" ht="102" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>369</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="10" spans="1:8" ht="63.75" hidden="1">
       <c r="A10" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>370</v>
@@ -7492,7 +7492,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51">
+    <row r="13" spans="1:8" ht="51" hidden="1">
       <c r="A13" s="7" t="s">
         <v>259</v>
       </c>
@@ -7518,9 +7518,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="76.5">
+    <row r="14" spans="1:8" ht="76.5" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>365</v>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="114.75">
+    <row r="15" spans="1:8" ht="114.75" hidden="1">
       <c r="A15" s="7" t="s">
         <v>263</v>
       </c>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="17" spans="1:8" ht="102" hidden="1">
       <c r="A17" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>640</v>
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="63.75">
+    <row r="40" spans="1:8" ht="63.75" hidden="1">
       <c r="A40" s="7" t="s">
         <v>649</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="76.5">
+    <row r="58" spans="1:9" ht="76.5" hidden="1">
       <c r="A58" s="7" t="s">
         <v>328</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="76.5">
+    <row r="59" spans="1:9" ht="76.5" hidden="1">
       <c r="A59" s="7" t="s">
         <v>603</v>
       </c>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="25.5">
+    <row r="60" spans="1:9" ht="25.5" hidden="1">
       <c r="A60" s="7" t="s">
         <v>333</v>
       </c>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:9" ht="38.25">
+    <row r="61" spans="1:9" ht="38.25" hidden="1">
       <c r="A61" s="7" t="s">
         <v>345</v>
       </c>
@@ -8681,9 +8681,9 @@
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="76.5">
+    <row r="62" spans="1:9" ht="76.5" hidden="1">
       <c r="A62" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>347</v>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:9" ht="153">
+    <row r="63" spans="1:9" ht="153" hidden="1">
       <c r="A63" s="7" t="s">
         <v>349</v>
       </c>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="63.75">
+    <row r="64" spans="1:9" ht="63.75" hidden="1">
       <c r="A64" s="7" t="s">
         <v>350</v>
       </c>
@@ -8753,9 +8753,9 @@
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="76.5">
+    <row r="65" spans="1:8" ht="76.5" hidden="1">
       <c r="A65" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>352</v>
@@ -8977,7 +8977,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="114.75">
+    <row r="74" spans="1:8" ht="114.75" hidden="1">
       <c r="A74" s="7" t="s">
         <v>389</v>
       </c>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="51">
+    <row r="75" spans="1:8" ht="51" hidden="1">
       <c r="A75" s="7" t="s">
         <v>317</v>
       </c>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="85" spans="1:8" ht="76.5" hidden="1">
       <c r="A85" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>414</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="88" spans="1:8" ht="51" hidden="1">
       <c r="A88" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>415</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="90" spans="1:8" ht="89.25" hidden="1">
       <c r="A90" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>417</v>
@@ -9391,7 +9391,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="51" hidden="1">
+    <row r="91" spans="1:8" ht="51">
       <c r="A91" s="7" t="s">
         <v>405</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="102" hidden="1">
+    <row r="92" spans="1:8" ht="102">
       <c r="A92" s="7" t="s">
         <v>412</v>
       </c>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="96" spans="1:8" ht="267.75" hidden="1">
       <c r="A96" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>426</v>
@@ -9541,7 +9541,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="89.25" hidden="1">
+    <row r="97" spans="1:8" ht="89.25">
       <c r="A97" s="7" t="s">
         <v>419</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="102" hidden="1">
+    <row r="98" spans="1:8" ht="102">
       <c r="A98" s="7" t="s">
         <v>421</v>
       </c>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="102" hidden="1">
+    <row r="104" spans="1:8" ht="102">
       <c r="A104" s="7" t="s">
         <v>303</v>
       </c>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="63.75" hidden="1">
+    <row r="105" spans="1:8" ht="63.75">
       <c r="A105" s="7" t="s">
         <v>663</v>
       </c>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="38.25">
+    <row r="113" spans="1:8" ht="38.25" hidden="1">
       <c r="A113" s="7" t="s">
         <v>105</v>
       </c>
@@ -10011,9 +10011,9 @@
       </c>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" ht="38.25">
+    <row r="116" spans="1:8" ht="38.25" hidden="1">
       <c r="A116" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>621</v>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="25.5" hidden="1">
+    <row r="117" spans="1:8" ht="25.5">
       <c r="A117" s="7" t="s">
         <v>436</v>
       </c>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="38.25" hidden="1">
+    <row r="118" spans="1:8" ht="38.25">
       <c r="A118" s="7" t="s">
         <v>227</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="51" hidden="1">
+    <row r="119" spans="1:8" ht="51">
       <c r="A119" s="7" t="s">
         <v>129</v>
       </c>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" ht="25.5">
+    <row r="121" spans="1:8" ht="25.5" hidden="1">
       <c r="A121" s="7" t="s">
         <v>597</v>
       </c>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="38.25" hidden="1">
+    <row r="123" spans="1:8" ht="38.25">
       <c r="A123" s="7" t="s">
         <v>75</v>
       </c>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="38.25" hidden="1">
+    <row r="124" spans="1:8" ht="38.25">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="38.25">
+    <row r="125" spans="1:8" ht="38.25" hidden="1">
       <c r="A125" s="7" t="s">
         <v>596</v>
       </c>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="25.5">
+    <row r="126" spans="1:8" ht="25.5" hidden="1">
       <c r="A126" s="7" t="s">
         <v>595</v>
       </c>
@@ -10304,7 +10304,7 @@
     <filterColumn colId="1"/>
     <filterColumn colId="5">
       <filters>
-        <filter val="Gesundheitsfördernd"/>
+        <filter val="Statistik"/>
       </filters>
     </filterColumn>
     <sortState ref="A26:H47">
